--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INLOGIC\Framework_Inlogic\Demo-Inlogic_MMH\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\INLOGIC_MMH_FRAMEWORK\New_Repo_Push\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>KEY</t>
   </si>
@@ -142,12 +142,24 @@
   </si>
   <si>
     <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Face to Face;Dr Sam Entwistle</t>
+  </si>
+  <si>
+    <t>Cancelled;Dr Sam Entwistle;</t>
+  </si>
+  <si>
+    <t>APPOINTMENT_DETAILS_AFTER_CANCELLED</t>
+  </si>
+  <si>
+    <t>VIDEO_ICONS</t>
+  </si>
+  <si>
+    <t>Minimize;Close;Settings;Mute;Share Now;Video Off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B19" activeCellId="1" sqref="B27 B19"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -739,6 +751,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>KEY</t>
   </si>
@@ -87,27 +87,9 @@
     <t>(NZD);4111111111111111;test;121</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Video Appointment</t>
-  </si>
-  <si>
-    <t>Video;VM03Location</t>
-  </si>
-  <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Face to Face</t>
-  </si>
-  <si>
-    <t>Visit;VM03Location;</t>
-  </si>
-  <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Visit;9:00 AM;Dr Sam Entwistle</t>
-  </si>
-  <si>
     <t>Visit;VM03Location;Dr Sam Entwistle</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Phone;9:00 AM;Dr Sam Entwistle;022;784512369</t>
-  </si>
-  <si>
     <t>Phone;VM03Location;Dr Sam Entwistle</t>
   </si>
   <si>
@@ -126,24 +108,12 @@
     <t>PHONE_APPOINTMENT_SUMMARY</t>
   </si>
   <si>
-    <t>Pending;Dr Sam Entwistle</t>
-  </si>
-  <si>
-    <t>Pending;Dr Sam Entwistle;</t>
-  </si>
-  <si>
     <t>APPOINTMENT_DETAILS_FOR_CANCEL</t>
   </si>
   <si>
     <t>Approved;Dr Sam Entwistle;</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Video Appointment;Dr Sam Entwistle</t>
-  </si>
-  <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Face to Face;Dr Sam Entwistle</t>
-  </si>
-  <si>
     <t>Cancelled;Dr Sam Entwistle;</t>
   </si>
   <si>
@@ -154,6 +124,45 @@
   </si>
   <si>
     <t>Minimize;Close;Settings;Mute;Share Now;Video Off</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Visit;9:00 AM;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>Visit;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>Pending;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Video Appointment;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>Video;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Face to Face;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Phone;9:00 AM;Dr Sam Entwistle;022;784512369;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>Phone;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>Approved;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>Cancelled;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>FUTURE_DATE</t>
+  </si>
+  <si>
+    <t>AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>Video;VM03Location;Dr Sam Entwistle</t>
   </si>
 </sst>
 </file>
@@ -506,16 +515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B19" activeCellId="1" sqref="B29 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="69.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="141.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="125.140625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
@@ -569,10 +578,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -580,197 +589,237 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\INLOGIC_MMH_FRAMEWORK\New_Repo_Push\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\Appointments_Updated\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>KEY</t>
   </si>
@@ -163,18 +163,136 @@
   </si>
   <si>
     <t>Video;VM03Location;Dr Sam Entwistle</t>
+  </si>
+  <si>
+    <t>DATA FOR PATIENT TO COLLECT TO PRESCRIPTION</t>
+  </si>
+  <si>
+    <t>VM04Practice; Dr Tim ; Patient to Collect Script ; Next Day - Fee:;Panadol (Optizorb) 500mg Caplets;Repeat Medication Testing for PATIENT TO COLLECT</t>
+  </si>
+  <si>
+    <t>VERIFICATION DATA FOR PATIENT TO COLLECT PRESCRIPTION</t>
+  </si>
+  <si>
+    <t>VM04Practice;panadol (optizorb) 500mg caplets(paracetamol);pending;Next Day - Fee: NZ$12.00 (Incl. GST);Dr Tim</t>
+  </si>
+  <si>
+    <t>MORE INFO VERIFICATION DATA FOR PATIENT TO COLLECT PRESCRIPTION</t>
+  </si>
+  <si>
+    <t>Dr Tim ( VM04Practice );VM04Practice;Patient to Collect Script;Next Day - Fee: NZ$12.00 (Incl. GST);panadol (optizorb) 500mg caplets(paracetamol);Pending</t>
+  </si>
+  <si>
+    <t>DATA FOR SENT SCRIPT BY POST</t>
+  </si>
+  <si>
+    <t>VM04Location2;Tom Denver;Send Script by Post;Urgent/Same day - Fee:;Panadol (Optizorb) 500mg Caplets;Repeat Medication Testing for SENT SCRIPT BY POST</t>
+  </si>
+  <si>
+    <t>VERIFICATION DATA FOR SENT SCRIPT BY POST</t>
+  </si>
+  <si>
+    <t>VM04Practice;panadol (optizorb) 500mg caplets(paracetamol);pending;Urgent/Same day - Fee: NZ$45.00 (Incl. GST);TOM DENVER</t>
+  </si>
+  <si>
+    <t>MORE INFO VERIFICATION DATA FOR SENT SCRIPT BY POST</t>
+  </si>
+  <si>
+    <t>DATA FOR PRESCRIPTION BY SENT SCRIPT TO PHARMACY</t>
+  </si>
+  <si>
+    <t>VM04Practice;Kevin Peterson;Send Script to Pharmacy;Select from my saved list;Chemist Warehouse Auckland;48 Hours - Fee: NZ$;Panadol (Optizorb) 500mg Caplets;Repeat Medication Testing for Sent Script by Pharmacy;Chemist Warehouse Auckland</t>
+  </si>
+  <si>
+    <t>VERIFICATION DATA FOR SENT SCRIPT TO PHARMACY</t>
+  </si>
+  <si>
+    <t>VM04Practice;panadol (optizorb) 500mg caplets(paracetamol);pending;Chemist Warehouse Auckland - Lower Queen St;48 Hours - Fee: NZ$21.00 (Incl. GST);Kevin Peterson</t>
+  </si>
+  <si>
+    <t>MORE INFO DATA FOR PRESCRIPTION BY SENT SCRIPT TO PHARMACY</t>
+  </si>
+  <si>
+    <t>DATA FOR DELIVERY MEDS BY PHARMACY</t>
+  </si>
+  <si>
+    <t>VM04Practice;Kevin Peterson;Deliver Meds by Pharmacy;Select from my saved list;ZOOM Pharmacy home delivery;2: 456, demo;48 Hours - Fee: NZ$;Panadol (Optizorb) 500mg Caplets;Repeat Medication Testing for Delivery Meds by Pharmacy;ZOOM Pharmacy home delivery</t>
+  </si>
+  <si>
+    <t>VERIFICATION DATA FOR DELIVERY MEDS BY PHARMACY</t>
+  </si>
+  <si>
+    <t>VM04Practice;panadol (optizorb) 500mg caplets(paracetamol);pending;ZOOM Pharmacy home delivery;48 Hours - Fee: NZ$25.00 (Incl. GST);Kevin Peterson</t>
+  </si>
+  <si>
+    <t>MORE INFO DATA FOR DELIVERY MEDS BY PHARMACY</t>
+  </si>
+  <si>
+    <t>DATA MEDS PAY BY USING ONLINE CARD</t>
+  </si>
+  <si>
+    <t>VERIFICATION MEDS PAY BY USING ONLINE CARD</t>
+  </si>
+  <si>
+    <t>DATA MEDS PAY BY USING ONLINE A2A</t>
+  </si>
+  <si>
+    <t>VERIFICATION DATA FOR MEDS PAY BY USING A2A</t>
+  </si>
+  <si>
+    <t>CREDIT CARD DETAILS</t>
+  </si>
+  <si>
+    <t>CreditCard;4111111111111111;test;02;24;121</t>
+  </si>
+  <si>
+    <t>ACCOUNT TO ACCOUNT</t>
+  </si>
+  <si>
+    <t>Account2Account;AnzNZ;WindcaveA2ATest;Windcave1234;Payment Success</t>
+  </si>
+  <si>
+    <t>MEDICATION DETAILS FOR URGENCY</t>
+  </si>
+  <si>
+    <t>VM04Practice; Dr Tim ; Patient to Collect Script ;</t>
+  </si>
+  <si>
+    <t>URGENCY PRICE</t>
+  </si>
+  <si>
+    <t>Urgent/Same day - Fee: NZ$11.00 (Incl. GST);Next Day - Fee: NZ$12.00 (Incl. GST);48 Hours - Fee: NZ$13.00 (Incl. GST);72 Hours - Fee: NZ$14.00 (Incl. GST)</t>
+  </si>
+  <si>
+    <t>chrisc@mmh-demo.com</t>
+  </si>
+  <si>
+    <t>EMAIL FOR RRP</t>
+  </si>
+  <si>
+    <t>PASSWORD FOR RRP</t>
+  </si>
+  <si>
+    <t>https://beta.mmh-demo.com/home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,16 +314,23 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -217,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,19 +350,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -515,311 +669,607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B19" activeCellId="1" sqref="B29 B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="157.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="125.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="69.54296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="157.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="125.1796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14" thickBot="1">
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" ht="14" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14" thickBot="1">
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14" thickBot="1">
+      <c r="A42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14" thickBot="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="14" thickBot="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14" thickBot="1">
+      <c r="A48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="14" thickBot="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="14" thickBot="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1">
+      <c r="A53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" ht="14" thickBot="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" ht="14" thickBot="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="41" thickBot="1">
+      <c r="A56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14" thickBot="1">
+      <c r="A58" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="14" thickBot="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" ht="14" thickBot="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" ht="41" thickBot="1">
+      <c r="A61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14" thickBot="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" ht="14" thickBot="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" ht="41" thickBot="1">
+      <c r="A65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A66" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14" thickBot="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="14" thickBot="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" ht="14" thickBot="1">
+      <c r="A69" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14" thickBot="1">
+      <c r="A70" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14" thickBot="1">
+      <c r="A71" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="27.5" thickBot="1">
+      <c r="A72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +1280,12 @@
     <hyperlink ref="B2" r:id="rId4"/>
     <hyperlink ref="B3" r:id="rId5"/>
     <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="B38" r:id="rId7" display="mailto:chrisc@mmh-demo.com"/>
+    <hyperlink ref="B39" r:id="rId8" display="mailto:Manage@123"/>
+    <hyperlink ref="C38" r:id="rId9" display="mailto:chrisc@mmh-demo.com"/>
+    <hyperlink ref="C39" r:id="rId10" display="mailto:Manage@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\Naveen\Appointments_Updated\config\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
-  </bookViews>
   <sheets>
-    <sheet name="MMH" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="MMH" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="246">
   <si>
     <t>KEY</t>
   </si>
@@ -507,106 +499,142 @@
     <t>DATA_MY_ENTRIES_CLINIC_NOTES_1</t>
   </si>
   <si>
+    <t>25 Jun 2022;TestVisited;TestLocation</t>
+  </si>
+  <si>
     <t>18 May 2022;doctor;chennai</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_INSIDE_CLINIC_NOTES_1</t>
   </si>
   <si>
+    <t>TestVisited;25 Jun 2022;TestLocation;Show this entry to my doctor;TestAdditional</t>
+  </si>
+  <si>
     <t>doctor;18 May 2022;chennai;Do not show this entry to my doctor;note testing</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_PRESCRIPTIONS</t>
   </si>
   <si>
+    <t>25 Jun 2022;test;test</t>
+  </si>
+  <si>
     <t>26 May 2022;prescriptions test;tester</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_INSIDE_PRESCRIPTIONS</t>
   </si>
   <si>
+    <t>test;testdose;25 Jun 2022;2;2 times per day;25 Jun 2022;25 Jun 2022;I took this in the past;Show this entry to my doctor;test</t>
+  </si>
+  <si>
     <t>prescriptions test;26 May 2022;2;2 times per day;26 May 2022;27 May 2022;I took this in the past;Show this entry to my doctor;tester</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_ALLERGIES</t>
   </si>
   <si>
+    <t>23 Jun 2022;TestAllergy;High</t>
+  </si>
+  <si>
     <t>14 Jun 2022;Test01-KXVMJUHV;High</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_INSIDE_ALLERGIES</t>
   </si>
   <si>
+    <t>TestAllergy;23 Jun 2022;Had this allergy in the past;Show this entry to my doctor;TestAdditional</t>
+  </si>
+  <si>
     <t>Test01-KXVMJUHV;14 Jun 2022;Had this allergy in the past;Show this entry to my doctor;Test02-Additional Information</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_IMMUNISATIONS</t>
   </si>
   <si>
+    <t>25 Jun 2022;TestImmunisation</t>
+  </si>
+  <si>
     <t>27 May 2022;Cls Android</t>
   </si>
   <si>
-    <t>DATA_MY_ENTRIES_IMMUNISATIONS_1</t>
-  </si>
-  <si>
     <t>26 May 2022;Testt</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_INSIDE_IMMUNISATIONS</t>
   </si>
   <si>
+    <t>TestImmunisation;25 Jun 2022;Show this entry to my doctor;TestAdditional</t>
+  </si>
+  <si>
     <t>Cls Android;27 May 2022;Show this entry to my doctor;Cls Android</t>
   </si>
   <si>
-    <t>DATA_MY_ENTRIES_INSIDE_IMMUNISATIONS_1</t>
-  </si>
-  <si>
     <t>Testt;26 May 2022;Show this entry to my doctor;Yes</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_CLASSIFICATIONS</t>
   </si>
   <si>
+    <t>23 Jun 2022;TestCondition</t>
+  </si>
+  <si>
     <t>19 May 2022;ttee</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_INSIDE_CLASSIFICATIONS</t>
   </si>
   <si>
+    <t>TestCondition;23/06/2022;25 Jun 2022;25 Jun 2022;Historic;Show this entry to my doctor;TestAdditional</t>
+  </si>
+  <si>
     <t xml:space="preserve">ttee;19/05/2022;20 May 2022;21 May 2022;Current;Show this entry to my doctor </t>
   </si>
   <si>
-    <t>RECALLS_REMAINDER_TABLEDATA</t>
+    <t>RECALLS_REMAINDER_TABLE_DATA</t>
+  </si>
+  <si>
+    <t>09 Nov 2021;Cervical Smear;CX;17 Dec 2021</t>
   </si>
   <si>
     <t>14 Jun 2022;Body Mass Index;BMI;07 Jun 2022</t>
   </si>
   <si>
-    <t>RECALLS_REMAINDER_ICONDATA</t>
+    <t>RECALLS_REMAINDER_ICON_DATA</t>
+  </si>
+  <si>
+    <t>17 Dec 2021;Daisy Daisy;VM03Location;Dr Tim</t>
   </si>
   <si>
     <t>Test doc :31/12/2021</t>
   </si>
   <si>
-    <t>RECALLS_TABLEDATA_1</t>
+    <t>RECALLS_TABLE_DATA_1</t>
+  </si>
+  <si>
+    <t>09 Nov 2021;Cervical Smear;MMH Email;VM03Location</t>
   </si>
   <si>
     <t>14 Jun 2022;Body Mass Index;MMH Email;VM03Location</t>
   </si>
   <si>
-    <t>RECALLS_ICONDATA_1</t>
+    <t>RECALLS_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>09/11/2021 06:53:01 PM;Cervical Smear;Auto Recall;17/12/2021 12:00:00 AM;MMH Email;Dr Tim;VM03Location</t>
   </si>
   <si>
     <t>14/06/2022 08:37:45 PM;Body Mass Index;note1;07/06/2022 12:00:00 AM;MMH Email;Dr Sam Entwistle;VM03Location</t>
   </si>
   <si>
-    <t>TESTRESULT_ICONDATA</t>
+    <t>TEST_RESULT_ICON_DATA</t>
   </si>
   <si>
     <t>Test, Patient;26-Jun-1995;A Mouse;01-Jun-2018</t>
   </si>
   <si>
-    <t>TESTRESULT_ICONDATA_1</t>
+    <t>TEST_RESULT_ICON_DATA_1</t>
   </si>
   <si>
     <t>TEST, Patient;26-Jun-1995;Donald Duck;24-Feb-2011</t>
@@ -684,12 +712,18 @@
     <t>DATA_MY_ENTRIES_COVID_IMMUNISATIONS</t>
   </si>
   <si>
+    <t>23 Jun 2022;Comirnaty, COVID-19 mRNA (Pfizer-BioNTech)</t>
+  </si>
+  <si>
     <t>19 May 2022;Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_INSIDE_COVID_IMMUNISATIONS</t>
   </si>
   <si>
+    <t>Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);COVID19 Comirnaty - 2;Test123;23 Jun 2022;Show this entry to my doctor;TestClinical</t>
+  </si>
+  <si>
     <t>Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);COVID19 Comirnaty - 1;123456ghffb;19 May 2022;Show this entry to my doctor;TestEdit</t>
   </si>
   <si>
@@ -709,72 +743,86 @@
   </si>
   <si>
     <t>MMHtest.jpg</t>
+  </si>
+  <si>
+    <t>EMAIL_MMH</t>
+  </si>
+  <si>
+    <t>daisy@mmh-demo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="13">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -782,7 +830,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -791,14 +839,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="4">
+    <border/>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -812,7 +854,20 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -827,64 +882,85 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="23">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1074,28 +1150,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" customWidth="1"/>
-    <col min="2" max="2" width="157.140625" customWidth="1"/>
-    <col min="3" max="3" width="125.140625" customWidth="1"/>
-    <col min="4" max="23" width="8.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="69.57"/>
+    <col customWidth="1" min="2" max="2" width="157.14"/>
+    <col customWidth="1" min="3" max="3" width="125.14"/>
+    <col customWidth="1" min="4" max="23" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1200,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1231,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
+    <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1262,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+    <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1293,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+    <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1324,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
+    <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1355,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1">
+    <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1386,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="13.5" customHeight="1">
+    <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1341,7 +1415,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="13.5" customHeight="1">
+    <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1366,7 +1440,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
+    <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1471,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +1502,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1459,7 +1533,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+    <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,7 +1562,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
+    <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1513,7 +1587,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,7 +1618,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
+    <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,7 +1649,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="13.5" customHeight="1">
+    <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1606,7 +1680,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="13.5" customHeight="1">
+    <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1709,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="13.5" customHeight="1">
+    <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1660,7 +1734,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="13.5" customHeight="1">
+    <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1691,7 +1765,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="13.5" customHeight="1">
+    <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1722,7 +1796,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="13.5" customHeight="1">
+    <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1753,7 +1827,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="13.5" customHeight="1">
+    <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1782,7 +1856,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="13.5" customHeight="1">
+    <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1807,7 +1881,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="13.5" customHeight="1">
+    <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1838,7 +1912,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="13.5" customHeight="1">
+    <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1869,7 +1943,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="13.5" customHeight="1">
+    <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1900,7 +1974,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="13.5" customHeight="1">
+    <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1931,7 +2005,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="13.5" customHeight="1">
+    <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1960,7 +2034,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1">
+    <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1985,7 +2059,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1">
+    <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2016,7 +2090,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="13.5" customHeight="1">
+    <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2047,7 +2121,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="13.5" customHeight="1">
+    <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2072,7 +2146,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="13.5" customHeight="1">
+    <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -2103,7 +2177,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="13.5" customHeight="1">
+    <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2128,7 +2202,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="13.5" customHeight="1">
+    <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2153,7 +2227,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="13.5" customHeight="1">
+    <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2178,7 +2252,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="13.5" customHeight="1">
+    <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -2209,7 +2283,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="13.5" customHeight="1">
+    <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>51</v>
       </c>
@@ -2240,7 +2314,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5" customHeight="1">
+    <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2265,7 +2339,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="13.5" customHeight="1">
+    <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>52</v>
       </c>
@@ -2296,7 +2370,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="13.5" customHeight="1">
+    <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>54</v>
       </c>
@@ -2327,7 +2401,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="13.5" customHeight="1">
+    <row r="43" ht="13.5" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>56</v>
       </c>
@@ -2358,7 +2432,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="13.5" customHeight="1">
+    <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2383,7 +2457,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="13.5" customHeight="1">
+    <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2408,7 +2482,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="13.5" customHeight="1">
+    <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>58</v>
       </c>
@@ -2439,7 +2513,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="13.5" customHeight="1">
+    <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>60</v>
       </c>
@@ -2470,7 +2544,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="13.5" customHeight="1">
+    <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>62</v>
       </c>
@@ -2497,7 +2571,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="13.5" customHeight="1">
+    <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2522,7 +2596,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="13.5" customHeight="1">
+    <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2547,7 +2621,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="13.5" customHeight="1">
+    <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>63</v>
       </c>
@@ -2578,7 +2652,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="13.5" customHeight="1">
+    <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>65</v>
       </c>
@@ -2609,7 +2683,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="13.5" customHeight="1">
+    <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>67</v>
       </c>
@@ -2636,7 +2710,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1">
+    <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2661,7 +2735,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="13.5" customHeight="1">
+    <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2686,7 +2760,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="13.5" customHeight="1">
+    <row r="56" ht="13.5" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>68</v>
       </c>
@@ -2717,7 +2791,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="13.5" customHeight="1">
+    <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>70</v>
       </c>
@@ -2748,7 +2822,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="13.5" customHeight="1">
+    <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>72</v>
       </c>
@@ -2775,7 +2849,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="13.5" customHeight="1">
+    <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2800,7 +2874,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="13.5" customHeight="1">
+    <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2825,7 +2899,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="13.5" customHeight="1">
+    <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>73</v>
       </c>
@@ -2856,7 +2930,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="13.5" customHeight="1">
+    <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>74</v>
       </c>
@@ -2887,7 +2961,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="13.5" customHeight="1">
+    <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2912,7 +2986,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="13.5" customHeight="1">
+    <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2937,7 +3011,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="13.5" customHeight="1">
+    <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>75</v>
       </c>
@@ -2968,7 +3042,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="13.5" customHeight="1">
+    <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>76</v>
       </c>
@@ -2999,7 +3073,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="13.5" customHeight="1">
+    <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3024,7 +3098,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="13.5" customHeight="1">
+    <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3049,7 +3123,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="13.5" customHeight="1">
+    <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>77</v>
       </c>
@@ -3080,7 +3154,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="13.5" customHeight="1">
+    <row r="70" ht="13.5" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>79</v>
       </c>
@@ -3111,7 +3185,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="13.5" customHeight="1">
+    <row r="71" ht="13.5" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>81</v>
       </c>
@@ -3142,7 +3216,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="13.5" customHeight="1">
+    <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -3173,7 +3247,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="13.5" customHeight="1">
+    <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3198,7 +3272,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="13.5" customHeight="1">
+    <row r="74" ht="13.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3223,11 +3297,11 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A75" s="5" t="s">
+    <row r="75" ht="13.5" customHeight="1">
+      <c r="A75" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -3254,11 +3328,11 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A76" s="5" t="s">
+    <row r="76" ht="13.5" customHeight="1">
+      <c r="A76" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -3285,9 +3359,9 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+    <row r="77" ht="13.5" customHeight="1">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3310,14 +3384,14 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A78" s="10" t="s">
+    <row r="78" ht="13.5" customHeight="1">
+      <c r="A78" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="17" t="s">
         <v>88</v>
       </c>
       <c r="D78" s="1"/>
@@ -3341,14 +3415,14 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A79" s="12" t="s">
+    <row r="79" ht="13.5" customHeight="1">
+      <c r="A79" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D79" s="1"/>
@@ -3372,14 +3446,14 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A80" s="12" t="s">
+    <row r="80" ht="13.5" customHeight="1">
+      <c r="A80" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D80" s="1"/>
@@ -3403,14 +3477,14 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A81" s="12" t="s">
+    <row r="81" ht="13.5" customHeight="1">
+      <c r="A81" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="1"/>
@@ -3434,14 +3508,14 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A82" s="12" t="s">
+    <row r="82" ht="13.5" customHeight="1">
+      <c r="A82" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D82" s="1"/>
@@ -3465,14 +3539,14 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A83" s="12" t="s">
+    <row r="83" ht="13.5" customHeight="1">
+      <c r="A83" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D83" s="1"/>
@@ -3496,14 +3570,14 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A84" s="12" t="s">
+    <row r="84" ht="13.5" customHeight="1">
+      <c r="A84" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="18" t="s">
         <v>100</v>
       </c>
       <c r="D84" s="1"/>
@@ -3527,14 +3601,14 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A85" s="12" t="s">
+    <row r="85" ht="13.5" customHeight="1">
+      <c r="A85" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="18" t="s">
         <v>102</v>
       </c>
       <c r="D85" s="1"/>
@@ -3558,14 +3632,14 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A86" s="12" t="s">
+    <row r="86" ht="13.5" customHeight="1">
+      <c r="A86" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D86" s="1"/>
@@ -3589,14 +3663,14 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A87" s="12" t="s">
+    <row r="87" ht="13.5" customHeight="1">
+      <c r="A87" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D87" s="1"/>
@@ -3620,14 +3694,14 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A88" s="12" t="s">
+    <row r="88" ht="13.5" customHeight="1">
+      <c r="A88" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D88" s="1"/>
@@ -3651,14 +3725,14 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A89" s="12" t="s">
+    <row r="89" ht="13.5" customHeight="1">
+      <c r="A89" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D89" s="1"/>
@@ -3682,14 +3756,14 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A90" s="12" t="s">
+    <row r="90" ht="13.5" customHeight="1">
+      <c r="A90" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="17" t="s">
         <v>112</v>
       </c>
       <c r="D90" s="1"/>
@@ -3713,14 +3787,14 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A91" s="12" t="s">
+    <row r="91" ht="13.5" customHeight="1">
+      <c r="A91" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D91" s="1"/>
@@ -3744,14 +3818,14 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A92" s="12" t="s">
+    <row r="92" ht="13.5" customHeight="1">
+      <c r="A92" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="17" t="s">
         <v>116</v>
       </c>
       <c r="D92" s="1"/>
@@ -3775,14 +3849,14 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A93" s="12" t="s">
+    <row r="93" ht="13.5" customHeight="1">
+      <c r="A93" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D93" s="1"/>
@@ -3806,14 +3880,14 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A94" s="12" t="s">
+    <row r="94" ht="13.5" customHeight="1">
+      <c r="A94" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="18" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="1"/>
@@ -3837,14 +3911,14 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A95" s="12" t="s">
+    <row r="95" ht="13.5" customHeight="1">
+      <c r="A95" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D95" s="1"/>
@@ -3868,14 +3942,14 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A96" s="12" t="s">
+    <row r="96" ht="13.5" customHeight="1">
+      <c r="A96" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="18" t="s">
         <v>124</v>
       </c>
       <c r="D96" s="1"/>
@@ -3899,14 +3973,14 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A97" s="12" t="s">
+    <row r="97" ht="13.5" customHeight="1">
+      <c r="A97" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D97" s="1"/>
@@ -3930,14 +4004,14 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A98" s="12" t="s">
+    <row r="98" ht="13.5" customHeight="1">
+      <c r="A98" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="18" t="s">
         <v>128</v>
       </c>
       <c r="D98" s="1"/>
@@ -3961,14 +4035,14 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A99" s="12" t="s">
+    <row r="99" ht="13.5" customHeight="1">
+      <c r="A99" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D99" s="1"/>
@@ -3992,14 +4066,14 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A100" s="12" t="s">
+    <row r="100" ht="13.5" customHeight="1">
+      <c r="A100" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D100" s="1"/>
@@ -4023,14 +4097,14 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A101" s="12" t="s">
+    <row r="101" ht="13.5" customHeight="1">
+      <c r="A101" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D101" s="1"/>
@@ -4054,14 +4128,14 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A102" s="15" t="s">
+    <row r="102" ht="13.5" customHeight="1">
+      <c r="A102" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="17" t="s">
         <v>136</v>
       </c>
       <c r="D102" s="1"/>
@@ -4085,14 +4159,14 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A103" s="12" t="s">
+    <row r="103" ht="13.5" customHeight="1">
+      <c r="A103" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="17" t="s">
         <v>138</v>
       </c>
       <c r="D103" s="1"/>
@@ -4116,14 +4190,14 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A104" s="15" t="s">
+    <row r="104" ht="13.5" customHeight="1">
+      <c r="A104" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D104" s="1"/>
@@ -4147,14 +4221,14 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A105" s="12" t="s">
+    <row r="105" ht="13.5" customHeight="1">
+      <c r="A105" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="18" t="s">
         <v>142</v>
       </c>
       <c r="D105" s="1"/>
@@ -4178,14 +4252,14 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A106" s="12" t="s">
+    <row r="106" ht="13.5" customHeight="1">
+      <c r="A106" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="20" t="s">
         <v>144</v>
       </c>
       <c r="D106" s="1"/>
@@ -4209,14 +4283,14 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A107" s="12" t="s">
+    <row r="107" ht="13.5" customHeight="1">
+      <c r="A107" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D107" s="1"/>
@@ -4240,14 +4314,14 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A108" s="12" t="s">
+    <row r="108" ht="13.5" customHeight="1">
+      <c r="A108" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="17" t="s">
         <v>148</v>
       </c>
       <c r="D108" s="1"/>
@@ -4271,14 +4345,14 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A109" s="12" t="s">
+    <row r="109" ht="13.5" customHeight="1">
+      <c r="A109" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="18" t="s">
         <v>150</v>
       </c>
       <c r="D109" s="1"/>
@@ -4302,14 +4376,14 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A110" s="12" t="s">
+    <row r="110" ht="13.5" customHeight="1">
+      <c r="A110" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D110" s="1"/>
@@ -4333,14 +4407,14 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A111" s="12" t="s">
+    <row r="111" ht="13.5" customHeight="1">
+      <c r="A111" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="20" t="s">
         <v>154</v>
       </c>
       <c r="D111" s="1"/>
@@ -4364,14 +4438,14 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A112" s="12" t="s">
+    <row r="112" ht="13.5" customHeight="1">
+      <c r="A112" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="17" t="s">
         <v>156</v>
       </c>
       <c r="D112" s="1"/>
@@ -4395,14 +4469,14 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A113" s="12" t="s">
+    <row r="113" ht="13.5" customHeight="1">
+      <c r="A113" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="18" t="s">
         <v>158</v>
       </c>
       <c r="D113" s="1"/>
@@ -4426,14 +4500,14 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A114" s="12" t="s">
+    <row r="114" ht="13.5" customHeight="1">
+      <c r="A114" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="17" t="s">
         <v>160</v>
       </c>
       <c r="D114" s="1"/>
@@ -4457,15 +4531,15 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A115" s="13" t="s">
+    <row r="115" ht="13.5" customHeight="1">
+      <c r="A115" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>162</v>
+      <c r="C115" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4488,15 +4562,15 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A116" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B116" s="11" t="s">
+    <row r="116" ht="13.5" customHeight="1">
+      <c r="A116" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>164</v>
+      <c r="B116" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4519,15 +4593,15 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A117" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>166</v>
+    <row r="117" ht="13.5" customHeight="1">
+      <c r="A117" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4550,15 +4624,15 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A118" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>168</v>
+    <row r="118" ht="13.5" customHeight="1">
+      <c r="A118" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4581,15 +4655,15 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A119" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>170</v>
+    <row r="119" ht="13.5" customHeight="1">
+      <c r="A119" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4612,15 +4686,15 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A120" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>172</v>
+    <row r="120" ht="13.5" customHeight="1">
+      <c r="A120" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4643,15 +4717,15 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A121" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>174</v>
+    <row r="121" ht="13.5" customHeight="1">
+      <c r="A121" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4674,15 +4748,11 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A122" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>176</v>
+    <row r="122" ht="13.5" customHeight="1">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4705,15 +4775,15 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A123" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>178</v>
+    <row r="123" ht="13.5" customHeight="1">
+      <c r="A123" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4736,15 +4806,11 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A124" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>180</v>
+    <row r="124" ht="13.5" customHeight="1">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4767,15 +4833,15 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A125" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>182</v>
+    <row r="125" ht="13.5" customHeight="1">
+      <c r="A125" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4798,15 +4864,15 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A126" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>184</v>
+    <row r="126" ht="13.5" customHeight="1">
+      <c r="A126" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4829,15 +4895,15 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A127" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>186</v>
+    <row r="127" ht="13.5" customHeight="1">
+      <c r="A127" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4860,15 +4926,15 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A128" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>188</v>
+    <row r="128" ht="13.5" customHeight="1">
+      <c r="A128" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4891,15 +4957,15 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A129" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>190</v>
+    <row r="129" ht="13.5" customHeight="1">
+      <c r="A129" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4922,15 +4988,15 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A130" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>192</v>
+    <row r="130" ht="13.5" customHeight="1">
+      <c r="A130" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4953,15 +5019,15 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A131" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>194</v>
+    <row r="131" ht="13.5" customHeight="1">
+      <c r="A131" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4984,15 +5050,15 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A132" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>196</v>
+    <row r="132" ht="13.5" customHeight="1">
+      <c r="A132" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5015,15 +5081,15 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A133" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>198</v>
+    <row r="133" ht="13.5" customHeight="1">
+      <c r="A133" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5046,15 +5112,15 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A134" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>200</v>
+    <row r="134" ht="13.5" customHeight="1">
+      <c r="A134" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5077,15 +5143,15 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A135" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>202</v>
+    <row r="135" ht="13.5" customHeight="1">
+      <c r="A135" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5108,15 +5174,15 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A136" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>204</v>
+    <row r="136" ht="13.5" customHeight="1">
+      <c r="A136" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5139,15 +5205,15 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A137" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>206</v>
+    <row r="137" ht="13.5" customHeight="1">
+      <c r="A137" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5170,10 +5236,10 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
+    <row r="138" ht="13.5" customHeight="1">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="18"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5195,15 +5261,15 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A139" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>208</v>
+    <row r="139" ht="13.5" customHeight="1">
+      <c r="A139" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5226,15 +5292,15 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A140" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>210</v>
+    <row r="140" ht="13.5" customHeight="1">
+      <c r="A140" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5257,15 +5323,15 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A141" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>212</v>
+    <row r="141" ht="13.5" customHeight="1">
+      <c r="A141" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5288,15 +5354,15 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A142" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>214</v>
+    <row r="142" ht="13.5" customHeight="1">
+      <c r="A142" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5319,15 +5385,15 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A143" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>216</v>
+    <row r="143" ht="13.5" customHeight="1">
+      <c r="A143" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5350,15 +5416,15 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A144" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>217</v>
+    <row r="144" ht="13.5" customHeight="1">
+      <c r="A144" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5381,15 +5447,15 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A145" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>214</v>
+    <row r="145" ht="13.5" customHeight="1">
+      <c r="A145" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5412,15 +5478,15 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A146" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>216</v>
+    <row r="146" ht="13.5" customHeight="1">
+      <c r="A146" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5443,15 +5509,15 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A147" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>219</v>
+    <row r="147" ht="13.5" customHeight="1">
+      <c r="A147" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5474,15 +5540,15 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A148" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>221</v>
+    <row r="148" ht="13.5" customHeight="1">
+      <c r="A148" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>234</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5505,15 +5571,15 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A149" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>223</v>
+    <row r="149" ht="13.5" customHeight="1">
+      <c r="A149" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5536,15 +5602,15 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A150" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>225</v>
+    <row r="150" ht="13.5" customHeight="1">
+      <c r="A150" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5567,15 +5633,15 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A151" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>227</v>
+    <row r="151" ht="13.5" customHeight="1">
+      <c r="A151" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5598,15 +5664,15 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A152" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>229</v>
+    <row r="152" ht="13.5" customHeight="1">
+      <c r="A152" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5629,9 +5695,13 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
+    <row r="153" ht="13.5" customHeight="1">
+      <c r="A153" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>245</v>
+      </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5654,7 +5724,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:23" ht="13.5" customHeight="1">
+    <row r="154" ht="13.5" customHeight="1">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5677,7 +5747,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:23" ht="13.5" customHeight="1">
+    <row r="155" ht="13.5" customHeight="1">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5700,7 +5770,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:23" ht="13.5" customHeight="1">
+    <row r="156" ht="13.5" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5725,7 +5795,7 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
     </row>
-    <row r="157" spans="1:23" ht="13.5" customHeight="1">
+    <row r="157" ht="13.5" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5750,7 +5820,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="1:23" ht="13.5" customHeight="1">
+    <row r="158" ht="13.5" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5775,7 +5845,7 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
     </row>
-    <row r="159" spans="1:23" ht="13.5" customHeight="1">
+    <row r="159" ht="13.5" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5800,7 +5870,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="1:23" ht="13.5" customHeight="1">
+    <row r="160" ht="13.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5825,7 +5895,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="1:23" ht="13.5" customHeight="1">
+    <row r="161" ht="13.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5850,7 +5920,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="13.5" customHeight="1">
+    <row r="162" ht="13.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5875,7 +5945,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="13.5" customHeight="1">
+    <row r="163" ht="13.5" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5900,7 +5970,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="13.5" customHeight="1">
+    <row r="164" ht="13.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5925,7 +5995,7 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" spans="1:23" ht="13.5" customHeight="1">
+    <row r="165" ht="13.5" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5950,7 +6020,7 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" spans="1:23" ht="13.5" customHeight="1">
+    <row r="166" ht="13.5" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5975,7 +6045,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" ht="13.5" customHeight="1">
+    <row r="167" ht="13.5" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6000,7 +6070,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" ht="13.5" customHeight="1">
+    <row r="168" ht="13.5" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6025,7 +6095,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" ht="13.5" customHeight="1">
+    <row r="169" ht="13.5" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6050,7 +6120,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" ht="13.5" customHeight="1">
+    <row r="170" ht="13.5" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6075,7 +6145,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" ht="13.5" customHeight="1">
+    <row r="171" ht="13.5" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6100,7 +6170,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" ht="13.5" customHeight="1">
+    <row r="172" ht="13.5" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6125,7 +6195,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" ht="13.5" customHeight="1">
+    <row r="173" ht="13.5" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6150,7 +6220,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" ht="13.5" customHeight="1">
+    <row r="174" ht="13.5" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6175,7 +6245,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" ht="13.5" customHeight="1">
+    <row r="175" ht="13.5" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6200,7 +6270,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" ht="13.5" customHeight="1">
+    <row r="176" ht="13.5" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6225,7 +6295,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" ht="13.5" customHeight="1">
+    <row r="177" ht="13.5" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6250,7 +6320,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" ht="13.5" customHeight="1">
+    <row r="178" ht="13.5" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6275,7 +6345,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" ht="13.5" customHeight="1">
+    <row r="179" ht="13.5" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6300,7 +6370,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" ht="13.5" customHeight="1">
+    <row r="180" ht="13.5" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6325,7 +6395,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" ht="13.5" customHeight="1">
+    <row r="181" ht="13.5" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6350,7 +6420,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" ht="13.5" customHeight="1">
+    <row r="182" ht="13.5" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6375,7 +6445,7 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" ht="13.5" customHeight="1">
+    <row r="183" ht="13.5" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6400,7 +6470,7 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" ht="13.5" customHeight="1">
+    <row r="184" ht="13.5" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6425,7 +6495,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" ht="13.5" customHeight="1">
+    <row r="185" ht="13.5" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6450,7 +6520,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" ht="13.5" customHeight="1">
+    <row r="186" ht="13.5" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6475,7 +6545,7 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" ht="13.5" customHeight="1">
+    <row r="187" ht="13.5" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6500,7 +6570,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" ht="13.5" customHeight="1">
+    <row r="188" ht="13.5" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6525,7 +6595,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" ht="13.5" customHeight="1">
+    <row r="189" ht="13.5" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6550,7 +6620,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" ht="13.5" customHeight="1">
+    <row r="190" ht="13.5" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6575,7 +6645,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" ht="13.5" customHeight="1">
+    <row r="191" ht="13.5" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6600,7 +6670,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" ht="13.5" customHeight="1">
+    <row r="192" ht="13.5" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6625,7 +6695,7 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" ht="13.5" customHeight="1">
+    <row r="193" ht="13.5" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6650,7 +6720,7 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" ht="13.5" customHeight="1">
+    <row r="194" ht="13.5" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6675,7 +6745,7 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" ht="13.5" customHeight="1">
+    <row r="195" ht="13.5" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6700,7 +6770,7 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" ht="13.5" customHeight="1">
+    <row r="196" ht="13.5" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6725,7 +6795,7 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" ht="13.5" customHeight="1">
+    <row r="197" ht="13.5" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6750,7 +6820,7 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" ht="13.5" customHeight="1">
+    <row r="198" ht="13.5" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6775,7 +6845,7 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" ht="13.5" customHeight="1">
+    <row r="199" ht="13.5" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6800,7 +6870,7 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" ht="13.5" customHeight="1">
+    <row r="200" ht="13.5" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6825,7 +6895,7 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" ht="13.5" customHeight="1">
+    <row r="201" ht="13.5" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6850,7 +6920,7 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" ht="13.5" customHeight="1">
+    <row r="202" ht="13.5" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6875,7 +6945,7 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" ht="13.5" customHeight="1">
+    <row r="203" ht="13.5" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6900,7 +6970,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" ht="13.5" customHeight="1">
+    <row r="204" ht="13.5" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6925,7 +6995,7 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" ht="13.5" customHeight="1">
+    <row r="205" ht="13.5" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6950,7 +7020,7 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" ht="13.5" customHeight="1">
+    <row r="206" ht="13.5" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6975,7 +7045,7 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" ht="13.5" customHeight="1">
+    <row r="207" ht="13.5" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7000,7 +7070,7 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" ht="13.5" customHeight="1">
+    <row r="208" ht="13.5" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7025,7 +7095,7 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" ht="13.5" customHeight="1">
+    <row r="209" ht="13.5" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7050,7 +7120,7 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" ht="13.5" customHeight="1">
+    <row r="210" ht="13.5" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7075,7 +7145,7 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" ht="13.5" customHeight="1">
+    <row r="211" ht="13.5" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7100,7 +7170,7 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" ht="13.5" customHeight="1">
+    <row r="212" ht="13.5" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7125,7 +7195,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" ht="13.5" customHeight="1">
+    <row r="213" ht="13.5" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7150,7 +7220,7 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" ht="13.5" customHeight="1">
+    <row r="214" ht="13.5" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7175,7 +7245,7 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" ht="13.5" customHeight="1">
+    <row r="215" ht="13.5" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7200,7 +7270,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" ht="13.5" customHeight="1">
+    <row r="216" ht="13.5" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7225,7 +7295,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" ht="13.5" customHeight="1">
+    <row r="217" ht="13.5" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7250,7 +7320,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" ht="13.5" customHeight="1">
+    <row r="218" ht="13.5" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7275,7 +7345,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" ht="13.5" customHeight="1">
+    <row r="219" ht="13.5" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7300,7 +7370,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" ht="13.5" customHeight="1">
+    <row r="220" ht="13.5" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7325,7 +7395,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" ht="13.5" customHeight="1">
+    <row r="221" ht="13.5" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7350,7 +7420,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" ht="13.5" customHeight="1">
+    <row r="222" ht="13.5" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7375,7 +7445,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" ht="13.5" customHeight="1">
+    <row r="223" ht="13.5" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7400,7 +7470,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" ht="13.5" customHeight="1">
+    <row r="224" ht="13.5" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7425,7 +7495,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" ht="13.5" customHeight="1">
+    <row r="225" ht="13.5" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7450,7 +7520,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" ht="13.5" customHeight="1">
+    <row r="226" ht="13.5" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7475,7 +7545,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" ht="13.5" customHeight="1">
+    <row r="227" ht="13.5" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7500,7 +7570,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" ht="13.5" customHeight="1">
+    <row r="228" ht="13.5" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7525,7 +7595,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" ht="13.5" customHeight="1">
+    <row r="229" ht="13.5" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7550,7 +7620,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" ht="13.5" customHeight="1">
+    <row r="230" ht="13.5" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7575,7 +7645,7 @@
       <c r="V230" s="1"/>
       <c r="W230" s="1"/>
     </row>
-    <row r="231" spans="1:23" ht="13.5" customHeight="1">
+    <row r="231" ht="13.5" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7600,7 +7670,7 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
     </row>
-    <row r="232" spans="1:23" ht="13.5" customHeight="1">
+    <row r="232" ht="13.5" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7625,7 +7695,7 @@
       <c r="V232" s="1"/>
       <c r="W232" s="1"/>
     </row>
-    <row r="233" spans="1:23" ht="13.5" customHeight="1">
+    <row r="233" ht="13.5" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7650,7 +7720,7 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
     </row>
-    <row r="234" spans="1:23" ht="13.5" customHeight="1">
+    <row r="234" ht="13.5" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7675,7 +7745,7 @@
       <c r="V234" s="1"/>
       <c r="W234" s="1"/>
     </row>
-    <row r="235" spans="1:23" ht="13.5" customHeight="1">
+    <row r="235" ht="13.5" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7700,7 +7770,7 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
     </row>
-    <row r="236" spans="1:23" ht="13.5" customHeight="1">
+    <row r="236" ht="13.5" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7725,7 +7795,7 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
     </row>
-    <row r="237" spans="1:23" ht="13.5" customHeight="1">
+    <row r="237" ht="13.5" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7750,7 +7820,7 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
     </row>
-    <row r="238" spans="1:23" ht="13.5" customHeight="1">
+    <row r="238" ht="13.5" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7775,7 +7845,7 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
     </row>
-    <row r="239" spans="1:23" ht="13.5" customHeight="1">
+    <row r="239" ht="13.5" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7800,7 +7870,7 @@
       <c r="V239" s="1"/>
       <c r="W239" s="1"/>
     </row>
-    <row r="240" spans="1:23" ht="13.5" customHeight="1">
+    <row r="240" ht="13.5" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7825,7 +7895,7 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
     </row>
-    <row r="241" spans="1:23" ht="13.5" customHeight="1">
+    <row r="241" ht="13.5" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7850,7 +7920,7 @@
       <c r="V241" s="1"/>
       <c r="W241" s="1"/>
     </row>
-    <row r="242" spans="1:23" ht="13.5" customHeight="1">
+    <row r="242" ht="13.5" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7875,7 +7945,7 @@
       <c r="V242" s="1"/>
       <c r="W242" s="1"/>
     </row>
-    <row r="243" spans="1:23" ht="13.5" customHeight="1">
+    <row r="243" ht="13.5" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7900,7 +7970,7 @@
       <c r="V243" s="1"/>
       <c r="W243" s="1"/>
     </row>
-    <row r="244" spans="1:23" ht="13.5" customHeight="1">
+    <row r="244" ht="13.5" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7925,7 +7995,7 @@
       <c r="V244" s="1"/>
       <c r="W244" s="1"/>
     </row>
-    <row r="245" spans="1:23" ht="13.5" customHeight="1">
+    <row r="245" ht="13.5" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7950,7 +8020,7 @@
       <c r="V245" s="1"/>
       <c r="W245" s="1"/>
     </row>
-    <row r="246" spans="1:23" ht="13.5" customHeight="1">
+    <row r="246" ht="13.5" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7975,7 +8045,7 @@
       <c r="V246" s="1"/>
       <c r="W246" s="1"/>
     </row>
-    <row r="247" spans="1:23" ht="13.5" customHeight="1">
+    <row r="247" ht="13.5" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8000,7 +8070,7 @@
       <c r="V247" s="1"/>
       <c r="W247" s="1"/>
     </row>
-    <row r="248" spans="1:23" ht="13.5" customHeight="1">
+    <row r="248" ht="13.5" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8025,7 +8095,7 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
     </row>
-    <row r="249" spans="1:23" ht="13.5" customHeight="1">
+    <row r="249" ht="13.5" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8050,7 +8120,7 @@
       <c r="V249" s="1"/>
       <c r="W249" s="1"/>
     </row>
-    <row r="250" spans="1:23" ht="13.5" customHeight="1">
+    <row r="250" ht="13.5" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8075,7 +8145,7 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
     </row>
-    <row r="251" spans="1:23" ht="13.5" customHeight="1">
+    <row r="251" ht="13.5" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8100,7 +8170,7 @@
       <c r="V251" s="1"/>
       <c r="W251" s="1"/>
     </row>
-    <row r="252" spans="1:23" ht="13.5" customHeight="1">
+    <row r="252" ht="13.5" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8125,7 +8195,7 @@
       <c r="V252" s="1"/>
       <c r="W252" s="1"/>
     </row>
-    <row r="253" spans="1:23" ht="13.5" customHeight="1">
+    <row r="253" ht="13.5" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8150,7 +8220,7 @@
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
     </row>
-    <row r="254" spans="1:23" ht="13.5" customHeight="1">
+    <row r="254" ht="13.5" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8175,7 +8245,7 @@
       <c r="V254" s="1"/>
       <c r="W254" s="1"/>
     </row>
-    <row r="255" spans="1:23" ht="13.5" customHeight="1">
+    <row r="255" ht="13.5" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8200,7 +8270,7 @@
       <c r="V255" s="1"/>
       <c r="W255" s="1"/>
     </row>
-    <row r="256" spans="1:23" ht="13.5" customHeight="1">
+    <row r="256" ht="13.5" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8225,7 +8295,7 @@
       <c r="V256" s="1"/>
       <c r="W256" s="1"/>
     </row>
-    <row r="257" spans="1:23" ht="13.5" customHeight="1">
+    <row r="257" ht="13.5" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8250,7 +8320,7 @@
       <c r="V257" s="1"/>
       <c r="W257" s="1"/>
     </row>
-    <row r="258" spans="1:23" ht="13.5" customHeight="1">
+    <row r="258" ht="13.5" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8275,7 +8345,7 @@
       <c r="V258" s="1"/>
       <c r="W258" s="1"/>
     </row>
-    <row r="259" spans="1:23" ht="13.5" customHeight="1">
+    <row r="259" ht="13.5" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8300,7 +8370,7 @@
       <c r="V259" s="1"/>
       <c r="W259" s="1"/>
     </row>
-    <row r="260" spans="1:23" ht="13.5" customHeight="1">
+    <row r="260" ht="13.5" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8325,7 +8395,7 @@
       <c r="V260" s="1"/>
       <c r="W260" s="1"/>
     </row>
-    <row r="261" spans="1:23" ht="13.5" customHeight="1">
+    <row r="261" ht="13.5" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8350,7 +8420,7 @@
       <c r="V261" s="1"/>
       <c r="W261" s="1"/>
     </row>
-    <row r="262" spans="1:23" ht="13.5" customHeight="1">
+    <row r="262" ht="13.5" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8375,7 +8445,7 @@
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
     </row>
-    <row r="263" spans="1:23" ht="13.5" customHeight="1">
+    <row r="263" ht="13.5" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8400,7 +8470,7 @@
       <c r="V263" s="1"/>
       <c r="W263" s="1"/>
     </row>
-    <row r="264" spans="1:23" ht="13.5" customHeight="1">
+    <row r="264" ht="13.5" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8425,7 +8495,7 @@
       <c r="V264" s="1"/>
       <c r="W264" s="1"/>
     </row>
-    <row r="265" spans="1:23" ht="13.5" customHeight="1">
+    <row r="265" ht="13.5" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8450,7 +8520,7 @@
       <c r="V265" s="1"/>
       <c r="W265" s="1"/>
     </row>
-    <row r="266" spans="1:23" ht="13.5" customHeight="1">
+    <row r="266" ht="13.5" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8475,7 +8545,7 @@
       <c r="V266" s="1"/>
       <c r="W266" s="1"/>
     </row>
-    <row r="267" spans="1:23" ht="13.5" customHeight="1">
+    <row r="267" ht="13.5" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8500,7 +8570,7 @@
       <c r="V267" s="1"/>
       <c r="W267" s="1"/>
     </row>
-    <row r="268" spans="1:23" ht="13.5" customHeight="1">
+    <row r="268" ht="13.5" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8525,7 +8595,7 @@
       <c r="V268" s="1"/>
       <c r="W268" s="1"/>
     </row>
-    <row r="269" spans="1:23" ht="13.5" customHeight="1">
+    <row r="269" ht="13.5" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8550,7 +8620,7 @@
       <c r="V269" s="1"/>
       <c r="W269" s="1"/>
     </row>
-    <row r="270" spans="1:23" ht="13.5" customHeight="1">
+    <row r="270" ht="13.5" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8575,7 +8645,7 @@
       <c r="V270" s="1"/>
       <c r="W270" s="1"/>
     </row>
-    <row r="271" spans="1:23" ht="13.5" customHeight="1">
+    <row r="271" ht="13.5" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8600,7 +8670,7 @@
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
     </row>
-    <row r="272" spans="1:23" ht="13.5" customHeight="1">
+    <row r="272" ht="13.5" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8625,7 +8695,7 @@
       <c r="V272" s="1"/>
       <c r="W272" s="1"/>
     </row>
-    <row r="273" spans="1:23" ht="13.5" customHeight="1">
+    <row r="273" ht="13.5" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8650,7 +8720,7 @@
       <c r="V273" s="1"/>
       <c r="W273" s="1"/>
     </row>
-    <row r="274" spans="1:23" ht="13.5" customHeight="1">
+    <row r="274" ht="13.5" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8675,7 +8745,7 @@
       <c r="V274" s="1"/>
       <c r="W274" s="1"/>
     </row>
-    <row r="275" spans="1:23" ht="13.5" customHeight="1">
+    <row r="275" ht="13.5" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8700,7 +8770,7 @@
       <c r="V275" s="1"/>
       <c r="W275" s="1"/>
     </row>
-    <row r="276" spans="1:23" ht="13.5" customHeight="1">
+    <row r="276" ht="13.5" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8725,7 +8795,7 @@
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
     </row>
-    <row r="277" spans="1:23" ht="13.5" customHeight="1">
+    <row r="277" ht="13.5" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8750,7 +8820,7 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
     </row>
-    <row r="278" spans="1:23" ht="13.5" customHeight="1">
+    <row r="278" ht="13.5" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8775,7 +8845,7 @@
       <c r="V278" s="1"/>
       <c r="W278" s="1"/>
     </row>
-    <row r="279" spans="1:23" ht="13.5" customHeight="1">
+    <row r="279" ht="13.5" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8800,7 +8870,7 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
     </row>
-    <row r="280" spans="1:23" ht="13.5" customHeight="1">
+    <row r="280" ht="13.5" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8825,7 +8895,7 @@
       <c r="V280" s="1"/>
       <c r="W280" s="1"/>
     </row>
-    <row r="281" spans="1:23" ht="13.5" customHeight="1">
+    <row r="281" ht="13.5" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8850,7 +8920,7 @@
       <c r="V281" s="1"/>
       <c r="W281" s="1"/>
     </row>
-    <row r="282" spans="1:23" ht="13.5" customHeight="1">
+    <row r="282" ht="13.5" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8875,7 +8945,7 @@
       <c r="V282" s="1"/>
       <c r="W282" s="1"/>
     </row>
-    <row r="283" spans="1:23" ht="13.5" customHeight="1">
+    <row r="283" ht="13.5" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8900,7 +8970,7 @@
       <c r="V283" s="1"/>
       <c r="W283" s="1"/>
     </row>
-    <row r="284" spans="1:23" ht="13.5" customHeight="1">
+    <row r="284" ht="13.5" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8925,7 +8995,7 @@
       <c r="V284" s="1"/>
       <c r="W284" s="1"/>
     </row>
-    <row r="285" spans="1:23" ht="13.5" customHeight="1">
+    <row r="285" ht="13.5" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8950,7 +9020,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
     </row>
-    <row r="286" spans="1:23" ht="13.5" customHeight="1">
+    <row r="286" ht="13.5" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8975,7 +9045,7 @@
       <c r="V286" s="1"/>
       <c r="W286" s="1"/>
     </row>
-    <row r="287" spans="1:23" ht="13.5" customHeight="1">
+    <row r="287" ht="13.5" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9000,7 +9070,7 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
     </row>
-    <row r="288" spans="1:23" ht="13.5" customHeight="1">
+    <row r="288" ht="13.5" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9025,7 +9095,7 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
     </row>
-    <row r="289" spans="1:23" ht="13.5" customHeight="1">
+    <row r="289" ht="13.5" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9050,7 +9120,7 @@
       <c r="V289" s="1"/>
       <c r="W289" s="1"/>
     </row>
-    <row r="290" spans="1:23" ht="13.5" customHeight="1">
+    <row r="290" ht="13.5" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9075,7 +9145,7 @@
       <c r="V290" s="1"/>
       <c r="W290" s="1"/>
     </row>
-    <row r="291" spans="1:23" ht="13.5" customHeight="1">
+    <row r="291" ht="13.5" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9100,7 +9170,7 @@
       <c r="V291" s="1"/>
       <c r="W291" s="1"/>
     </row>
-    <row r="292" spans="1:23" ht="13.5" customHeight="1">
+    <row r="292" ht="13.5" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9125,7 +9195,7 @@
       <c r="V292" s="1"/>
       <c r="W292" s="1"/>
     </row>
-    <row r="293" spans="1:23" ht="13.5" customHeight="1">
+    <row r="293" ht="13.5" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9150,7 +9220,7 @@
       <c r="V293" s="1"/>
       <c r="W293" s="1"/>
     </row>
-    <row r="294" spans="1:23" ht="13.5" customHeight="1">
+    <row r="294" ht="13.5" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9175,7 +9245,7 @@
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
     </row>
-    <row r="295" spans="1:23" ht="13.5" customHeight="1">
+    <row r="295" ht="13.5" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9200,7 +9270,7 @@
       <c r="V295" s="1"/>
       <c r="W295" s="1"/>
     </row>
-    <row r="296" spans="1:23" ht="13.5" customHeight="1">
+    <row r="296" ht="13.5" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9225,7 +9295,7 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
     </row>
-    <row r="297" spans="1:23" ht="13.5" customHeight="1">
+    <row r="297" ht="13.5" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9250,7 +9320,7 @@
       <c r="V297" s="1"/>
       <c r="W297" s="1"/>
     </row>
-    <row r="298" spans="1:23" ht="13.5" customHeight="1">
+    <row r="298" ht="13.5" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9275,7 +9345,7 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
     </row>
-    <row r="299" spans="1:23" ht="13.5" customHeight="1">
+    <row r="299" ht="13.5" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9300,7 +9370,7 @@
       <c r="V299" s="1"/>
       <c r="W299" s="1"/>
     </row>
-    <row r="300" spans="1:23" ht="13.5" customHeight="1">
+    <row r="300" ht="13.5" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9325,7 +9395,7 @@
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
     </row>
-    <row r="301" spans="1:23" ht="13.5" customHeight="1">
+    <row r="301" ht="13.5" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9350,7 +9420,7 @@
       <c r="V301" s="1"/>
       <c r="W301" s="1"/>
     </row>
-    <row r="302" spans="1:23" ht="13.5" customHeight="1">
+    <row r="302" ht="13.5" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9375,7 +9445,7 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
     </row>
-    <row r="303" spans="1:23" ht="13.5" customHeight="1">
+    <row r="303" ht="13.5" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9400,7 +9470,7 @@
       <c r="V303" s="1"/>
       <c r="W303" s="1"/>
     </row>
-    <row r="304" spans="1:23" ht="13.5" customHeight="1">
+    <row r="304" ht="13.5" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9425,7 +9495,7 @@
       <c r="V304" s="1"/>
       <c r="W304" s="1"/>
     </row>
-    <row r="305" spans="1:23" ht="13.5" customHeight="1">
+    <row r="305" ht="13.5" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9450,7 +9520,7 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
     </row>
-    <row r="306" spans="1:23" ht="13.5" customHeight="1">
+    <row r="306" ht="13.5" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9475,7 +9545,7 @@
       <c r="V306" s="1"/>
       <c r="W306" s="1"/>
     </row>
-    <row r="307" spans="1:23" ht="13.5" customHeight="1">
+    <row r="307" ht="13.5" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9500,7 +9570,7 @@
       <c r="V307" s="1"/>
       <c r="W307" s="1"/>
     </row>
-    <row r="308" spans="1:23" ht="13.5" customHeight="1">
+    <row r="308" ht="13.5" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9525,7 +9595,7 @@
       <c r="V308" s="1"/>
       <c r="W308" s="1"/>
     </row>
-    <row r="309" spans="1:23" ht="13.5" customHeight="1">
+    <row r="309" ht="13.5" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9550,7 +9620,7 @@
       <c r="V309" s="1"/>
       <c r="W309" s="1"/>
     </row>
-    <row r="310" spans="1:23" ht="13.5" customHeight="1">
+    <row r="310" ht="13.5" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9575,7 +9645,7 @@
       <c r="V310" s="1"/>
       <c r="W310" s="1"/>
     </row>
-    <row r="311" spans="1:23" ht="13.5" customHeight="1">
+    <row r="311" ht="13.5" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9600,7 +9670,7 @@
       <c r="V311" s="1"/>
       <c r="W311" s="1"/>
     </row>
-    <row r="312" spans="1:23" ht="13.5" customHeight="1">
+    <row r="312" ht="13.5" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9625,7 +9695,7 @@
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
     </row>
-    <row r="313" spans="1:23" ht="13.5" customHeight="1">
+    <row r="313" ht="13.5" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9650,7 +9720,7 @@
       <c r="V313" s="1"/>
       <c r="W313" s="1"/>
     </row>
-    <row r="314" spans="1:23" ht="13.5" customHeight="1">
+    <row r="314" ht="13.5" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9675,7 +9745,7 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
     </row>
-    <row r="315" spans="1:23" ht="13.5" customHeight="1">
+    <row r="315" ht="13.5" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9700,7 +9770,7 @@
       <c r="V315" s="1"/>
       <c r="W315" s="1"/>
     </row>
-    <row r="316" spans="1:23" ht="13.5" customHeight="1">
+    <row r="316" ht="13.5" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9725,7 +9795,7 @@
       <c r="V316" s="1"/>
       <c r="W316" s="1"/>
     </row>
-    <row r="317" spans="1:23" ht="13.5" customHeight="1">
+    <row r="317" ht="13.5" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9750,7 +9820,7 @@
       <c r="V317" s="1"/>
       <c r="W317" s="1"/>
     </row>
-    <row r="318" spans="1:23" ht="13.5" customHeight="1">
+    <row r="318" ht="13.5" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9775,7 +9845,7 @@
       <c r="V318" s="1"/>
       <c r="W318" s="1"/>
     </row>
-    <row r="319" spans="1:23" ht="13.5" customHeight="1">
+    <row r="319" ht="13.5" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9800,7 +9870,7 @@
       <c r="V319" s="1"/>
       <c r="W319" s="1"/>
     </row>
-    <row r="320" spans="1:23" ht="13.5" customHeight="1">
+    <row r="320" ht="13.5" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9825,7 +9895,7 @@
       <c r="V320" s="1"/>
       <c r="W320" s="1"/>
     </row>
-    <row r="321" spans="1:23" ht="13.5" customHeight="1">
+    <row r="321" ht="13.5" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9850,7 +9920,7 @@
       <c r="V321" s="1"/>
       <c r="W321" s="1"/>
     </row>
-    <row r="322" spans="1:23" ht="13.5" customHeight="1">
+    <row r="322" ht="13.5" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9875,7 +9945,7 @@
       <c r="V322" s="1"/>
       <c r="W322" s="1"/>
     </row>
-    <row r="323" spans="1:23" ht="13.5" customHeight="1">
+    <row r="323" ht="13.5" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9900,7 +9970,7 @@
       <c r="V323" s="1"/>
       <c r="W323" s="1"/>
     </row>
-    <row r="324" spans="1:23" ht="13.5" customHeight="1">
+    <row r="324" ht="13.5" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9925,7 +9995,7 @@
       <c r="V324" s="1"/>
       <c r="W324" s="1"/>
     </row>
-    <row r="325" spans="1:23" ht="13.5" customHeight="1">
+    <row r="325" ht="13.5" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9950,7 +10020,7 @@
       <c r="V325" s="1"/>
       <c r="W325" s="1"/>
     </row>
-    <row r="326" spans="1:23" ht="13.5" customHeight="1">
+    <row r="326" ht="13.5" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9975,7 +10045,7 @@
       <c r="V326" s="1"/>
       <c r="W326" s="1"/>
     </row>
-    <row r="327" spans="1:23" ht="13.5" customHeight="1">
+    <row r="327" ht="13.5" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10000,7 +10070,7 @@
       <c r="V327" s="1"/>
       <c r="W327" s="1"/>
     </row>
-    <row r="328" spans="1:23" ht="13.5" customHeight="1">
+    <row r="328" ht="13.5" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10025,7 +10095,7 @@
       <c r="V328" s="1"/>
       <c r="W328" s="1"/>
     </row>
-    <row r="329" spans="1:23" ht="13.5" customHeight="1">
+    <row r="329" ht="13.5" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10050,7 +10120,7 @@
       <c r="V329" s="1"/>
       <c r="W329" s="1"/>
     </row>
-    <row r="330" spans="1:23" ht="13.5" customHeight="1">
+    <row r="330" ht="13.5" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10075,7 +10145,7 @@
       <c r="V330" s="1"/>
       <c r="W330" s="1"/>
     </row>
-    <row r="331" spans="1:23" ht="13.5" customHeight="1">
+    <row r="331" ht="13.5" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10100,7 +10170,7 @@
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
     </row>
-    <row r="332" spans="1:23" ht="13.5" customHeight="1">
+    <row r="332" ht="13.5" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10125,7 +10195,7 @@
       <c r="V332" s="1"/>
       <c r="W332" s="1"/>
     </row>
-    <row r="333" spans="1:23" ht="13.5" customHeight="1">
+    <row r="333" ht="13.5" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10150,7 +10220,7 @@
       <c r="V333" s="1"/>
       <c r="W333" s="1"/>
     </row>
-    <row r="334" spans="1:23" ht="13.5" customHeight="1">
+    <row r="334" ht="13.5" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10175,7 +10245,7 @@
       <c r="V334" s="1"/>
       <c r="W334" s="1"/>
     </row>
-    <row r="335" spans="1:23" ht="13.5" customHeight="1">
+    <row r="335" ht="13.5" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10200,7 +10270,7 @@
       <c r="V335" s="1"/>
       <c r="W335" s="1"/>
     </row>
-    <row r="336" spans="1:23" ht="13.5" customHeight="1">
+    <row r="336" ht="13.5" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10225,7 +10295,7 @@
       <c r="V336" s="1"/>
       <c r="W336" s="1"/>
     </row>
-    <row r="337" spans="1:23" ht="13.5" customHeight="1">
+    <row r="337" ht="13.5" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10250,7 +10320,7 @@
       <c r="V337" s="1"/>
       <c r="W337" s="1"/>
     </row>
-    <row r="338" spans="1:23" ht="13.5" customHeight="1">
+    <row r="338" ht="13.5" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10275,7 +10345,7 @@
       <c r="V338" s="1"/>
       <c r="W338" s="1"/>
     </row>
-    <row r="339" spans="1:23" ht="13.5" customHeight="1">
+    <row r="339" ht="13.5" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10300,7 +10370,7 @@
       <c r="V339" s="1"/>
       <c r="W339" s="1"/>
     </row>
-    <row r="340" spans="1:23" ht="13.5" customHeight="1">
+    <row r="340" ht="13.5" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10325,7 +10395,7 @@
       <c r="V340" s="1"/>
       <c r="W340" s="1"/>
     </row>
-    <row r="341" spans="1:23" ht="13.5" customHeight="1">
+    <row r="341" ht="13.5" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10350,7 +10420,7 @@
       <c r="V341" s="1"/>
       <c r="W341" s="1"/>
     </row>
-    <row r="342" spans="1:23" ht="13.5" customHeight="1">
+    <row r="342" ht="13.5" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10375,7 +10445,7 @@
       <c r="V342" s="1"/>
       <c r="W342" s="1"/>
     </row>
-    <row r="343" spans="1:23" ht="13.5" customHeight="1">
+    <row r="343" ht="13.5" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10400,7 +10470,7 @@
       <c r="V343" s="1"/>
       <c r="W343" s="1"/>
     </row>
-    <row r="344" spans="1:23" ht="13.5" customHeight="1">
+    <row r="344" ht="13.5" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10425,7 +10495,7 @@
       <c r="V344" s="1"/>
       <c r="W344" s="1"/>
     </row>
-    <row r="345" spans="1:23" ht="13.5" customHeight="1">
+    <row r="345" ht="13.5" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10450,7 +10520,7 @@
       <c r="V345" s="1"/>
       <c r="W345" s="1"/>
     </row>
-    <row r="346" spans="1:23" ht="13.5" customHeight="1">
+    <row r="346" ht="13.5" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10475,7 +10545,7 @@
       <c r="V346" s="1"/>
       <c r="W346" s="1"/>
     </row>
-    <row r="347" spans="1:23" ht="13.5" customHeight="1">
+    <row r="347" ht="13.5" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10500,7 +10570,7 @@
       <c r="V347" s="1"/>
       <c r="W347" s="1"/>
     </row>
-    <row r="348" spans="1:23" ht="13.5" customHeight="1">
+    <row r="348" ht="13.5" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10525,7 +10595,7 @@
       <c r="V348" s="1"/>
       <c r="W348" s="1"/>
     </row>
-    <row r="349" spans="1:23" ht="13.5" customHeight="1">
+    <row r="349" ht="13.5" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10550,7 +10620,7 @@
       <c r="V349" s="1"/>
       <c r="W349" s="1"/>
     </row>
-    <row r="350" spans="1:23" ht="13.5" customHeight="1">
+    <row r="350" ht="13.5" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10575,7 +10645,7 @@
       <c r="V350" s="1"/>
       <c r="W350" s="1"/>
     </row>
-    <row r="351" spans="1:23" ht="13.5" customHeight="1">
+    <row r="351" ht="13.5" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10600,7 +10670,7 @@
       <c r="V351" s="1"/>
       <c r="W351" s="1"/>
     </row>
-    <row r="352" spans="1:23" ht="13.5" customHeight="1">
+    <row r="352" ht="13.5" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11275,16 +11345,18 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B38" r:id="rId5"/>
-    <hyperlink ref="C38" r:id="rId6"/>
-    <hyperlink ref="B75" r:id="rId7"/>
-    <hyperlink ref="C75" r:id="rId8"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="C3"/>
+    <hyperlink r:id="rId5" ref="B38"/>
+    <hyperlink r:id="rId6" ref="C38"/>
+    <hyperlink r:id="rId7" ref="B75"/>
+    <hyperlink r:id="rId8" ref="C75"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\Naveen\Appointments_Updated\config\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MMH" sheetId="1" r:id="rId4"/>
+    <sheet name="MMH" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="247">
   <si>
     <t>KEY</t>
   </si>
@@ -749,78 +757,73 @@
   </si>
   <si>
     <t>daisy@mmh-demo.com</t>
+  </si>
+  <si>
+    <t>APPOINTMENT_DETAILS_FOR_JOIN_VIDEO_CONSULTATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
@@ -830,7 +833,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -840,7 +843,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -854,6 +863,7 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -868,6 +878,7 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -882,85 +893,74 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1150,26 +1150,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="69.57"/>
-    <col customWidth="1" min="2" max="2" width="157.14"/>
-    <col customWidth="1" min="3" max="3" width="125.14"/>
-    <col customWidth="1" min="4" max="23" width="8.86"/>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" customWidth="1"/>
+    <col min="3" max="3" width="125.140625" customWidth="1"/>
+    <col min="4" max="23" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:23" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1202,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:23" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1233,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:23" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1264,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1295,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1326,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:23" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1357,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1388,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:23" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1415,7 +1417,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1440,7 +1442,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:23" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1471,7 +1473,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:23" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +1504,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:23" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1535,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:23" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1562,7 +1564,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:23" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1587,7 +1589,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1618,7 +1620,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1651,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="1:23" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1682,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:23" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1711,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:23" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1734,7 +1736,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:23" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1765,7 +1767,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:23" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +1798,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="1:23" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1827,7 +1829,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="1:23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1858,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="1:23" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1881,7 +1883,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:23" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1912,7 +1914,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="1:23" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1943,7 +1945,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="1:23" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +1976,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="1:23" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2005,7 +2007,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="1:23" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -2034,7 +2036,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:23" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2059,7 +2061,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="1:23" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2090,7 +2092,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="1:23" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2121,7 +2123,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="1:23" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2146,7 +2148,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="1:23" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2179,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:23" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2202,9 +2204,13 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2227,7 +2233,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="1:23" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2252,14 +2258,14 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" spans="1:23" ht="13.5" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="1"/>
@@ -2283,14 +2289,14 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
+    <row r="39" spans="1:23" ht="13.5" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="1"/>
@@ -2314,7 +2320,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="1:23" ht="13.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2339,8 +2345,8 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2370,8 +2376,8 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2401,8 +2407,8 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2432,8 +2438,8 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A44" s="7"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="1"/>
@@ -2457,8 +2463,8 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="8"/>
+    <row r="45" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="1"/>
@@ -2482,8 +2488,8 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2513,8 +2519,8 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2544,8 +2550,8 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="5"/>
@@ -2571,8 +2577,8 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A49" s="7"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="1"/>
@@ -2596,8 +2602,8 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A50" s="7"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="1"/>
@@ -2621,8 +2627,8 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2652,8 +2658,8 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2683,12 +2689,12 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A53" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2710,8 +2716,8 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="8"/>
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A54" s="7"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="1"/>
@@ -2735,8 +2741,8 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="8"/>
+    <row r="55" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A55" s="7"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="1"/>
@@ -2760,8 +2766,8 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A56" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2791,8 +2797,8 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A57" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -2822,8 +2828,8 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A58" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B58" s="5"/>
@@ -2849,8 +2855,8 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="8"/>
+    <row r="59" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A59" s="7"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="1"/>
@@ -2874,8 +2880,8 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="8"/>
+    <row r="60" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A60" s="7"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="1"/>
@@ -2899,8 +2905,8 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A61" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -2930,8 +2936,8 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A62" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2961,8 +2967,8 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="8"/>
+    <row r="63" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A63" s="7"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1"/>
@@ -2986,8 +2992,8 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="8"/>
+    <row r="64" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A64" s="7"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="1"/>
@@ -3011,8 +3017,8 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A65" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3042,8 +3048,8 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A66" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -3073,8 +3079,8 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="8"/>
+    <row r="67" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A67" s="7"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="1"/>
@@ -3098,8 +3104,8 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="8"/>
+    <row r="68" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A68" s="7"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="1"/>
@@ -3123,8 +3129,8 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A69" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3154,8 +3160,8 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A70" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3185,8 +3191,8 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A71" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -3216,7 +3222,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72" spans="1:23" ht="13.5" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -3247,7 +3253,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="1:23" ht="13.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3272,7 +3278,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="1:23" ht="13.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3297,14 +3303,14 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A75" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="1"/>
@@ -3328,14 +3334,14 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A76" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="1"/>
@@ -3359,9 +3365,9 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15"/>
+    <row r="77" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3384,14 +3390,14 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A78" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D78" s="1"/>
@@ -3415,14 +3421,14 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A79" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D79" s="1"/>
@@ -3446,14 +3452,14 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="15" t="s">
+    <row r="80" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A80" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D80" s="1"/>
@@ -3477,14 +3483,14 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="15" t="s">
+    <row r="81" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A81" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="1"/>
@@ -3508,14 +3514,14 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="15" t="s">
+    <row r="82" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A82" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D82" s="1"/>
@@ -3539,14 +3545,14 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="15" t="s">
+    <row r="83" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D83" s="1"/>
@@ -3570,14 +3576,14 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="15" t="s">
+    <row r="84" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A84" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D84" s="1"/>
@@ -3601,14 +3607,14 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="15" t="s">
+    <row r="85" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A85" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D85" s="1"/>
@@ -3632,14 +3638,14 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
-      <c r="A86" s="15" t="s">
+    <row r="86" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A86" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D86" s="1"/>
@@ -3663,14 +3669,14 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="15" t="s">
+    <row r="87" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A87" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D87" s="1"/>
@@ -3694,14 +3700,14 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="15" t="s">
+    <row r="88" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A88" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D88" s="1"/>
@@ -3725,14 +3731,14 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="15" t="s">
+    <row r="89" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A89" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D89" s="1"/>
@@ -3756,14 +3762,14 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="15" t="s">
+    <row r="90" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A90" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D90" s="1"/>
@@ -3787,14 +3793,14 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="15" t="s">
+    <row r="91" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A91" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D91" s="1"/>
@@ -3818,14 +3824,14 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="15" t="s">
+    <row r="92" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="15" t="s">
         <v>116</v>
       </c>
       <c r="D92" s="1"/>
@@ -3849,14 +3855,14 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="15" t="s">
+    <row r="93" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A93" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="15" t="s">
         <v>118</v>
       </c>
       <c r="D93" s="1"/>
@@ -3880,14 +3886,14 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="15" t="s">
+    <row r="94" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A94" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="1"/>
@@ -3911,14 +3917,14 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="15" t="s">
+    <row r="95" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A95" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D95" s="1"/>
@@ -3942,14 +3948,14 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="15" t="s">
+    <row r="96" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A96" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="14" t="s">
         <v>124</v>
       </c>
       <c r="D96" s="1"/>
@@ -3973,14 +3979,14 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="15" t="s">
+    <row r="97" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A97" s="14" t="s">
         <v>125</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D97" s="1"/>
@@ -4004,14 +4010,14 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="15" t="s">
+    <row r="98" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A98" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="14" t="s">
         <v>128</v>
       </c>
       <c r="D98" s="1"/>
@@ -4035,14 +4041,14 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="15" t="s">
+    <row r="99" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A99" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="14" t="s">
         <v>130</v>
       </c>
       <c r="D99" s="1"/>
@@ -4066,14 +4072,14 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="15" t="s">
+    <row r="100" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A100" s="14" t="s">
         <v>131</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D100" s="1"/>
@@ -4097,14 +4103,14 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
-      <c r="A101" s="15" t="s">
+    <row r="101" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A101" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D101" s="1"/>
@@ -4128,14 +4134,14 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
-      <c r="A102" s="21" t="s">
+    <row r="102" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A102" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D102" s="1"/>
@@ -4159,14 +4165,14 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
-      <c r="A103" s="15" t="s">
+    <row r="103" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A103" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="15" t="s">
         <v>138</v>
       </c>
       <c r="D103" s="1"/>
@@ -4190,14 +4196,14 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="21" t="s">
+    <row r="104" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A104" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="15" t="s">
         <v>140</v>
       </c>
       <c r="D104" s="1"/>
@@ -4221,14 +4227,14 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="15" t="s">
+    <row r="105" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A105" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D105" s="1"/>
@@ -4252,14 +4258,14 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="15" t="s">
+    <row r="106" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A106" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="19" t="s">
         <v>144</v>
       </c>
       <c r="D106" s="1"/>
@@ -4283,14 +4289,14 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="15" t="s">
+    <row r="107" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A107" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="15" t="s">
         <v>146</v>
       </c>
       <c r="D107" s="1"/>
@@ -4314,14 +4320,14 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
-      <c r="A108" s="15" t="s">
+    <row r="108" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A108" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="15" t="s">
         <v>148</v>
       </c>
       <c r="D108" s="1"/>
@@ -4345,14 +4351,14 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
-      <c r="A109" s="15" t="s">
+    <row r="109" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A109" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D109" s="1"/>
@@ -4376,14 +4382,14 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="15" t="s">
+    <row r="110" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A110" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="14" t="s">
         <v>152</v>
       </c>
       <c r="D110" s="1"/>
@@ -4407,14 +4413,14 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="15" t="s">
+    <row r="111" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A111" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B111" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D111" s="1"/>
@@ -4438,14 +4444,14 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="15" t="s">
+    <row r="112" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A112" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="15" t="s">
         <v>156</v>
       </c>
       <c r="D112" s="1"/>
@@ -4469,14 +4475,14 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
-      <c r="A113" s="15" t="s">
+    <row r="113" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A113" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D113" s="1"/>
@@ -4500,14 +4506,14 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
-      <c r="A114" s="15" t="s">
+    <row r="114" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A114" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="15" t="s">
         <v>160</v>
       </c>
       <c r="D114" s="1"/>
@@ -4531,14 +4537,14 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
-      <c r="A115" s="15" t="s">
+    <row r="115" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A115" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="14" t="s">
         <v>163</v>
       </c>
       <c r="D115" s="1"/>
@@ -4562,14 +4568,14 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
-      <c r="A116" s="15" t="s">
+    <row r="116" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A116" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="15" t="s">
         <v>166</v>
       </c>
       <c r="D116" s="1"/>
@@ -4593,14 +4599,14 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
-      <c r="A117" s="15" t="s">
+    <row r="117" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A117" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="14" t="s">
         <v>169</v>
       </c>
       <c r="D117" s="1"/>
@@ -4624,14 +4630,14 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
-      <c r="A118" s="15" t="s">
+    <row r="118" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A118" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="15" t="s">
         <v>172</v>
       </c>
       <c r="D118" s="1"/>
@@ -4655,14 +4661,14 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
-      <c r="A119" s="15" t="s">
+    <row r="119" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A119" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="14" t="s">
         <v>175</v>
       </c>
       <c r="D119" s="1"/>
@@ -4686,14 +4692,14 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
-      <c r="A120" s="15" t="s">
+    <row r="120" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A120" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D120" s="1"/>
@@ -4717,14 +4723,14 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
-      <c r="A121" s="15" t="s">
+    <row r="121" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="14" t="s">
         <v>181</v>
       </c>
       <c r="D121" s="1"/>
@@ -4748,10 +4754,10 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="18" t="s">
+    <row r="122" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14" t="s">
         <v>182</v>
       </c>
       <c r="D122" s="1"/>
@@ -4775,14 +4781,14 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
-      <c r="A123" s="15" t="s">
+    <row r="123" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A123" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="14" t="s">
         <v>185</v>
       </c>
       <c r="D123" s="1"/>
@@ -4806,10 +4812,10 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="18" t="s">
+    <row r="124" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14" t="s">
         <v>186</v>
       </c>
       <c r="D124" s="1"/>
@@ -4833,14 +4839,14 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
-      <c r="A125" s="15" t="s">
+    <row r="125" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A125" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="14" t="s">
         <v>189</v>
       </c>
       <c r="D125" s="1"/>
@@ -4864,14 +4870,14 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
-      <c r="A126" s="15" t="s">
+    <row r="126" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A126" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="15" t="s">
         <v>192</v>
       </c>
       <c r="D126" s="1"/>
@@ -4895,14 +4901,14 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
-      <c r="A127" s="15" t="s">
+    <row r="127" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A127" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="14" t="s">
         <v>195</v>
       </c>
       <c r="D127" s="1"/>
@@ -4926,14 +4932,14 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
-      <c r="A128" s="15" t="s">
+    <row r="128" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A128" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="14" t="s">
         <v>198</v>
       </c>
       <c r="D128" s="1"/>
@@ -4957,14 +4963,14 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
-      <c r="A129" s="15" t="s">
+    <row r="129" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A129" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="14" t="s">
         <v>201</v>
       </c>
       <c r="D129" s="1"/>
@@ -4988,14 +4994,14 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
-      <c r="A130" s="15" t="s">
+    <row r="130" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A130" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="15" t="s">
         <v>204</v>
       </c>
       <c r="D130" s="1"/>
@@ -5019,14 +5025,14 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
-      <c r="A131" s="15" t="s">
+    <row r="131" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A131" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="14" t="s">
         <v>206</v>
       </c>
       <c r="D131" s="1"/>
@@ -5050,14 +5056,14 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
-      <c r="A132" s="15" t="s">
+    <row r="132" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A132" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="14" t="s">
         <v>208</v>
       </c>
       <c r="D132" s="1"/>
@@ -5081,14 +5087,14 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
-      <c r="A133" s="15" t="s">
+    <row r="133" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A133" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="14" t="s">
         <v>210</v>
       </c>
       <c r="D133" s="1"/>
@@ -5112,14 +5118,14 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
-      <c r="A134" s="15" t="s">
+    <row r="134" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A134" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="14" t="s">
         <v>212</v>
       </c>
       <c r="D134" s="1"/>
@@ -5143,14 +5149,14 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
-      <c r="A135" s="15" t="s">
+    <row r="135" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A135" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="14" t="s">
         <v>214</v>
       </c>
       <c r="D135" s="1"/>
@@ -5174,14 +5180,14 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
-      <c r="A136" s="15" t="s">
+    <row r="136" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A136" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="14" t="s">
         <v>216</v>
       </c>
       <c r="D136" s="1"/>
@@ -5205,14 +5211,14 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
-      <c r="A137" s="15" t="s">
+    <row r="137" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A137" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="14" t="s">
         <v>218</v>
       </c>
       <c r="D137" s="1"/>
@@ -5236,10 +5242,10 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="18"/>
+    <row r="138" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5261,14 +5267,14 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
-      <c r="A139" s="15" t="s">
+    <row r="139" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A139" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D139" s="1"/>
@@ -5292,14 +5298,14 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
-      <c r="A140" s="15" t="s">
+    <row r="140" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A140" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="14" t="s">
         <v>222</v>
       </c>
       <c r="D140" s="1"/>
@@ -5323,14 +5329,14 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
-      <c r="A141" s="15" t="s">
+    <row r="141" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A141" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D141" s="1"/>
@@ -5354,14 +5360,14 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
-      <c r="A142" s="15" t="s">
+    <row r="142" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A142" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="14" t="s">
         <v>226</v>
       </c>
       <c r="D142" s="1"/>
@@ -5385,14 +5391,14 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
-      <c r="A143" s="15" t="s">
+    <row r="143" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A143" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="14" t="s">
         <v>228</v>
       </c>
       <c r="D143" s="1"/>
@@ -5416,14 +5422,14 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
-      <c r="A144" s="15" t="s">
+    <row r="144" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A144" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="14" t="s">
         <v>229</v>
       </c>
       <c r="D144" s="1"/>
@@ -5447,14 +5453,14 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
-      <c r="A145" s="15" t="s">
+    <row r="145" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A145" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="14" t="s">
         <v>226</v>
       </c>
       <c r="D145" s="1"/>
@@ -5478,14 +5484,14 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
-      <c r="A146" s="15" t="s">
+    <row r="146" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A146" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="14" t="s">
         <v>228</v>
       </c>
       <c r="D146" s="1"/>
@@ -5509,14 +5515,14 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
-      <c r="A147" s="15" t="s">
+    <row r="147" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A147" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="14" t="s">
         <v>231</v>
       </c>
       <c r="D147" s="1"/>
@@ -5540,14 +5546,14 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
-      <c r="A148" s="15" t="s">
+    <row r="148" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A148" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="14" t="s">
         <v>234</v>
       </c>
       <c r="D148" s="1"/>
@@ -5571,14 +5577,14 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
-      <c r="A149" s="15" t="s">
+    <row r="149" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A149" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="15" t="s">
         <v>237</v>
       </c>
       <c r="D149" s="1"/>
@@ -5602,14 +5608,14 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
-      <c r="A150" s="15" t="s">
+    <row r="150" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A150" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="14" t="s">
         <v>239</v>
       </c>
       <c r="D150" s="1"/>
@@ -5633,14 +5639,14 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
-      <c r="A151" s="15" t="s">
+    <row r="151" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A151" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="14" t="s">
         <v>241</v>
       </c>
       <c r="D151" s="1"/>
@@ -5664,14 +5670,14 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
-      <c r="A152" s="15" t="s">
+    <row r="152" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A152" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="14" t="s">
         <v>243</v>
       </c>
       <c r="D152" s="1"/>
@@ -5695,11 +5701,11 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
-      <c r="A153" s="15" t="s">
+    <row r="153" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A153" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="17" t="s">
         <v>245</v>
       </c>
       <c r="C153" s="1"/>
@@ -5724,7 +5730,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="1:23" ht="13.5" customHeight="1">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5747,7 +5753,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="1:23" ht="13.5" customHeight="1">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5770,7 +5776,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156" spans="1:23" ht="13.5" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5795,7 +5801,7 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157" spans="1:23" ht="13.5" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5820,7 +5826,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158" spans="1:23" ht="13.5" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5845,7 +5851,7 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159" spans="1:23" ht="13.5" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5870,7 +5876,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160" spans="1:23" ht="13.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5895,7 +5901,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161" spans="1:23" ht="13.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5920,7 +5926,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162" spans="1:23" ht="13.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5945,7 +5951,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163" spans="1:23" ht="13.5" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5970,7 +5976,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164" spans="1:23" ht="13.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5995,7 +6001,7 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165" spans="1:23" ht="13.5" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6020,7 +6026,7 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166" spans="1:23" ht="13.5" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6045,7 +6051,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167" spans="1:23" ht="13.5" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6070,7 +6076,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168" spans="1:23" ht="13.5" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6095,7 +6101,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169" spans="1:23" ht="13.5" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6120,7 +6126,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170" spans="1:23" ht="13.5" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6145,7 +6151,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171" spans="1:23" ht="13.5" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6170,7 +6176,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172" spans="1:23" ht="13.5" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6195,7 +6201,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173" spans="1:23" ht="13.5" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6220,7 +6226,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174" spans="1:23" ht="13.5" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6245,7 +6251,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175" spans="1:23" ht="13.5" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6270,7 +6276,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176" spans="1:23" ht="13.5" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6295,7 +6301,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177" spans="1:23" ht="13.5" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6320,7 +6326,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178" spans="1:23" ht="13.5" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6345,7 +6351,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" spans="1:23" ht="13.5" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6370,7 +6376,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180" spans="1:23" ht="13.5" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6395,7 +6401,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181" spans="1:23" ht="13.5" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6420,7 +6426,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182" spans="1:23" ht="13.5" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6445,7 +6451,7 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183" spans="1:23" ht="13.5" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6470,7 +6476,7 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184" spans="1:23" ht="13.5" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6495,7 +6501,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185" spans="1:23" ht="13.5" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6520,7 +6526,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186" spans="1:23" ht="13.5" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6545,7 +6551,7 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187" spans="1:23" ht="13.5" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6570,7 +6576,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188" spans="1:23" ht="13.5" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6595,7 +6601,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189" spans="1:23" ht="13.5" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6620,7 +6626,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190" spans="1:23" ht="13.5" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6645,7 +6651,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191" spans="1:23" ht="13.5" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6670,7 +6676,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192" spans="1:23" ht="13.5" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6695,7 +6701,7 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193" spans="1:23" ht="13.5" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6720,7 +6726,7 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194" spans="1:23" ht="13.5" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6745,7 +6751,7 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195" spans="1:23" ht="13.5" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6770,7 +6776,7 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196" spans="1:23" ht="13.5" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6795,7 +6801,7 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197" spans="1:23" ht="13.5" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6820,7 +6826,7 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198" spans="1:23" ht="13.5" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6845,7 +6851,7 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
+    <row r="199" spans="1:23" ht="13.5" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6870,7 +6876,7 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
+    <row r="200" spans="1:23" ht="13.5" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6895,7 +6901,7 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
+    <row r="201" spans="1:23" ht="13.5" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6920,7 +6926,7 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
+    <row r="202" spans="1:23" ht="13.5" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6945,7 +6951,7 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
+    <row r="203" spans="1:23" ht="13.5" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6970,7 +6976,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
+    <row r="204" spans="1:23" ht="13.5" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6995,7 +7001,7 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
+    <row r="205" spans="1:23" ht="13.5" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7020,7 +7026,7 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
+    <row r="206" spans="1:23" ht="13.5" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7045,7 +7051,7 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
+    <row r="207" spans="1:23" ht="13.5" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7070,7 +7076,7 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
+    <row r="208" spans="1:23" ht="13.5" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7095,7 +7101,7 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209" spans="1:23" ht="13.5" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7120,7 +7126,7 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
+    <row r="210" spans="1:23" ht="13.5" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7145,7 +7151,7 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
+    <row r="211" spans="1:23" ht="13.5" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7170,7 +7176,7 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
+    <row r="212" spans="1:23" ht="13.5" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7195,7 +7201,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
+    <row r="213" spans="1:23" ht="13.5" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7220,7 +7226,7 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
+    <row r="214" spans="1:23" ht="13.5" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7245,7 +7251,7 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
+    <row r="215" spans="1:23" ht="13.5" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7270,7 +7276,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216" spans="1:23" ht="13.5" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7295,7 +7301,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217" spans="1:23" ht="13.5" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7320,7 +7326,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218" spans="1:23" ht="13.5" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7345,7 +7351,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219" spans="1:23" ht="13.5" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7370,7 +7376,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220" spans="1:23" ht="13.5" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7395,7 +7401,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" ht="13.5" customHeight="1">
+    <row r="221" spans="1:23" ht="13.5" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7420,7 +7426,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" ht="13.5" customHeight="1">
+    <row r="222" spans="1:23" ht="13.5" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7445,7 +7451,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" ht="13.5" customHeight="1">
+    <row r="223" spans="1:23" ht="13.5" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7470,7 +7476,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" ht="13.5" customHeight="1">
+    <row r="224" spans="1:23" ht="13.5" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7495,7 +7501,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" ht="13.5" customHeight="1">
+    <row r="225" spans="1:23" ht="13.5" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7520,7 +7526,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" ht="13.5" customHeight="1">
+    <row r="226" spans="1:23" ht="13.5" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7545,7 +7551,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" ht="13.5" customHeight="1">
+    <row r="227" spans="1:23" ht="13.5" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7570,7 +7576,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" ht="13.5" customHeight="1">
+    <row r="228" spans="1:23" ht="13.5" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7595,7 +7601,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" ht="13.5" customHeight="1">
+    <row r="229" spans="1:23" ht="13.5" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7620,7 +7626,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" ht="13.5" customHeight="1">
+    <row r="230" spans="1:23" ht="13.5" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7645,7 +7651,7 @@
       <c r="V230" s="1"/>
       <c r="W230" s="1"/>
     </row>
-    <row r="231" ht="13.5" customHeight="1">
+    <row r="231" spans="1:23" ht="13.5" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7670,7 +7676,7 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
     </row>
-    <row r="232" ht="13.5" customHeight="1">
+    <row r="232" spans="1:23" ht="13.5" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7695,7 +7701,7 @@
       <c r="V232" s="1"/>
       <c r="W232" s="1"/>
     </row>
-    <row r="233" ht="13.5" customHeight="1">
+    <row r="233" spans="1:23" ht="13.5" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7720,7 +7726,7 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
     </row>
-    <row r="234" ht="13.5" customHeight="1">
+    <row r="234" spans="1:23" ht="13.5" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7745,7 +7751,7 @@
       <c r="V234" s="1"/>
       <c r="W234" s="1"/>
     </row>
-    <row r="235" ht="13.5" customHeight="1">
+    <row r="235" spans="1:23" ht="13.5" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7770,7 +7776,7 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
     </row>
-    <row r="236" ht="13.5" customHeight="1">
+    <row r="236" spans="1:23" ht="13.5" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7795,7 +7801,7 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
     </row>
-    <row r="237" ht="13.5" customHeight="1">
+    <row r="237" spans="1:23" ht="13.5" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7820,7 +7826,7 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
     </row>
-    <row r="238" ht="13.5" customHeight="1">
+    <row r="238" spans="1:23" ht="13.5" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7845,7 +7851,7 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
     </row>
-    <row r="239" ht="13.5" customHeight="1">
+    <row r="239" spans="1:23" ht="13.5" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7870,7 +7876,7 @@
       <c r="V239" s="1"/>
       <c r="W239" s="1"/>
     </row>
-    <row r="240" ht="13.5" customHeight="1">
+    <row r="240" spans="1:23" ht="13.5" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7895,7 +7901,7 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
     </row>
-    <row r="241" ht="13.5" customHeight="1">
+    <row r="241" spans="1:23" ht="13.5" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7920,7 +7926,7 @@
       <c r="V241" s="1"/>
       <c r="W241" s="1"/>
     </row>
-    <row r="242" ht="13.5" customHeight="1">
+    <row r="242" spans="1:23" ht="13.5" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7945,7 +7951,7 @@
       <c r="V242" s="1"/>
       <c r="W242" s="1"/>
     </row>
-    <row r="243" ht="13.5" customHeight="1">
+    <row r="243" spans="1:23" ht="13.5" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7970,7 +7976,7 @@
       <c r="V243" s="1"/>
       <c r="W243" s="1"/>
     </row>
-    <row r="244" ht="13.5" customHeight="1">
+    <row r="244" spans="1:23" ht="13.5" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7995,7 +8001,7 @@
       <c r="V244" s="1"/>
       <c r="W244" s="1"/>
     </row>
-    <row r="245" ht="13.5" customHeight="1">
+    <row r="245" spans="1:23" ht="13.5" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8020,7 +8026,7 @@
       <c r="V245" s="1"/>
       <c r="W245" s="1"/>
     </row>
-    <row r="246" ht="13.5" customHeight="1">
+    <row r="246" spans="1:23" ht="13.5" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8045,7 +8051,7 @@
       <c r="V246" s="1"/>
       <c r="W246" s="1"/>
     </row>
-    <row r="247" ht="13.5" customHeight="1">
+    <row r="247" spans="1:23" ht="13.5" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8070,7 +8076,7 @@
       <c r="V247" s="1"/>
       <c r="W247" s="1"/>
     </row>
-    <row r="248" ht="13.5" customHeight="1">
+    <row r="248" spans="1:23" ht="13.5" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8095,7 +8101,7 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
     </row>
-    <row r="249" ht="13.5" customHeight="1">
+    <row r="249" spans="1:23" ht="13.5" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8120,7 +8126,7 @@
       <c r="V249" s="1"/>
       <c r="W249" s="1"/>
     </row>
-    <row r="250" ht="13.5" customHeight="1">
+    <row r="250" spans="1:23" ht="13.5" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8145,7 +8151,7 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
     </row>
-    <row r="251" ht="13.5" customHeight="1">
+    <row r="251" spans="1:23" ht="13.5" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8170,7 +8176,7 @@
       <c r="V251" s="1"/>
       <c r="W251" s="1"/>
     </row>
-    <row r="252" ht="13.5" customHeight="1">
+    <row r="252" spans="1:23" ht="13.5" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8195,7 +8201,7 @@
       <c r="V252" s="1"/>
       <c r="W252" s="1"/>
     </row>
-    <row r="253" ht="13.5" customHeight="1">
+    <row r="253" spans="1:23" ht="13.5" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8220,7 +8226,7 @@
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
     </row>
-    <row r="254" ht="13.5" customHeight="1">
+    <row r="254" spans="1:23" ht="13.5" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8245,7 +8251,7 @@
       <c r="V254" s="1"/>
       <c r="W254" s="1"/>
     </row>
-    <row r="255" ht="13.5" customHeight="1">
+    <row r="255" spans="1:23" ht="13.5" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8270,7 +8276,7 @@
       <c r="V255" s="1"/>
       <c r="W255" s="1"/>
     </row>
-    <row r="256" ht="13.5" customHeight="1">
+    <row r="256" spans="1:23" ht="13.5" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8295,7 +8301,7 @@
       <c r="V256" s="1"/>
       <c r="W256" s="1"/>
     </row>
-    <row r="257" ht="13.5" customHeight="1">
+    <row r="257" spans="1:23" ht="13.5" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8320,7 +8326,7 @@
       <c r="V257" s="1"/>
       <c r="W257" s="1"/>
     </row>
-    <row r="258" ht="13.5" customHeight="1">
+    <row r="258" spans="1:23" ht="13.5" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8345,7 +8351,7 @@
       <c r="V258" s="1"/>
       <c r="W258" s="1"/>
     </row>
-    <row r="259" ht="13.5" customHeight="1">
+    <row r="259" spans="1:23" ht="13.5" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8370,7 +8376,7 @@
       <c r="V259" s="1"/>
       <c r="W259" s="1"/>
     </row>
-    <row r="260" ht="13.5" customHeight="1">
+    <row r="260" spans="1:23" ht="13.5" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8395,7 +8401,7 @@
       <c r="V260" s="1"/>
       <c r="W260" s="1"/>
     </row>
-    <row r="261" ht="13.5" customHeight="1">
+    <row r="261" spans="1:23" ht="13.5" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8420,7 +8426,7 @@
       <c r="V261" s="1"/>
       <c r="W261" s="1"/>
     </row>
-    <row r="262" ht="13.5" customHeight="1">
+    <row r="262" spans="1:23" ht="13.5" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8445,7 +8451,7 @@
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
     </row>
-    <row r="263" ht="13.5" customHeight="1">
+    <row r="263" spans="1:23" ht="13.5" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8470,7 +8476,7 @@
       <c r="V263" s="1"/>
       <c r="W263" s="1"/>
     </row>
-    <row r="264" ht="13.5" customHeight="1">
+    <row r="264" spans="1:23" ht="13.5" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8495,7 +8501,7 @@
       <c r="V264" s="1"/>
       <c r="W264" s="1"/>
     </row>
-    <row r="265" ht="13.5" customHeight="1">
+    <row r="265" spans="1:23" ht="13.5" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8520,7 +8526,7 @@
       <c r="V265" s="1"/>
       <c r="W265" s="1"/>
     </row>
-    <row r="266" ht="13.5" customHeight="1">
+    <row r="266" spans="1:23" ht="13.5" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8545,7 +8551,7 @@
       <c r="V266" s="1"/>
       <c r="W266" s="1"/>
     </row>
-    <row r="267" ht="13.5" customHeight="1">
+    <row r="267" spans="1:23" ht="13.5" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8570,7 +8576,7 @@
       <c r="V267" s="1"/>
       <c r="W267" s="1"/>
     </row>
-    <row r="268" ht="13.5" customHeight="1">
+    <row r="268" spans="1:23" ht="13.5" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8595,7 +8601,7 @@
       <c r="V268" s="1"/>
       <c r="W268" s="1"/>
     </row>
-    <row r="269" ht="13.5" customHeight="1">
+    <row r="269" spans="1:23" ht="13.5" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8620,7 +8626,7 @@
       <c r="V269" s="1"/>
       <c r="W269" s="1"/>
     </row>
-    <row r="270" ht="13.5" customHeight="1">
+    <row r="270" spans="1:23" ht="13.5" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8645,7 +8651,7 @@
       <c r="V270" s="1"/>
       <c r="W270" s="1"/>
     </row>
-    <row r="271" ht="13.5" customHeight="1">
+    <row r="271" spans="1:23" ht="13.5" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8670,7 +8676,7 @@
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
     </row>
-    <row r="272" ht="13.5" customHeight="1">
+    <row r="272" spans="1:23" ht="13.5" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8695,7 +8701,7 @@
       <c r="V272" s="1"/>
       <c r="W272" s="1"/>
     </row>
-    <row r="273" ht="13.5" customHeight="1">
+    <row r="273" spans="1:23" ht="13.5" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8720,7 +8726,7 @@
       <c r="V273" s="1"/>
       <c r="W273" s="1"/>
     </row>
-    <row r="274" ht="13.5" customHeight="1">
+    <row r="274" spans="1:23" ht="13.5" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8745,7 +8751,7 @@
       <c r="V274" s="1"/>
       <c r="W274" s="1"/>
     </row>
-    <row r="275" ht="13.5" customHeight="1">
+    <row r="275" spans="1:23" ht="13.5" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8770,7 +8776,7 @@
       <c r="V275" s="1"/>
       <c r="W275" s="1"/>
     </row>
-    <row r="276" ht="13.5" customHeight="1">
+    <row r="276" spans="1:23" ht="13.5" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8795,7 +8801,7 @@
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
     </row>
-    <row r="277" ht="13.5" customHeight="1">
+    <row r="277" spans="1:23" ht="13.5" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8820,7 +8826,7 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
     </row>
-    <row r="278" ht="13.5" customHeight="1">
+    <row r="278" spans="1:23" ht="13.5" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8845,7 +8851,7 @@
       <c r="V278" s="1"/>
       <c r="W278" s="1"/>
     </row>
-    <row r="279" ht="13.5" customHeight="1">
+    <row r="279" spans="1:23" ht="13.5" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8870,7 +8876,7 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
     </row>
-    <row r="280" ht="13.5" customHeight="1">
+    <row r="280" spans="1:23" ht="13.5" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8895,7 +8901,7 @@
       <c r="V280" s="1"/>
       <c r="W280" s="1"/>
     </row>
-    <row r="281" ht="13.5" customHeight="1">
+    <row r="281" spans="1:23" ht="13.5" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8920,7 +8926,7 @@
       <c r="V281" s="1"/>
       <c r="W281" s="1"/>
     </row>
-    <row r="282" ht="13.5" customHeight="1">
+    <row r="282" spans="1:23" ht="13.5" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8945,7 +8951,7 @@
       <c r="V282" s="1"/>
       <c r="W282" s="1"/>
     </row>
-    <row r="283" ht="13.5" customHeight="1">
+    <row r="283" spans="1:23" ht="13.5" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8970,7 +8976,7 @@
       <c r="V283" s="1"/>
       <c r="W283" s="1"/>
     </row>
-    <row r="284" ht="13.5" customHeight="1">
+    <row r="284" spans="1:23" ht="13.5" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8995,7 +9001,7 @@
       <c r="V284" s="1"/>
       <c r="W284" s="1"/>
     </row>
-    <row r="285" ht="13.5" customHeight="1">
+    <row r="285" spans="1:23" ht="13.5" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9020,7 +9026,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
     </row>
-    <row r="286" ht="13.5" customHeight="1">
+    <row r="286" spans="1:23" ht="13.5" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9045,7 +9051,7 @@
       <c r="V286" s="1"/>
       <c r="W286" s="1"/>
     </row>
-    <row r="287" ht="13.5" customHeight="1">
+    <row r="287" spans="1:23" ht="13.5" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9070,7 +9076,7 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
     </row>
-    <row r="288" ht="13.5" customHeight="1">
+    <row r="288" spans="1:23" ht="13.5" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9095,7 +9101,7 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
     </row>
-    <row r="289" ht="13.5" customHeight="1">
+    <row r="289" spans="1:23" ht="13.5" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9120,7 +9126,7 @@
       <c r="V289" s="1"/>
       <c r="W289" s="1"/>
     </row>
-    <row r="290" ht="13.5" customHeight="1">
+    <row r="290" spans="1:23" ht="13.5" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9145,7 +9151,7 @@
       <c r="V290" s="1"/>
       <c r="W290" s="1"/>
     </row>
-    <row r="291" ht="13.5" customHeight="1">
+    <row r="291" spans="1:23" ht="13.5" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9170,7 +9176,7 @@
       <c r="V291" s="1"/>
       <c r="W291" s="1"/>
     </row>
-    <row r="292" ht="13.5" customHeight="1">
+    <row r="292" spans="1:23" ht="13.5" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9195,7 +9201,7 @@
       <c r="V292" s="1"/>
       <c r="W292" s="1"/>
     </row>
-    <row r="293" ht="13.5" customHeight="1">
+    <row r="293" spans="1:23" ht="13.5" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9220,7 +9226,7 @@
       <c r="V293" s="1"/>
       <c r="W293" s="1"/>
     </row>
-    <row r="294" ht="13.5" customHeight="1">
+    <row r="294" spans="1:23" ht="13.5" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9245,7 +9251,7 @@
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
     </row>
-    <row r="295" ht="13.5" customHeight="1">
+    <row r="295" spans="1:23" ht="13.5" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9270,7 +9276,7 @@
       <c r="V295" s="1"/>
       <c r="W295" s="1"/>
     </row>
-    <row r="296" ht="13.5" customHeight="1">
+    <row r="296" spans="1:23" ht="13.5" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9295,7 +9301,7 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
     </row>
-    <row r="297" ht="13.5" customHeight="1">
+    <row r="297" spans="1:23" ht="13.5" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9320,7 +9326,7 @@
       <c r="V297" s="1"/>
       <c r="W297" s="1"/>
     </row>
-    <row r="298" ht="13.5" customHeight="1">
+    <row r="298" spans="1:23" ht="13.5" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9345,7 +9351,7 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
     </row>
-    <row r="299" ht="13.5" customHeight="1">
+    <row r="299" spans="1:23" ht="13.5" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9370,7 +9376,7 @@
       <c r="V299" s="1"/>
       <c r="W299" s="1"/>
     </row>
-    <row r="300" ht="13.5" customHeight="1">
+    <row r="300" spans="1:23" ht="13.5" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9395,7 +9401,7 @@
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
     </row>
-    <row r="301" ht="13.5" customHeight="1">
+    <row r="301" spans="1:23" ht="13.5" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9420,7 +9426,7 @@
       <c r="V301" s="1"/>
       <c r="W301" s="1"/>
     </row>
-    <row r="302" ht="13.5" customHeight="1">
+    <row r="302" spans="1:23" ht="13.5" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9445,7 +9451,7 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
     </row>
-    <row r="303" ht="13.5" customHeight="1">
+    <row r="303" spans="1:23" ht="13.5" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9470,7 +9476,7 @@
       <c r="V303" s="1"/>
       <c r="W303" s="1"/>
     </row>
-    <row r="304" ht="13.5" customHeight="1">
+    <row r="304" spans="1:23" ht="13.5" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9495,7 +9501,7 @@
       <c r="V304" s="1"/>
       <c r="W304" s="1"/>
     </row>
-    <row r="305" ht="13.5" customHeight="1">
+    <row r="305" spans="1:23" ht="13.5" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9520,7 +9526,7 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
     </row>
-    <row r="306" ht="13.5" customHeight="1">
+    <row r="306" spans="1:23" ht="13.5" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9545,7 +9551,7 @@
       <c r="V306" s="1"/>
       <c r="W306" s="1"/>
     </row>
-    <row r="307" ht="13.5" customHeight="1">
+    <row r="307" spans="1:23" ht="13.5" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9570,7 +9576,7 @@
       <c r="V307" s="1"/>
       <c r="W307" s="1"/>
     </row>
-    <row r="308" ht="13.5" customHeight="1">
+    <row r="308" spans="1:23" ht="13.5" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9595,7 +9601,7 @@
       <c r="V308" s="1"/>
       <c r="W308" s="1"/>
     </row>
-    <row r="309" ht="13.5" customHeight="1">
+    <row r="309" spans="1:23" ht="13.5" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9620,7 +9626,7 @@
       <c r="V309" s="1"/>
       <c r="W309" s="1"/>
     </row>
-    <row r="310" ht="13.5" customHeight="1">
+    <row r="310" spans="1:23" ht="13.5" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9645,7 +9651,7 @@
       <c r="V310" s="1"/>
       <c r="W310" s="1"/>
     </row>
-    <row r="311" ht="13.5" customHeight="1">
+    <row r="311" spans="1:23" ht="13.5" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9670,7 +9676,7 @@
       <c r="V311" s="1"/>
       <c r="W311" s="1"/>
     </row>
-    <row r="312" ht="13.5" customHeight="1">
+    <row r="312" spans="1:23" ht="13.5" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9695,7 +9701,7 @@
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
     </row>
-    <row r="313" ht="13.5" customHeight="1">
+    <row r="313" spans="1:23" ht="13.5" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9720,7 +9726,7 @@
       <c r="V313" s="1"/>
       <c r="W313" s="1"/>
     </row>
-    <row r="314" ht="13.5" customHeight="1">
+    <row r="314" spans="1:23" ht="13.5" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9745,7 +9751,7 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
     </row>
-    <row r="315" ht="13.5" customHeight="1">
+    <row r="315" spans="1:23" ht="13.5" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9770,7 +9776,7 @@
       <c r="V315" s="1"/>
       <c r="W315" s="1"/>
     </row>
-    <row r="316" ht="13.5" customHeight="1">
+    <row r="316" spans="1:23" ht="13.5" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9795,7 +9801,7 @@
       <c r="V316" s="1"/>
       <c r="W316" s="1"/>
     </row>
-    <row r="317" ht="13.5" customHeight="1">
+    <row r="317" spans="1:23" ht="13.5" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9820,7 +9826,7 @@
       <c r="V317" s="1"/>
       <c r="W317" s="1"/>
     </row>
-    <row r="318" ht="13.5" customHeight="1">
+    <row r="318" spans="1:23" ht="13.5" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9845,7 +9851,7 @@
       <c r="V318" s="1"/>
       <c r="W318" s="1"/>
     </row>
-    <row r="319" ht="13.5" customHeight="1">
+    <row r="319" spans="1:23" ht="13.5" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9870,7 +9876,7 @@
       <c r="V319" s="1"/>
       <c r="W319" s="1"/>
     </row>
-    <row r="320" ht="13.5" customHeight="1">
+    <row r="320" spans="1:23" ht="13.5" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9895,7 +9901,7 @@
       <c r="V320" s="1"/>
       <c r="W320" s="1"/>
     </row>
-    <row r="321" ht="13.5" customHeight="1">
+    <row r="321" spans="1:23" ht="13.5" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9920,7 +9926,7 @@
       <c r="V321" s="1"/>
       <c r="W321" s="1"/>
     </row>
-    <row r="322" ht="13.5" customHeight="1">
+    <row r="322" spans="1:23" ht="13.5" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9945,7 +9951,7 @@
       <c r="V322" s="1"/>
       <c r="W322" s="1"/>
     </row>
-    <row r="323" ht="13.5" customHeight="1">
+    <row r="323" spans="1:23" ht="13.5" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9970,7 +9976,7 @@
       <c r="V323" s="1"/>
       <c r="W323" s="1"/>
     </row>
-    <row r="324" ht="13.5" customHeight="1">
+    <row r="324" spans="1:23" ht="13.5" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9995,7 +10001,7 @@
       <c r="V324" s="1"/>
       <c r="W324" s="1"/>
     </row>
-    <row r="325" ht="13.5" customHeight="1">
+    <row r="325" spans="1:23" ht="13.5" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10020,7 +10026,7 @@
       <c r="V325" s="1"/>
       <c r="W325" s="1"/>
     </row>
-    <row r="326" ht="13.5" customHeight="1">
+    <row r="326" spans="1:23" ht="13.5" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10045,7 +10051,7 @@
       <c r="V326" s="1"/>
       <c r="W326" s="1"/>
     </row>
-    <row r="327" ht="13.5" customHeight="1">
+    <row r="327" spans="1:23" ht="13.5" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10070,7 +10076,7 @@
       <c r="V327" s="1"/>
       <c r="W327" s="1"/>
     </row>
-    <row r="328" ht="13.5" customHeight="1">
+    <row r="328" spans="1:23" ht="13.5" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10095,7 +10101,7 @@
       <c r="V328" s="1"/>
       <c r="W328" s="1"/>
     </row>
-    <row r="329" ht="13.5" customHeight="1">
+    <row r="329" spans="1:23" ht="13.5" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10120,7 +10126,7 @@
       <c r="V329" s="1"/>
       <c r="W329" s="1"/>
     </row>
-    <row r="330" ht="13.5" customHeight="1">
+    <row r="330" spans="1:23" ht="13.5" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10145,7 +10151,7 @@
       <c r="V330" s="1"/>
       <c r="W330" s="1"/>
     </row>
-    <row r="331" ht="13.5" customHeight="1">
+    <row r="331" spans="1:23" ht="13.5" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10170,7 +10176,7 @@
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
     </row>
-    <row r="332" ht="13.5" customHeight="1">
+    <row r="332" spans="1:23" ht="13.5" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10195,7 +10201,7 @@
       <c r="V332" s="1"/>
       <c r="W332" s="1"/>
     </row>
-    <row r="333" ht="13.5" customHeight="1">
+    <row r="333" spans="1:23" ht="13.5" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10220,7 +10226,7 @@
       <c r="V333" s="1"/>
       <c r="W333" s="1"/>
     </row>
-    <row r="334" ht="13.5" customHeight="1">
+    <row r="334" spans="1:23" ht="13.5" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10245,7 +10251,7 @@
       <c r="V334" s="1"/>
       <c r="W334" s="1"/>
     </row>
-    <row r="335" ht="13.5" customHeight="1">
+    <row r="335" spans="1:23" ht="13.5" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10270,7 +10276,7 @@
       <c r="V335" s="1"/>
       <c r="W335" s="1"/>
     </row>
-    <row r="336" ht="13.5" customHeight="1">
+    <row r="336" spans="1:23" ht="13.5" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10295,7 +10301,7 @@
       <c r="V336" s="1"/>
       <c r="W336" s="1"/>
     </row>
-    <row r="337" ht="13.5" customHeight="1">
+    <row r="337" spans="1:23" ht="13.5" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10320,7 +10326,7 @@
       <c r="V337" s="1"/>
       <c r="W337" s="1"/>
     </row>
-    <row r="338" ht="13.5" customHeight="1">
+    <row r="338" spans="1:23" ht="13.5" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10345,7 +10351,7 @@
       <c r="V338" s="1"/>
       <c r="W338" s="1"/>
     </row>
-    <row r="339" ht="13.5" customHeight="1">
+    <row r="339" spans="1:23" ht="13.5" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10370,7 +10376,7 @@
       <c r="V339" s="1"/>
       <c r="W339" s="1"/>
     </row>
-    <row r="340" ht="13.5" customHeight="1">
+    <row r="340" spans="1:23" ht="13.5" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10395,7 +10401,7 @@
       <c r="V340" s="1"/>
       <c r="W340" s="1"/>
     </row>
-    <row r="341" ht="13.5" customHeight="1">
+    <row r="341" spans="1:23" ht="13.5" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10420,7 +10426,7 @@
       <c r="V341" s="1"/>
       <c r="W341" s="1"/>
     </row>
-    <row r="342" ht="13.5" customHeight="1">
+    <row r="342" spans="1:23" ht="13.5" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10445,7 +10451,7 @@
       <c r="V342" s="1"/>
       <c r="W342" s="1"/>
     </row>
-    <row r="343" ht="13.5" customHeight="1">
+    <row r="343" spans="1:23" ht="13.5" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10470,7 +10476,7 @@
       <c r="V343" s="1"/>
       <c r="W343" s="1"/>
     </row>
-    <row r="344" ht="13.5" customHeight="1">
+    <row r="344" spans="1:23" ht="13.5" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10495,7 +10501,7 @@
       <c r="V344" s="1"/>
       <c r="W344" s="1"/>
     </row>
-    <row r="345" ht="13.5" customHeight="1">
+    <row r="345" spans="1:23" ht="13.5" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10520,7 +10526,7 @@
       <c r="V345" s="1"/>
       <c r="W345" s="1"/>
     </row>
-    <row r="346" ht="13.5" customHeight="1">
+    <row r="346" spans="1:23" ht="13.5" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10545,7 +10551,7 @@
       <c r="V346" s="1"/>
       <c r="W346" s="1"/>
     </row>
-    <row r="347" ht="13.5" customHeight="1">
+    <row r="347" spans="1:23" ht="13.5" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10570,7 +10576,7 @@
       <c r="V347" s="1"/>
       <c r="W347" s="1"/>
     </row>
-    <row r="348" ht="13.5" customHeight="1">
+    <row r="348" spans="1:23" ht="13.5" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10595,7 +10601,7 @@
       <c r="V348" s="1"/>
       <c r="W348" s="1"/>
     </row>
-    <row r="349" ht="13.5" customHeight="1">
+    <row r="349" spans="1:23" ht="13.5" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10620,7 +10626,7 @@
       <c r="V349" s="1"/>
       <c r="W349" s="1"/>
     </row>
-    <row r="350" ht="13.5" customHeight="1">
+    <row r="350" spans="1:23" ht="13.5" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10645,7 +10651,7 @@
       <c r="V350" s="1"/>
       <c r="W350" s="1"/>
     </row>
-    <row r="351" ht="13.5" customHeight="1">
+    <row r="351" spans="1:23" ht="13.5" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10670,7 +10676,7 @@
       <c r="V351" s="1"/>
       <c r="W351" s="1"/>
     </row>
-    <row r="352" ht="13.5" customHeight="1">
+    <row r="352" spans="1:23" ht="13.5" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11345,18 +11351,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="C3"/>
-    <hyperlink r:id="rId5" ref="B38"/>
-    <hyperlink r:id="rId6" ref="C38"/>
-    <hyperlink r:id="rId7" ref="B75"/>
-    <hyperlink r:id="rId8" ref="C75"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="B38" r:id="rId5"/>
+    <hyperlink ref="C38" r:id="rId6"/>
+    <hyperlink ref="B75" r:id="rId7"/>
+    <hyperlink ref="C75" r:id="rId8"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -192,9 +192,6 @@
     <t>MORE INFO VERIFICATION DATA FOR PATIENT TO COLLECT PRESCRIPTION</t>
   </si>
   <si>
-    <t>Dr Tim ( VM04Practice );VM04Practice;Patient to Collect Script;Next Day - Fee: NZ$12.00 (Incl. GST);panadol (optizorb) 500mg caplets(paracetamol);Pending</t>
-  </si>
-  <si>
     <t>DATA FOR SENT SCRIPT BY POST</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>URGENCY PRICE</t>
   </si>
   <si>
-    <t>Urgent/Same day - Fee: NZ$11.00 (Incl. GST);Next Day - Fee: NZ$12.00 (Incl. GST);48 Hours - Fee: NZ$13.00 (Incl. GST);72 Hours - Fee: NZ$14.00 (Incl. GST)</t>
-  </si>
-  <si>
     <t>EMAIL_FOR_HEALTH</t>
   </si>
   <si>
@@ -760,13 +754,19 @@
   </si>
   <si>
     <t>APPOINTMENT_DETAILS_FOR_JOIN_VIDEO_CONSULTATION</t>
+  </si>
+  <si>
+    <t>Dr Tim ( VM04Practice );VM04Practice;Patient to Collect Script;Next Day - Fee: NZ$;panadol (optizorb) 500mg caplets(paracetamol);Pending</t>
+  </si>
+  <si>
+    <t>Urgent/Same day - Fee: NZ$111.00 (Incl. GST);Next Day - Fee: NZ$112.00 (Incl. GST);48 Hours - Fee: NZ$113.00 (Incl. GST);72 Hours - Fee: NZ$0.00 (Incl. GST)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +826,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -899,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -909,12 +921,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -940,6 +946,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2206,7 +2221,7 @@
     </row>
     <row r="36" spans="1:23" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
@@ -2262,10 +2277,10 @@
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="1"/>
@@ -2320,7 +2335,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5" customHeight="1">
+    <row r="40" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2345,14 +2360,14 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A41" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="1"/>
@@ -2376,14 +2391,14 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A42" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D42" s="1"/>
@@ -2407,15 +2422,15 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A43" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>57</v>
+      <c r="B43" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2438,10 +2453,10 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+    <row r="44" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2463,10 +2478,10 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+    <row r="45" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2488,15 +2503,15 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>59</v>
+      <c r="C46" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2519,15 +2534,15 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>61</v>
+      <c r="C47" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2550,12 +2565,12 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+    <row r="48" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A48" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2577,10 +2592,10 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+    <row r="49" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2602,10 +2617,10 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+    <row r="50" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2627,15 +2642,15 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A51" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>64</v>
+      <c r="C51" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2658,15 +2673,15 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A52" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>66</v>
+      <c r="C52" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2689,12 +2704,12 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+    <row r="53" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A53" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2716,10 +2731,10 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+    <row r="54" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2741,10 +2756,10 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+    <row r="55" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2766,15 +2781,15 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A56" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>69</v>
+      <c r="C56" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2797,15 +2812,15 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A57" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>71</v>
+      <c r="C57" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2828,12 +2843,12 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+    <row r="58" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A58" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2855,10 +2870,10 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+    <row r="59" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2880,10 +2895,10 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+    <row r="60" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2905,15 +2920,15 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>69</v>
+    <row r="61" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A61" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2936,15 +2951,15 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>71</v>
+    <row r="62" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A62" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2967,10 +2982,10 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+    <row r="63" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2992,10 +3007,10 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+    <row r="64" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3017,15 +3032,15 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>69</v>
+    <row r="65" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A65" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3048,15 +3063,15 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A66" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>71</v>
+    <row r="66" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A66" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3079,10 +3094,10 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+    <row r="67" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3104,10 +3119,10 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+    <row r="68" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3129,15 +3144,15 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A69" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>78</v>
+      <c r="C69" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3160,15 +3175,15 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A70" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>80</v>
+      <c r="C70" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3191,15 +3206,15 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A71" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>82</v>
+      <c r="C71" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3222,15 +3237,15 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>84</v>
+    <row r="72" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A72" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3278,7 +3293,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="13.5" customHeight="1">
+    <row r="74" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3303,14 +3318,14 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="10" t="s">
+    <row r="75" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A75" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="1"/>
@@ -3334,11 +3349,11 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A76" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="12" t="s">
+    <row r="76" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A76" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -3366,8 +3381,8 @@
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3391,14 +3406,14 @@
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>88</v>
+      <c r="A78" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3422,14 +3437,14 @@
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>90</v>
+      <c r="A79" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3453,14 +3468,14 @@
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>92</v>
+      <c r="A80" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3484,14 +3499,14 @@
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A81" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>94</v>
+      <c r="A81" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3515,14 +3530,14 @@
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A82" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>96</v>
+      <c r="A82" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3546,14 +3561,14 @@
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>98</v>
+      <c r="A83" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3577,14 +3592,14 @@
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>100</v>
+      <c r="A84" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3608,14 +3623,14 @@
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A85" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>102</v>
+      <c r="A85" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3639,14 +3654,14 @@
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>104</v>
+      <c r="A86" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3670,14 +3685,14 @@
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A87" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>106</v>
+      <c r="A87" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3701,14 +3716,14 @@
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>108</v>
+      <c r="A88" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3732,14 +3747,14 @@
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>110</v>
+      <c r="A89" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3763,14 +3778,14 @@
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>112</v>
+      <c r="A90" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3794,14 +3809,14 @@
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>114</v>
+      <c r="A91" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3825,14 +3840,14 @@
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>116</v>
+      <c r="A92" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3856,14 +3871,14 @@
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A93" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>118</v>
+      <c r="A93" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3887,14 +3902,14 @@
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>120</v>
+      <c r="A94" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3918,14 +3933,14 @@
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A95" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>122</v>
+      <c r="A95" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3949,14 +3964,14 @@
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>124</v>
+      <c r="A96" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3980,14 +3995,14 @@
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A97" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>126</v>
+      <c r="A97" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4011,14 +4026,14 @@
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>128</v>
+      <c r="A98" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4042,14 +4057,14 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A99" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>130</v>
+      <c r="A99" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4073,14 +4088,14 @@
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>132</v>
+      <c r="A100" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4104,14 +4119,14 @@
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A101" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>134</v>
+      <c r="A101" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4135,14 +4150,14 @@
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A102" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>136</v>
+      <c r="A102" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4166,14 +4181,14 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A103" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>138</v>
+      <c r="A103" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4197,14 +4212,14 @@
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A104" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>140</v>
+      <c r="A104" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4228,14 +4243,14 @@
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>142</v>
+      <c r="A105" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4259,14 +4274,14 @@
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>144</v>
+      <c r="A106" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4290,14 +4305,14 @@
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A107" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>146</v>
+      <c r="A107" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4321,14 +4336,14 @@
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A108" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>148</v>
+      <c r="A108" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4352,14 +4367,14 @@
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>150</v>
+      <c r="A109" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4383,14 +4398,14 @@
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A110" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>152</v>
+      <c r="A110" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4414,14 +4429,14 @@
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A111" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>154</v>
+      <c r="A111" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4445,14 +4460,14 @@
       <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>156</v>
+      <c r="A112" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4476,14 +4491,14 @@
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A113" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>158</v>
+      <c r="A113" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4507,14 +4522,14 @@
       <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>160</v>
+      <c r="A114" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4538,14 +4553,14 @@
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4569,14 +4584,14 @@
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4600,14 +4615,14 @@
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>169</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4631,14 +4646,14 @@
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>172</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4662,14 +4677,14 @@
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4693,14 +4708,14 @@
       <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>178</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4724,14 +4739,14 @@
       <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4755,10 +4770,10 @@
       <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14" t="s">
-        <v>182</v>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4782,14 +4797,14 @@
       <c r="W122" s="1"/>
     </row>
     <row r="123" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4813,10 +4828,10 @@
       <c r="W123" s="1"/>
     </row>
     <row r="124" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14" t="s">
-        <v>186</v>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4840,14 +4855,14 @@
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4871,14 +4886,14 @@
       <c r="W125" s="1"/>
     </row>
     <row r="126" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4902,14 +4917,14 @@
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>195</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4933,14 +4948,14 @@
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>198</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4964,14 +4979,14 @@
       <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4995,14 +5010,14 @@
       <c r="W129" s="1"/>
     </row>
     <row r="130" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5026,14 +5041,14 @@
       <c r="W130" s="1"/>
     </row>
     <row r="131" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A131" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>206</v>
+      <c r="A131" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5057,14 +5072,14 @@
       <c r="W131" s="1"/>
     </row>
     <row r="132" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A132" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>208</v>
+      <c r="A132" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5088,14 +5103,14 @@
       <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>210</v>
+      <c r="A133" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5119,14 +5134,14 @@
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A134" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>212</v>
+      <c r="A134" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5150,14 +5165,14 @@
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A135" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>214</v>
+      <c r="A135" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5181,14 +5196,14 @@
       <c r="W135" s="1"/>
     </row>
     <row r="136" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A136" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>216</v>
+      <c r="A136" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5212,14 +5227,14 @@
       <c r="W136" s="1"/>
     </row>
     <row r="137" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A137" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>218</v>
+      <c r="A137" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5243,9 +5258,9 @@
       <c r="W137" s="1"/>
     </row>
     <row r="138" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5268,14 +5283,14 @@
       <c r="W138" s="1"/>
     </row>
     <row r="139" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A139" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>220</v>
+      <c r="A139" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5299,14 +5314,14 @@
       <c r="W139" s="1"/>
     </row>
     <row r="140" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A140" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>222</v>
+      <c r="A140" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5330,14 +5345,14 @@
       <c r="W140" s="1"/>
     </row>
     <row r="141" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>224</v>
+      <c r="A141" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5361,14 +5376,14 @@
       <c r="W141" s="1"/>
     </row>
     <row r="142" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A142" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>226</v>
+      <c r="A142" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5392,14 +5407,14 @@
       <c r="W142" s="1"/>
     </row>
     <row r="143" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>228</v>
+      <c r="A143" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5423,14 +5438,14 @@
       <c r="W143" s="1"/>
     </row>
     <row r="144" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A144" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>229</v>
+      <c r="A144" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5454,14 +5469,14 @@
       <c r="W144" s="1"/>
     </row>
     <row r="145" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>226</v>
+      <c r="A145" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5485,14 +5500,14 @@
       <c r="W145" s="1"/>
     </row>
     <row r="146" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A146" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>228</v>
+      <c r="A146" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5516,14 +5531,14 @@
       <c r="W146" s="1"/>
     </row>
     <row r="147" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>231</v>
+      <c r="A147" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5547,14 +5562,14 @@
       <c r="W147" s="1"/>
     </row>
     <row r="148" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C148" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5578,14 +5593,14 @@
       <c r="W148" s="1"/>
     </row>
     <row r="149" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C149" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5609,14 +5624,14 @@
       <c r="W149" s="1"/>
     </row>
     <row r="150" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A150" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>239</v>
+      <c r="A150" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5640,14 +5655,14 @@
       <c r="W150" s="1"/>
     </row>
     <row r="151" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A151" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>241</v>
+      <c r="A151" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5671,14 +5686,14 @@
       <c r="W151" s="1"/>
     </row>
     <row r="152" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A152" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>243</v>
+      <c r="A152" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5702,11 +5717,11 @@
       <c r="W152" s="1"/>
     </row>
     <row r="153" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>245</v>
+      <c r="A153" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -11357,8 +11372,8 @@
     <hyperlink ref="C3" r:id="rId4"/>
     <hyperlink ref="B38" r:id="rId5"/>
     <hyperlink ref="C38" r:id="rId6"/>
-    <hyperlink ref="B75" r:id="rId7"/>
-    <hyperlink ref="C75" r:id="rId8"/>
+    <hyperlink ref="C75" r:id="rId7"/>
+    <hyperlink ref="B75" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\Naveen\Appointments_Updated\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inlogic\clone\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="285">
   <si>
     <t>KEY</t>
   </si>
@@ -760,13 +760,127 @@
   </si>
   <si>
     <t>Urgent/Same day - Fee: NZ$111.00 (Incl. GST);Next Day - Fee: NZ$112.00 (Incl. GST);48 Hours - Fee: NZ$113.00 (Incl. GST);72 Hours - Fee: NZ$0.00 (Incl. GST)</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Lab results enquiry;successfuly;MMHtest.jpg </t>
+  </si>
+  <si>
+    <t>SEND_DATA</t>
+  </si>
+  <si>
+    <t>HARRY HARRY;Dr Tim;Lab results enquiry;Lab results enquiry</t>
+  </si>
+  <si>
+    <t>DRAFT_DATA</t>
+  </si>
+  <si>
+    <t>VM03Location;Lab results enquiry;Clinical Staff;Dr Tim</t>
+  </si>
+  <si>
+    <t>DEV_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dev.mmh-demo.com/m/Main/Login#info;tim@mmh-demo.com;Manage@123;MMHtest.jpg </t>
+  </si>
+  <si>
+    <t>INBOX_DATA</t>
+  </si>
+  <si>
+    <t>Dr Tim;HARRY HARRY;Lab results enquiry;Lab results enquiry</t>
+  </si>
+  <si>
+    <t>REPLY_DATA</t>
+  </si>
+  <si>
+    <t>GROUP_MESSAGE_DATA</t>
+  </si>
+  <si>
+    <t>VM03Location;Test Group Message -SB</t>
+  </si>
+  <si>
+    <t>EMAIL FOR MESSAGE</t>
+  </si>
+  <si>
+    <t>PASSWORD FOR MESSAGE</t>
+  </si>
+  <si>
+    <t>TIME_OUT_SETTING</t>
+  </si>
+  <si>
+    <t>2 Hour</t>
+  </si>
+  <si>
+    <t>ALERT TYPE</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>SIGNATURE MESSAGE</t>
+  </si>
+  <si>
+    <t>Signature Testing</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>OUT OF MESSAGE</t>
+  </si>
+  <si>
+    <t>Out of Office Testing</t>
+  </si>
+  <si>
+    <t>AUTOMATIC REPLY MESSAGE</t>
+  </si>
+  <si>
+    <t>Automatic Reply Message Testing</t>
+  </si>
+  <si>
+    <t>OUT_OF_OFFICE_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Out of office reply testing;Body : Out of office reply testing</t>
+  </si>
+  <si>
+    <t>HARRY HARRY;Patient Communication-S;Out of Office Testing</t>
+  </si>
+  <si>
+    <t>AUTOMATIC_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Automatic Reply Message Testing;Body : Automatic reply testing</t>
+  </si>
+  <si>
+    <t>VERIFY_DATA_FOR_ARM</t>
+  </si>
+  <si>
+    <t>HARRY HARRY;Patient Communication-S;Automatic Reply Message Testing</t>
+  </si>
+  <si>
+    <t>EMAIL FOR DOCTOR</t>
+  </si>
+  <si>
+    <t>tim@mmh-demo.com</t>
+  </si>
+  <si>
+    <t>V1 URL</t>
+  </si>
+  <si>
+    <t>PASSWORD FOR DOCTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +949,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF297BDE"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -911,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -957,6 +1104,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,18 +1343,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" customWidth="1"/>
-    <col min="2" max="2" width="157.140625" customWidth="1"/>
-    <col min="3" max="3" width="125.140625" customWidth="1"/>
-    <col min="4" max="23" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="69.54296875" customWidth="1"/>
+    <col min="2" max="2" width="157.1796875" customWidth="1"/>
+    <col min="3" max="3" width="125.1796875" customWidth="1"/>
+    <col min="4" max="23" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1">
@@ -5468,7 +5639,7 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:23" ht="13.5" customHeight="1">
+    <row r="145" spans="1:26" ht="13.5" customHeight="1">
       <c r="A145" s="12" t="s">
         <v>223</v>
       </c>
@@ -5499,7 +5670,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:23" ht="13.5" customHeight="1">
+    <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="12" t="s">
         <v>225</v>
       </c>
@@ -5530,7 +5701,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:23" ht="13.5" customHeight="1">
+    <row r="147" spans="1:26" ht="13.5" customHeight="1">
       <c r="A147" s="12" t="s">
         <v>228</v>
       </c>
@@ -5561,7 +5732,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:23" ht="13.5" customHeight="1">
+    <row r="148" spans="1:26" ht="13.5" customHeight="1">
       <c r="A148" s="12" t="s">
         <v>230</v>
       </c>
@@ -5592,7 +5763,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:23" ht="13.5" customHeight="1">
+    <row r="149" spans="1:26" ht="13.5" customHeight="1">
       <c r="A149" s="12" t="s">
         <v>233</v>
       </c>
@@ -5623,7 +5794,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" ht="13.5" customHeight="1">
+    <row r="150" spans="1:26" ht="13.5" customHeight="1">
       <c r="A150" s="12" t="s">
         <v>236</v>
       </c>
@@ -5654,7 +5825,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:23" ht="13.5" customHeight="1">
+    <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="12" t="s">
         <v>238</v>
       </c>
@@ -5685,7 +5856,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:23" ht="13.5" customHeight="1">
+    <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="12" t="s">
         <v>240</v>
       </c>
@@ -5716,7 +5887,7 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:23" ht="13.5" customHeight="1">
+    <row r="153" spans="1:26" ht="13.5" customHeight="1">
       <c r="A153" s="12" t="s">
         <v>242</v>
       </c>
@@ -5745,7 +5916,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:23" ht="13.5" customHeight="1">
+    <row r="154" spans="1:26" ht="13.5" customHeight="1">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5768,7 +5939,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:23" ht="13.5" customHeight="1">
+    <row r="155" spans="1:26" ht="13.5" customHeight="1">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5791,85 +5962,116 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
-      <c r="V156" s="1"/>
-      <c r="W156" s="1"/>
-    </row>
-    <row r="157" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
-      <c r="V157" s="1"/>
-      <c r="W157" s="1"/>
-    </row>
-    <row r="158" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="W158" s="1"/>
-    </row>
-    <row r="159" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+    <row r="156" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A156" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="21"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="21"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="21"/>
+      <c r="O156" s="21"/>
+      <c r="P156" s="21"/>
+      <c r="Q156" s="21"/>
+      <c r="R156" s="21"/>
+      <c r="S156" s="21"/>
+      <c r="T156" s="21"/>
+      <c r="U156" s="21"/>
+      <c r="V156" s="21"/>
+      <c r="W156" s="21"/>
+      <c r="X156" s="26"/>
+      <c r="Y156" s="26"/>
+      <c r="Z156" s="26"/>
+    </row>
+    <row r="157" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A157" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
+      <c r="M157" s="21"/>
+      <c r="N157" s="21"/>
+      <c r="O157" s="21"/>
+      <c r="P157" s="21"/>
+      <c r="Q157" s="21"/>
+      <c r="R157" s="21"/>
+      <c r="S157" s="21"/>
+      <c r="T157" s="21"/>
+      <c r="U157" s="21"/>
+      <c r="V157" s="21"/>
+      <c r="W157" s="21"/>
+      <c r="X157" s="26"/>
+      <c r="Y157" s="26"/>
+      <c r="Z157" s="26"/>
+    </row>
+    <row r="158" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A158" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="21"/>
+      <c r="O158" s="21"/>
+      <c r="P158" s="21"/>
+      <c r="Q158" s="21"/>
+      <c r="R158" s="21"/>
+      <c r="S158" s="21"/>
+      <c r="T158" s="21"/>
+      <c r="U158" s="21"/>
+      <c r="V158" s="21"/>
+      <c r="W158" s="21"/>
+      <c r="X158" s="26"/>
+      <c r="Y158" s="26"/>
+      <c r="Z158" s="26"/>
+    </row>
+    <row r="159" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A159" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C159" s="21"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -5891,10 +6093,14 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+    <row r="160" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A160" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C160" s="21"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -5917,9 +6123,13 @@
       <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="A161" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C161" s="21"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -5942,9 +6152,13 @@
       <c r="W161" s="1"/>
     </row>
     <row r="162" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="A162" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C162" s="21"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -5967,9 +6181,13 @@
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="A163" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C163" s="21"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -5992,9 +6210,13 @@
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="A164" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C164" s="21"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6017,9 +6239,13 @@
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C165" s="21"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -6042,9 +6268,9 @@
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -6067,9 +6293,9 @@
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="21"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -6091,10 +6317,10 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+    <row r="168" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A168" s="21"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -6116,10 +6342,16 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+    <row r="169" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A169" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -6141,10 +6373,16 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+    <row r="170" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A170" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -6167,9 +6405,15 @@
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="A171" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B171" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>263</v>
+      </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -6192,9 +6436,15 @@
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="A172" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>265</v>
+      </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -6217,9 +6467,15 @@
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="A173" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>267</v>
+      </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -6242,9 +6498,11 @@
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="A174" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -6267,9 +6525,11 @@
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="A175" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B175" s="21"/>
+      <c r="C175" s="21"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -6292,9 +6552,15 @@
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="A176" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>271</v>
+      </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -6317,9 +6583,15 @@
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>273</v>
+      </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -6342,9 +6614,9 @@
       <c r="W177" s="1"/>
     </row>
     <row r="178" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -6367,9 +6639,15 @@
       <c r="W178" s="1"/>
     </row>
     <row r="179" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="A179" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>275</v>
+      </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -6392,9 +6670,13 @@
       <c r="W179" s="1"/>
     </row>
     <row r="180" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="A180" s="27"/>
+      <c r="B180" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>276</v>
+      </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -6417,9 +6699,15 @@
       <c r="W180" s="1"/>
     </row>
     <row r="181" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="A181" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -6442,9 +6730,15 @@
       <c r="W181" s="1"/>
     </row>
     <row r="182" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="A182" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>280</v>
+      </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -6467,9 +6761,13 @@
       <c r="W182" s="1"/>
     </row>
     <row r="183" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="A183" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C183" s="21"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -6492,9 +6790,9 @@
       <c r="W183" s="1"/>
     </row>
     <row r="184" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -10716,22 +11014,46 @@
       <c r="V352" s="1"/>
       <c r="W352" s="1"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="353" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1"/>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+      <c r="P353" s="1"/>
+      <c r="Q353" s="1"/>
+      <c r="R353" s="1"/>
+      <c r="S353" s="1"/>
+      <c r="T353" s="1"/>
+      <c r="U353" s="1"/>
+      <c r="V353" s="1"/>
+      <c r="W353" s="1"/>
+    </row>
+    <row r="354" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="355" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="356" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="357" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="358" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="359" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="360" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="361" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="362" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="363" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="364" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="365" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="366" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="367" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="368" spans="1:23" ht="15.75" customHeight="1"/>
     <row r="369" ht="15.75" customHeight="1"/>
     <row r="370" ht="15.75" customHeight="1"/>
     <row r="371" ht="15.75" customHeight="1"/>
@@ -11364,6 +11686,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -11374,6 +11697,11 @@
     <hyperlink ref="C38" r:id="rId6"/>
     <hyperlink ref="C75" r:id="rId7"/>
     <hyperlink ref="B75" r:id="rId8"/>
+    <hyperlink ref="B162" r:id="rId9" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
+    <hyperlink ref="B169" r:id="rId10"/>
+    <hyperlink ref="C169" r:id="rId11"/>
+    <hyperlink ref="B156" r:id="rId12"/>
+    <hyperlink ref="C156" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inlogic\clone\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INLOGIC\Complete_Pack\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="283">
   <si>
     <t>KEY</t>
   </si>
@@ -54,9 +54,6 @@
     <t>BOOK_VISIT_APPOINTMENT</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Visit;9:00 AM;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>VISIT_APPOINTMENT_DETAILS</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>BOOK_VIDEO_APPOINTMENT</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Video Appointment;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>VIDEO_APPOINTMENT_DETAILS</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>BOOK_VISIT_IN_VIDEO_APPOINTMENT</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Video;9:00 AM;Book Face to Face;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>VISIT_IN_VIDEO_APPOINTMENT_DETAILS</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>BOOK_PHONE_APPOINTMENT</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);Check me,An existing issue;Phone;9:00 AM;Dr Sam Entwistle;022;784512369;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>PHONE_APPOINTMENT_DETAILS</t>
   </si>
   <si>
@@ -714,21 +702,9 @@
     <t>DATA_MY_ENTRIES_COVID_IMMUNISATIONS</t>
   </si>
   <si>
-    <t>23 Jun 2022;Comirnaty, COVID-19 mRNA (Pfizer-BioNTech)</t>
-  </si>
-  <si>
-    <t>19 May 2022;Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_INSIDE_COVID_IMMUNISATIONS</t>
   </si>
   <si>
-    <t>Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);COVID19 Comirnaty - 2;Test123;23 Jun 2022;Show this entry to my doctor;TestClinical</t>
-  </si>
-  <si>
-    <t>Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);COVID19 Comirnaty - 1;123456ghffb;19 May 2022;Show this entry to my doctor;TestEdit</t>
-  </si>
-  <si>
     <t>VACCINE_NAME</t>
   </si>
   <si>
@@ -874,13 +850,31 @@
   </si>
   <si>
     <t>PASSWORD FOR DOCTOR</t>
+  </si>
+  <si>
+    <t>01 Jun 2022;Comirnaty, COVID-19 mRNA (Pfizer-BioNTech)</t>
+  </si>
+  <si>
+    <t>Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);COVID19 Comirnaty - 2;Test123;01 Jun 2022;Show this entry to my doctor;Test02-Additional Information</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Visit;9:00 AM;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Video;9:00 AM;Book Video Appointment;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Video;9:00 AM;Book Face to Face;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Phone;9:00 AM;Dr Sam Entwistle;022;784512369;AFTER_THREE_DAYS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,50 +885,59 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -986,8 +989,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,8 +1009,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1054,11 +1069,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1128,6 +1158,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,16 +1378,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="69.54296875" customWidth="1"/>
-    <col min="2" max="2" width="157.1796875" customWidth="1"/>
-    <col min="3" max="3" width="125.1796875" customWidth="1"/>
-    <col min="4" max="23" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" customWidth="1"/>
+    <col min="3" max="3" width="135.140625" customWidth="1"/>
+    <col min="4" max="23" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1">
@@ -1486,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1514,13 +1547,13 @@
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1545,13 +1578,13 @@
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1576,10 +1609,10 @@
     </row>
     <row r="8" spans="1:23" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1630,13 +1663,13 @@
     </row>
     <row r="10" spans="1:23" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1661,13 +1694,13 @@
     </row>
     <row r="11" spans="1:23" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1692,13 +1725,13 @@
     </row>
     <row r="12" spans="1:23" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1723,10 +1756,10 @@
     </row>
     <row r="13" spans="1:23" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1777,13 +1810,13 @@
     </row>
     <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1808,13 +1841,13 @@
     </row>
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1839,13 +1872,13 @@
     </row>
     <row r="17" spans="1:23" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1870,10 +1903,10 @@
     </row>
     <row r="18" spans="1:23" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1924,13 +1957,13 @@
     </row>
     <row r="20" spans="1:23" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1955,13 +1988,13 @@
     </row>
     <row r="21" spans="1:23" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1986,13 +2019,13 @@
     </row>
     <row r="22" spans="1:23" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2017,10 +2050,10 @@
     </row>
     <row r="23" spans="1:23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2071,13 +2104,13 @@
     </row>
     <row r="25" spans="1:23" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2102,13 +2135,13 @@
     </row>
     <row r="26" spans="1:23" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2133,13 +2166,13 @@
     </row>
     <row r="27" spans="1:23" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2164,13 +2197,13 @@
     </row>
     <row r="28" spans="1:23" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2195,10 +2228,10 @@
     </row>
     <row r="29" spans="1:23" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2249,13 +2282,13 @@
     </row>
     <row r="31" spans="1:23" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2280,13 +2313,13 @@
     </row>
     <row r="32" spans="1:23" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2336,13 +2369,13 @@
     </row>
     <row r="34" spans="1:23" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2392,10 +2425,10 @@
     </row>
     <row r="36" spans="1:23" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2446,13 +2479,13 @@
     </row>
     <row r="38" spans="1:23" ht="13.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2477,7 +2510,7 @@
     </row>
     <row r="39" spans="1:23" ht="13.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>9</v>
@@ -2533,13 +2566,13 @@
     </row>
     <row r="41" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2564,13 +2597,13 @@
     </row>
     <row r="42" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A42" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2595,13 +2628,13 @@
     </row>
     <row r="43" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A43" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2676,13 +2709,13 @@
     </row>
     <row r="46" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A46" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2707,13 +2740,13 @@
     </row>
     <row r="47" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2738,7 +2771,7 @@
     </row>
     <row r="48" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A48" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -2815,13 +2848,13 @@
     </row>
     <row r="51" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A51" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2846,13 +2879,13 @@
     </row>
     <row r="52" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A52" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2877,7 +2910,7 @@
     </row>
     <row r="53" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A53" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -2954,13 +2987,13 @@
     </row>
     <row r="56" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A56" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2985,13 +3018,13 @@
     </row>
     <row r="57" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3016,7 +3049,7 @@
     </row>
     <row r="58" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A58" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -3093,13 +3126,13 @@
     </row>
     <row r="61" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A61" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3124,13 +3157,13 @@
     </row>
     <row r="62" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A62" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3205,13 +3238,13 @@
     </row>
     <row r="65" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A65" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3236,13 +3269,13 @@
     </row>
     <row r="66" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A66" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3317,13 +3350,13 @@
     </row>
     <row r="69" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A69" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3348,13 +3381,13 @@
     </row>
     <row r="70" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A70" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3379,13 +3412,13 @@
     </row>
     <row r="71" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A71" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3410,13 +3443,13 @@
     </row>
     <row r="72" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A72" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3491,13 +3524,13 @@
     </row>
     <row r="75" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3522,7 +3555,7 @@
     </row>
     <row r="76" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A76" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>9</v>
@@ -3578,13 +3611,13 @@
     </row>
     <row r="78" spans="1:23" ht="13.5" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3609,13 +3642,13 @@
     </row>
     <row r="79" spans="1:23" ht="13.5" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3640,13 +3673,13 @@
     </row>
     <row r="80" spans="1:23" ht="13.5" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3671,13 +3704,13 @@
     </row>
     <row r="81" spans="1:23" ht="13.5" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3702,13 +3735,13 @@
     </row>
     <row r="82" spans="1:23" ht="13.5" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3733,13 +3766,13 @@
     </row>
     <row r="83" spans="1:23" ht="13.5" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3764,13 +3797,13 @@
     </row>
     <row r="84" spans="1:23" ht="13.5" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3795,13 +3828,13 @@
     </row>
     <row r="85" spans="1:23" ht="13.5" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3826,13 +3859,13 @@
     </row>
     <row r="86" spans="1:23" ht="13.5" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3857,13 +3890,13 @@
     </row>
     <row r="87" spans="1:23" ht="13.5" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3888,13 +3921,13 @@
     </row>
     <row r="88" spans="1:23" ht="13.5" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3919,13 +3952,13 @@
     </row>
     <row r="89" spans="1:23" ht="13.5" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3950,13 +3983,13 @@
     </row>
     <row r="90" spans="1:23" ht="13.5" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3981,13 +4014,13 @@
     </row>
     <row r="91" spans="1:23" ht="13.5" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4012,13 +4045,13 @@
     </row>
     <row r="92" spans="1:23" ht="13.5" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4043,13 +4076,13 @@
     </row>
     <row r="93" spans="1:23" ht="13.5" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4074,13 +4107,13 @@
     </row>
     <row r="94" spans="1:23" ht="13.5" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4105,13 +4138,13 @@
     </row>
     <row r="95" spans="1:23" ht="13.5" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4136,13 +4169,13 @@
     </row>
     <row r="96" spans="1:23" ht="13.5" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4167,13 +4200,13 @@
     </row>
     <row r="97" spans="1:23" ht="13.5" customHeight="1">
       <c r="A97" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4198,13 +4231,13 @@
     </row>
     <row r="98" spans="1:23" ht="13.5" customHeight="1">
       <c r="A98" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4229,13 +4262,13 @@
     </row>
     <row r="99" spans="1:23" ht="13.5" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4260,13 +4293,13 @@
     </row>
     <row r="100" spans="1:23" ht="13.5" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4291,13 +4324,13 @@
     </row>
     <row r="101" spans="1:23" ht="13.5" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4322,13 +4355,13 @@
     </row>
     <row r="102" spans="1:23" ht="13.5" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4353,13 +4386,13 @@
     </row>
     <row r="103" spans="1:23" ht="13.5" customHeight="1">
       <c r="A103" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4384,13 +4417,13 @@
     </row>
     <row r="104" spans="1:23" ht="13.5" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4415,13 +4448,13 @@
     </row>
     <row r="105" spans="1:23" ht="13.5" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4446,13 +4479,13 @@
     </row>
     <row r="106" spans="1:23" ht="13.5" customHeight="1">
       <c r="A106" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4477,13 +4510,13 @@
     </row>
     <row r="107" spans="1:23" ht="13.5" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4508,13 +4541,13 @@
     </row>
     <row r="108" spans="1:23" ht="13.5" customHeight="1">
       <c r="A108" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4539,13 +4572,13 @@
     </row>
     <row r="109" spans="1:23" ht="13.5" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4570,13 +4603,13 @@
     </row>
     <row r="110" spans="1:23" ht="13.5" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4601,13 +4634,13 @@
     </row>
     <row r="111" spans="1:23" ht="13.5" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4632,13 +4665,13 @@
     </row>
     <row r="112" spans="1:23" ht="13.5" customHeight="1">
       <c r="A112" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4663,13 +4696,13 @@
     </row>
     <row r="113" spans="1:23" ht="13.5" customHeight="1">
       <c r="A113" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4694,13 +4727,13 @@
     </row>
     <row r="114" spans="1:23" ht="13.5" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4725,13 +4758,13 @@
     </row>
     <row r="115" spans="1:23" ht="13.5" customHeight="1">
       <c r="A115" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4756,13 +4789,13 @@
     </row>
     <row r="116" spans="1:23" ht="13.5" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4787,13 +4820,13 @@
     </row>
     <row r="117" spans="1:23" ht="13.5" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4818,13 +4851,13 @@
     </row>
     <row r="118" spans="1:23" ht="13.5" customHeight="1">
       <c r="A118" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4849,13 +4882,13 @@
     </row>
     <row r="119" spans="1:23" ht="13.5" customHeight="1">
       <c r="A119" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4880,13 +4913,13 @@
     </row>
     <row r="120" spans="1:23" ht="13.5" customHeight="1">
       <c r="A120" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4911,13 +4944,13 @@
     </row>
     <row r="121" spans="1:23" ht="13.5" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4944,7 +4977,7 @@
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4969,13 +5002,13 @@
     </row>
     <row r="123" spans="1:23" ht="13.5" customHeight="1">
       <c r="A123" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5002,7 +5035,7 @@
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5027,13 +5060,13 @@
     </row>
     <row r="125" spans="1:23" ht="13.5" customHeight="1">
       <c r="A125" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5058,13 +5091,13 @@
     </row>
     <row r="126" spans="1:23" ht="13.5" customHeight="1">
       <c r="A126" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5089,13 +5122,13 @@
     </row>
     <row r="127" spans="1:23" ht="13.5" customHeight="1">
       <c r="A127" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5120,13 +5153,13 @@
     </row>
     <row r="128" spans="1:23" ht="13.5" customHeight="1">
       <c r="A128" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5151,13 +5184,13 @@
     </row>
     <row r="129" spans="1:23" ht="13.5" customHeight="1">
       <c r="A129" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5182,13 +5215,13 @@
     </row>
     <row r="130" spans="1:23" ht="13.5" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5213,13 +5246,13 @@
     </row>
     <row r="131" spans="1:23" ht="13.5" customHeight="1">
       <c r="A131" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5244,13 +5277,13 @@
     </row>
     <row r="132" spans="1:23" ht="13.5" customHeight="1">
       <c r="A132" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5275,13 +5308,13 @@
     </row>
     <row r="133" spans="1:23" ht="13.5" customHeight="1">
       <c r="A133" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5306,13 +5339,13 @@
     </row>
     <row r="134" spans="1:23" ht="13.5" customHeight="1">
       <c r="A134" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5337,13 +5370,13 @@
     </row>
     <row r="135" spans="1:23" ht="13.5" customHeight="1">
       <c r="A135" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5368,13 +5401,13 @@
     </row>
     <row r="136" spans="1:23" ht="13.5" customHeight="1">
       <c r="A136" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5399,13 +5432,13 @@
     </row>
     <row r="137" spans="1:23" ht="13.5" customHeight="1">
       <c r="A137" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5455,13 +5488,13 @@
     </row>
     <row r="139" spans="1:23" ht="13.5" customHeight="1">
       <c r="A139" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5486,13 +5519,13 @@
     </row>
     <row r="140" spans="1:23" ht="13.5" customHeight="1">
       <c r="A140" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5517,13 +5550,13 @@
     </row>
     <row r="141" spans="1:23" ht="13.5" customHeight="1">
       <c r="A141" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5548,13 +5581,13 @@
     </row>
     <row r="142" spans="1:23" ht="13.5" customHeight="1">
       <c r="A142" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5579,13 +5612,13 @@
     </row>
     <row r="143" spans="1:23" ht="13.5" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5610,13 +5643,13 @@
     </row>
     <row r="144" spans="1:23" ht="13.5" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5641,13 +5674,13 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" customHeight="1">
       <c r="A145" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5672,13 +5705,13 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5701,15 +5734,15 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" customHeight="1">
+    <row r="147" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
       <c r="A147" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5732,15 +5765,15 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="13.5" customHeight="1">
+    <row r="148" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
       <c r="A148" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>232</v>
+        <v>277</v>
+      </c>
+      <c r="C148" s="31" t="s">
+        <v>277</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5765,13 +5798,13 @@
     </row>
     <row r="149" spans="1:26" ht="13.5" customHeight="1">
       <c r="A149" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>235</v>
+        <v>227</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5796,13 +5829,13 @@
     </row>
     <row r="150" spans="1:26" ht="13.5" customHeight="1">
       <c r="A150" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5827,13 +5860,13 @@
     </row>
     <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5858,13 +5891,13 @@
     </row>
     <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5889,10 +5922,10 @@
     </row>
     <row r="153" spans="1:26" ht="13.5" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5964,7 +5997,7 @@
     </row>
     <row r="156" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A156" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>4</v>
@@ -5998,13 +6031,13 @@
     </row>
     <row r="157" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A157" s="29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D157" s="21"/>
       <c r="E157" s="21"/>
@@ -6032,7 +6065,7 @@
     </row>
     <row r="158" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A158" s="29" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B158" s="21" t="s">
         <v>9</v>
@@ -6066,10 +6099,10 @@
     </row>
     <row r="159" spans="1:26" ht="13.5" customHeight="1">
       <c r="A159" s="21" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C159" s="21"/>
       <c r="D159" s="1"/>
@@ -6095,10 +6128,10 @@
     </row>
     <row r="160" spans="1:26" ht="13.5" customHeight="1">
       <c r="A160" s="21" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C160" s="21"/>
       <c r="D160" s="1"/>
@@ -6124,10 +6157,10 @@
     </row>
     <row r="161" spans="1:23" ht="13.5" customHeight="1">
       <c r="A161" s="21" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C161" s="21"/>
       <c r="D161" s="1"/>
@@ -6153,10 +6186,10 @@
     </row>
     <row r="162" spans="1:23" ht="13.5" customHeight="1">
       <c r="A162" s="21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C162" s="21"/>
       <c r="D162" s="1"/>
@@ -6182,10 +6215,10 @@
     </row>
     <row r="163" spans="1:23" ht="13.5" customHeight="1">
       <c r="A163" s="21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C163" s="21"/>
       <c r="D163" s="1"/>
@@ -6211,10 +6244,10 @@
     </row>
     <row r="164" spans="1:23" ht="13.5" customHeight="1">
       <c r="A164" s="21" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C164" s="21"/>
       <c r="D164" s="1"/>
@@ -6240,10 +6273,10 @@
     </row>
     <row r="165" spans="1:23" ht="13.5" customHeight="1">
       <c r="A165" s="21" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C165" s="21"/>
       <c r="D165" s="1"/>
@@ -6344,7 +6377,7 @@
     </row>
     <row r="169" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A169" s="19" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B169" s="25" t="s">
         <v>7</v>
@@ -6375,7 +6408,7 @@
     </row>
     <row r="170" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A170" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>9</v>
@@ -6406,13 +6439,13 @@
     </row>
     <row r="171" spans="1:23" ht="13.5" customHeight="1">
       <c r="A171" s="26" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6437,13 +6470,13 @@
     </row>
     <row r="172" spans="1:23" ht="13.5" customHeight="1">
       <c r="A172" s="21" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6468,13 +6501,13 @@
     </row>
     <row r="173" spans="1:23" ht="13.5" customHeight="1">
       <c r="A173" s="21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6499,7 +6532,7 @@
     </row>
     <row r="174" spans="1:23" ht="13.5" customHeight="1">
       <c r="A174" s="21" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
@@ -6526,7 +6559,7 @@
     </row>
     <row r="175" spans="1:23" ht="13.5" customHeight="1">
       <c r="A175" s="21" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
@@ -6553,13 +6586,13 @@
     </row>
     <row r="176" spans="1:23" ht="13.5" customHeight="1">
       <c r="A176" s="21" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6584,13 +6617,13 @@
     </row>
     <row r="177" spans="1:23" ht="13.5" customHeight="1">
       <c r="A177" s="21" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6640,13 +6673,13 @@
     </row>
     <row r="179" spans="1:23" ht="13.5" customHeight="1">
       <c r="A179" s="27" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6672,10 +6705,10 @@
     <row r="180" spans="1:23" ht="13.5" customHeight="1">
       <c r="A180" s="27"/>
       <c r="B180" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6700,13 +6733,13 @@
     </row>
     <row r="181" spans="1:23" ht="13.5" customHeight="1">
       <c r="A181" s="27" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6731,13 +6764,13 @@
     </row>
     <row r="182" spans="1:23" ht="13.5" customHeight="1">
       <c r="A182" s="28" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6762,10 +6795,10 @@
     </row>
     <row r="183" spans="1:23" ht="13.5" customHeight="1">
       <c r="A183" s="27" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C183" s="21"/>
       <c r="D183" s="1"/>
@@ -11704,6 +11737,6 @@
     <hyperlink ref="C156" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INLOGIC\Complete_Pack\config\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
-  </bookViews>
   <sheets>
-    <sheet name="MMH" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="MMH" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="320">
   <si>
     <t>KEY</t>
   </si>
@@ -54,6 +46,9 @@
     <t>BOOK_VISIT_APPOINTMENT</t>
   </si>
   <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Visit;9:00 AM;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
     <t>VISIT_APPOINTMENT_DETAILS</t>
   </si>
   <si>
@@ -78,6 +73,9 @@
     <t>BOOK_VIDEO_APPOINTMENT</t>
   </si>
   <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Video;9:00 AM;Book Video Appointment;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
     <t>VIDEO_APPOINTMENT_DETAILS</t>
   </si>
   <si>
@@ -93,6 +91,9 @@
     <t>BOOK_VISIT_IN_VIDEO_APPOINTMENT</t>
   </si>
   <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Video;9:00 AM;Book Face to Face;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
     <t>VISIT_IN_VIDEO_APPOINTMENT_DETAILS</t>
   </si>
   <si>
@@ -102,6 +103,9 @@
     <t>BOOK_PHONE_APPOINTMENT</t>
   </si>
   <si>
+    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Phone;9:00 AM;Dr Sam Entwistle;022;784512369;AFTER_THREE_DAYS</t>
+  </si>
+  <si>
     <t>PHONE_APPOINTMENT_DETAILS</t>
   </si>
   <si>
@@ -156,6 +160,9 @@
     <t>Minimize;Close;Settings;Mute;Share Now;Video Off</t>
   </si>
   <si>
+    <t>APPOINTMENT_DETAILS_FOR_JOIN_VIDEO_CONSULTATION</t>
+  </si>
+  <si>
     <t>EMAIL FOR RRP</t>
   </si>
   <si>
@@ -180,6 +187,9 @@
     <t>MORE INFO VERIFICATION DATA FOR PATIENT TO COLLECT PRESCRIPTION</t>
   </si>
   <si>
+    <t>Dr Tim ( VM04Practice );VM04Practice;Patient to Collect Script;Next Day - Fee: NZ$;panadol (optizorb) 500mg caplets(paracetamol);Pending</t>
+  </si>
+  <si>
     <t>DATA FOR SENT SCRIPT BY POST</t>
   </si>
   <si>
@@ -198,7 +208,7 @@
     <t>DATA FOR PRESCRIPTION BY SENT SCRIPT TO PHARMACY</t>
   </si>
   <si>
-    <t>VM04Practice;Kevin Peterson;Send Script to Pharmacy;Select from my saved list;Chemist Warehouse Auckland;48 Hours - Fee: NZ$;Panadol (Optizorb) 500mg Caplets;Repeat Medication Testing for Sent Script by Pharmacy;Chemist Warehouse Auckland</t>
+    <t>VM04Practice;Kevin Peterson;Send Script to Pharmacy;Find a pharmacy;Auckland;Auckland Central;Chemist Warehouse Auckland;48 Hours - Fee: NZ$;Panadol (Optizorb) 500mg Caplets;Repeat Medication Testing for Sent Script by Pharmacy;Chemist Warehouse Auckland</t>
   </si>
   <si>
     <t>VERIFICATION DATA FOR SENT SCRIPT TO PHARMACY</t>
@@ -258,6 +268,9 @@
     <t>URGENCY PRICE</t>
   </si>
   <si>
+    <t>Urgent/Same day - Fee: NZ$11.00 (Incl. GST);Next Day - Fee: NZ$12.00 (Incl. GST);48 Hours - Fee: NZ$13.00 (Incl. GST);72 Hours - Fee: NZ$14.00 (Incl. GST)</t>
+  </si>
+  <si>
     <t>EMAIL_FOR_HEALTH</t>
   </si>
   <si>
@@ -267,19 +280,19 @@
     <t>PRESCRIPTION_TABLE_DATA</t>
   </si>
   <si>
-    <t>11 Jul 2014;Panadol (Optizorb) 500mg Caplets;2.00 , Three Times Daily;Historic;VM04Practice</t>
+    <t>11 Jul 2014;Panadol (Optizorb) 500mg Caplets;2.00 , Three Times Daily;Historic;VM04Practice;11 Jul 2014 10:14:40 AM</t>
   </si>
   <si>
     <t>PRESCRIPTION_TABLE_DATA_1</t>
   </si>
   <si>
-    <t>11 Jul 2014;Voltaren Rapid Capsules 12.5mg Liq Cap;1 caps, Four Times Daily;Current;VM04Practice</t>
+    <t>11 Jul 2014;Voltaren Rapid Capsules 12.5mg Liq Cap;1 caps, Four Times Daily;Current;VM04Practice;11 Jul 2014 10:14:14 AM</t>
   </si>
   <si>
     <t>PRESCRIPTION_TABLE_DATA_2</t>
   </si>
   <si>
-    <t>02 Apr 2013;Warfarin Sodium 1mg Tab;6 tabs, Once Daily;Current;VM04Practice</t>
+    <t>02 Apr 2013;Warfarin Sodium 1mg Tab;6 tabs, Once Daily;Current;VM04Practice;02 Apr 2013 11:57:34 AM</t>
   </si>
   <si>
     <t>PRESCRIPTION_ICON_DATA</t>
@@ -303,25 +316,25 @@
     <t>CLINIC_TABLE_DATA</t>
   </si>
   <si>
-    <t>03 Jun 2022;Consult In Surgery;System Administrator;VM04Practice</t>
+    <t>03 Jun 2022;Consult In Surgery;System Administrator;VM04Practice;03 Jun 2022 03:28:17 PM</t>
   </si>
   <si>
     <t>CLINIC_TABLE_DATA_1</t>
   </si>
   <si>
-    <t>14 Oct 2015;Consult In Surgery;Dr Ian Bishop;VM04Practice</t>
+    <t>14 Oct 2015;Consult In Surgery;Dr Ian Bishop;VM04Practice;14 Oct 2015 10:02:03 AM</t>
   </si>
   <si>
     <t>CLINIC_TABLE_DATA_2</t>
   </si>
   <si>
-    <t>05 Aug 2014;Consult In Surgery;SPL;VM04Practice</t>
+    <t>05 Aug 2014;Consult In Surgery;SPL;VM04Practice;05 Aug 2014 11:02:37 AM</t>
   </si>
   <si>
     <t>CLINIC_TABLE_DATA_3</t>
   </si>
   <si>
-    <t>11 Jul 2014;Consult In Surgery;Dr Ian Bishop;VM04Practice</t>
+    <t>11 Jul 2014;Consult In Surgery;Dr Ian Bishop;VM04Practice;11 Jul 2014 10:16:01 AM</t>
   </si>
   <si>
     <t>FILTER_BY_DATA</t>
@@ -357,19 +370,19 @@
     <t>CLASSIFICATIONS_TABLE_DATA</t>
   </si>
   <si>
-    <t>11 Jul 2014;Muscle pain;;No;VM04Practice</t>
+    <t>11 Jul 2014;Muscle pain;;No;VM04Practice;11 Jul 2014 10:15:43 AM</t>
   </si>
   <si>
     <t>CLASSIFICATIONS_TABLE_DATA_1</t>
   </si>
   <si>
-    <t>02 Apr 2013;Epilepsy;;No;VM04Practice</t>
+    <t>02 Apr 2013;Epilepsy;;No;VM04Practice;02 Apr 2013 01:31:37 PM</t>
   </si>
   <si>
     <t>CLASSIFICATIONS_TABLE_DATA_2</t>
   </si>
   <si>
-    <t>02 Apr 2013;Asthma;;No;VM04Practice</t>
+    <t>02 Apr 2013;Asthma;;No;VM04Practice;02 Apr 2013 12:35:14 PM</t>
   </si>
   <si>
     <t>CLASSIFICATIONS_ICON_DATA</t>
@@ -393,19 +406,19 @@
     <t>ALLERGIES_TABLE_DATA</t>
   </si>
   <si>
-    <t>08 Jun 2022;Aceglutamide;Drug Class;VM04Practice</t>
+    <t>08 Jun 2022;Aceglutamide;Drug Class;VM04Practice;08 Jun 2022 07:34:04 PM</t>
   </si>
   <si>
     <t>ALLERGIES_TABLE_DATA_1</t>
   </si>
   <si>
-    <t>08 Jun 2022;GABA and GABA analogues;Drug Class;VM04Practice</t>
+    <t>08 Jun 2022;GABA and GABA analogues;Drug Class;VM04Practice;08 Jun 2022 07:18:42 PM</t>
   </si>
   <si>
     <t>ALLERGIES_TABLE_DATA_2</t>
   </si>
   <si>
-    <t>08 Jun 2022;Saccharin;Drug Class;VM04Practice</t>
+    <t>08 Jun 2022;Saccharin;Drug Class;VM04Practice;08 Jun 2022 07:15:33 PM</t>
   </si>
   <si>
     <t>ALLERGIES_ICON_DATA</t>
@@ -429,13 +442,13 @@
     <t>IMMUNISATIONS_TABLE_DATA</t>
   </si>
   <si>
-    <t>08 Jun 2022;aP-2 3m;Non Responder;VM04Practice</t>
+    <t>08 Jun 2022;aP-2 3m;Non Responder;VM04Practice;08 Jun 2022 07:34:51 PM</t>
   </si>
   <si>
     <t>IMMUNISATIONS_TABLE_DATA_1</t>
   </si>
   <si>
-    <t>08 Jun 2022;AstraZ/Covishield -1;Given Elsewhere NZ;VM04Practice</t>
+    <t>08 Jun 2022;AstraZ/Covishield -1;Given Elsewhere NZ;VM04Practice;08 Jun 2022 07:19:29 PM</t>
   </si>
   <si>
     <t>IMMUNISATIONS_ICON_DATA</t>
@@ -453,13 +466,13 @@
     <t>LAB_RESULT_TABLE_DATA</t>
   </si>
   <si>
-    <t>01 Jun 2018;Literal Suffix Removed_hl3 Of;;VM04Practice</t>
+    <t xml:space="preserve">01 Jun 2018;Literal Suffix Removed_hl3 Of;;VM04Practice;01 Jun 2018 12:00:00 AM </t>
   </si>
   <si>
     <t>LAB_RESULT_TABLE_DATA_1</t>
   </si>
   <si>
-    <t>24 Feb 2011;Literal Standard Matching Rend;;VM04Practice</t>
+    <t xml:space="preserve">24 Feb 2011;Literal Standard Matching Rend;;VM04Practice;24 Feb 2011 12:00:00 AM </t>
   </si>
   <si>
     <t>LAB_RESULT_ICON_DATA</t>
@@ -492,64 +505,40 @@
     <t>25 Jun 2022;TestVisited;TestLocation</t>
   </si>
   <si>
-    <t>18 May 2022;doctor;chennai</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_INSIDE_CLINIC_NOTES_1</t>
   </si>
   <si>
     <t>TestVisited;25 Jun 2022;TestLocation;Show this entry to my doctor;TestAdditional</t>
   </si>
   <si>
-    <t>doctor;18 May 2022;chennai;Do not show this entry to my doctor;note testing</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_PRESCRIPTIONS</t>
   </si>
   <si>
     <t>25 Jun 2022;test;test</t>
   </si>
   <si>
-    <t>26 May 2022;prescriptions test;tester</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_INSIDE_PRESCRIPTIONS</t>
   </si>
   <si>
     <t>test;testdose;25 Jun 2022;2;2 times per day;25 Jun 2022;25 Jun 2022;I took this in the past;Show this entry to my doctor;test</t>
   </si>
   <si>
-    <t>prescriptions test;26 May 2022;2;2 times per day;26 May 2022;27 May 2022;I took this in the past;Show this entry to my doctor;tester</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_ALLERGIES</t>
   </si>
   <si>
     <t>23 Jun 2022;TestAllergy;High</t>
   </si>
   <si>
-    <t>14 Jun 2022;Test01-KXVMJUHV;High</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_INSIDE_ALLERGIES</t>
   </si>
   <si>
     <t>TestAllergy;23 Jun 2022;Had this allergy in the past;Show this entry to my doctor;TestAdditional</t>
   </si>
   <si>
-    <t>Test01-KXVMJUHV;14 Jun 2022;Had this allergy in the past;Show this entry to my doctor;Test02-Additional Information</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_IMMUNISATIONS</t>
   </si>
   <si>
-    <t>25 Jun 2022;TestImmunisation</t>
-  </si>
-  <si>
-    <t>27 May 2022;Cls Android</t>
-  </si>
-  <si>
-    <t>26 May 2022;Testt</t>
+    <t>25 Jun 2022;TestImmunisation;25 Jun 2022 12:00:00 AM</t>
   </si>
   <si>
     <t>DATA_MY_ENTRIES_INSIDE_IMMUNISATIONS</t>
@@ -558,37 +547,22 @@
     <t>TestImmunisation;25 Jun 2022;Show this entry to my doctor;TestAdditional</t>
   </si>
   <si>
-    <t>Cls Android;27 May 2022;Show this entry to my doctor;Cls Android</t>
-  </si>
-  <si>
-    <t>Testt;26 May 2022;Show this entry to my doctor;Yes</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_CLASSIFICATIONS</t>
   </si>
   <si>
     <t>23 Jun 2022;TestCondition</t>
   </si>
   <si>
-    <t>19 May 2022;ttee</t>
-  </si>
-  <si>
     <t>DATA_MY_ENTRIES_INSIDE_CLASSIFICATIONS</t>
   </si>
   <si>
     <t>TestCondition;23/06/2022;25 Jun 2022;25 Jun 2022;Historic;Show this entry to my doctor;TestAdditional</t>
   </si>
   <si>
-    <t xml:space="preserve">ttee;19/05/2022;20 May 2022;21 May 2022;Current;Show this entry to my doctor </t>
-  </si>
-  <si>
     <t>RECALLS_REMAINDER_TABLE_DATA</t>
   </si>
   <si>
-    <t>09 Nov 2021;Cervical Smear;CX;17 Dec 2021</t>
-  </si>
-  <si>
-    <t>14 Jun 2022;Body Mass Index;BMI;07 Jun 2022</t>
+    <t>09 Nov 2021;Cervical Smear;CX;17 Dec 2021;09 Nov 2021 06:53:01 PM</t>
   </si>
   <si>
     <t>RECALLS_REMAINDER_ICON_DATA</t>
@@ -597,16 +571,10 @@
     <t>17 Dec 2021;Daisy Daisy;VM03Location;Dr Tim</t>
   </si>
   <si>
-    <t>Test doc :31/12/2021</t>
-  </si>
-  <si>
     <t>RECALLS_TABLE_DATA_1</t>
   </si>
   <si>
-    <t>09 Nov 2021;Cervical Smear;MMH Email;VM03Location</t>
-  </si>
-  <si>
-    <t>14 Jun 2022;Body Mass Index;MMH Email;VM03Location</t>
+    <t>09 Nov 2021;Cervical Smear;MMH Email;VM03Location; 09 Nov 2021 06:53:01 PM</t>
   </si>
   <si>
     <t>RECALLS_ICON_DATA_1</t>
@@ -615,9 +583,6 @@
     <t>09/11/2021 06:53:01 PM;Cervical Smear;Auto Recall;17/12/2021 12:00:00 AM;MMH Email;Dr Tim;VM03Location</t>
   </si>
   <si>
-    <t>14/06/2022 08:37:45 PM;Body Mass Index;note1;07/06/2022 12:00:00 AM;MMH Email;Dr Sam Entwistle;VM03Location</t>
-  </si>
-  <si>
     <t>TEST_RESULT_ICON_DATA</t>
   </si>
   <si>
@@ -693,6 +658,9 @@
     <t>Testdose</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>EDIT_ADDITIONAL</t>
   </si>
   <si>
@@ -702,9 +670,15 @@
     <t>DATA_MY_ENTRIES_COVID_IMMUNISATIONS</t>
   </si>
   <si>
+    <t>01 Jun 2022;Comirnaty, COVID-19 mRNA (Pfizer-BioNTech)</t>
+  </si>
+  <si>
     <t>DATA_MY_ENTRIES_INSIDE_COVID_IMMUNISATIONS</t>
   </si>
   <si>
+    <t>Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);COVID19 Comirnaty - 2;Test123;01 Jun 2022;Show this entry to my doctor;Test02-Additional Information</t>
+  </si>
+  <si>
     <t>VACCINE_NAME</t>
   </si>
   <si>
@@ -729,13 +703,16 @@
     <t>daisy@mmh-demo.com</t>
   </si>
   <si>
-    <t>APPOINTMENT_DETAILS_FOR_JOIN_VIDEO_CONSULTATION</t>
-  </si>
-  <si>
-    <t>Dr Tim ( VM04Practice );VM04Practice;Patient to Collect Script;Next Day - Fee: NZ$;panadol (optizorb) 500mg caplets(paracetamol);Pending</t>
-  </si>
-  <si>
-    <t>Urgent/Same day - Fee: NZ$111.00 (Incl. GST);Next Day - Fee: NZ$112.00 (Incl. GST);48 Hours - Fee: NZ$113.00 (Incl. GST);72 Hours - Fee: NZ$0.00 (Incl. GST)</t>
+    <t>V1 URL</t>
+  </si>
+  <si>
+    <t>EMAIL FOR DOCTOR</t>
+  </si>
+  <si>
+    <t>tim@mmh-demo.com</t>
+  </si>
+  <si>
+    <t>PASSWORD FOR DOCTOR</t>
   </si>
   <si>
     <t>MESSAGE</t>
@@ -840,168 +817,272 @@
     <t>HARRY HARRY;Patient Communication-S;Automatic Reply Message Testing</t>
   </si>
   <si>
-    <t>EMAIL FOR DOCTOR</t>
-  </si>
-  <si>
-    <t>tim@mmh-demo.com</t>
-  </si>
-  <si>
-    <t>V1 URL</t>
-  </si>
-  <si>
-    <t>PASSWORD FOR DOCTOR</t>
-  </si>
-  <si>
-    <t>01 Jun 2022;Comirnaty, COVID-19 mRNA (Pfizer-BioNTech)</t>
-  </si>
-  <si>
-    <t>Comirnaty, COVID-19 mRNA (Pfizer-BioNTech);COVID19 Comirnaty - 2;Test123;01 Jun 2022;Show this entry to my doctor;Test02-Additional Information</t>
-  </si>
-  <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Visit;9:00 AM;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Video;9:00 AM;Book Video Appointment;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Video;9:00 AM;Book Face to Face;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
-    <t>VM03Location;VM03Location;Myself (HARRY HARRY);A new issue,An existing issue;Phone;9:00 AM;Dr Sam Entwistle;022;784512369;AFTER_THREE_DAYS</t>
+    <t>PRESCRIPTION_MOBILE_ICON_DATA</t>
+  </si>
+  <si>
+    <t>VM04Practice;2.00 , Three Times Daily;Historic;7;42;2;Dr Ian Bishop</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION_MOBILE_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>VM04Practice;1 caps, Four Times Daily;Current;10;40;1;Dr Ian Bishop</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION_MOBILE_ICON_DATA_2</t>
+  </si>
+  <si>
+    <t>VM04Practice;6 tabs, Once Daily;Current;7;42;6;System Administrator</t>
+  </si>
+  <si>
+    <t>MOBILE_DATA_MY_ENTRIES_INSIDE_PRESCRIPTIONS</t>
+  </si>
+  <si>
+    <t>testdose;2;2 times per day;25 Jun 2022;25 Jun 2022;I took this in the past;Show this entry to my doctor ;test</t>
+  </si>
+  <si>
+    <t>VISITED_MOBILE_VALUE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ALLERGIES_MOBILE_ICON_DATA</t>
+  </si>
+  <si>
+    <t>Drug Class;VM04Practice;ADM;nte</t>
+  </si>
+  <si>
+    <t>ALLERGIES_MOBILE_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>Drug Class;VM04Practice;ADM;note1</t>
+  </si>
+  <si>
+    <t>ALLERGIES_MOBILE_ICON_DATA_2</t>
+  </si>
+  <si>
+    <t>Drug Class;VM04Practice;ADM;test note1</t>
+  </si>
+  <si>
+    <t>MOBILE_DATA_MY_ENTRIES_INSIDE_ALLERGIES</t>
+  </si>
+  <si>
+    <t>High;Had this allergy in the past;Show this entry to my doctor;TestAdditional</t>
+  </si>
+  <si>
+    <t>IMMUNISATION_MOBILE_ICON_DATA</t>
+  </si>
+  <si>
+    <t>Non Responder;VM04Practice;note1;System Administrator</t>
+  </si>
+  <si>
+    <t>IMMUNISATION_MOBILE_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>Given Elsewhere NZ;VM04Practice;note1;Intra Muscular;System Administrator</t>
+  </si>
+  <si>
+    <t>MOBILE_DATA_MY_ENTRIES_INSIDE_IMMUNISATIONS</t>
+  </si>
+  <si>
+    <t>Show this entry to my doctor;TestAdditional</t>
+  </si>
+  <si>
+    <t>MOBILE_DATA_MY_ENTRIES_INSIDE_COVID_IMMUNISATIONS</t>
+  </si>
+  <si>
+    <t>COVID19 Comirnaty - 2;Test123;Show this entry to my doctor;Test02-Additional Information</t>
+  </si>
+  <si>
+    <t>CLASSIFICATIONS_MOBILE_ICON_DATA</t>
+  </si>
+  <si>
+    <t>Muscle pain;No;Dr Ian Bishop;VM04Practice</t>
+  </si>
+  <si>
+    <t>CLASSIFICATIONS_MOBILE_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>Epilepsy;No;Dr Ian Bishop;VM04Practice</t>
+  </si>
+  <si>
+    <t>CLASSIFICATIONS_MOBILE_ICON_DATA_2</t>
+  </si>
+  <si>
+    <t>Asthma;No;Dr. Jack Dawson;VM04Practice</t>
+  </si>
+  <si>
+    <t>DATA_MOBILE_MY_ENTRIES_INSIDE_CLASSIFICATIONS</t>
+  </si>
+  <si>
+    <t>TestCondition;25 Jun 2022;25 Jun 2022;Historic;Show this entry to my doctor;TestAdditional</t>
+  </si>
+  <si>
+    <t>LAB_RESULT_MOBILE_ICON_DATA</t>
+  </si>
+  <si>
+    <t>VM04Practice;Dr. GP</t>
+  </si>
+  <si>
+    <t>LAB_RESULT_MOBILE_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>TEST_MOBILE_RESULT_ICON_DATA</t>
+  </si>
+  <si>
+    <t>TEST_MOBILE_RESULT_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>CLINIC_MOBILE_ICON_DATA</t>
+  </si>
+  <si>
+    <t>System Administrator;VM04Practice</t>
+  </si>
+  <si>
+    <t>CLINIC_MOBILE_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>Dr Ian Bishop;VM04Practice</t>
+  </si>
+  <si>
+    <t>CLINIC_MOBILE_ICON_DATA_2</t>
+  </si>
+  <si>
+    <t>SPL;VM04Practice</t>
+  </si>
+  <si>
+    <t>CLINIC_MOBILE_ICON_DATA_3</t>
+  </si>
+  <si>
+    <t>MOBILE_DATA_MY_ENTRIES_INSIDE_CLINIC_NOTES_1</t>
+  </si>
+  <si>
+    <t>TestLocation;Show this entry to my doctor;TestAdditional</t>
+  </si>
+  <si>
+    <t>MOBILE_RECALLS_ICON_DATA_1</t>
+  </si>
+  <si>
+    <t>CX;17 Dec 2021</t>
+  </si>
+  <si>
+    <t>MOBILE_RECALLS_REMAINDER_ICON_DATA</t>
+  </si>
+  <si>
+    <t>Cervical Smear;MMH Email;VM03Location;Auto Recall;17 Dec 2021 12:00:00 AM;Dr Tim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="18">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9.8000000000000007"/>
+      <sz val="9.0"/>
       <color rgb="FF297BDE"/>
       <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="9.0"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1009,21 +1090,9 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="4">
+    <border/>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -1037,7 +1106,6 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1052,7 +1120,6 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1067,119 +1134,108 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD1D1D1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD1D1D1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD1D1D1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD1D1D1"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="34">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="3" fillId="2" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="3" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="13" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1369,28 +1425,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" customWidth="1"/>
-    <col min="2" max="2" width="157.140625" customWidth="1"/>
-    <col min="3" max="3" width="135.140625" customWidth="1"/>
-    <col min="4" max="23" width="8.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="69.57"/>
+    <col customWidth="1" min="2" max="2" width="157.14"/>
+    <col customWidth="1" min="3" max="3" width="135.14"/>
+    <col customWidth="1" min="4" max="23" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1475,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1506,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
+    <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +1537,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+    <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1514,15 +1568,15 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+    <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1545,15 +1599,15 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
+    <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1576,15 +1630,15 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1">
+    <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1607,12 +1661,12 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="13.5" customHeight="1">
+    <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1636,7 +1690,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="13.5" customHeight="1">
+    <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1661,15 +1715,15 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
+    <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1692,15 +1746,15 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1723,15 +1777,15 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1754,12 +1808,12 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+    <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1783,7 +1837,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
+    <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1808,15 +1862,15 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1839,15 +1893,15 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
+    <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1870,15 +1924,15 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="13.5" customHeight="1">
+    <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1901,12 +1955,12 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="13.5" customHeight="1">
+    <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1930,7 +1984,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="13.5" customHeight="1">
+    <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1955,15 +2009,15 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="13.5" customHeight="1">
+    <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1986,15 +2040,15 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="13.5" customHeight="1">
+    <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2017,15 +2071,15 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="13.5" customHeight="1">
+    <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2048,12 +2102,12 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="13.5" customHeight="1">
+    <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2077,7 +2131,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="13.5" customHeight="1">
+    <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2102,15 +2156,15 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="13.5" customHeight="1">
+    <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2133,15 +2187,15 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="13.5" customHeight="1">
+    <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2164,15 +2218,15 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="13.5" customHeight="1">
+    <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2195,15 +2249,15 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="13.5" customHeight="1">
+    <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2226,12 +2280,12 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="13.5" customHeight="1">
+    <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2255,7 +2309,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1">
+    <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2280,15 +2334,15 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1">
+    <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2311,15 +2365,15 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="13.5" customHeight="1">
+    <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2342,7 +2396,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="13.5" customHeight="1">
+    <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2367,15 +2421,15 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="13.5" customHeight="1">
+    <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2398,7 +2452,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="13.5" customHeight="1">
+    <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2423,12 +2477,12 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="13.5" customHeight="1">
+    <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2452,7 +2506,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="13.5" customHeight="1">
+    <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2477,15 +2531,15 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="13.5" customHeight="1">
+    <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2508,14 +2562,14 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="13.5" customHeight="1">
+    <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="1"/>
@@ -2539,7 +2593,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2564,15 +2618,15 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A41" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>49</v>
+    <row r="41" ht="13.5" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2595,15 +2649,15 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A42" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>51</v>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2626,15 +2680,15 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>237</v>
+    <row r="43" ht="13.5" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2657,10 +2711,10 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+    <row r="44" ht="13.5" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2682,10 +2736,10 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+    <row r="45" ht="13.5" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2707,15 +2761,15 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A46" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>54</v>
+    <row r="46" ht="13.5" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2738,15 +2792,15 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A47" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>56</v>
+    <row r="47" ht="13.5" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2769,12 +2823,12 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A48" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+    <row r="48" ht="13.5" customHeight="1">
+      <c r="A48" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2796,10 +2850,10 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+    <row r="49" ht="13.5" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2821,10 +2875,10 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+    <row r="50" ht="13.5" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2846,15 +2900,15 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A51" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>59</v>
+    <row r="51" ht="13.5" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2877,15 +2931,15 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A52" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>61</v>
+    <row r="52" ht="13.5" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2908,12 +2962,12 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A53" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
+    <row r="53" ht="13.5" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2935,10 +2989,10 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+    <row r="54" ht="13.5" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2960,10 +3014,10 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+    <row r="55" ht="13.5" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2985,15 +3039,15 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A56" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>64</v>
+    <row r="56" ht="13.5" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3016,15 +3070,15 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A57" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>66</v>
+    <row r="57" ht="13.5" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3047,12 +3101,12 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A58" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+    <row r="58" ht="13.5" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3074,10 +3128,10 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+    <row r="59" ht="13.5" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3099,10 +3153,10 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3124,15 +3178,15 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A61" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>64</v>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3155,15 +3209,15 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A62" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>66</v>
+    <row r="62" ht="13.5" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3186,10 +3240,10 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
+    <row r="63" ht="13.5" customHeight="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3211,10 +3265,10 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3236,15 +3290,15 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A65" s="18" t="s">
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>64</v>
+      <c r="C65" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3267,15 +3321,15 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A66" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>66</v>
+    <row r="66" ht="13.5" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3298,10 +3352,10 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
+    <row r="67" ht="13.5" customHeight="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3323,10 +3377,10 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
+    <row r="68" ht="13.5" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3348,15 +3402,15 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A69" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>73</v>
+    <row r="69" ht="13.5" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3379,15 +3433,15 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A70" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>75</v>
+    <row r="70" ht="13.5" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3410,15 +3464,15 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A71" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>77</v>
+    <row r="71" ht="13.5" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3441,15 +3495,15 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A72" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>238</v>
+    <row r="72" ht="13.5" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3472,7 +3526,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="13.5" customHeight="1">
+    <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3497,7 +3551,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="74" ht="13.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3522,15 +3576,15 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A75" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>46</v>
+    <row r="75" ht="13.5" customHeight="1">
+      <c r="A75" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3553,14 +3607,14 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A76" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="10" t="s">
+    <row r="76" ht="13.5" customHeight="1">
+      <c r="A76" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="1"/>
@@ -3584,10 +3638,10 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="1"/>
+    <row r="77" ht="13.5" customHeight="1">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3609,15 +3663,15 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A78" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>82</v>
+    <row r="78" ht="13.5" customHeight="1">
+      <c r="A78" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3640,15 +3694,15 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A79" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>84</v>
+    <row r="79" ht="13.5" customHeight="1">
+      <c r="A79" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3671,15 +3725,15 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A80" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>86</v>
+    <row r="80" ht="13.5" customHeight="1">
+      <c r="A80" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3702,15 +3756,15 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A81" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>88</v>
+    <row r="81" ht="13.5" customHeight="1">
+      <c r="A81" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3733,15 +3787,15 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>90</v>
+    <row r="82" ht="13.5" customHeight="1">
+      <c r="A82" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3764,15 +3818,15 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>92</v>
+    <row r="83" ht="13.5" customHeight="1">
+      <c r="A83" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3795,15 +3849,15 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>94</v>
+    <row r="84" ht="13.5" customHeight="1">
+      <c r="A84" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3826,15 +3880,15 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A85" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>96</v>
+    <row r="85" ht="13.5" customHeight="1">
+      <c r="A85" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3857,15 +3911,15 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>98</v>
+    <row r="86" ht="13.5" customHeight="1">
+      <c r="A86" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3888,15 +3942,15 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A87" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>100</v>
+    <row r="87" ht="13.5" customHeight="1">
+      <c r="A87" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3919,15 +3973,15 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>102</v>
+    <row r="88" ht="13.5" customHeight="1">
+      <c r="A88" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3950,15 +4004,15 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A89" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>104</v>
+    <row r="89" ht="13.5" customHeight="1">
+      <c r="A89" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3981,15 +4035,15 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>106</v>
+    <row r="90" ht="13.5" customHeight="1">
+      <c r="A90" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4012,15 +4066,15 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A91" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>108</v>
+    <row r="91" ht="13.5" customHeight="1">
+      <c r="A91" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4043,15 +4097,15 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A92" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>110</v>
+    <row r="92" ht="13.5" customHeight="1">
+      <c r="A92" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4074,15 +4128,15 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A93" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>112</v>
+    <row r="93" ht="13.5" customHeight="1">
+      <c r="A93" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4105,15 +4159,15 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A94" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>114</v>
+    <row r="94" ht="13.5" customHeight="1">
+      <c r="A94" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4136,15 +4190,15 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A95" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>116</v>
+    <row r="95" ht="13.5" customHeight="1">
+      <c r="A95" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4167,15 +4221,15 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A96" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>118</v>
+    <row r="96" ht="13.5" customHeight="1">
+      <c r="A96" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4198,15 +4252,15 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A97" s="12" t="s">
-        <v>119</v>
+    <row r="97" ht="13.5" customHeight="1">
+      <c r="A97" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4229,15 +4283,15 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A98" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>122</v>
+    <row r="98" ht="13.5" customHeight="1">
+      <c r="A98" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4260,15 +4314,15 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A99" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>124</v>
+    <row r="99" ht="13.5" customHeight="1">
+      <c r="A99" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4291,15 +4345,15 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>125</v>
+    <row r="100" ht="13.5" customHeight="1">
+      <c r="A100" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4322,15 +4376,15 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A101" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>128</v>
+    <row r="101" ht="13.5" customHeight="1">
+      <c r="A101" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4353,15 +4407,15 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A102" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>130</v>
+    <row r="102" ht="13.5" customHeight="1">
+      <c r="A102" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4384,15 +4438,15 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A103" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>132</v>
+    <row r="103" ht="13.5" customHeight="1">
+      <c r="A103" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4415,15 +4469,15 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>134</v>
+    <row r="104" ht="13.5" customHeight="1">
+      <c r="A104" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4446,15 +4500,15 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>136</v>
+    <row r="105" ht="13.5" customHeight="1">
+      <c r="A105" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4477,15 +4531,15 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A106" s="12" t="s">
-        <v>137</v>
+    <row r="106" ht="13.5" customHeight="1">
+      <c r="A106" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4508,15 +4562,15 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A107" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>140</v>
+    <row r="107" ht="13.5" customHeight="1">
+      <c r="A107" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4539,15 +4593,15 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A108" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>142</v>
+    <row r="108" ht="13.5" customHeight="1">
+      <c r="A108" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4570,15 +4624,15 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A109" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>144</v>
+    <row r="109" ht="13.5" customHeight="1">
+      <c r="A109" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4601,15 +4655,15 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A110" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>146</v>
+    <row r="110" ht="13.5" customHeight="1">
+      <c r="A110" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4632,15 +4686,15 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A111" s="12" t="s">
-        <v>147</v>
+    <row r="111" ht="13.5" customHeight="1">
+      <c r="A111" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4663,15 +4717,15 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A112" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>150</v>
+    <row r="112" ht="13.5" customHeight="1">
+      <c r="A112" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4694,15 +4748,15 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A113" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>152</v>
+    <row r="113" ht="13.5" customHeight="1">
+      <c r="A113" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4725,15 +4779,15 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A114" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>154</v>
+    <row r="114" ht="13.5" customHeight="1">
+      <c r="A114" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4756,15 +4810,15 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A115" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>157</v>
+    <row r="115" ht="13.5" customHeight="1">
+      <c r="A115" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4787,15 +4841,15 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A116" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>160</v>
+    <row r="116" ht="13.5" customHeight="1">
+      <c r="A116" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4818,15 +4872,15 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>163</v>
+    <row r="117" ht="13.5" customHeight="1">
+      <c r="A117" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4849,15 +4903,15 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A118" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>166</v>
+    <row r="118" ht="13.5" customHeight="1">
+      <c r="A118" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4880,15 +4934,15 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A119" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>169</v>
+    <row r="119" ht="13.5" customHeight="1">
+      <c r="A119" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4911,15 +4965,15 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A120" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C120" s="12" t="s">
+    <row r="120" ht="13.5" customHeight="1">
+      <c r="A120" s="15" t="s">
         <v>172</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4942,14 +4996,14 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A121" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B121" s="12" t="s">
+    <row r="121" ht="13.5" customHeight="1">
+      <c r="A121" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="B121" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>175</v>
       </c>
       <c r="D121" s="1"/>
@@ -4973,12 +5027,10 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12" t="s">
-        <v>176</v>
-      </c>
+    <row r="122" ht="13.5" customHeight="1">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5000,15 +5052,15 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A123" s="12" t="s">
+    <row r="123" ht="13.5" customHeight="1">
+      <c r="A123" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>179</v>
+      <c r="C123" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5031,12 +5083,10 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12" t="s">
-        <v>180</v>
-      </c>
+    <row r="124" ht="13.5" customHeight="1">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5058,15 +5108,15 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A125" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>183</v>
+    <row r="125" ht="13.5" customHeight="1">
+      <c r="A125" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5089,15 +5139,15 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A126" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>186</v>
+    <row r="126" ht="13.5" customHeight="1">
+      <c r="A126" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5120,15 +5170,15 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A127" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>189</v>
+    <row r="127" ht="13.5" customHeight="1">
+      <c r="A127" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5151,15 +5201,15 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A128" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>192</v>
+    <row r="128" ht="13.5" customHeight="1">
+      <c r="A128" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5182,15 +5232,15 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A129" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>195</v>
+    <row r="129" ht="13.5" customHeight="1">
+      <c r="A129" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5213,15 +5263,15 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A130" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>198</v>
+    <row r="130" ht="13.5" customHeight="1">
+      <c r="A130" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5244,15 +5294,15 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A131" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>200</v>
+    <row r="131" ht="13.5" customHeight="1">
+      <c r="A131" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5275,15 +5325,15 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A132" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>202</v>
+    <row r="132" ht="13.5" customHeight="1">
+      <c r="A132" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5306,15 +5356,15 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A133" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>204</v>
+    <row r="133" ht="13.5" customHeight="1">
+      <c r="A133" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5337,15 +5387,15 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A134" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>206</v>
+    <row r="134" ht="13.5" customHeight="1">
+      <c r="A134" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5368,15 +5418,15 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A135" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>208</v>
+    <row r="135" ht="13.5" customHeight="1">
+      <c r="A135" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5399,15 +5449,15 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A136" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>210</v>
+    <row r="136" ht="13.5" customHeight="1">
+      <c r="A136" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5430,15 +5480,15 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A137" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>212</v>
+    <row r="137" ht="13.5" customHeight="1">
+      <c r="A137" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5461,10 +5511,10 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
+    <row r="138" ht="13.5" customHeight="1">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5486,15 +5536,15 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A139" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>214</v>
+    <row r="139" ht="13.5" customHeight="1">
+      <c r="A139" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5517,15 +5567,15 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A140" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>216</v>
+    <row r="140" ht="13.5" customHeight="1">
+      <c r="A140" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5548,15 +5598,15 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A141" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>218</v>
+    <row r="141" ht="13.5" customHeight="1">
+      <c r="A141" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5579,15 +5629,15 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A142" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>220</v>
+    <row r="142" ht="13.5" customHeight="1">
+      <c r="A142" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>211</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5610,15 +5660,15 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A143" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>222</v>
+    <row r="143" ht="13.5" customHeight="1">
+      <c r="A143" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5641,15 +5691,15 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A144" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>223</v>
+    <row r="144" ht="13.5" customHeight="1">
+      <c r="A144" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5672,15 +5722,15 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A145" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>220</v>
+    <row r="145" ht="13.5" customHeight="1">
+      <c r="A145" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5703,15 +5753,15 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A146" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>222</v>
+    <row r="146" ht="13.5" customHeight="1">
+      <c r="A146" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5734,15 +5784,15 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A147" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>225</v>
+    <row r="147" ht="13.5" customHeight="1">
+      <c r="A147" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5765,15 +5815,15 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A148" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C148" s="31" t="s">
-        <v>277</v>
+    <row r="148" ht="13.5" customHeight="1">
+      <c r="A148" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5796,15 +5846,15 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A149" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>278</v>
+    <row r="149" ht="13.5" customHeight="1">
+      <c r="A149" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5827,15 +5877,15 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A150" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>229</v>
+    <row r="150" ht="13.5" customHeight="1">
+      <c r="A150" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5858,15 +5908,15 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A151" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>231</v>
+    <row r="151" ht="13.5" customHeight="1">
+      <c r="A151" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5889,15 +5939,15 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A152" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>233</v>
+    <row r="152" ht="13.5" customHeight="1">
+      <c r="A152" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5920,14 +5970,16 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A153" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C153" s="1"/>
+    <row r="153" ht="13.5" customHeight="1">
+      <c r="A153" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -5949,7 +6001,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="13.5" customHeight="1">
+    <row r="154" ht="13.5" customHeight="1">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5972,7 +6024,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="13.5" customHeight="1">
+    <row r="155" ht="13.5" customHeight="1">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5995,116 +6047,116 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A156" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B156" s="25" t="s">
+    <row r="156" ht="13.5" customHeight="1">
+      <c r="A156" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="21"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="21"/>
-      <c r="O156" s="21"/>
-      <c r="P156" s="21"/>
-      <c r="Q156" s="21"/>
-      <c r="R156" s="21"/>
-      <c r="S156" s="21"/>
-      <c r="T156" s="21"/>
-      <c r="U156" s="21"/>
-      <c r="V156" s="21"/>
-      <c r="W156" s="21"/>
-      <c r="X156" s="26"/>
-      <c r="Y156" s="26"/>
-      <c r="Z156" s="26"/>
-    </row>
-    <row r="157" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A157" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B157" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="C157" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="21"/>
-      <c r="O157" s="21"/>
-      <c r="P157" s="21"/>
-      <c r="Q157" s="21"/>
-      <c r="R157" s="21"/>
-      <c r="S157" s="21"/>
-      <c r="T157" s="21"/>
-      <c r="U157" s="21"/>
-      <c r="V157" s="21"/>
-      <c r="W157" s="21"/>
-      <c r="X157" s="26"/>
-      <c r="Y157" s="26"/>
-      <c r="Z157" s="26"/>
-    </row>
-    <row r="158" spans="1:26" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A158" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="B158" s="21" t="s">
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="22"/>
+      <c r="Y156" s="22"/>
+      <c r="Z156" s="22"/>
+    </row>
+    <row r="157" ht="13.5" customHeight="1">
+      <c r="A157" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="20"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="20"/>
+      <c r="T157" s="20"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="20"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="22"/>
+      <c r="Y157" s="22"/>
+      <c r="Z157" s="22"/>
+    </row>
+    <row r="158" ht="13.5" customHeight="1">
+      <c r="A158" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B158" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="21"/>
-      <c r="O158" s="21"/>
-      <c r="P158" s="21"/>
-      <c r="Q158" s="21"/>
-      <c r="R158" s="21"/>
-      <c r="S158" s="21"/>
-      <c r="T158" s="21"/>
-      <c r="U158" s="21"/>
-      <c r="V158" s="21"/>
-      <c r="W158" s="21"/>
-      <c r="X158" s="26"/>
-      <c r="Y158" s="26"/>
-      <c r="Z158" s="26"/>
-    </row>
-    <row r="159" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A159" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B159" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C159" s="21"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="20"/>
+      <c r="O158" s="20"/>
+      <c r="P158" s="20"/>
+      <c r="Q158" s="20"/>
+      <c r="R158" s="20"/>
+      <c r="S158" s="20"/>
+      <c r="T158" s="20"/>
+      <c r="U158" s="20"/>
+      <c r="V158" s="20"/>
+      <c r="W158" s="20"/>
+      <c r="X158" s="22"/>
+      <c r="Y158" s="22"/>
+      <c r="Z158" s="22"/>
+    </row>
+    <row r="159" ht="13.5" customHeight="1">
+      <c r="A159" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B159" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C159" s="20"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -6126,14 +6178,14 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A160" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C160" s="21"/>
+    <row r="160" ht="13.5" customHeight="1">
+      <c r="A160" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C160" s="20"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6155,14 +6207,14 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A161" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B161" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C161" s="21"/>
+    <row r="161" ht="13.5" customHeight="1">
+      <c r="A161" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C161" s="20"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6184,14 +6236,14 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A162" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B162" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C162" s="21"/>
+    <row r="162" ht="13.5" customHeight="1">
+      <c r="A162" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C162" s="20"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6213,14 +6265,14 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A163" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B163" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C163" s="21"/>
+    <row r="163" ht="13.5" customHeight="1">
+      <c r="A163" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" s="20"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6242,14 +6294,14 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A164" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C164" s="21"/>
+    <row r="164" ht="13.5" customHeight="1">
+      <c r="A164" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C164" s="20"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6271,14 +6323,14 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A165" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B165" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C165" s="21"/>
+    <row r="165" ht="13.5" customHeight="1">
+      <c r="A165" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C165" s="20"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -6300,10 +6352,10 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A166" s="21"/>
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
+    <row r="166" ht="13.5" customHeight="1">
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -6325,10 +6377,10 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
+    <row r="167" ht="13.5" customHeight="1">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -6350,10 +6402,10 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A168" s="21"/>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
+    <row r="168" ht="13.5" customHeight="1">
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -6375,14 +6427,14 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A169" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B169" s="25" t="s">
+    <row r="169" ht="13.5" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B169" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="1"/>
@@ -6406,14 +6458,14 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A170" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B170" s="19" t="s">
+    <row r="170" ht="13.5" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C170" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="1"/>
@@ -6437,15 +6489,15 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A171" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B171" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C171" s="21" t="s">
-        <v>255</v>
+    <row r="171" ht="13.5" customHeight="1">
+      <c r="A171" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6468,15 +6520,15 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A172" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C172" s="21" t="s">
-        <v>257</v>
+    <row r="172" ht="13.5" customHeight="1">
+      <c r="A172" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6499,15 +6551,15 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A173" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B173" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C173" s="21" t="s">
-        <v>259</v>
+    <row r="173" ht="13.5" customHeight="1">
+      <c r="A173" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6530,12 +6582,12 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A174" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
+    <row r="174" ht="13.5" customHeight="1">
+      <c r="A174" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -6557,12 +6609,12 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A175" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B175" s="21"/>
-      <c r="C175" s="21"/>
+    <row r="175" ht="13.5" customHeight="1">
+      <c r="A175" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -6584,15 +6636,15 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A176" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B176" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C176" s="21" t="s">
-        <v>263</v>
+    <row r="176" ht="13.5" customHeight="1">
+      <c r="A176" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6615,15 +6667,15 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A177" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B177" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C177" s="21" t="s">
-        <v>265</v>
+    <row r="177" ht="13.5" customHeight="1">
+      <c r="A177" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6646,10 +6698,10 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A178" s="21"/>
-      <c r="B178" s="21"/>
-      <c r="C178" s="21"/>
+    <row r="178" ht="13.5" customHeight="1">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -6671,15 +6723,15 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A179" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B179" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C179" s="21" t="s">
-        <v>267</v>
+    <row r="179" ht="13.5" customHeight="1">
+      <c r="A179" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6702,13 +6754,13 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A180" s="27"/>
-      <c r="B180" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C180" s="21" t="s">
-        <v>268</v>
+    <row r="180" ht="13.5" customHeight="1">
+      <c r="A180" s="23"/>
+      <c r="B180" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6731,15 +6783,15 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A181" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="B181" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C181" s="21" t="s">
-        <v>270</v>
+    <row r="181" ht="13.5" customHeight="1">
+      <c r="A181" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6762,15 +6814,15 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" ht="13.5" customHeight="1">
+    <row r="182" ht="13.5" customHeight="1">
       <c r="A182" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B182" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="C182" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6793,14 +6845,14 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A183" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B183" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C183" s="21"/>
+    <row r="183" ht="13.5" customHeight="1">
+      <c r="A183" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C183" s="20"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -6822,10 +6874,10 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A184" s="21"/>
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
+    <row r="184" ht="13.5" customHeight="1">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -6847,9 +6899,13 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+    <row r="185" ht="13.5" customHeight="1">
+      <c r="A185" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -6872,9 +6928,13 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+    <row r="186" ht="13.5" customHeight="1">
+      <c r="A186" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>271</v>
+      </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -6897,9 +6957,13 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+    <row r="187" ht="13.5" customHeight="1">
+      <c r="A187" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B187" s="30" t="s">
+        <v>273</v>
+      </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -6922,9 +6986,13 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+    <row r="188" ht="13.5" customHeight="1">
+      <c r="A188" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B188" s="30" t="s">
+        <v>275</v>
+      </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -6947,9 +7015,13 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+    <row r="189" ht="13.5" customHeight="1">
+      <c r="A189" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B189" s="32" t="s">
+        <v>277</v>
+      </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -6972,9 +7044,13 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+    <row r="190" ht="13.5" customHeight="1">
+      <c r="A190" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>279</v>
+      </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -6997,9 +7073,13 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+    <row r="191" ht="13.5" customHeight="1">
+      <c r="A191" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B191" s="32" t="s">
+        <v>281</v>
+      </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7022,9 +7102,13 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+    <row r="192" ht="13.5" customHeight="1">
+      <c r="A192" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B192" s="32" t="s">
+        <v>283</v>
+      </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -7047,9 +7131,13 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+    <row r="193" ht="13.5" customHeight="1">
+      <c r="A193" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B193" s="32" t="s">
+        <v>285</v>
+      </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -7072,9 +7160,13 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+    <row r="194" ht="13.5" customHeight="1">
+      <c r="A194" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B194" s="32" t="s">
+        <v>287</v>
+      </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -7097,9 +7189,13 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+    <row r="195" ht="13.5" customHeight="1">
+      <c r="A195" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="B195" s="32" t="s">
+        <v>289</v>
+      </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -7122,9 +7218,13 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+    <row r="196" ht="13.5" customHeight="1">
+      <c r="A196" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B196" s="32" t="s">
+        <v>291</v>
+      </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -7147,9 +7247,13 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+    <row r="197" ht="13.5" customHeight="1">
+      <c r="A197" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="B197" s="32" t="s">
+        <v>293</v>
+      </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -7172,9 +7276,13 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+    <row r="198" ht="13.5" customHeight="1">
+      <c r="A198" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B198" s="32" t="s">
+        <v>295</v>
+      </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -7197,9 +7305,13 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+    <row r="199" ht="13.5" customHeight="1">
+      <c r="A199" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>297</v>
+      </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -7222,9 +7334,13 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+    <row r="200" ht="13.5" customHeight="1">
+      <c r="A200" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>299</v>
+      </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -7247,9 +7363,13 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+    <row r="201" ht="13.5" customHeight="1">
+      <c r="A201" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B201" s="32" t="s">
+        <v>301</v>
+      </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -7272,9 +7392,13 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+    <row r="202" ht="13.5" customHeight="1">
+      <c r="A202" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>303</v>
+      </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -7297,9 +7421,13 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+    <row r="203" ht="13.5" customHeight="1">
+      <c r="A203" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="B203" s="32" t="s">
+        <v>303</v>
+      </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -7322,9 +7450,13 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+    <row r="204" ht="13.5" customHeight="1">
+      <c r="A204" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B204" s="33" t="s">
+        <v>191</v>
+      </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -7347,9 +7479,13 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+    <row r="205" ht="13.5" customHeight="1">
+      <c r="A205" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B205" s="32" t="s">
+        <v>193</v>
+      </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -7372,9 +7508,13 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+    <row r="206" ht="13.5" customHeight="1">
+      <c r="A206" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B206" s="32" t="s">
+        <v>308</v>
+      </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -7397,9 +7537,13 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+    <row r="207" ht="13.5" customHeight="1">
+      <c r="A207" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B207" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -7422,9 +7566,13 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+    <row r="208" ht="13.5" customHeight="1">
+      <c r="A208" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B208" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -7447,9 +7595,13 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+    <row r="209" ht="13.5" customHeight="1">
+      <c r="A209" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B209" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -7472,9 +7624,13 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+    <row r="210" ht="13.5" customHeight="1">
+      <c r="A210" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B210" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -7497,9 +7653,13 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+    <row r="211" ht="13.5" customHeight="1">
+      <c r="A211" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B211" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -7522,9 +7682,13 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+    <row r="212" ht="13.5" customHeight="1">
+      <c r="A212" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -7547,7 +7711,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" ht="13.5" customHeight="1">
+    <row r="213" ht="13.5" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7572,7 +7736,7 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" ht="13.5" customHeight="1">
+    <row r="214" ht="13.5" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7597,7 +7761,7 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" ht="13.5" customHeight="1">
+    <row r="215" ht="13.5" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7622,7 +7786,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" ht="13.5" customHeight="1">
+    <row r="216" ht="13.5" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7647,7 +7811,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" ht="13.5" customHeight="1">
+    <row r="217" ht="13.5" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7672,7 +7836,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" ht="13.5" customHeight="1">
+    <row r="218" ht="13.5" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7697,7 +7861,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" ht="13.5" customHeight="1">
+    <row r="219" ht="13.5" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7722,7 +7886,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" ht="13.5" customHeight="1">
+    <row r="220" ht="13.5" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7747,7 +7911,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" ht="13.5" customHeight="1">
+    <row r="221" ht="13.5" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7772,7 +7936,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" ht="13.5" customHeight="1">
+    <row r="222" ht="13.5" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7797,7 +7961,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" ht="13.5" customHeight="1">
+    <row r="223" ht="13.5" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7822,7 +7986,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" ht="13.5" customHeight="1">
+    <row r="224" ht="13.5" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7847,7 +8011,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" ht="13.5" customHeight="1">
+    <row r="225" ht="13.5" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7872,7 +8036,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" ht="13.5" customHeight="1">
+    <row r="226" ht="13.5" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7897,7 +8061,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" ht="13.5" customHeight="1">
+    <row r="227" ht="13.5" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7922,7 +8086,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" ht="13.5" customHeight="1">
+    <row r="228" ht="13.5" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7947,7 +8111,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" ht="13.5" customHeight="1">
+    <row r="229" ht="13.5" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7972,7 +8136,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" ht="13.5" customHeight="1">
+    <row r="230" ht="13.5" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7997,7 +8161,7 @@
       <c r="V230" s="1"/>
       <c r="W230" s="1"/>
     </row>
-    <row r="231" spans="1:23" ht="13.5" customHeight="1">
+    <row r="231" ht="13.5" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8022,7 +8186,7 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
     </row>
-    <row r="232" spans="1:23" ht="13.5" customHeight="1">
+    <row r="232" ht="13.5" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8047,7 +8211,7 @@
       <c r="V232" s="1"/>
       <c r="W232" s="1"/>
     </row>
-    <row r="233" spans="1:23" ht="13.5" customHeight="1">
+    <row r="233" ht="13.5" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8072,7 +8236,7 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
     </row>
-    <row r="234" spans="1:23" ht="13.5" customHeight="1">
+    <row r="234" ht="13.5" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8097,7 +8261,7 @@
       <c r="V234" s="1"/>
       <c r="W234" s="1"/>
     </row>
-    <row r="235" spans="1:23" ht="13.5" customHeight="1">
+    <row r="235" ht="13.5" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8122,7 +8286,7 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
     </row>
-    <row r="236" spans="1:23" ht="13.5" customHeight="1">
+    <row r="236" ht="13.5" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8147,7 +8311,7 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
     </row>
-    <row r="237" spans="1:23" ht="13.5" customHeight="1">
+    <row r="237" ht="13.5" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8172,7 +8336,7 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
     </row>
-    <row r="238" spans="1:23" ht="13.5" customHeight="1">
+    <row r="238" ht="13.5" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8197,7 +8361,7 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
     </row>
-    <row r="239" spans="1:23" ht="13.5" customHeight="1">
+    <row r="239" ht="13.5" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8222,7 +8386,7 @@
       <c r="V239" s="1"/>
       <c r="W239" s="1"/>
     </row>
-    <row r="240" spans="1:23" ht="13.5" customHeight="1">
+    <row r="240" ht="13.5" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8247,7 +8411,7 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
     </row>
-    <row r="241" spans="1:23" ht="13.5" customHeight="1">
+    <row r="241" ht="13.5" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8272,7 +8436,7 @@
       <c r="V241" s="1"/>
       <c r="W241" s="1"/>
     </row>
-    <row r="242" spans="1:23" ht="13.5" customHeight="1">
+    <row r="242" ht="13.5" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8297,7 +8461,7 @@
       <c r="V242" s="1"/>
       <c r="W242" s="1"/>
     </row>
-    <row r="243" spans="1:23" ht="13.5" customHeight="1">
+    <row r="243" ht="13.5" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8322,7 +8486,7 @@
       <c r="V243" s="1"/>
       <c r="W243" s="1"/>
     </row>
-    <row r="244" spans="1:23" ht="13.5" customHeight="1">
+    <row r="244" ht="13.5" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8347,7 +8511,7 @@
       <c r="V244" s="1"/>
       <c r="W244" s="1"/>
     </row>
-    <row r="245" spans="1:23" ht="13.5" customHeight="1">
+    <row r="245" ht="13.5" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8372,7 +8536,7 @@
       <c r="V245" s="1"/>
       <c r="W245" s="1"/>
     </row>
-    <row r="246" spans="1:23" ht="13.5" customHeight="1">
+    <row r="246" ht="13.5" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8397,7 +8561,7 @@
       <c r="V246" s="1"/>
       <c r="W246" s="1"/>
     </row>
-    <row r="247" spans="1:23" ht="13.5" customHeight="1">
+    <row r="247" ht="13.5" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8422,7 +8586,7 @@
       <c r="V247" s="1"/>
       <c r="W247" s="1"/>
     </row>
-    <row r="248" spans="1:23" ht="13.5" customHeight="1">
+    <row r="248" ht="13.5" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8447,7 +8611,7 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
     </row>
-    <row r="249" spans="1:23" ht="13.5" customHeight="1">
+    <row r="249" ht="13.5" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8472,7 +8636,7 @@
       <c r="V249" s="1"/>
       <c r="W249" s="1"/>
     </row>
-    <row r="250" spans="1:23" ht="13.5" customHeight="1">
+    <row r="250" ht="13.5" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8497,7 +8661,7 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
     </row>
-    <row r="251" spans="1:23" ht="13.5" customHeight="1">
+    <row r="251" ht="13.5" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8522,7 +8686,7 @@
       <c r="V251" s="1"/>
       <c r="W251" s="1"/>
     </row>
-    <row r="252" spans="1:23" ht="13.5" customHeight="1">
+    <row r="252" ht="13.5" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8547,7 +8711,7 @@
       <c r="V252" s="1"/>
       <c r="W252" s="1"/>
     </row>
-    <row r="253" spans="1:23" ht="13.5" customHeight="1">
+    <row r="253" ht="13.5" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8572,7 +8736,7 @@
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
     </row>
-    <row r="254" spans="1:23" ht="13.5" customHeight="1">
+    <row r="254" ht="13.5" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8597,7 +8761,7 @@
       <c r="V254" s="1"/>
       <c r="W254" s="1"/>
     </row>
-    <row r="255" spans="1:23" ht="13.5" customHeight="1">
+    <row r="255" ht="13.5" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8622,7 +8786,7 @@
       <c r="V255" s="1"/>
       <c r="W255" s="1"/>
     </row>
-    <row r="256" spans="1:23" ht="13.5" customHeight="1">
+    <row r="256" ht="13.5" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8647,7 +8811,7 @@
       <c r="V256" s="1"/>
       <c r="W256" s="1"/>
     </row>
-    <row r="257" spans="1:23" ht="13.5" customHeight="1">
+    <row r="257" ht="13.5" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8672,7 +8836,7 @@
       <c r="V257" s="1"/>
       <c r="W257" s="1"/>
     </row>
-    <row r="258" spans="1:23" ht="13.5" customHeight="1">
+    <row r="258" ht="13.5" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8697,7 +8861,7 @@
       <c r="V258" s="1"/>
       <c r="W258" s="1"/>
     </row>
-    <row r="259" spans="1:23" ht="13.5" customHeight="1">
+    <row r="259" ht="13.5" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8722,7 +8886,7 @@
       <c r="V259" s="1"/>
       <c r="W259" s="1"/>
     </row>
-    <row r="260" spans="1:23" ht="13.5" customHeight="1">
+    <row r="260" ht="13.5" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8747,7 +8911,7 @@
       <c r="V260" s="1"/>
       <c r="W260" s="1"/>
     </row>
-    <row r="261" spans="1:23" ht="13.5" customHeight="1">
+    <row r="261" ht="13.5" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8772,7 +8936,7 @@
       <c r="V261" s="1"/>
       <c r="W261" s="1"/>
     </row>
-    <row r="262" spans="1:23" ht="13.5" customHeight="1">
+    <row r="262" ht="13.5" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8797,7 +8961,7 @@
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
     </row>
-    <row r="263" spans="1:23" ht="13.5" customHeight="1">
+    <row r="263" ht="13.5" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8822,7 +8986,7 @@
       <c r="V263" s="1"/>
       <c r="W263" s="1"/>
     </row>
-    <row r="264" spans="1:23" ht="13.5" customHeight="1">
+    <row r="264" ht="13.5" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8847,7 +9011,7 @@
       <c r="V264" s="1"/>
       <c r="W264" s="1"/>
     </row>
-    <row r="265" spans="1:23" ht="13.5" customHeight="1">
+    <row r="265" ht="13.5" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8872,7 +9036,7 @@
       <c r="V265" s="1"/>
       <c r="W265" s="1"/>
     </row>
-    <row r="266" spans="1:23" ht="13.5" customHeight="1">
+    <row r="266" ht="13.5" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8897,7 +9061,7 @@
       <c r="V266" s="1"/>
       <c r="W266" s="1"/>
     </row>
-    <row r="267" spans="1:23" ht="13.5" customHeight="1">
+    <row r="267" ht="13.5" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8922,7 +9086,7 @@
       <c r="V267" s="1"/>
       <c r="W267" s="1"/>
     </row>
-    <row r="268" spans="1:23" ht="13.5" customHeight="1">
+    <row r="268" ht="13.5" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8947,7 +9111,7 @@
       <c r="V268" s="1"/>
       <c r="W268" s="1"/>
     </row>
-    <row r="269" spans="1:23" ht="13.5" customHeight="1">
+    <row r="269" ht="13.5" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8972,7 +9136,7 @@
       <c r="V269" s="1"/>
       <c r="W269" s="1"/>
     </row>
-    <row r="270" spans="1:23" ht="13.5" customHeight="1">
+    <row r="270" ht="13.5" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8997,7 +9161,7 @@
       <c r="V270" s="1"/>
       <c r="W270" s="1"/>
     </row>
-    <row r="271" spans="1:23" ht="13.5" customHeight="1">
+    <row r="271" ht="13.5" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9022,7 +9186,7 @@
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
     </row>
-    <row r="272" spans="1:23" ht="13.5" customHeight="1">
+    <row r="272" ht="13.5" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9047,7 +9211,7 @@
       <c r="V272" s="1"/>
       <c r="W272" s="1"/>
     </row>
-    <row r="273" spans="1:23" ht="13.5" customHeight="1">
+    <row r="273" ht="13.5" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9072,7 +9236,7 @@
       <c r="V273" s="1"/>
       <c r="W273" s="1"/>
     </row>
-    <row r="274" spans="1:23" ht="13.5" customHeight="1">
+    <row r="274" ht="13.5" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9097,7 +9261,7 @@
       <c r="V274" s="1"/>
       <c r="W274" s="1"/>
     </row>
-    <row r="275" spans="1:23" ht="13.5" customHeight="1">
+    <row r="275" ht="13.5" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9122,7 +9286,7 @@
       <c r="V275" s="1"/>
       <c r="W275" s="1"/>
     </row>
-    <row r="276" spans="1:23" ht="13.5" customHeight="1">
+    <row r="276" ht="13.5" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9147,7 +9311,7 @@
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
     </row>
-    <row r="277" spans="1:23" ht="13.5" customHeight="1">
+    <row r="277" ht="13.5" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9172,7 +9336,7 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
     </row>
-    <row r="278" spans="1:23" ht="13.5" customHeight="1">
+    <row r="278" ht="13.5" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9197,7 +9361,7 @@
       <c r="V278" s="1"/>
       <c r="W278" s="1"/>
     </row>
-    <row r="279" spans="1:23" ht="13.5" customHeight="1">
+    <row r="279" ht="13.5" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9222,7 +9386,7 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
     </row>
-    <row r="280" spans="1:23" ht="13.5" customHeight="1">
+    <row r="280" ht="13.5" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9247,7 +9411,7 @@
       <c r="V280" s="1"/>
       <c r="W280" s="1"/>
     </row>
-    <row r="281" spans="1:23" ht="13.5" customHeight="1">
+    <row r="281" ht="13.5" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9272,7 +9436,7 @@
       <c r="V281" s="1"/>
       <c r="W281" s="1"/>
     </row>
-    <row r="282" spans="1:23" ht="13.5" customHeight="1">
+    <row r="282" ht="13.5" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9297,7 +9461,7 @@
       <c r="V282" s="1"/>
       <c r="W282" s="1"/>
     </row>
-    <row r="283" spans="1:23" ht="13.5" customHeight="1">
+    <row r="283" ht="13.5" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9322,7 +9486,7 @@
       <c r="V283" s="1"/>
       <c r="W283" s="1"/>
     </row>
-    <row r="284" spans="1:23" ht="13.5" customHeight="1">
+    <row r="284" ht="13.5" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9347,7 +9511,7 @@
       <c r="V284" s="1"/>
       <c r="W284" s="1"/>
     </row>
-    <row r="285" spans="1:23" ht="13.5" customHeight="1">
+    <row r="285" ht="13.5" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9372,7 +9536,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
     </row>
-    <row r="286" spans="1:23" ht="13.5" customHeight="1">
+    <row r="286" ht="13.5" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9397,7 +9561,7 @@
       <c r="V286" s="1"/>
       <c r="W286" s="1"/>
     </row>
-    <row r="287" spans="1:23" ht="13.5" customHeight="1">
+    <row r="287" ht="13.5" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9422,7 +9586,7 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
     </row>
-    <row r="288" spans="1:23" ht="13.5" customHeight="1">
+    <row r="288" ht="13.5" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9447,7 +9611,7 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
     </row>
-    <row r="289" spans="1:23" ht="13.5" customHeight="1">
+    <row r="289" ht="13.5" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9472,7 +9636,7 @@
       <c r="V289" s="1"/>
       <c r="W289" s="1"/>
     </row>
-    <row r="290" spans="1:23" ht="13.5" customHeight="1">
+    <row r="290" ht="13.5" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9497,7 +9661,7 @@
       <c r="V290" s="1"/>
       <c r="W290" s="1"/>
     </row>
-    <row r="291" spans="1:23" ht="13.5" customHeight="1">
+    <row r="291" ht="13.5" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9522,7 +9686,7 @@
       <c r="V291" s="1"/>
       <c r="W291" s="1"/>
     </row>
-    <row r="292" spans="1:23" ht="13.5" customHeight="1">
+    <row r="292" ht="13.5" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9547,7 +9711,7 @@
       <c r="V292" s="1"/>
       <c r="W292" s="1"/>
     </row>
-    <row r="293" spans="1:23" ht="13.5" customHeight="1">
+    <row r="293" ht="13.5" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9572,7 +9736,7 @@
       <c r="V293" s="1"/>
       <c r="W293" s="1"/>
     </row>
-    <row r="294" spans="1:23" ht="13.5" customHeight="1">
+    <row r="294" ht="13.5" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9597,7 +9761,7 @@
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
     </row>
-    <row r="295" spans="1:23" ht="13.5" customHeight="1">
+    <row r="295" ht="13.5" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9622,7 +9786,7 @@
       <c r="V295" s="1"/>
       <c r="W295" s="1"/>
     </row>
-    <row r="296" spans="1:23" ht="13.5" customHeight="1">
+    <row r="296" ht="13.5" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9647,7 +9811,7 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
     </row>
-    <row r="297" spans="1:23" ht="13.5" customHeight="1">
+    <row r="297" ht="13.5" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9672,7 +9836,7 @@
       <c r="V297" s="1"/>
       <c r="W297" s="1"/>
     </row>
-    <row r="298" spans="1:23" ht="13.5" customHeight="1">
+    <row r="298" ht="13.5" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9697,7 +9861,7 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
     </row>
-    <row r="299" spans="1:23" ht="13.5" customHeight="1">
+    <row r="299" ht="13.5" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9722,7 +9886,7 @@
       <c r="V299" s="1"/>
       <c r="W299" s="1"/>
     </row>
-    <row r="300" spans="1:23" ht="13.5" customHeight="1">
+    <row r="300" ht="13.5" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9747,7 +9911,7 @@
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
     </row>
-    <row r="301" spans="1:23" ht="13.5" customHeight="1">
+    <row r="301" ht="13.5" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9772,7 +9936,7 @@
       <c r="V301" s="1"/>
       <c r="W301" s="1"/>
     </row>
-    <row r="302" spans="1:23" ht="13.5" customHeight="1">
+    <row r="302" ht="13.5" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9797,7 +9961,7 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
     </row>
-    <row r="303" spans="1:23" ht="13.5" customHeight="1">
+    <row r="303" ht="13.5" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9822,7 +9986,7 @@
       <c r="V303" s="1"/>
       <c r="W303" s="1"/>
     </row>
-    <row r="304" spans="1:23" ht="13.5" customHeight="1">
+    <row r="304" ht="13.5" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9847,7 +10011,7 @@
       <c r="V304" s="1"/>
       <c r="W304" s="1"/>
     </row>
-    <row r="305" spans="1:23" ht="13.5" customHeight="1">
+    <row r="305" ht="13.5" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9872,7 +10036,7 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
     </row>
-    <row r="306" spans="1:23" ht="13.5" customHeight="1">
+    <row r="306" ht="13.5" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9897,7 +10061,7 @@
       <c r="V306" s="1"/>
       <c r="W306" s="1"/>
     </row>
-    <row r="307" spans="1:23" ht="13.5" customHeight="1">
+    <row r="307" ht="13.5" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9922,7 +10086,7 @@
       <c r="V307" s="1"/>
       <c r="W307" s="1"/>
     </row>
-    <row r="308" spans="1:23" ht="13.5" customHeight="1">
+    <row r="308" ht="13.5" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9947,7 +10111,7 @@
       <c r="V308" s="1"/>
       <c r="W308" s="1"/>
     </row>
-    <row r="309" spans="1:23" ht="13.5" customHeight="1">
+    <row r="309" ht="13.5" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9972,7 +10136,7 @@
       <c r="V309" s="1"/>
       <c r="W309" s="1"/>
     </row>
-    <row r="310" spans="1:23" ht="13.5" customHeight="1">
+    <row r="310" ht="13.5" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9997,7 +10161,7 @@
       <c r="V310" s="1"/>
       <c r="W310" s="1"/>
     </row>
-    <row r="311" spans="1:23" ht="13.5" customHeight="1">
+    <row r="311" ht="13.5" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10022,7 +10186,7 @@
       <c r="V311" s="1"/>
       <c r="W311" s="1"/>
     </row>
-    <row r="312" spans="1:23" ht="13.5" customHeight="1">
+    <row r="312" ht="13.5" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10047,7 +10211,7 @@
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
     </row>
-    <row r="313" spans="1:23" ht="13.5" customHeight="1">
+    <row r="313" ht="13.5" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10072,7 +10236,7 @@
       <c r="V313" s="1"/>
       <c r="W313" s="1"/>
     </row>
-    <row r="314" spans="1:23" ht="13.5" customHeight="1">
+    <row r="314" ht="13.5" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10097,7 +10261,7 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
     </row>
-    <row r="315" spans="1:23" ht="13.5" customHeight="1">
+    <row r="315" ht="13.5" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10122,7 +10286,7 @@
       <c r="V315" s="1"/>
       <c r="W315" s="1"/>
     </row>
-    <row r="316" spans="1:23" ht="13.5" customHeight="1">
+    <row r="316" ht="13.5" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10147,7 +10311,7 @@
       <c r="V316" s="1"/>
       <c r="W316" s="1"/>
     </row>
-    <row r="317" spans="1:23" ht="13.5" customHeight="1">
+    <row r="317" ht="13.5" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10172,7 +10336,7 @@
       <c r="V317" s="1"/>
       <c r="W317" s="1"/>
     </row>
-    <row r="318" spans="1:23" ht="13.5" customHeight="1">
+    <row r="318" ht="13.5" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10197,7 +10361,7 @@
       <c r="V318" s="1"/>
       <c r="W318" s="1"/>
     </row>
-    <row r="319" spans="1:23" ht="13.5" customHeight="1">
+    <row r="319" ht="13.5" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10222,7 +10386,7 @@
       <c r="V319" s="1"/>
       <c r="W319" s="1"/>
     </row>
-    <row r="320" spans="1:23" ht="13.5" customHeight="1">
+    <row r="320" ht="13.5" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10247,7 +10411,7 @@
       <c r="V320" s="1"/>
       <c r="W320" s="1"/>
     </row>
-    <row r="321" spans="1:23" ht="13.5" customHeight="1">
+    <row r="321" ht="13.5" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10272,7 +10436,7 @@
       <c r="V321" s="1"/>
       <c r="W321" s="1"/>
     </row>
-    <row r="322" spans="1:23" ht="13.5" customHeight="1">
+    <row r="322" ht="13.5" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10297,7 +10461,7 @@
       <c r="V322" s="1"/>
       <c r="W322" s="1"/>
     </row>
-    <row r="323" spans="1:23" ht="13.5" customHeight="1">
+    <row r="323" ht="13.5" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10322,7 +10486,7 @@
       <c r="V323" s="1"/>
       <c r="W323" s="1"/>
     </row>
-    <row r="324" spans="1:23" ht="13.5" customHeight="1">
+    <row r="324" ht="13.5" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10347,7 +10511,7 @@
       <c r="V324" s="1"/>
       <c r="W324" s="1"/>
     </row>
-    <row r="325" spans="1:23" ht="13.5" customHeight="1">
+    <row r="325" ht="13.5" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10372,7 +10536,7 @@
       <c r="V325" s="1"/>
       <c r="W325" s="1"/>
     </row>
-    <row r="326" spans="1:23" ht="13.5" customHeight="1">
+    <row r="326" ht="13.5" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10397,7 +10561,7 @@
       <c r="V326" s="1"/>
       <c r="W326" s="1"/>
     </row>
-    <row r="327" spans="1:23" ht="13.5" customHeight="1">
+    <row r="327" ht="13.5" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10422,7 +10586,7 @@
       <c r="V327" s="1"/>
       <c r="W327" s="1"/>
     </row>
-    <row r="328" spans="1:23" ht="13.5" customHeight="1">
+    <row r="328" ht="13.5" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10447,7 +10611,7 @@
       <c r="V328" s="1"/>
       <c r="W328" s="1"/>
     </row>
-    <row r="329" spans="1:23" ht="13.5" customHeight="1">
+    <row r="329" ht="13.5" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10472,7 +10636,7 @@
       <c r="V329" s="1"/>
       <c r="W329" s="1"/>
     </row>
-    <row r="330" spans="1:23" ht="13.5" customHeight="1">
+    <row r="330" ht="13.5" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10497,7 +10661,7 @@
       <c r="V330" s="1"/>
       <c r="W330" s="1"/>
     </row>
-    <row r="331" spans="1:23" ht="13.5" customHeight="1">
+    <row r="331" ht="13.5" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10522,7 +10686,7 @@
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
     </row>
-    <row r="332" spans="1:23" ht="13.5" customHeight="1">
+    <row r="332" ht="13.5" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10547,7 +10711,7 @@
       <c r="V332" s="1"/>
       <c r="W332" s="1"/>
     </row>
-    <row r="333" spans="1:23" ht="13.5" customHeight="1">
+    <row r="333" ht="13.5" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10572,7 +10736,7 @@
       <c r="V333" s="1"/>
       <c r="W333" s="1"/>
     </row>
-    <row r="334" spans="1:23" ht="13.5" customHeight="1">
+    <row r="334" ht="13.5" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10597,7 +10761,7 @@
       <c r="V334" s="1"/>
       <c r="W334" s="1"/>
     </row>
-    <row r="335" spans="1:23" ht="13.5" customHeight="1">
+    <row r="335" ht="13.5" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10622,7 +10786,7 @@
       <c r="V335" s="1"/>
       <c r="W335" s="1"/>
     </row>
-    <row r="336" spans="1:23" ht="13.5" customHeight="1">
+    <row r="336" ht="13.5" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10647,7 +10811,7 @@
       <c r="V336" s="1"/>
       <c r="W336" s="1"/>
     </row>
-    <row r="337" spans="1:23" ht="13.5" customHeight="1">
+    <row r="337" ht="13.5" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10672,7 +10836,7 @@
       <c r="V337" s="1"/>
       <c r="W337" s="1"/>
     </row>
-    <row r="338" spans="1:23" ht="13.5" customHeight="1">
+    <row r="338" ht="13.5" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10697,7 +10861,7 @@
       <c r="V338" s="1"/>
       <c r="W338" s="1"/>
     </row>
-    <row r="339" spans="1:23" ht="13.5" customHeight="1">
+    <row r="339" ht="13.5" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10722,7 +10886,7 @@
       <c r="V339" s="1"/>
       <c r="W339" s="1"/>
     </row>
-    <row r="340" spans="1:23" ht="13.5" customHeight="1">
+    <row r="340" ht="13.5" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10747,7 +10911,7 @@
       <c r="V340" s="1"/>
       <c r="W340" s="1"/>
     </row>
-    <row r="341" spans="1:23" ht="13.5" customHeight="1">
+    <row r="341" ht="13.5" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10772,7 +10936,7 @@
       <c r="V341" s="1"/>
       <c r="W341" s="1"/>
     </row>
-    <row r="342" spans="1:23" ht="13.5" customHeight="1">
+    <row r="342" ht="13.5" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10797,7 +10961,7 @@
       <c r="V342" s="1"/>
       <c r="W342" s="1"/>
     </row>
-    <row r="343" spans="1:23" ht="13.5" customHeight="1">
+    <row r="343" ht="13.5" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10822,7 +10986,7 @@
       <c r="V343" s="1"/>
       <c r="W343" s="1"/>
     </row>
-    <row r="344" spans="1:23" ht="13.5" customHeight="1">
+    <row r="344" ht="13.5" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10847,7 +11011,7 @@
       <c r="V344" s="1"/>
       <c r="W344" s="1"/>
     </row>
-    <row r="345" spans="1:23" ht="13.5" customHeight="1">
+    <row r="345" ht="13.5" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10872,7 +11036,7 @@
       <c r="V345" s="1"/>
       <c r="W345" s="1"/>
     </row>
-    <row r="346" spans="1:23" ht="13.5" customHeight="1">
+    <row r="346" ht="13.5" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10897,7 +11061,7 @@
       <c r="V346" s="1"/>
       <c r="W346" s="1"/>
     </row>
-    <row r="347" spans="1:23" ht="13.5" customHeight="1">
+    <row r="347" ht="13.5" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10922,7 +11086,7 @@
       <c r="V347" s="1"/>
       <c r="W347" s="1"/>
     </row>
-    <row r="348" spans="1:23" ht="13.5" customHeight="1">
+    <row r="348" ht="13.5" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10947,7 +11111,7 @@
       <c r="V348" s="1"/>
       <c r="W348" s="1"/>
     </row>
-    <row r="349" spans="1:23" ht="13.5" customHeight="1">
+    <row r="349" ht="13.5" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10972,7 +11136,7 @@
       <c r="V349" s="1"/>
       <c r="W349" s="1"/>
     </row>
-    <row r="350" spans="1:23" ht="13.5" customHeight="1">
+    <row r="350" ht="13.5" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10997,7 +11161,7 @@
       <c r="V350" s="1"/>
       <c r="W350" s="1"/>
     </row>
-    <row r="351" spans="1:23" ht="13.5" customHeight="1">
+    <row r="351" ht="13.5" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11022,7 +11186,7 @@
       <c r="V351" s="1"/>
       <c r="W351" s="1"/>
     </row>
-    <row r="352" spans="1:23" ht="13.5" customHeight="1">
+    <row r="352" ht="13.5" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11047,7 +11211,7 @@
       <c r="V352" s="1"/>
       <c r="W352" s="1"/>
     </row>
-    <row r="353" spans="1:23" ht="13.5" customHeight="1">
+    <row r="353" ht="13.5" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11072,21 +11236,21 @@
       <c r="V353" s="1"/>
       <c r="W353" s="1"/>
     </row>
-    <row r="354" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="355" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="356" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="357" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="358" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="359" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="360" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="361" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="362" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="363" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="364" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="365" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="366" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="367" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="368" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
     <row r="369" ht="15.75" customHeight="1"/>
     <row r="370" ht="15.75" customHeight="1"/>
     <row r="371" ht="15.75" customHeight="1"/>
@@ -11719,24 +11883,25 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B38" r:id="rId5"/>
-    <hyperlink ref="C38" r:id="rId6"/>
-    <hyperlink ref="C75" r:id="rId7"/>
-    <hyperlink ref="B75" r:id="rId8"/>
-    <hyperlink ref="B162" r:id="rId9" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
-    <hyperlink ref="B169" r:id="rId10"/>
-    <hyperlink ref="C169" r:id="rId11"/>
-    <hyperlink ref="B156" r:id="rId12"/>
-    <hyperlink ref="C156" r:id="rId13"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="C3"/>
+    <hyperlink r:id="rId5" ref="B38"/>
+    <hyperlink r:id="rId6" ref="C38"/>
+    <hyperlink r:id="rId7" ref="B75"/>
+    <hyperlink r:id="rId8" ref="C75"/>
+    <hyperlink r:id="rId9" ref="B156"/>
+    <hyperlink r:id="rId10" ref="C156"/>
+    <hyperlink r:id="rId11" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg" ref="B162"/>
+    <hyperlink r:id="rId12" ref="B169"/>
+    <hyperlink r:id="rId13" ref="C169"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inlogic\local_Checkout\config\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MMH" sheetId="1" r:id="rId4"/>
+    <sheet name="MMH" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="326">
   <si>
     <t>KEY</t>
   </si>
@@ -775,9 +783,6 @@
     <t>SIGNATURE MESSAGE</t>
   </si>
   <si>
-    <t>Signature Testing</t>
-  </si>
-  <si>
     <t>START DATE</t>
   </si>
   <si>
@@ -787,21 +792,12 @@
     <t>OUT OF MESSAGE</t>
   </si>
   <si>
-    <t>Out of Office Testing</t>
-  </si>
-  <si>
     <t>AUTOMATIC REPLY MESSAGE</t>
   </si>
   <si>
-    <t>Automatic Reply Message Testing</t>
-  </si>
-  <si>
     <t>OUT_OF_OFFICE_MESSAGE_DETAILS</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Out of office reply testing;Body : Out of office reply testing</t>
-  </si>
-  <si>
     <t>HARRY HARRY;Patient Communication-S;Out of Office Testing</t>
   </si>
   <si>
@@ -971,110 +967,61 @@
   </si>
   <si>
     <t>Cervical Smear;MMH Email;VM03Location;Auto Recall;17 Dec 2021 12:00:00 AM;Dr Tim</t>
+  </si>
+  <si>
+    <t>SENT_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Internal Communication;Patient;Harry Harry;Received Message Testing;Body : Received Message Testing;MMHtest.jpg</t>
+  </si>
+  <si>
+    <t>REPLY MESSAGE</t>
+  </si>
+  <si>
+    <t>SENT_GROUP_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Any Provider;No Preference;All Patients (Registered and Activated) to Patient Portal;Group MessageTesting_RANDOM;Group Message Test_RANDOM</t>
+  </si>
+  <si>
+    <t>Reply Message;Body:Reply Message</t>
+  </si>
+  <si>
+    <t>Signature Testing_RANDOM</t>
+  </si>
+  <si>
+    <t>Out of Office Testing_RANDOM</t>
+  </si>
+  <si>
+    <t>HARRY HARRY;Patient Communication-S;Automatic Reply Message Testing_RANDOM</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Out of office reply testing;Body : Out of office reply testing_RANDOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF297BDE"/>
-      <name val="JetBrains Mono"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1082,7 +1029,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1091,151 +1038,69 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border/>
+  <borders count="1">
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1425,26 +1290,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="69.57"/>
-    <col customWidth="1" min="2" max="2" width="157.14"/>
-    <col customWidth="1" min="3" max="3" width="135.14"/>
-    <col customWidth="1" min="4" max="23" width="8.86"/>
+    <col min="1" max="1" width="69.54296875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="157.08984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="148.7265625" style="10" customWidth="1"/>
+    <col min="4" max="23" width="8.81640625" style="10" customWidth="1"/>
+    <col min="24" max="16384" width="14.453125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,14 +1343,14 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
@@ -1506,14 +1374,14 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
@@ -1537,7 +1405,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1436,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1599,7 +1467,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1630,7 +1498,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1661,7 +1529,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +1558,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1715,7 +1583,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1746,7 +1614,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1777,7 +1645,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,7 +1676,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1837,7 +1705,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1862,7 +1730,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1893,7 +1761,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +1792,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +1823,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1984,7 +1852,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2009,7 +1877,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2040,7 +1908,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2071,7 +1939,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -2102,7 +1970,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +1999,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2156,7 +2024,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2187,7 +2055,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2218,7 +2086,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2249,7 +2117,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2280,7 +2148,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -2309,7 +2177,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2334,7 +2202,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2365,7 +2233,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2396,7 +2264,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2421,7 +2289,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -2452,7 +2320,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2477,7 +2345,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2506,7 +2374,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2531,14 +2399,14 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="1"/>
@@ -2562,14 +2430,14 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="1"/>
@@ -2593,7 +2461,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2618,14 +2486,14 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="1"/>
@@ -2649,14 +2517,14 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="1"/>
@@ -2680,14 +2548,14 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="1"/>
@@ -2711,10 +2579,10 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+    <row r="44" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2736,10 +2604,10 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+    <row r="45" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2761,14 +2629,14 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="1"/>
@@ -2792,14 +2660,14 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="1"/>
@@ -2823,12 +2691,12 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2850,10 +2718,10 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2875,10 +2743,10 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+    <row r="50" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2900,14 +2768,14 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="1"/>
@@ -2931,14 +2799,14 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="1"/>
@@ -2962,12 +2830,12 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2989,10 +2857,10 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3014,10 +2882,10 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+    <row r="55" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3039,14 +2907,14 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D56" s="1"/>
@@ -3070,14 +2938,14 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="1"/>
@@ -3101,12 +2969,12 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3128,10 +2996,10 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+    <row r="59" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3153,10 +3021,10 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="8"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+    <row r="60" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3178,14 +3046,14 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D61" s="1"/>
@@ -3209,14 +3077,14 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D62" s="1"/>
@@ -3240,10 +3108,10 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+    <row r="63" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3265,10 +3133,10 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+    <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3290,14 +3158,14 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D65" s="1"/>
@@ -3321,14 +3189,14 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D66" s="1"/>
@@ -3352,10 +3220,10 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="10"/>
+    <row r="67" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3377,10 +3245,10 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+    <row r="68" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3402,14 +3270,14 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="1"/>
@@ -3433,14 +3301,14 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D70" s="1"/>
@@ -3464,14 +3332,14 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="1"/>
@@ -3495,14 +3363,14 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D72" s="1"/>
@@ -3526,7 +3394,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3551,7 +3419,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3576,14 +3444,14 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="1"/>
@@ -3607,14 +3475,14 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="1"/>
@@ -3638,10 +3506,10 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+    <row r="77" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3663,14 +3531,14 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D78" s="1"/>
@@ -3694,14 +3562,14 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D79" s="1"/>
@@ -3725,14 +3593,14 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="15" t="s">
+    <row r="80" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D80" s="1"/>
@@ -3756,14 +3624,14 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="15" t="s">
+    <row r="81" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D81" s="1"/>
@@ -3787,14 +3655,14 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="15" t="s">
+    <row r="82" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="1"/>
@@ -3818,14 +3686,14 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="15" t="s">
+    <row r="83" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D83" s="1"/>
@@ -3849,14 +3717,14 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="15" t="s">
+    <row r="84" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D84" s="1"/>
@@ -3880,14 +3748,14 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="15" t="s">
+    <row r="85" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D85" s="1"/>
@@ -3911,14 +3779,14 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
-      <c r="A86" s="15" t="s">
+    <row r="86" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D86" s="1"/>
@@ -3942,14 +3810,14 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="15" t="s">
+    <row r="87" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D87" s="1"/>
@@ -3973,14 +3841,14 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="15" t="s">
+    <row r="88" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D88" s="1"/>
@@ -4004,14 +3872,14 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="15" t="s">
+    <row r="89" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D89" s="1"/>
@@ -4035,14 +3903,14 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="15" t="s">
+    <row r="90" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D90" s="1"/>
@@ -4066,14 +3934,14 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="15" t="s">
+    <row r="91" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D91" s="1"/>
@@ -4097,14 +3965,14 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="15" t="s">
+    <row r="92" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D92" s="1"/>
@@ -4128,14 +3996,14 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="15" t="s">
+    <row r="93" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D93" s="1"/>
@@ -4159,14 +4027,14 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="15" t="s">
+    <row r="94" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D94" s="1"/>
@@ -4190,14 +4058,14 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="15" t="s">
+    <row r="95" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D95" s="1"/>
@@ -4221,14 +4089,14 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="15" t="s">
+    <row r="96" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="11" t="s">
         <v>125</v>
       </c>
       <c r="D96" s="1"/>
@@ -4252,14 +4120,14 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="15" t="s">
+    <row r="97" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="12" t="s">
         <v>127</v>
       </c>
       <c r="D97" s="1"/>
@@ -4283,14 +4151,14 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="15" t="s">
+    <row r="98" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D98" s="1"/>
@@ -4314,14 +4182,14 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="15" t="s">
+    <row r="99" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D99" s="1"/>
@@ -4345,14 +4213,14 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="15" t="s">
+    <row r="100" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D100" s="1"/>
@@ -4376,14 +4244,14 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
-      <c r="A101" s="15" t="s">
+    <row r="101" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D101" s="1"/>
@@ -4407,14 +4275,14 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
-      <c r="A102" s="18" t="s">
+    <row r="102" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D102" s="1"/>
@@ -4438,14 +4306,14 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
-      <c r="A103" s="15" t="s">
+    <row r="103" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D103" s="1"/>
@@ -4469,14 +4337,14 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="18" t="s">
+    <row r="104" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D104" s="1"/>
@@ -4500,14 +4368,14 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="15" t="s">
+    <row r="105" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D105" s="1"/>
@@ -4531,14 +4399,14 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="15" t="s">
+    <row r="106" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D106" s="1"/>
@@ -4562,14 +4430,14 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="15" t="s">
+    <row r="107" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D107" s="1"/>
@@ -4593,14 +4461,14 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
-      <c r="A108" s="15" t="s">
+    <row r="108" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D108" s="1"/>
@@ -4624,14 +4492,14 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
-      <c r="A109" s="15" t="s">
+    <row r="109" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D109" s="1"/>
@@ -4655,14 +4523,14 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="15" t="s">
+    <row r="110" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D110" s="1"/>
@@ -4686,14 +4554,14 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="15" t="s">
+    <row r="111" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="12" t="s">
         <v>155</v>
       </c>
       <c r="D111" s="1"/>
@@ -4717,14 +4585,14 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="15" t="s">
+    <row r="112" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D112" s="1"/>
@@ -4748,14 +4616,14 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
-      <c r="A113" s="15" t="s">
+    <row r="113" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="11" t="s">
         <v>159</v>
       </c>
       <c r="D113" s="1"/>
@@ -4779,14 +4647,14 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
-      <c r="A114" s="15" t="s">
+    <row r="114" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D114" s="1"/>
@@ -4810,14 +4678,14 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
-      <c r="A115" s="15" t="s">
+    <row r="115" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D115" s="1"/>
@@ -4841,14 +4709,14 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
-      <c r="A116" s="15" t="s">
+    <row r="116" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D116" s="1"/>
@@ -4872,14 +4740,14 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
-      <c r="A117" s="15" t="s">
+    <row r="117" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D117" s="1"/>
@@ -4903,14 +4771,14 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
-      <c r="A118" s="15" t="s">
+    <row r="118" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D118" s="1"/>
@@ -4934,14 +4802,14 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
-      <c r="A119" s="15" t="s">
+    <row r="119" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="1"/>
@@ -4965,14 +4833,14 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
-      <c r="A120" s="15" t="s">
+    <row r="120" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="11" t="s">
         <v>173</v>
       </c>
       <c r="D120" s="1"/>
@@ -4996,14 +4864,14 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
-      <c r="A121" s="15" t="s">
+    <row r="121" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="11" t="s">
         <v>175</v>
       </c>
       <c r="D121" s="1"/>
@@ -5027,10 +4895,10 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
+    <row r="122" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5052,14 +4920,14 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
-      <c r="A123" s="15" t="s">
+    <row r="123" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="11" t="s">
         <v>177</v>
       </c>
       <c r="D123" s="1"/>
@@ -5083,10 +4951,10 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
+    <row r="124" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5108,14 +4976,14 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
-      <c r="A125" s="15" t="s">
+    <row r="125" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="11" t="s">
         <v>179</v>
       </c>
       <c r="D125" s="1"/>
@@ -5139,14 +5007,14 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
-      <c r="A126" s="15" t="s">
+    <row r="126" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C126" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D126" s="1"/>
@@ -5170,14 +5038,14 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
-      <c r="A127" s="15" t="s">
+    <row r="127" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="11" t="s">
         <v>183</v>
       </c>
       <c r="D127" s="1"/>
@@ -5201,14 +5069,14 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
-      <c r="A128" s="15" t="s">
+    <row r="128" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D128" s="1"/>
@@ -5232,14 +5100,14 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
-      <c r="A129" s="15" t="s">
+    <row r="129" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D129" s="1"/>
@@ -5263,14 +5131,14 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
-      <c r="A130" s="15" t="s">
+    <row r="130" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="8" t="s">
         <v>189</v>
       </c>
       <c r="D130" s="1"/>
@@ -5294,14 +5162,14 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
-      <c r="A131" s="15" t="s">
+    <row r="131" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="11" t="s">
         <v>191</v>
       </c>
       <c r="D131" s="1"/>
@@ -5325,14 +5193,14 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
-      <c r="A132" s="15" t="s">
+    <row r="132" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="11" t="s">
         <v>193</v>
       </c>
       <c r="D132" s="1"/>
@@ -5356,14 +5224,14 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
-      <c r="A133" s="15" t="s">
+    <row r="133" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D133" s="1"/>
@@ -5387,14 +5255,14 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
-      <c r="A134" s="15" t="s">
+    <row r="134" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="11" t="s">
         <v>197</v>
       </c>
       <c r="D134" s="1"/>
@@ -5418,14 +5286,14 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
-      <c r="A135" s="15" t="s">
+    <row r="135" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="11" t="s">
         <v>199</v>
       </c>
       <c r="D135" s="1"/>
@@ -5449,14 +5317,14 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
-      <c r="A136" s="15" t="s">
+    <row r="136" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="11" t="s">
         <v>201</v>
       </c>
       <c r="D136" s="1"/>
@@ -5480,14 +5348,14 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
-      <c r="A137" s="15" t="s">
+    <row r="137" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="11" t="s">
         <v>203</v>
       </c>
       <c r="D137" s="1"/>
@@ -5511,10 +5379,10 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
+    <row r="138" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5536,14 +5404,14 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
-      <c r="A139" s="15" t="s">
+    <row r="139" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="11" t="s">
         <v>205</v>
       </c>
       <c r="D139" s="1"/>
@@ -5567,14 +5435,14 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
-      <c r="A140" s="15" t="s">
+    <row r="140" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D140" s="1"/>
@@ -5598,14 +5466,14 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
-      <c r="A141" s="15" t="s">
+    <row r="141" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="11" t="s">
         <v>209</v>
       </c>
       <c r="D141" s="1"/>
@@ -5629,14 +5497,14 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
-      <c r="A142" s="15" t="s">
+    <row r="142" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="11" t="s">
         <v>211</v>
       </c>
       <c r="D142" s="1"/>
@@ -5660,14 +5528,14 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
-      <c r="A143" s="15" t="s">
+    <row r="143" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="11" t="s">
         <v>213</v>
       </c>
       <c r="D143" s="1"/>
@@ -5691,14 +5559,14 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
-      <c r="A144" s="15" t="s">
+    <row r="144" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" s="11" t="s">
         <v>214</v>
       </c>
       <c r="D144" s="1"/>
@@ -5722,14 +5590,14 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
-      <c r="A145" s="15" t="s">
+    <row r="145" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="11" t="s">
         <v>215</v>
       </c>
       <c r="D145" s="1"/>
@@ -5753,14 +5621,14 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
-      <c r="A146" s="15" t="s">
+    <row r="146" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="11" t="s">
         <v>213</v>
       </c>
       <c r="D146" s="1"/>
@@ -5784,14 +5652,14 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
-      <c r="A147" s="15" t="s">
+    <row r="147" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="11" t="s">
         <v>217</v>
       </c>
       <c r="D147" s="1"/>
@@ -5815,14 +5683,14 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
-      <c r="A148" s="15" t="s">
+    <row r="148" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="11" t="s">
         <v>219</v>
       </c>
       <c r="D148" s="1"/>
@@ -5846,14 +5714,14 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
-      <c r="A149" s="15" t="s">
+    <row r="149" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C149" s="16" t="s">
+      <c r="C149" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D149" s="1"/>
@@ -5877,14 +5745,14 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
-      <c r="A150" s="15" t="s">
+    <row r="150" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="11" t="s">
         <v>223</v>
       </c>
       <c r="D150" s="1"/>
@@ -5908,14 +5776,14 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
-      <c r="A151" s="15" t="s">
+    <row r="151" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="11" t="s">
         <v>225</v>
       </c>
       <c r="D151" s="1"/>
@@ -5939,14 +5807,14 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
-      <c r="A152" s="15" t="s">
+    <row r="152" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="11" t="s">
         <v>227</v>
       </c>
       <c r="D152" s="1"/>
@@ -5970,14 +5838,14 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
-      <c r="A153" s="15" t="s">
+    <row r="153" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="10" t="s">
         <v>229</v>
       </c>
       <c r="D153" s="1"/>
@@ -6001,7 +5869,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -6024,7 +5892,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -6047,116 +5915,116 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
-      <c r="A156" s="20" t="s">
+    <row r="156" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20"/>
-      <c r="N156" s="20"/>
-      <c r="O156" s="20"/>
-      <c r="P156" s="20"/>
-      <c r="Q156" s="20"/>
-      <c r="R156" s="20"/>
-      <c r="S156" s="20"/>
-      <c r="T156" s="20"/>
-      <c r="U156" s="20"/>
-      <c r="V156" s="20"/>
-      <c r="W156" s="20"/>
-      <c r="X156" s="22"/>
-      <c r="Y156" s="22"/>
-      <c r="Z156" s="22"/>
-    </row>
-    <row r="157" ht="13.5" customHeight="1">
-      <c r="A157" s="23" t="s">
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="8"/>
+      <c r="N156" s="8"/>
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+      <c r="Q156" s="8"/>
+      <c r="R156" s="8"/>
+      <c r="S156" s="8"/>
+      <c r="T156" s="8"/>
+      <c r="U156" s="8"/>
+      <c r="V156" s="8"/>
+      <c r="W156" s="8"/>
+      <c r="X156" s="6"/>
+      <c r="Y156" s="6"/>
+      <c r="Z156" s="6"/>
+    </row>
+    <row r="157" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
-      <c r="N157" s="20"/>
-      <c r="O157" s="20"/>
-      <c r="P157" s="20"/>
-      <c r="Q157" s="20"/>
-      <c r="R157" s="20"/>
-      <c r="S157" s="20"/>
-      <c r="T157" s="20"/>
-      <c r="U157" s="20"/>
-      <c r="V157" s="20"/>
-      <c r="W157" s="20"/>
-      <c r="X157" s="22"/>
-      <c r="Y157" s="22"/>
-      <c r="Z157" s="22"/>
-    </row>
-    <row r="158" ht="13.5" customHeight="1">
-      <c r="A158" s="23" t="s">
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+      <c r="Q157" s="8"/>
+      <c r="R157" s="8"/>
+      <c r="S157" s="8"/>
+      <c r="T157" s="8"/>
+      <c r="U157" s="8"/>
+      <c r="V157" s="8"/>
+      <c r="W157" s="8"/>
+      <c r="X157" s="6"/>
+      <c r="Y157" s="6"/>
+      <c r="Z157" s="6"/>
+    </row>
+    <row r="158" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B158" s="20" t="s">
+      <c r="B158" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
-      <c r="N158" s="20"/>
-      <c r="O158" s="20"/>
-      <c r="P158" s="20"/>
-      <c r="Q158" s="20"/>
-      <c r="R158" s="20"/>
-      <c r="S158" s="20"/>
-      <c r="T158" s="20"/>
-      <c r="U158" s="20"/>
-      <c r="V158" s="20"/>
-      <c r="W158" s="20"/>
-      <c r="X158" s="22"/>
-      <c r="Y158" s="22"/>
-      <c r="Z158" s="22"/>
-    </row>
-    <row r="159" ht="13.5" customHeight="1">
-      <c r="A159" s="20" t="s">
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+      <c r="Q158" s="8"/>
+      <c r="R158" s="8"/>
+      <c r="S158" s="8"/>
+      <c r="T158" s="8"/>
+      <c r="U158" s="8"/>
+      <c r="V158" s="8"/>
+      <c r="W158" s="8"/>
+      <c r="X158" s="6"/>
+      <c r="Y158" s="6"/>
+      <c r="Z158" s="6"/>
+    </row>
+    <row r="159" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B159" s="24" t="s">
+      <c r="B159" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C159" s="20"/>
+      <c r="C159" s="8"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -6178,14 +6046,14 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
-      <c r="A160" s="20" t="s">
+    <row r="160" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B160" s="25" t="s">
+      <c r="B160" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C160" s="20"/>
+      <c r="C160" s="8"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6207,14 +6075,14 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
-      <c r="A161" s="20" t="s">
+    <row r="161" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B161" s="25" t="s">
+      <c r="B161" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C161" s="20"/>
+      <c r="C161" s="8"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6236,14 +6104,14 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
-      <c r="A162" s="20" t="s">
+    <row r="162" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C162" s="20"/>
+      <c r="C162" s="8"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6265,14 +6133,14 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
-      <c r="A163" s="20" t="s">
+    <row r="163" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B163" s="25" t="s">
+      <c r="B163" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C163" s="20"/>
+      <c r="C163" s="8"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6294,14 +6162,14 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
-      <c r="A164" s="20" t="s">
+    <row r="164" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B164" s="25" t="s">
+      <c r="B164" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C164" s="20"/>
+      <c r="C164" s="8"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6323,14 +6191,14 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
-      <c r="A165" s="20" t="s">
+    <row r="165" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="B165" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C165" s="20"/>
+      <c r="C165" s="8"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -6352,10 +6220,10 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
-      <c r="A166" s="20"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
+    <row r="166" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -6377,10 +6245,10 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
-      <c r="A167" s="20"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
+    <row r="167" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -6402,10 +6270,10 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
-      <c r="A168" s="20"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
+    <row r="168" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -6427,14 +6295,14 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
-      <c r="A169" s="5" t="s">
+    <row r="169" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="B169" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="1"/>
@@ -6458,14 +6326,14 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
-      <c r="A170" s="5" t="s">
+    <row r="170" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="1"/>
@@ -6489,14 +6357,14 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
-      <c r="A171" s="27" t="s">
+    <row r="171" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B171" s="27" t="s">
+      <c r="B171" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="8" t="s">
         <v>250</v>
       </c>
       <c r="D171" s="1"/>
@@ -6520,14 +6388,14 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
-      <c r="A172" s="20" t="s">
+    <row r="172" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B172" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="8" t="s">
         <v>252</v>
       </c>
       <c r="D172" s="1"/>
@@ -6551,15 +6419,15 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
-      <c r="A173" s="20" t="s">
+    <row r="173" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B173" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>254</v>
+      <c r="B173" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6582,12 +6450,12 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
-      <c r="A174" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
+    <row r="174" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -6609,12 +6477,12 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
-      <c r="A175" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
+    <row r="175" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -6636,15 +6504,15 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
-      <c r="A176" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>258</v>
+    <row r="176" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6667,15 +6535,15 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
-      <c r="A177" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>260</v>
+    <row r="177" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6698,10 +6566,10 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
+    <row r="178" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -6723,15 +6591,15 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
-      <c r="A179" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>262</v>
+    <row r="179" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6754,13 +6622,13 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
-      <c r="A180" s="23"/>
-      <c r="B180" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>263</v>
+    <row r="180" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="14"/>
+      <c r="B180" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6783,15 +6651,15 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
-      <c r="A181" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>265</v>
+    <row r="181" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6814,15 +6682,15 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
-      <c r="A182" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>267</v>
+    <row r="182" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6845,14 +6713,16 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
-      <c r="A183" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="B183" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C183" s="20"/>
+    <row r="183" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -6874,10 +6744,16 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
-      <c r="A184" s="20"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
+    <row r="184" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -6899,14 +6775,16 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
-      <c r="A185" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="B185" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="C185" s="1"/>
+    <row r="185" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -6928,14 +6806,14 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
-      <c r="A186" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B186" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="C186" s="1"/>
+    <row r="186" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C186" s="8"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -6957,14 +6835,10 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
-      <c r="A187" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="B187" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="C187" s="1"/>
+    <row r="187" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -6986,12 +6860,12 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
-      <c r="A188" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B188" s="30" t="s">
-        <v>275</v>
+    <row r="188" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -7015,12 +6889,12 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
-      <c r="A189" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="B189" s="32" t="s">
-        <v>277</v>
+    <row r="189" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7044,12 +6918,12 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
-      <c r="A190" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="B190" s="32" t="s">
-        <v>279</v>
+    <row r="190" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -7073,12 +6947,12 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
-      <c r="A191" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B191" s="32" t="s">
-        <v>281</v>
+    <row r="191" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -7102,12 +6976,12 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
-      <c r="A192" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="B192" s="32" t="s">
-        <v>283</v>
+    <row r="192" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -7131,12 +7005,12 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
-      <c r="A193" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="B193" s="32" t="s">
-        <v>285</v>
+    <row r="193" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -7160,12 +7034,12 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
-      <c r="A194" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="B194" s="32" t="s">
-        <v>287</v>
+    <row r="194" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7189,12 +7063,12 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
-      <c r="A195" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="B195" s="32" t="s">
-        <v>289</v>
+    <row r="195" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -7218,12 +7092,12 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
-      <c r="A196" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="B196" s="32" t="s">
-        <v>291</v>
+    <row r="196" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -7247,12 +7121,12 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
-      <c r="A197" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="B197" s="32" t="s">
-        <v>293</v>
+    <row r="197" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -7276,12 +7150,12 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
-      <c r="A198" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="B198" s="32" t="s">
-        <v>295</v>
+    <row r="198" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7305,12 +7179,12 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
-      <c r="A199" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B199" s="32" t="s">
-        <v>297</v>
+    <row r="199" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -7334,12 +7208,12 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
-      <c r="A200" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="B200" s="33" t="s">
-        <v>299</v>
+    <row r="200" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -7363,12 +7237,12 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
-      <c r="A201" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="B201" s="32" t="s">
-        <v>301</v>
+    <row r="201" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -7392,12 +7266,12 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
-      <c r="A202" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="B202" s="32" t="s">
-        <v>303</v>
+    <row r="202" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7421,12 +7295,12 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
-      <c r="A203" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="B203" s="32" t="s">
-        <v>303</v>
+    <row r="203" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7450,12 +7324,12 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
-      <c r="A204" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="B204" s="33" t="s">
-        <v>191</v>
+    <row r="204" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7479,12 +7353,12 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
-      <c r="A205" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="B205" s="32" t="s">
-        <v>193</v>
+    <row r="205" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -7508,12 +7382,12 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
-      <c r="A206" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="B206" s="32" t="s">
-        <v>308</v>
+    <row r="206" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -7537,12 +7411,12 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
-      <c r="A207" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="B207" s="32" t="s">
-        <v>310</v>
+    <row r="207" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7566,12 +7440,12 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
-      <c r="A208" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B208" s="32" t="s">
-        <v>312</v>
+    <row r="208" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7595,12 +7469,12 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
-      <c r="A209" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="B209" s="32" t="s">
-        <v>310</v>
+    <row r="209" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -7624,12 +7498,12 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
-      <c r="A210" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="B210" s="32" t="s">
-        <v>315</v>
+    <row r="210" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -7653,12 +7527,12 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
-      <c r="A211" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B211" s="32" t="s">
-        <v>317</v>
+    <row r="211" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -7682,12 +7556,12 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
-      <c r="A212" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="B212" s="32" t="s">
-        <v>319</v>
+    <row r="212" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -7711,9 +7585,13 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+    <row r="213" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -7736,9 +7614,13 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+    <row r="214" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>313</v>
+      </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -7761,9 +7643,13 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+    <row r="215" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -7786,7 +7672,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7811,7 +7697,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7836,7 +7722,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7861,7 +7747,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7886,7 +7772,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7911,7 +7797,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" ht="13.5" customHeight="1">
+    <row r="221" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7936,7 +7822,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" ht="13.5" customHeight="1">
+    <row r="222" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7961,7 +7847,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" ht="13.5" customHeight="1">
+    <row r="223" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7986,7 +7872,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" ht="13.5" customHeight="1">
+    <row r="224" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8011,7 +7897,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" ht="13.5" customHeight="1">
+    <row r="225" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8036,7 +7922,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" ht="13.5" customHeight="1">
+    <row r="226" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8061,7 +7947,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" ht="13.5" customHeight="1">
+    <row r="227" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8086,7 +7972,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" ht="13.5" customHeight="1">
+    <row r="228" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8111,7 +7997,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" ht="13.5" customHeight="1">
+    <row r="229" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8136,7 +8022,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" ht="13.5" customHeight="1">
+    <row r="230" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8161,7 +8047,7 @@
       <c r="V230" s="1"/>
       <c r="W230" s="1"/>
     </row>
-    <row r="231" ht="13.5" customHeight="1">
+    <row r="231" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8186,7 +8072,7 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
     </row>
-    <row r="232" ht="13.5" customHeight="1">
+    <row r="232" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8211,7 +8097,7 @@
       <c r="V232" s="1"/>
       <c r="W232" s="1"/>
     </row>
-    <row r="233" ht="13.5" customHeight="1">
+    <row r="233" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8236,7 +8122,7 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
     </row>
-    <row r="234" ht="13.5" customHeight="1">
+    <row r="234" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8261,7 +8147,7 @@
       <c r="V234" s="1"/>
       <c r="W234" s="1"/>
     </row>
-    <row r="235" ht="13.5" customHeight="1">
+    <row r="235" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8286,7 +8172,7 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
     </row>
-    <row r="236" ht="13.5" customHeight="1">
+    <row r="236" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8311,7 +8197,7 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
     </row>
-    <row r="237" ht="13.5" customHeight="1">
+    <row r="237" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8336,7 +8222,7 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
     </row>
-    <row r="238" ht="13.5" customHeight="1">
+    <row r="238" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8361,7 +8247,7 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
     </row>
-    <row r="239" ht="13.5" customHeight="1">
+    <row r="239" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8386,7 +8272,7 @@
       <c r="V239" s="1"/>
       <c r="W239" s="1"/>
     </row>
-    <row r="240" ht="13.5" customHeight="1">
+    <row r="240" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8411,7 +8297,7 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
     </row>
-    <row r="241" ht="13.5" customHeight="1">
+    <row r="241" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8436,7 +8322,7 @@
       <c r="V241" s="1"/>
       <c r="W241" s="1"/>
     </row>
-    <row r="242" ht="13.5" customHeight="1">
+    <row r="242" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8461,7 +8347,7 @@
       <c r="V242" s="1"/>
       <c r="W242" s="1"/>
     </row>
-    <row r="243" ht="13.5" customHeight="1">
+    <row r="243" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8486,7 +8372,7 @@
       <c r="V243" s="1"/>
       <c r="W243" s="1"/>
     </row>
-    <row r="244" ht="13.5" customHeight="1">
+    <row r="244" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8511,7 +8397,7 @@
       <c r="V244" s="1"/>
       <c r="W244" s="1"/>
     </row>
-    <row r="245" ht="13.5" customHeight="1">
+    <row r="245" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8536,7 +8422,7 @@
       <c r="V245" s="1"/>
       <c r="W245" s="1"/>
     </row>
-    <row r="246" ht="13.5" customHeight="1">
+    <row r="246" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8561,7 +8447,7 @@
       <c r="V246" s="1"/>
       <c r="W246" s="1"/>
     </row>
-    <row r="247" ht="13.5" customHeight="1">
+    <row r="247" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8586,7 +8472,7 @@
       <c r="V247" s="1"/>
       <c r="W247" s="1"/>
     </row>
-    <row r="248" ht="13.5" customHeight="1">
+    <row r="248" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8611,7 +8497,7 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
     </row>
-    <row r="249" ht="13.5" customHeight="1">
+    <row r="249" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8636,7 +8522,7 @@
       <c r="V249" s="1"/>
       <c r="W249" s="1"/>
     </row>
-    <row r="250" ht="13.5" customHeight="1">
+    <row r="250" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8661,7 +8547,7 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
     </row>
-    <row r="251" ht="13.5" customHeight="1">
+    <row r="251" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8686,7 +8572,7 @@
       <c r="V251" s="1"/>
       <c r="W251" s="1"/>
     </row>
-    <row r="252" ht="13.5" customHeight="1">
+    <row r="252" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8711,7 +8597,7 @@
       <c r="V252" s="1"/>
       <c r="W252" s="1"/>
     </row>
-    <row r="253" ht="13.5" customHeight="1">
+    <row r="253" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8736,7 +8622,7 @@
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
     </row>
-    <row r="254" ht="13.5" customHeight="1">
+    <row r="254" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8761,7 +8647,7 @@
       <c r="V254" s="1"/>
       <c r="W254" s="1"/>
     </row>
-    <row r="255" ht="13.5" customHeight="1">
+    <row r="255" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8786,7 +8672,7 @@
       <c r="V255" s="1"/>
       <c r="W255" s="1"/>
     </row>
-    <row r="256" ht="13.5" customHeight="1">
+    <row r="256" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8811,7 +8697,7 @@
       <c r="V256" s="1"/>
       <c r="W256" s="1"/>
     </row>
-    <row r="257" ht="13.5" customHeight="1">
+    <row r="257" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8836,7 +8722,7 @@
       <c r="V257" s="1"/>
       <c r="W257" s="1"/>
     </row>
-    <row r="258" ht="13.5" customHeight="1">
+    <row r="258" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8861,7 +8747,7 @@
       <c r="V258" s="1"/>
       <c r="W258" s="1"/>
     </row>
-    <row r="259" ht="13.5" customHeight="1">
+    <row r="259" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8886,7 +8772,7 @@
       <c r="V259" s="1"/>
       <c r="W259" s="1"/>
     </row>
-    <row r="260" ht="13.5" customHeight="1">
+    <row r="260" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8911,7 +8797,7 @@
       <c r="V260" s="1"/>
       <c r="W260" s="1"/>
     </row>
-    <row r="261" ht="13.5" customHeight="1">
+    <row r="261" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8936,7 +8822,7 @@
       <c r="V261" s="1"/>
       <c r="W261" s="1"/>
     </row>
-    <row r="262" ht="13.5" customHeight="1">
+    <row r="262" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8961,7 +8847,7 @@
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
     </row>
-    <row r="263" ht="13.5" customHeight="1">
+    <row r="263" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8986,7 +8872,7 @@
       <c r="V263" s="1"/>
       <c r="W263" s="1"/>
     </row>
-    <row r="264" ht="13.5" customHeight="1">
+    <row r="264" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9011,7 +8897,7 @@
       <c r="V264" s="1"/>
       <c r="W264" s="1"/>
     </row>
-    <row r="265" ht="13.5" customHeight="1">
+    <row r="265" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9036,7 +8922,7 @@
       <c r="V265" s="1"/>
       <c r="W265" s="1"/>
     </row>
-    <row r="266" ht="13.5" customHeight="1">
+    <row r="266" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -9061,7 +8947,7 @@
       <c r="V266" s="1"/>
       <c r="W266" s="1"/>
     </row>
-    <row r="267" ht="13.5" customHeight="1">
+    <row r="267" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9086,7 +8972,7 @@
       <c r="V267" s="1"/>
       <c r="W267" s="1"/>
     </row>
-    <row r="268" ht="13.5" customHeight="1">
+    <row r="268" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9111,7 +8997,7 @@
       <c r="V268" s="1"/>
       <c r="W268" s="1"/>
     </row>
-    <row r="269" ht="13.5" customHeight="1">
+    <row r="269" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9136,7 +9022,7 @@
       <c r="V269" s="1"/>
       <c r="W269" s="1"/>
     </row>
-    <row r="270" ht="13.5" customHeight="1">
+    <row r="270" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9161,7 +9047,7 @@
       <c r="V270" s="1"/>
       <c r="W270" s="1"/>
     </row>
-    <row r="271" ht="13.5" customHeight="1">
+    <row r="271" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9186,7 +9072,7 @@
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
     </row>
-    <row r="272" ht="13.5" customHeight="1">
+    <row r="272" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9211,7 +9097,7 @@
       <c r="V272" s="1"/>
       <c r="W272" s="1"/>
     </row>
-    <row r="273" ht="13.5" customHeight="1">
+    <row r="273" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9236,7 +9122,7 @@
       <c r="V273" s="1"/>
       <c r="W273" s="1"/>
     </row>
-    <row r="274" ht="13.5" customHeight="1">
+    <row r="274" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9261,7 +9147,7 @@
       <c r="V274" s="1"/>
       <c r="W274" s="1"/>
     </row>
-    <row r="275" ht="13.5" customHeight="1">
+    <row r="275" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9286,7 +9172,7 @@
       <c r="V275" s="1"/>
       <c r="W275" s="1"/>
     </row>
-    <row r="276" ht="13.5" customHeight="1">
+    <row r="276" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9311,7 +9197,7 @@
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
     </row>
-    <row r="277" ht="13.5" customHeight="1">
+    <row r="277" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9336,7 +9222,7 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
     </row>
-    <row r="278" ht="13.5" customHeight="1">
+    <row r="278" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9361,7 +9247,7 @@
       <c r="V278" s="1"/>
       <c r="W278" s="1"/>
     </row>
-    <row r="279" ht="13.5" customHeight="1">
+    <row r="279" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9386,7 +9272,7 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
     </row>
-    <row r="280" ht="13.5" customHeight="1">
+    <row r="280" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9411,7 +9297,7 @@
       <c r="V280" s="1"/>
       <c r="W280" s="1"/>
     </row>
-    <row r="281" ht="13.5" customHeight="1">
+    <row r="281" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9436,7 +9322,7 @@
       <c r="V281" s="1"/>
       <c r="W281" s="1"/>
     </row>
-    <row r="282" ht="13.5" customHeight="1">
+    <row r="282" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9461,7 +9347,7 @@
       <c r="V282" s="1"/>
       <c r="W282" s="1"/>
     </row>
-    <row r="283" ht="13.5" customHeight="1">
+    <row r="283" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9486,7 +9372,7 @@
       <c r="V283" s="1"/>
       <c r="W283" s="1"/>
     </row>
-    <row r="284" ht="13.5" customHeight="1">
+    <row r="284" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9511,7 +9397,7 @@
       <c r="V284" s="1"/>
       <c r="W284" s="1"/>
     </row>
-    <row r="285" ht="13.5" customHeight="1">
+    <row r="285" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9536,7 +9422,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
     </row>
-    <row r="286" ht="13.5" customHeight="1">
+    <row r="286" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9561,7 +9447,7 @@
       <c r="V286" s="1"/>
       <c r="W286" s="1"/>
     </row>
-    <row r="287" ht="13.5" customHeight="1">
+    <row r="287" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9586,7 +9472,7 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
     </row>
-    <row r="288" ht="13.5" customHeight="1">
+    <row r="288" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9611,7 +9497,7 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
     </row>
-    <row r="289" ht="13.5" customHeight="1">
+    <row r="289" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9636,7 +9522,7 @@
       <c r="V289" s="1"/>
       <c r="W289" s="1"/>
     </row>
-    <row r="290" ht="13.5" customHeight="1">
+    <row r="290" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9661,7 +9547,7 @@
       <c r="V290" s="1"/>
       <c r="W290" s="1"/>
     </row>
-    <row r="291" ht="13.5" customHeight="1">
+    <row r="291" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9686,7 +9572,7 @@
       <c r="V291" s="1"/>
       <c r="W291" s="1"/>
     </row>
-    <row r="292" ht="13.5" customHeight="1">
+    <row r="292" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9711,7 +9597,7 @@
       <c r="V292" s="1"/>
       <c r="W292" s="1"/>
     </row>
-    <row r="293" ht="13.5" customHeight="1">
+    <row r="293" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9736,7 +9622,7 @@
       <c r="V293" s="1"/>
       <c r="W293" s="1"/>
     </row>
-    <row r="294" ht="13.5" customHeight="1">
+    <row r="294" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9761,7 +9647,7 @@
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
     </row>
-    <row r="295" ht="13.5" customHeight="1">
+    <row r="295" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9786,7 +9672,7 @@
       <c r="V295" s="1"/>
       <c r="W295" s="1"/>
     </row>
-    <row r="296" ht="13.5" customHeight="1">
+    <row r="296" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9811,7 +9697,7 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
     </row>
-    <row r="297" ht="13.5" customHeight="1">
+    <row r="297" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9836,7 +9722,7 @@
       <c r="V297" s="1"/>
       <c r="W297" s="1"/>
     </row>
-    <row r="298" ht="13.5" customHeight="1">
+    <row r="298" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9861,7 +9747,7 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
     </row>
-    <row r="299" ht="13.5" customHeight="1">
+    <row r="299" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9886,7 +9772,7 @@
       <c r="V299" s="1"/>
       <c r="W299" s="1"/>
     </row>
-    <row r="300" ht="13.5" customHeight="1">
+    <row r="300" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9911,7 +9797,7 @@
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
     </row>
-    <row r="301" ht="13.5" customHeight="1">
+    <row r="301" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9936,7 +9822,7 @@
       <c r="V301" s="1"/>
       <c r="W301" s="1"/>
     </row>
-    <row r="302" ht="13.5" customHeight="1">
+    <row r="302" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9961,7 +9847,7 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
     </row>
-    <row r="303" ht="13.5" customHeight="1">
+    <row r="303" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9986,7 +9872,7 @@
       <c r="V303" s="1"/>
       <c r="W303" s="1"/>
     </row>
-    <row r="304" ht="13.5" customHeight="1">
+    <row r="304" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -10011,7 +9897,7 @@
       <c r="V304" s="1"/>
       <c r="W304" s="1"/>
     </row>
-    <row r="305" ht="13.5" customHeight="1">
+    <row r="305" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -10036,7 +9922,7 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
     </row>
-    <row r="306" ht="13.5" customHeight="1">
+    <row r="306" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10061,7 +9947,7 @@
       <c r="V306" s="1"/>
       <c r="W306" s="1"/>
     </row>
-    <row r="307" ht="13.5" customHeight="1">
+    <row r="307" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10086,7 +9972,7 @@
       <c r="V307" s="1"/>
       <c r="W307" s="1"/>
     </row>
-    <row r="308" ht="13.5" customHeight="1">
+    <row r="308" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10111,7 +9997,7 @@
       <c r="V308" s="1"/>
       <c r="W308" s="1"/>
     </row>
-    <row r="309" ht="13.5" customHeight="1">
+    <row r="309" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10136,7 +10022,7 @@
       <c r="V309" s="1"/>
       <c r="W309" s="1"/>
     </row>
-    <row r="310" ht="13.5" customHeight="1">
+    <row r="310" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10161,7 +10047,7 @@
       <c r="V310" s="1"/>
       <c r="W310" s="1"/>
     </row>
-    <row r="311" ht="13.5" customHeight="1">
+    <row r="311" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10186,7 +10072,7 @@
       <c r="V311" s="1"/>
       <c r="W311" s="1"/>
     </row>
-    <row r="312" ht="13.5" customHeight="1">
+    <row r="312" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10211,7 +10097,7 @@
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
     </row>
-    <row r="313" ht="13.5" customHeight="1">
+    <row r="313" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10236,7 +10122,7 @@
       <c r="V313" s="1"/>
       <c r="W313" s="1"/>
     </row>
-    <row r="314" ht="13.5" customHeight="1">
+    <row r="314" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10261,7 +10147,7 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
     </row>
-    <row r="315" ht="13.5" customHeight="1">
+    <row r="315" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10286,7 +10172,7 @@
       <c r="V315" s="1"/>
       <c r="W315" s="1"/>
     </row>
-    <row r="316" ht="13.5" customHeight="1">
+    <row r="316" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10311,7 +10197,7 @@
       <c r="V316" s="1"/>
       <c r="W316" s="1"/>
     </row>
-    <row r="317" ht="13.5" customHeight="1">
+    <row r="317" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10336,7 +10222,7 @@
       <c r="V317" s="1"/>
       <c r="W317" s="1"/>
     </row>
-    <row r="318" ht="13.5" customHeight="1">
+    <row r="318" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10361,7 +10247,7 @@
       <c r="V318" s="1"/>
       <c r="W318" s="1"/>
     </row>
-    <row r="319" ht="13.5" customHeight="1">
+    <row r="319" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10386,7 +10272,7 @@
       <c r="V319" s="1"/>
       <c r="W319" s="1"/>
     </row>
-    <row r="320" ht="13.5" customHeight="1">
+    <row r="320" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10411,7 +10297,7 @@
       <c r="V320" s="1"/>
       <c r="W320" s="1"/>
     </row>
-    <row r="321" ht="13.5" customHeight="1">
+    <row r="321" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10436,7 +10322,7 @@
       <c r="V321" s="1"/>
       <c r="W321" s="1"/>
     </row>
-    <row r="322" ht="13.5" customHeight="1">
+    <row r="322" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10461,7 +10347,7 @@
       <c r="V322" s="1"/>
       <c r="W322" s="1"/>
     </row>
-    <row r="323" ht="13.5" customHeight="1">
+    <row r="323" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10486,7 +10372,7 @@
       <c r="V323" s="1"/>
       <c r="W323" s="1"/>
     </row>
-    <row r="324" ht="13.5" customHeight="1">
+    <row r="324" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10511,7 +10397,7 @@
       <c r="V324" s="1"/>
       <c r="W324" s="1"/>
     </row>
-    <row r="325" ht="13.5" customHeight="1">
+    <row r="325" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10536,7 +10422,7 @@
       <c r="V325" s="1"/>
       <c r="W325" s="1"/>
     </row>
-    <row r="326" ht="13.5" customHeight="1">
+    <row r="326" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10561,7 +10447,7 @@
       <c r="V326" s="1"/>
       <c r="W326" s="1"/>
     </row>
-    <row r="327" ht="13.5" customHeight="1">
+    <row r="327" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10586,7 +10472,7 @@
       <c r="V327" s="1"/>
       <c r="W327" s="1"/>
     </row>
-    <row r="328" ht="13.5" customHeight="1">
+    <row r="328" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10611,7 +10497,7 @@
       <c r="V328" s="1"/>
       <c r="W328" s="1"/>
     </row>
-    <row r="329" ht="13.5" customHeight="1">
+    <row r="329" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10636,7 +10522,7 @@
       <c r="V329" s="1"/>
       <c r="W329" s="1"/>
     </row>
-    <row r="330" ht="13.5" customHeight="1">
+    <row r="330" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10661,7 +10547,7 @@
       <c r="V330" s="1"/>
       <c r="W330" s="1"/>
     </row>
-    <row r="331" ht="13.5" customHeight="1">
+    <row r="331" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10686,7 +10572,7 @@
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
     </row>
-    <row r="332" ht="13.5" customHeight="1">
+    <row r="332" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10711,7 +10597,7 @@
       <c r="V332" s="1"/>
       <c r="W332" s="1"/>
     </row>
-    <row r="333" ht="13.5" customHeight="1">
+    <row r="333" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10736,7 +10622,7 @@
       <c r="V333" s="1"/>
       <c r="W333" s="1"/>
     </row>
-    <row r="334" ht="13.5" customHeight="1">
+    <row r="334" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10761,7 +10647,7 @@
       <c r="V334" s="1"/>
       <c r="W334" s="1"/>
     </row>
-    <row r="335" ht="13.5" customHeight="1">
+    <row r="335" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10786,7 +10672,7 @@
       <c r="V335" s="1"/>
       <c r="W335" s="1"/>
     </row>
-    <row r="336" ht="13.5" customHeight="1">
+    <row r="336" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10811,7 +10697,7 @@
       <c r="V336" s="1"/>
       <c r="W336" s="1"/>
     </row>
-    <row r="337" ht="13.5" customHeight="1">
+    <row r="337" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10836,7 +10722,7 @@
       <c r="V337" s="1"/>
       <c r="W337" s="1"/>
     </row>
-    <row r="338" ht="13.5" customHeight="1">
+    <row r="338" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10861,7 +10747,7 @@
       <c r="V338" s="1"/>
       <c r="W338" s="1"/>
     </row>
-    <row r="339" ht="13.5" customHeight="1">
+    <row r="339" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10886,7 +10772,7 @@
       <c r="V339" s="1"/>
       <c r="W339" s="1"/>
     </row>
-    <row r="340" ht="13.5" customHeight="1">
+    <row r="340" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10911,7 +10797,7 @@
       <c r="V340" s="1"/>
       <c r="W340" s="1"/>
     </row>
-    <row r="341" ht="13.5" customHeight="1">
+    <row r="341" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10936,7 +10822,7 @@
       <c r="V341" s="1"/>
       <c r="W341" s="1"/>
     </row>
-    <row r="342" ht="13.5" customHeight="1">
+    <row r="342" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10961,7 +10847,7 @@
       <c r="V342" s="1"/>
       <c r="W342" s="1"/>
     </row>
-    <row r="343" ht="13.5" customHeight="1">
+    <row r="343" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10986,7 +10872,7 @@
       <c r="V343" s="1"/>
       <c r="W343" s="1"/>
     </row>
-    <row r="344" ht="13.5" customHeight="1">
+    <row r="344" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -11011,7 +10897,7 @@
       <c r="V344" s="1"/>
       <c r="W344" s="1"/>
     </row>
-    <row r="345" ht="13.5" customHeight="1">
+    <row r="345" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -11036,7 +10922,7 @@
       <c r="V345" s="1"/>
       <c r="W345" s="1"/>
     </row>
-    <row r="346" ht="13.5" customHeight="1">
+    <row r="346" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11061,7 +10947,7 @@
       <c r="V346" s="1"/>
       <c r="W346" s="1"/>
     </row>
-    <row r="347" ht="13.5" customHeight="1">
+    <row r="347" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11086,7 +10972,7 @@
       <c r="V347" s="1"/>
       <c r="W347" s="1"/>
     </row>
-    <row r="348" ht="13.5" customHeight="1">
+    <row r="348" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11111,7 +10997,7 @@
       <c r="V348" s="1"/>
       <c r="W348" s="1"/>
     </row>
-    <row r="349" ht="13.5" customHeight="1">
+    <row r="349" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11136,7 +11022,7 @@
       <c r="V349" s="1"/>
       <c r="W349" s="1"/>
     </row>
-    <row r="350" ht="13.5" customHeight="1">
+    <row r="350" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11161,7 +11047,7 @@
       <c r="V350" s="1"/>
       <c r="W350" s="1"/>
     </row>
-    <row r="351" ht="13.5" customHeight="1">
+    <row r="351" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11186,7 +11072,7 @@
       <c r="V351" s="1"/>
       <c r="W351" s="1"/>
     </row>
-    <row r="352" ht="13.5" customHeight="1">
+    <row r="352" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11211,7 +11097,7 @@
       <c r="V352" s="1"/>
       <c r="W352" s="1"/>
     </row>
-    <row r="353" ht="13.5" customHeight="1">
+    <row r="353" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11236,672 +11122,745 @@
       <c r="V353" s="1"/>
       <c r="W353" s="1"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="354" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="P354" s="1"/>
+      <c r="Q354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="T354" s="1"/>
+      <c r="U354" s="1"/>
+      <c r="V354" s="1"/>
+      <c r="W354" s="1"/>
+    </row>
+    <row r="355" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+      <c r="H355" s="1"/>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+      <c r="K355" s="1"/>
+      <c r="L355" s="1"/>
+      <c r="M355" s="1"/>
+      <c r="N355" s="1"/>
+      <c r="O355" s="1"/>
+      <c r="P355" s="1"/>
+      <c r="Q355" s="1"/>
+      <c r="R355" s="1"/>
+      <c r="S355" s="1"/>
+      <c r="T355" s="1"/>
+      <c r="U355" s="1"/>
+      <c r="V355" s="1"/>
+      <c r="W355" s="1"/>
+    </row>
+    <row r="356" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="1"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+      <c r="K356" s="1"/>
+      <c r="L356" s="1"/>
+      <c r="M356" s="1"/>
+      <c r="N356" s="1"/>
+      <c r="O356" s="1"/>
+      <c r="P356" s="1"/>
+      <c r="Q356" s="1"/>
+      <c r="R356" s="1"/>
+      <c r="S356" s="1"/>
+      <c r="T356" s="1"/>
+      <c r="U356" s="1"/>
+      <c r="V356" s="1"/>
+      <c r="W356" s="1"/>
+    </row>
+    <row r="357" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="C3"/>
-    <hyperlink r:id="rId5" ref="B38"/>
-    <hyperlink r:id="rId6" ref="C38"/>
-    <hyperlink r:id="rId7" ref="B75"/>
-    <hyperlink r:id="rId8" ref="C75"/>
-    <hyperlink r:id="rId9" ref="B156"/>
-    <hyperlink r:id="rId10" ref="C156"/>
-    <hyperlink r:id="rId11" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg" ref="B162"/>
-    <hyperlink r:id="rId12" ref="B169"/>
-    <hyperlink r:id="rId13" ref="C169"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="B38" r:id="rId5"/>
+    <hyperlink ref="C38" r:id="rId6"/>
+    <hyperlink ref="B75" r:id="rId7"/>
+    <hyperlink ref="C75" r:id="rId8"/>
+    <hyperlink ref="B156" r:id="rId9"/>
+    <hyperlink ref="C156" r:id="rId10"/>
+    <hyperlink ref="B162" r:id="rId11" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
+    <hyperlink ref="B169" r:id="rId12"/>
+    <hyperlink ref="C169" r:id="rId13"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inlogic\local_Checkout\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\local_Checkout\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5220C4-617A-4008-B4AD-9A9F749CF383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
+    <sheet name="MMH_MobileApp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="330">
   <si>
     <t>KEY</t>
   </si>
@@ -997,12 +999,24 @@
   </si>
   <si>
     <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Out of office reply testing;Body : Out of office reply testing_RANDOM</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS;Follow-up</t>
+  </si>
+  <si>
+    <t>Dr Sam Entwistle;Follow-up</t>
+  </si>
+  <si>
+    <t>Approved;Dr Sam Entwistle;VM03Location;Pay at Health Centre;Follow-up</t>
+  </si>
+  <si>
+    <t>Approved;Phone Appointment;Dr Sam Entwistle;VM03Location;Pay at Health Centre;Follow-up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1296,10 +1310,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+    <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
@@ -11846,21 +11860,120 @@
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B38" r:id="rId5"/>
-    <hyperlink ref="C38" r:id="rId6"/>
-    <hyperlink ref="B75" r:id="rId7"/>
-    <hyperlink ref="C75" r:id="rId8"/>
-    <hyperlink ref="B156" r:id="rId9"/>
-    <hyperlink ref="C156" r:id="rId10"/>
-    <hyperlink ref="B162" r:id="rId11" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
-    <hyperlink ref="B169" r:id="rId12"/>
-    <hyperlink ref="C169" r:id="rId13"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B75" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C75" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B156" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C156" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B162" r:id="rId11" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B169" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C169" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182EF84-9AAF-4A9D-91E6-D50D70555D4C}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\local_Checkout\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MMH_Framework\MMH_Git_Updated[11-07]\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5220C4-617A-4008-B4AD-9A9F749CF383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C12C9-C2EA-4918-88CC-66BC04EAF210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="356">
   <si>
     <t>KEY</t>
   </si>
@@ -1011,17 +1011,151 @@
   </si>
   <si>
     <t>Approved;Phone Appointment;Dr Sam Entwistle;VM03Location;Pay at Health Centre;Follow-up</t>
+  </si>
+  <si>
+    <t>Approved;Video Appointment;Dr Sam Entwistle;VM03Location;Pay at Health Centre;Follow-up</t>
+  </si>
+  <si>
+    <t>CONTACT_NUMBER</t>
+  </si>
+  <si>
+    <t>4111111111111111;test;02;24;121</t>
+  </si>
+  <si>
+    <t>VISIT_APPOINTMENT_SUMMARY_USING_CARD_PAYMENT</t>
+  </si>
+  <si>
+    <t>BOOK_PHONE_APPOINTMENT_USING_CARD_PAYMENT</t>
+  </si>
+  <si>
+    <t>PHONE_APPOINTMENT_DETAILS_USING_CARD_PAYMENT</t>
+  </si>
+  <si>
+    <t>PHONE_APPOINTMENT_SUMMARY_USING_CARD_PAYMENT</t>
+  </si>
+  <si>
+    <t>BOOK_VIDEO_APPOINTMENT_USING_CARD_PAYMENT</t>
+  </si>
+  <si>
+    <t>VIDEO_APPOINTMENT_DETAILS_USING_CARD_PAYMENT</t>
+  </si>
+  <si>
+    <t>VIDEO_APPOINTMENT_SUMMARY_USING_CARD_PAYMENT</t>
+  </si>
+  <si>
+    <t>Approved;Phone Appointment;Dr Sam Entwistle;VM03Location;Follow-up</t>
+  </si>
+  <si>
+    <t>Approved;Dr Sam Entwistle;VM03Location;Follow-up</t>
+  </si>
+  <si>
+    <t>BOOK_VISIT_APPOINTMENT_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>VISIT_APPOINTMENT_DETAILS_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>VISIT_APPOINTMENT_SUMMARY_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>VM03Location2;Dr.Neel;AFTER_THREE_DAYS;Follow-up</t>
+  </si>
+  <si>
+    <t>Dr.Neel;Follow-up</t>
+  </si>
+  <si>
+    <t>Approved;Dr.Neel;VM03Location2;Pay at Health Centre;Follow-up</t>
+  </si>
+  <si>
+    <t>BOOK_PHONE_APPOINTMENT_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>PHONE_APPOINTMENT_DETAILS_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>PHONE_APPOINTMENT_SUMMARY_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>Approved;Phone Appointment;Dr.Neel;VM03Location2;Pay at Health Centre;Follow-up</t>
+  </si>
+  <si>
+    <t>Approved;Video Appointment;Dr.Neel;VM03Location2;Pay at Health Centre;Follow-up</t>
+  </si>
+  <si>
+    <t>BOOK_VIDEO_APPOINTMENT_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>VIDEO_APPOINTMENT_DETAILS_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>VIDEO_APPOINTMENT_SUMMARY_0_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,6 +1170,21 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1064,38 +1213,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11881,99 +12045,412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182EF84-9AAF-4A9D-91E6-D50D70555D4C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="15" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="15" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="15" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="24">
+        <v>784512369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" s="15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" s="15" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="24">
+        <v>784512369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="24">
+        <v>784512369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F2EAAA5B-5C00-48F7-B385-AC499BC71E4C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MMH_Framework\MMH_Git_Updated[11-07]\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C12C9-C2EA-4918-88CC-66BC04EAF210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B4FA5-ACE0-445C-8817-8978B42C408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="384">
   <si>
     <t>KEY</t>
   </si>
@@ -1089,17 +1089,129 @@
   </si>
   <si>
     <t>VIDEO_APPOINTMENT_SUMMARY_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>TEST_RESULTS_RECORDS</t>
+  </si>
+  <si>
+    <t>TEST_RESULTS_DETAILS</t>
+  </si>
+  <si>
+    <t>Hpicpn_Hl7 Of The Message;02 Jun 2018</t>
+  </si>
+  <si>
+    <t>Amylmetacresol 0.6mg;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry);07 Jun 2022</t>
+  </si>
+  <si>
+    <t>Prescribed By;Dr Sam Entwistle;VM03Location;More Information;Item Name: Amylmetacresol 0.6mg;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry);Date Given: 07 Jun 2022;Directions: 5, As Required;Period: 0 Days;Dosage: 5;Status: Long Term</t>
+  </si>
+  <si>
+    <t>PRESCRIPTIONS_RECORDS</t>
+  </si>
+  <si>
+    <t>PRESCRIPTIONS_DETAILS</t>
+  </si>
+  <si>
+    <t>Dr Sam Entwistle;VM03Location;Test Results;Patient Details;Patient Name: TEST, Patient;NHI No:;Date of Birth: 26-Jun-1995;Ordered by:Sam Eaves;Laboratory:;Observation date:02-Jun-2018</t>
+  </si>
+  <si>
+    <t>2-aminoethyl dihydrogen phosphate;07 Jun 2022</t>
+  </si>
+  <si>
+    <t>ALLERGIES_RECORDS</t>
+  </si>
+  <si>
+    <t>ALLERGIES_DETAILS</t>
+  </si>
+  <si>
+    <t>Dr Sam Entwistle;VM03Location;Doctor's Note;note1;Type: Drug Class;Date Recorded: 07 Jun 2022</t>
+  </si>
+  <si>
+    <t>Plasma total protein S level;07 Jun 2022</t>
+  </si>
+  <si>
+    <t>Prescribed By;Dr Sam Entwistle;VM03Location;Condition Info;Condition Name: Plasma total protein S level;Date Recorded: 07 Jun 2022;Is Long Term? No;Clinician Notes;note1</t>
+  </si>
+  <si>
+    <t>CONDITIONS_RECORDS</t>
+  </si>
+  <si>
+    <t>CONDITIONS_DETAILS</t>
+  </si>
+  <si>
+    <t>BCG;07 Jun 2022 08:38 PM</t>
+  </si>
+  <si>
+    <t>Dr Sam Entwistle;VM03Location;Doctor's Note;Outcome: Given;Notes: note1;Expiry: 01 Dec 2020 04:06 PM;Batch Number: 2345690;Route: Intra Muscular;Site: Buttock</t>
+  </si>
+  <si>
+    <t>IMMUNISATIONS_RECORDS</t>
+  </si>
+  <si>
+    <t>IMMUNISATIONS_DETAILS</t>
+  </si>
+  <si>
+    <t>Dr Sam Entwistle;07 Jun 2022</t>
+  </si>
+  <si>
+    <t>Dr Sam Entwistle;VM03Location;Visit Information;Visit Type: Consult In Surgery;Visit Date: 07 Jun 2022 08:34 PM;Objective Notes;Test Objective;Subjective Notes;Test Subjective</t>
+  </si>
+  <si>
+    <t>DOCTOR_NOTES_RECORDS</t>
+  </si>
+  <si>
+    <t>DOCTOR_NOTES_DETAILS</t>
+  </si>
+  <si>
+    <t>Body Mass Index;14 Jun 2022</t>
+  </si>
+  <si>
+    <t>Dr Sam Entwistle;VM03Location;Doctor's Note;Note: note1;Due Date: 14 Jun 2022 08:37 PM;Contact information;Is Contacted? Yes;Contacted Date: 07 Jun 2022;Comment: MMH Email</t>
+  </si>
+  <si>
+    <t>RECALLS_RECORDS</t>
+  </si>
+  <si>
+    <t>RECALLS_DETAILS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,53 +1325,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B29"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12045,10 +12170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182EF84-9AAF-4A9D-91E6-D50D70555D4C}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12446,6 +12571,118 @@
         <v>18</v>
       </c>
     </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{F2EAAA5B-5C00-48F7-B385-AC499BC71E4C}"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MMH_Framework\MMH_Git_Updated[11-07]\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INLOGIC\My Exe\clone\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B4FA5-ACE0-445C-8817-8978B42C408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="382">
   <si>
     <t>KEY</t>
   </si>
@@ -38,9 +37,6 @@
     <t>https://dev.mmh-demo.com/m/Main/login</t>
   </si>
   <si>
-    <t>https://beta.mmh-demo.com/home</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -65,9 +61,6 @@
     <t>Visit;VM03Location;Dr Sam Entwistle</t>
   </si>
   <si>
-    <t>Visit;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>VISIT_APPOINTMENT_SUMMARY</t>
   </si>
   <si>
@@ -92,9 +85,6 @@
     <t>Video;VM03Location;Dr Sam Entwistle</t>
   </si>
   <si>
-    <t>Video;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>VIDEO_APPOINTMENT_SUMMARY</t>
   </si>
   <si>
@@ -122,9 +112,6 @@
     <t>Phone;VM03Location;Dr Sam Entwistle</t>
   </si>
   <si>
-    <t>Phone;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>PHONE_APPOINTMENT_SUMMARY</t>
   </si>
   <si>
@@ -152,18 +139,12 @@
     <t>Approved;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
   </si>
   <si>
-    <t>Approved;Dr Sam Entwistle;</t>
-  </si>
-  <si>
     <t>APPOINTMENT_DETAILS_AFTER_CANCELLED</t>
   </si>
   <si>
     <t>Cancelled;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
   </si>
   <si>
-    <t>Cancelled;Dr Sam Entwistle;</t>
-  </si>
-  <si>
     <t>VIDEO_ICONS</t>
   </si>
   <si>
@@ -725,24 +706,12 @@
     <t>PASSWORD FOR DOCTOR</t>
   </si>
   <si>
-    <t>MESSAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Lab results enquiry;successfuly;MMHtest.jpg </t>
-  </si>
-  <si>
     <t>SEND_DATA</t>
   </si>
   <si>
     <t>HARRY HARRY;Dr Tim;Lab results enquiry;Lab results enquiry</t>
   </si>
   <si>
-    <t>DRAFT_DATA</t>
-  </si>
-  <si>
-    <t>VM03Location;Lab results enquiry;Clinical Staff;Dr Tim</t>
-  </si>
-  <si>
     <t>DEV_URL</t>
   </si>
   <si>
@@ -1173,13 +1142,37 @@
   </si>
   <si>
     <t>RECALLS_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Compose Message_RANDOM;Compose Message Testing_RANDOM;MMHtest.jpg</t>
+  </si>
+  <si>
+    <t>COMPOSE_MESSAGE</t>
+  </si>
+  <si>
+    <t>DRAFT_MESSAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Draft Message_RANDOM;Draft Message Testing_RANDOM;MMHtest.jpg </t>
+  </si>
+  <si>
+    <t>https://v2web.mmh-demo.com/home</t>
+  </si>
+  <si>
+    <t>https://v2webuat.mmh-demo.com/home</t>
+  </si>
+  <si>
+    <t>CARD_APPOINTMENT_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1291,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF297BDE"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1322,10 +1329,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1339,9 +1347,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1385,8 +1390,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1599,23 +1609,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="69.54296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="157.08984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="148.7265625" style="10" customWidth="1"/>
-    <col min="4" max="23" width="8.81640625" style="10" customWidth="1"/>
-    <col min="24" max="16384" width="14.453125" style="10"/>
+    <col min="1" max="1" width="69.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="148.7109375" style="9" customWidth="1"/>
+    <col min="4" max="23" width="8.85546875" style="9" customWidth="1"/>
+    <col min="24" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,15 +1656,15 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>378</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1677,15 +1687,15 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1708,15 +1718,15 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1739,15 +1749,15 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1770,15 +1780,15 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1801,15 +1811,15 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1832,14 +1842,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1861,7 +1873,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1886,15 +1898,15 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1917,15 +1929,15 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1948,15 +1960,15 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1979,14 +1991,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2008,7 +2022,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2033,15 +2047,15 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2064,15 +2078,15 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2095,15 +2109,15 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2126,14 +2140,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2155,7 +2171,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2180,15 +2196,15 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2211,15 +2227,15 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2242,15 +2258,15 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2273,14 +2289,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2302,7 +2320,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2327,15 +2345,15 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2358,15 +2376,15 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2389,15 +2407,15 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2420,15 +2438,15 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2451,14 +2469,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2480,10 +2500,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+    <row r="30" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2505,16 +2531,10 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="31" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2536,16 +2556,10 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
+    <row r="32" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2567,10 +2581,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2592,15 +2612,15 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2623,7 +2643,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2648,14 +2668,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2677,7 +2699,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2702,15 +2724,15 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>51</v>
+    <row r="38" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2733,16 +2755,10 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="39" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2764,10 +2780,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    <row r="40" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2789,15 +2811,15 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>53</v>
+    <row r="41" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2820,16 +2842,10 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>56</v>
-      </c>
+    <row r="42" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2851,15 +2867,15 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="13.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2882,10 +2898,16 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    <row r="44" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2907,10 +2929,16 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    <row r="45" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2932,16 +2960,10 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
+    <row r="46" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2963,16 +2985,10 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>62</v>
-      </c>
+    <row r="47" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2994,12 +3010,16 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="13.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3021,10 +3041,16 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3046,8 +3072,10 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+    <row r="50" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
@@ -3071,16 +3099,10 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
-      </c>
+    <row r="51" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3102,16 +3124,10 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>67</v>
-      </c>
+    <row r="52" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3133,12 +3149,16 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="13.5" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3160,10 +3180,16 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+    <row r="54" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3185,8 +3211,10 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+    <row r="55" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="1"/>
@@ -3210,16 +3238,10 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="56" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3241,16 +3263,10 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="57" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A57" s="5"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3272,12 +3288,16 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="13.5" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3299,10 +3319,16 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+    <row r="59" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3324,8 +3350,10 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+    <row r="60" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="1"/>
@@ -3349,16 +3377,10 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="61" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3380,16 +3402,10 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="62" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3411,10 +3427,16 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+    <row r="63" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3436,10 +3458,16 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+    <row r="64" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3461,16 +3489,10 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="65" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3492,16 +3514,10 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="66" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3523,10 +3539,16 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="6"/>
+    <row r="67" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3548,10 +3570,16 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+    <row r="68" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3573,16 +3601,10 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>79</v>
-      </c>
+    <row r="69" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3604,16 +3626,10 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>81</v>
-      </c>
+    <row r="70" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3635,15 +3651,15 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="13.5" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3666,15 +3682,15 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>84</v>
+    <row r="72" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3697,10 +3713,16 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+    <row r="73" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3722,10 +3744,16 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+    <row r="74" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3747,16 +3775,10 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>51</v>
-      </c>
+    <row r="75" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3778,16 +3800,10 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="76" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3809,10 +3825,16 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
+    <row r="77" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3834,15 +3856,15 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>89</v>
+    <row r="78" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3865,16 +3887,10 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>91</v>
-      </c>
+    <row r="79" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3896,15 +3912,15 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>93</v>
+    <row r="80" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A80" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3927,15 +3943,15 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>95</v>
+    <row r="81" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A81" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3958,15 +3974,15 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>97</v>
+    <row r="82" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A82" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3989,15 +4005,15 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>99</v>
+    <row r="83" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A83" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4020,15 +4036,15 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>101</v>
+    <row r="84" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A84" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4051,15 +4067,15 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>103</v>
+    <row r="85" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A85" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4082,15 +4098,15 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>105</v>
+    <row r="86" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A86" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4113,15 +4129,15 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>107</v>
+    <row r="87" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A87" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4144,15 +4160,15 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>109</v>
+    <row r="88" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A88" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4175,15 +4191,15 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>111</v>
+    <row r="89" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A89" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4206,15 +4222,15 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>113</v>
+    <row r="90" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A90" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4237,15 +4253,15 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>115</v>
+    <row r="91" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A91" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4268,15 +4284,15 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>117</v>
+    <row r="92" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A92" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4299,15 +4315,15 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>119</v>
+    <row r="93" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A93" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4330,15 +4346,15 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>121</v>
+    <row r="94" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A94" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4361,15 +4377,15 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>123</v>
+    <row r="95" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A95" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4392,15 +4408,15 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>125</v>
+    <row r="96" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A96" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4423,15 +4439,15 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>127</v>
+    <row r="97" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A97" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4454,15 +4470,15 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>129</v>
+    <row r="98" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A98" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4485,15 +4501,15 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
-        <v>130</v>
+    <row r="99" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A99" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4516,15 +4532,15 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>133</v>
+    <row r="100" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A100" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4547,15 +4563,15 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>135</v>
+    <row r="101" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A101" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4578,15 +4594,15 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>137</v>
+    <row r="102" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A102" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4609,15 +4625,15 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>139</v>
+    <row r="103" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A103" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4640,15 +4656,15 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>141</v>
+    <row r="104" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A104" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4671,15 +4687,15 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>143</v>
+    <row r="105" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A105" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4702,15 +4718,15 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>145</v>
+    <row r="106" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A106" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4733,15 +4749,15 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>147</v>
+    <row r="107" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A107" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4764,15 +4780,15 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>149</v>
+    <row r="108" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A108" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4795,15 +4811,15 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>151</v>
+    <row r="109" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A109" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4826,15 +4842,15 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>153</v>
+    <row r="110" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A110" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4857,15 +4873,15 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>155</v>
+    <row r="111" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A111" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4888,15 +4904,15 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>157</v>
+    <row r="112" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A112" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4919,15 +4935,15 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>158</v>
+    <row r="113" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A113" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4950,15 +4966,15 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>161</v>
+    <row r="114" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A114" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4981,15 +4997,15 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>163</v>
+    <row r="115" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A115" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5012,15 +5028,15 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>165</v>
+    <row r="116" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A116" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5043,15 +5059,15 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>167</v>
+    <row r="117" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A117" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5074,15 +5090,15 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>169</v>
+    <row r="118" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A118" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5105,15 +5121,15 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>171</v>
+    <row r="119" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A119" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5136,15 +5152,15 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>173</v>
+    <row r="120" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A120" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5167,15 +5183,15 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>175</v>
+    <row r="121" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A121" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5198,10 +5214,16 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
+    <row r="122" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A122" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5223,15 +5245,15 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>177</v>
+    <row r="123" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A123" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5254,10 +5276,10 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
+    <row r="124" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5279,15 +5301,15 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>179</v>
+    <row r="125" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A125" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5310,16 +5332,10 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>181</v>
-      </c>
+    <row r="126" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5341,15 +5357,15 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>183</v>
+    <row r="127" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A127" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5372,15 +5388,15 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>185</v>
+    <row r="128" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A128" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5403,15 +5419,15 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>187</v>
+    <row r="129" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A129" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5434,15 +5450,15 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>189</v>
+    <row r="130" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A130" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5465,15 +5481,15 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>191</v>
+    <row r="131" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A131" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5496,15 +5512,15 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>193</v>
+    <row r="132" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A132" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5527,15 +5543,15 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>195</v>
+    <row r="133" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A133" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5558,15 +5574,15 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>197</v>
+    <row r="134" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A134" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5589,15 +5605,15 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>199</v>
+    <row r="135" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A135" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5620,15 +5636,15 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>201</v>
+    <row r="136" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A136" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5651,15 +5667,15 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>203</v>
+    <row r="137" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A137" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5682,10 +5698,16 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
+    <row r="138" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A138" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5707,15 +5729,15 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>205</v>
+    <row r="139" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A139" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5738,16 +5760,10 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>207</v>
-      </c>
+    <row r="140" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -5769,15 +5785,15 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>209</v>
+    <row r="141" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A141" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5800,15 +5816,15 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>211</v>
+    <row r="142" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A142" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5831,15 +5847,15 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>213</v>
+    <row r="143" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A143" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5862,15 +5878,15 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>214</v>
+    <row r="144" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A144" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5893,15 +5909,15 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>215</v>
+    <row r="145" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A145" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5924,15 +5940,15 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>213</v>
+    <row r="146" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A146" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5955,15 +5971,15 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>217</v>
+    <row r="147" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A147" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5986,15 +6002,15 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>219</v>
+    <row r="148" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A148" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6017,15 +6033,15 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>221</v>
+    <row r="149" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A149" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6048,15 +6064,15 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>223</v>
+    <row r="150" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A150" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6079,15 +6095,15 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>225</v>
+    <row r="151" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A151" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6110,15 +6126,15 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>227</v>
+    <row r="152" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A152" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6141,15 +6157,15 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="11" t="s">
-        <v>228</v>
+    <row r="153" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A153" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6172,8 +6188,16 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="1"/>
+    <row r="154" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A154" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -6195,8 +6219,16 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="1"/>
+    <row r="155" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A155" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -6218,174 +6250,162 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B156" s="9" t="s">
+    <row r="156" spans="1:26" ht="13.5" customHeight="1">
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:26" ht="13.5" customHeight="1">
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A158" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C158" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
-      <c r="O156" s="8"/>
-      <c r="P156" s="8"/>
-      <c r="Q156" s="8"/>
-      <c r="R156" s="8"/>
-      <c r="S156" s="8"/>
-      <c r="T156" s="8"/>
-      <c r="U156" s="8"/>
-      <c r="V156" s="8"/>
-      <c r="W156" s="8"/>
-      <c r="X156" s="6"/>
-      <c r="Y156" s="6"/>
-      <c r="Z156" s="6"/>
-    </row>
-    <row r="157" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="8"/>
-      <c r="N157" s="8"/>
-      <c r="O157" s="8"/>
-      <c r="P157" s="8"/>
-      <c r="Q157" s="8"/>
-      <c r="R157" s="8"/>
-      <c r="S157" s="8"/>
-      <c r="T157" s="8"/>
-      <c r="U157" s="8"/>
-      <c r="V157" s="8"/>
-      <c r="W157" s="8"/>
-      <c r="X157" s="6"/>
-      <c r="Y157" s="6"/>
-      <c r="Z157" s="6"/>
-    </row>
-    <row r="158" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
-      <c r="O158" s="8"/>
-      <c r="P158" s="8"/>
-      <c r="Q158" s="8"/>
-      <c r="R158" s="8"/>
-      <c r="S158" s="8"/>
-      <c r="T158" s="8"/>
-      <c r="U158" s="8"/>
-      <c r="V158" s="8"/>
-      <c r="W158" s="8"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+      <c r="U158" s="7"/>
+      <c r="V158" s="7"/>
+      <c r="W158" s="7"/>
       <c r="X158" s="6"/>
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
     </row>
-    <row r="159" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="s">
-        <v>234</v>
+    <row r="159" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A159" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-    </row>
-    <row r="160" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-    </row>
-    <row r="161" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C161" s="8"/>
+        <v>226</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="6"/>
+      <c r="Y159" s="6"/>
+      <c r="Z159" s="6"/>
+    </row>
+    <row r="160" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A160" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7"/>
+      <c r="T160" s="7"/>
+      <c r="U160" s="7"/>
+      <c r="V160" s="7"/>
+      <c r="W160" s="7"/>
+      <c r="X160" s="6"/>
+      <c r="Y160" s="6"/>
+      <c r="Z160" s="6"/>
+    </row>
+    <row r="161" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A161" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6407,14 +6427,16 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C162" s="8"/>
+    <row r="162" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A162" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6436,14 +6458,16 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C163" s="8"/>
+    <row r="163" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A163" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6465,14 +6489,16 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="8"/>
+    <row r="164" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A164" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6494,14 +6520,16 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="s">
-        <v>245</v>
+    <row r="165" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A165" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C165" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -6523,10 +6551,16 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
+    <row r="166" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A166" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -6548,10 +6582,16 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
+    <row r="167" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A167" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -6573,10 +6613,10 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+    <row r="168" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -6598,16 +6638,10 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="169" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -6629,16 +6663,10 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="170" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -6660,15 +6688,15 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="13.5" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6691,15 +6719,15 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>252</v>
+    <row r="172" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A172" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6722,15 +6750,15 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>322</v>
+    <row r="173" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A173" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6753,12 +6781,16 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
+    <row r="174" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A174" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -6780,12 +6812,16 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
+    <row r="175" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A175" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -6807,16 +6843,12 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>323</v>
-      </c>
+    <row r="176" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A176" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -6838,16 +6870,12 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>324</v>
-      </c>
+    <row r="177" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A177" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -6869,10 +6897,16 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
+    <row r="178" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A178" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -6894,15 +6928,15 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>325</v>
+    <row r="179" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A179" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6925,14 +6959,10 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="14"/>
-      <c r="B180" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>259</v>
-      </c>
+    <row r="180" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -6954,15 +6984,15 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>317</v>
+    <row r="181" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A181" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6985,15 +7015,13 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>320</v>
+    <row r="182" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A182" s="13"/>
+      <c r="B182" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7016,15 +7044,15 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>261</v>
+    <row r="183" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A183" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7047,15 +7075,15 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>321</v>
+    <row r="184" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A184" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7078,15 +7106,15 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>263</v>
+    <row r="185" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A185" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7109,14 +7137,16 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C186" s="8"/>
+    <row r="186" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A186" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -7138,10 +7168,16 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
+    <row r="187" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A187" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -7163,14 +7199,16 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C188" s="1"/>
+    <row r="188" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A188" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -7192,14 +7230,10 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C189" s="1"/>
+    <row r="189" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -7221,14 +7255,16 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="13.5" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C190" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -7250,14 +7286,16 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C191" s="1"/>
+    <row r="191" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A191" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -7279,14 +7317,16 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C192" s="1"/>
+    <row r="192" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A192" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -7308,14 +7348,16 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C193" s="1"/>
+    <row r="193" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A193" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -7337,14 +7379,16 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C194" s="1"/>
+    <row r="194" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A194" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -7366,14 +7410,16 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C195" s="1"/>
+    <row r="195" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A195" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -7395,14 +7441,16 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C196" s="1"/>
+    <row r="196" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A196" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -7424,14 +7472,16 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C197" s="1"/>
+    <row r="197" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A197" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -7453,14 +7503,16 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C198" s="1"/>
+    <row r="198" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A198" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -7482,14 +7534,16 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C199" s="1"/>
+    <row r="199" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A199" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -7511,14 +7565,16 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C200" s="1"/>
+    <row r="200" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A200" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -7540,14 +7596,16 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C201" s="1"/>
+    <row r="201" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A201" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -7569,14 +7627,16 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C202" s="1"/>
+    <row r="202" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A202" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -7598,14 +7658,16 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C203" s="1"/>
+    <row r="203" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A203" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -7627,14 +7689,16 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C204" s="1"/>
+    <row r="204" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A204" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -7656,14 +7720,16 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C205" s="1"/>
+    <row r="205" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A205" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>285</v>
+      </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -7685,14 +7751,16 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C206" s="1"/>
+    <row r="206" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A206" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>287</v>
+      </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -7714,14 +7782,16 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C207" s="1"/>
+    <row r="207" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A207" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>289</v>
+      </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -7743,14 +7813,16 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C208" s="1"/>
+    <row r="208" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A208" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>289</v>
+      </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -7772,14 +7844,16 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C209" s="1"/>
+    <row r="209" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A209" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -7801,14 +7875,16 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C210" s="1"/>
+    <row r="210" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A210" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -7830,14 +7906,16 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C211" s="1"/>
+    <row r="211" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A211" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -7859,14 +7937,16 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C212" s="1"/>
+    <row r="212" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A212" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -7888,14 +7968,16 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C213" s="1"/>
+    <row r="213" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A213" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -7917,14 +7999,16 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C214" s="1"/>
+    <row r="214" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A214" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -7946,14 +8030,16 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C215" s="1"/>
+    <row r="215" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A215" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -7975,10 +8061,16 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+    <row r="216" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A216" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -8000,10 +8092,16 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+    <row r="217" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A217" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -8025,7 +8123,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" ht="13.5" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8050,7 +8148,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" ht="13.5" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8075,7 +8173,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" ht="13.5" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8100,7 +8198,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" ht="13.5" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8125,7 +8223,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" ht="13.5" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8150,7 +8248,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="13.5" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8175,7 +8273,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" ht="13.5" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8200,7 +8298,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" ht="13.5" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8225,7 +8323,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" ht="13.5" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8250,7 +8348,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" ht="13.5" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8275,7 +8373,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" ht="13.5" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8300,7 +8398,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" ht="13.5" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8325,7 +8423,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" ht="13.5" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8350,7 +8448,7 @@
       <c r="V230" s="1"/>
       <c r="W230" s="1"/>
     </row>
-    <row r="231" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" ht="13.5" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8375,7 +8473,7 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
     </row>
-    <row r="232" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" ht="13.5" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8400,7 +8498,7 @@
       <c r="V232" s="1"/>
       <c r="W232" s="1"/>
     </row>
-    <row r="233" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" ht="13.5" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8425,7 +8523,7 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
     </row>
-    <row r="234" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" ht="13.5" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8450,7 +8548,7 @@
       <c r="V234" s="1"/>
       <c r="W234" s="1"/>
     </row>
-    <row r="235" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" ht="13.5" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8475,7 +8573,7 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
     </row>
-    <row r="236" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" ht="13.5" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8500,7 +8598,7 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
     </row>
-    <row r="237" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" ht="13.5" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8525,7 +8623,7 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
     </row>
-    <row r="238" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" ht="13.5" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8550,7 +8648,7 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
     </row>
-    <row r="239" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" ht="13.5" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8575,7 +8673,7 @@
       <c r="V239" s="1"/>
       <c r="W239" s="1"/>
     </row>
-    <row r="240" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" ht="13.5" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8600,7 +8698,7 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
     </row>
-    <row r="241" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" ht="13.5" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8625,7 +8723,7 @@
       <c r="V241" s="1"/>
       <c r="W241" s="1"/>
     </row>
-    <row r="242" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" ht="13.5" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8650,7 +8748,7 @@
       <c r="V242" s="1"/>
       <c r="W242" s="1"/>
     </row>
-    <row r="243" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" ht="13.5" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8675,7 +8773,7 @@
       <c r="V243" s="1"/>
       <c r="W243" s="1"/>
     </row>
-    <row r="244" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" ht="13.5" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8700,7 +8798,7 @@
       <c r="V244" s="1"/>
       <c r="W244" s="1"/>
     </row>
-    <row r="245" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" ht="13.5" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8725,7 +8823,7 @@
       <c r="V245" s="1"/>
       <c r="W245" s="1"/>
     </row>
-    <row r="246" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" ht="13.5" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8750,7 +8848,7 @@
       <c r="V246" s="1"/>
       <c r="W246" s="1"/>
     </row>
-    <row r="247" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" ht="13.5" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8775,7 +8873,7 @@
       <c r="V247" s="1"/>
       <c r="W247" s="1"/>
     </row>
-    <row r="248" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" ht="13.5" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8800,7 +8898,7 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
     </row>
-    <row r="249" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" ht="13.5" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8825,7 +8923,7 @@
       <c r="V249" s="1"/>
       <c r="W249" s="1"/>
     </row>
-    <row r="250" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" ht="13.5" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8850,7 +8948,7 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
     </row>
-    <row r="251" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" ht="13.5" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8875,7 +8973,7 @@
       <c r="V251" s="1"/>
       <c r="W251" s="1"/>
     </row>
-    <row r="252" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" ht="13.5" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8900,7 +8998,7 @@
       <c r="V252" s="1"/>
       <c r="W252" s="1"/>
     </row>
-    <row r="253" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" ht="13.5" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8925,7 +9023,7 @@
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
     </row>
-    <row r="254" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" ht="13.5" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8950,7 +9048,7 @@
       <c r="V254" s="1"/>
       <c r="W254" s="1"/>
     </row>
-    <row r="255" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" ht="13.5" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8975,7 +9073,7 @@
       <c r="V255" s="1"/>
       <c r="W255" s="1"/>
     </row>
-    <row r="256" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" ht="13.5" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9000,7 +9098,7 @@
       <c r="V256" s="1"/>
       <c r="W256" s="1"/>
     </row>
-    <row r="257" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" ht="13.5" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9025,7 +9123,7 @@
       <c r="V257" s="1"/>
       <c r="W257" s="1"/>
     </row>
-    <row r="258" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" ht="13.5" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9050,7 +9148,7 @@
       <c r="V258" s="1"/>
       <c r="W258" s="1"/>
     </row>
-    <row r="259" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" ht="13.5" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9075,7 +9173,7 @@
       <c r="V259" s="1"/>
       <c r="W259" s="1"/>
     </row>
-    <row r="260" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" ht="13.5" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -9100,7 +9198,7 @@
       <c r="V260" s="1"/>
       <c r="W260" s="1"/>
     </row>
-    <row r="261" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" ht="13.5" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -9125,7 +9223,7 @@
       <c r="V261" s="1"/>
       <c r="W261" s="1"/>
     </row>
-    <row r="262" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" ht="13.5" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -9150,7 +9248,7 @@
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
     </row>
-    <row r="263" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" ht="13.5" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -9175,7 +9273,7 @@
       <c r="V263" s="1"/>
       <c r="W263" s="1"/>
     </row>
-    <row r="264" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" ht="13.5" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9200,7 +9298,7 @@
       <c r="V264" s="1"/>
       <c r="W264" s="1"/>
     </row>
-    <row r="265" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" ht="13.5" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9225,7 +9323,7 @@
       <c r="V265" s="1"/>
       <c r="W265" s="1"/>
     </row>
-    <row r="266" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" ht="13.5" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -9250,7 +9348,7 @@
       <c r="V266" s="1"/>
       <c r="W266" s="1"/>
     </row>
-    <row r="267" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" ht="13.5" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9275,7 +9373,7 @@
       <c r="V267" s="1"/>
       <c r="W267" s="1"/>
     </row>
-    <row r="268" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="13.5" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9300,7 +9398,7 @@
       <c r="V268" s="1"/>
       <c r="W268" s="1"/>
     </row>
-    <row r="269" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" ht="13.5" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9325,7 +9423,7 @@
       <c r="V269" s="1"/>
       <c r="W269" s="1"/>
     </row>
-    <row r="270" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" ht="13.5" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9350,7 +9448,7 @@
       <c r="V270" s="1"/>
       <c r="W270" s="1"/>
     </row>
-    <row r="271" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="13.5" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9375,7 +9473,7 @@
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
     </row>
-    <row r="272" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" ht="13.5" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9400,7 +9498,7 @@
       <c r="V272" s="1"/>
       <c r="W272" s="1"/>
     </row>
-    <row r="273" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" ht="13.5" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9425,7 +9523,7 @@
       <c r="V273" s="1"/>
       <c r="W273" s="1"/>
     </row>
-    <row r="274" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" ht="13.5" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9450,7 +9548,7 @@
       <c r="V274" s="1"/>
       <c r="W274" s="1"/>
     </row>
-    <row r="275" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" ht="13.5" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9475,7 +9573,7 @@
       <c r="V275" s="1"/>
       <c r="W275" s="1"/>
     </row>
-    <row r="276" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" ht="13.5" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9500,7 +9598,7 @@
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
     </row>
-    <row r="277" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" ht="13.5" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9525,7 +9623,7 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
     </row>
-    <row r="278" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" ht="13.5" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9550,7 +9648,7 @@
       <c r="V278" s="1"/>
       <c r="W278" s="1"/>
     </row>
-    <row r="279" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" ht="13.5" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9575,7 +9673,7 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
     </row>
-    <row r="280" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" ht="13.5" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9600,7 +9698,7 @@
       <c r="V280" s="1"/>
       <c r="W280" s="1"/>
     </row>
-    <row r="281" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" ht="13.5" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9625,7 +9723,7 @@
       <c r="V281" s="1"/>
       <c r="W281" s="1"/>
     </row>
-    <row r="282" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" ht="13.5" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9650,7 +9748,7 @@
       <c r="V282" s="1"/>
       <c r="W282" s="1"/>
     </row>
-    <row r="283" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" ht="13.5" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9675,7 +9773,7 @@
       <c r="V283" s="1"/>
       <c r="W283" s="1"/>
     </row>
-    <row r="284" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" ht="13.5" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9700,7 +9798,7 @@
       <c r="V284" s="1"/>
       <c r="W284" s="1"/>
     </row>
-    <row r="285" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" ht="13.5" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9725,7 +9823,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
     </row>
-    <row r="286" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" ht="13.5" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9750,7 +9848,7 @@
       <c r="V286" s="1"/>
       <c r="W286" s="1"/>
     </row>
-    <row r="287" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" ht="13.5" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9775,7 +9873,7 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
     </row>
-    <row r="288" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" ht="13.5" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9800,7 +9898,7 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
     </row>
-    <row r="289" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" ht="13.5" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9825,7 +9923,7 @@
       <c r="V289" s="1"/>
       <c r="W289" s="1"/>
     </row>
-    <row r="290" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" ht="13.5" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9850,7 +9948,7 @@
       <c r="V290" s="1"/>
       <c r="W290" s="1"/>
     </row>
-    <row r="291" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" ht="13.5" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9875,7 +9973,7 @@
       <c r="V291" s="1"/>
       <c r="W291" s="1"/>
     </row>
-    <row r="292" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" ht="13.5" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9900,7 +9998,7 @@
       <c r="V292" s="1"/>
       <c r="W292" s="1"/>
     </row>
-    <row r="293" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" ht="13.5" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9925,7 +10023,7 @@
       <c r="V293" s="1"/>
       <c r="W293" s="1"/>
     </row>
-    <row r="294" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" ht="13.5" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9950,7 +10048,7 @@
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
     </row>
-    <row r="295" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" ht="13.5" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9975,7 +10073,7 @@
       <c r="V295" s="1"/>
       <c r="W295" s="1"/>
     </row>
-    <row r="296" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" ht="13.5" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -10000,7 +10098,7 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
     </row>
-    <row r="297" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" ht="13.5" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10025,7 +10123,7 @@
       <c r="V297" s="1"/>
       <c r="W297" s="1"/>
     </row>
-    <row r="298" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" ht="13.5" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10050,7 +10148,7 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
     </row>
-    <row r="299" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" ht="13.5" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -10075,7 +10173,7 @@
       <c r="V299" s="1"/>
       <c r="W299" s="1"/>
     </row>
-    <row r="300" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" ht="13.5" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -10100,7 +10198,7 @@
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
     </row>
-    <row r="301" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" ht="13.5" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -10125,7 +10223,7 @@
       <c r="V301" s="1"/>
       <c r="W301" s="1"/>
     </row>
-    <row r="302" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" ht="13.5" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -10150,7 +10248,7 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
     </row>
-    <row r="303" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" ht="13.5" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -10175,7 +10273,7 @@
       <c r="V303" s="1"/>
       <c r="W303" s="1"/>
     </row>
-    <row r="304" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" ht="13.5" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -10200,7 +10298,7 @@
       <c r="V304" s="1"/>
       <c r="W304" s="1"/>
     </row>
-    <row r="305" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" ht="13.5" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -10225,7 +10323,7 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
     </row>
-    <row r="306" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" ht="13.5" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10250,7 +10348,7 @@
       <c r="V306" s="1"/>
       <c r="W306" s="1"/>
     </row>
-    <row r="307" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" ht="13.5" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10275,7 +10373,7 @@
       <c r="V307" s="1"/>
       <c r="W307" s="1"/>
     </row>
-    <row r="308" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" ht="13.5" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10300,7 +10398,7 @@
       <c r="V308" s="1"/>
       <c r="W308" s="1"/>
     </row>
-    <row r="309" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" ht="13.5" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10325,7 +10423,7 @@
       <c r="V309" s="1"/>
       <c r="W309" s="1"/>
     </row>
-    <row r="310" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" ht="13.5" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10350,7 +10448,7 @@
       <c r="V310" s="1"/>
       <c r="W310" s="1"/>
     </row>
-    <row r="311" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" ht="13.5" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10375,7 +10473,7 @@
       <c r="V311" s="1"/>
       <c r="W311" s="1"/>
     </row>
-    <row r="312" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" ht="13.5" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10400,7 +10498,7 @@
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
     </row>
-    <row r="313" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" ht="13.5" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10425,7 +10523,7 @@
       <c r="V313" s="1"/>
       <c r="W313" s="1"/>
     </row>
-    <row r="314" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" ht="13.5" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10450,7 +10548,7 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
     </row>
-    <row r="315" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" ht="13.5" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10475,7 +10573,7 @@
       <c r="V315" s="1"/>
       <c r="W315" s="1"/>
     </row>
-    <row r="316" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" ht="13.5" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10500,7 +10598,7 @@
       <c r="V316" s="1"/>
       <c r="W316" s="1"/>
     </row>
-    <row r="317" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" ht="13.5" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10525,7 +10623,7 @@
       <c r="V317" s="1"/>
       <c r="W317" s="1"/>
     </row>
-    <row r="318" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" ht="13.5" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10550,7 +10648,7 @@
       <c r="V318" s="1"/>
       <c r="W318" s="1"/>
     </row>
-    <row r="319" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" ht="13.5" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10575,7 +10673,7 @@
       <c r="V319" s="1"/>
       <c r="W319" s="1"/>
     </row>
-    <row r="320" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" ht="13.5" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10600,7 +10698,7 @@
       <c r="V320" s="1"/>
       <c r="W320" s="1"/>
     </row>
-    <row r="321" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" ht="13.5" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10625,7 +10723,7 @@
       <c r="V321" s="1"/>
       <c r="W321" s="1"/>
     </row>
-    <row r="322" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" ht="13.5" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10650,7 +10748,7 @@
       <c r="V322" s="1"/>
       <c r="W322" s="1"/>
     </row>
-    <row r="323" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" ht="13.5" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10675,7 +10773,7 @@
       <c r="V323" s="1"/>
       <c r="W323" s="1"/>
     </row>
-    <row r="324" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" ht="13.5" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10700,7 +10798,7 @@
       <c r="V324" s="1"/>
       <c r="W324" s="1"/>
     </row>
-    <row r="325" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" ht="13.5" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10725,7 +10823,7 @@
       <c r="V325" s="1"/>
       <c r="W325" s="1"/>
     </row>
-    <row r="326" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" ht="13.5" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10750,7 +10848,7 @@
       <c r="V326" s="1"/>
       <c r="W326" s="1"/>
     </row>
-    <row r="327" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" ht="13.5" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10775,7 +10873,7 @@
       <c r="V327" s="1"/>
       <c r="W327" s="1"/>
     </row>
-    <row r="328" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" ht="13.5" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10800,7 +10898,7 @@
       <c r="V328" s="1"/>
       <c r="W328" s="1"/>
     </row>
-    <row r="329" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" ht="13.5" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10825,7 +10923,7 @@
       <c r="V329" s="1"/>
       <c r="W329" s="1"/>
     </row>
-    <row r="330" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" ht="13.5" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10850,7 +10948,7 @@
       <c r="V330" s="1"/>
       <c r="W330" s="1"/>
     </row>
-    <row r="331" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" ht="13.5" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10875,7 +10973,7 @@
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
     </row>
-    <row r="332" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" ht="13.5" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10900,7 +10998,7 @@
       <c r="V332" s="1"/>
       <c r="W332" s="1"/>
     </row>
-    <row r="333" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" ht="13.5" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10925,7 +11023,7 @@
       <c r="V333" s="1"/>
       <c r="W333" s="1"/>
     </row>
-    <row r="334" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" ht="13.5" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10950,7 +11048,7 @@
       <c r="V334" s="1"/>
       <c r="W334" s="1"/>
     </row>
-    <row r="335" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" ht="13.5" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10975,7 +11073,7 @@
       <c r="V335" s="1"/>
       <c r="W335" s="1"/>
     </row>
-    <row r="336" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" ht="13.5" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -11000,7 +11098,7 @@
       <c r="V336" s="1"/>
       <c r="W336" s="1"/>
     </row>
-    <row r="337" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" ht="13.5" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -11025,7 +11123,7 @@
       <c r="V337" s="1"/>
       <c r="W337" s="1"/>
     </row>
-    <row r="338" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23" ht="13.5" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -11050,7 +11148,7 @@
       <c r="V338" s="1"/>
       <c r="W338" s="1"/>
     </row>
-    <row r="339" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23" ht="13.5" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -11075,7 +11173,7 @@
       <c r="V339" s="1"/>
       <c r="W339" s="1"/>
     </row>
-    <row r="340" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" ht="13.5" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -11100,7 +11198,7 @@
       <c r="V340" s="1"/>
       <c r="W340" s="1"/>
     </row>
-    <row r="341" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" ht="13.5" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -11125,7 +11223,7 @@
       <c r="V341" s="1"/>
       <c r="W341" s="1"/>
     </row>
-    <row r="342" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" ht="13.5" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -11150,7 +11248,7 @@
       <c r="V342" s="1"/>
       <c r="W342" s="1"/>
     </row>
-    <row r="343" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23" ht="13.5" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -11175,7 +11273,7 @@
       <c r="V343" s="1"/>
       <c r="W343" s="1"/>
     </row>
-    <row r="344" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23" ht="13.5" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -11200,7 +11298,7 @@
       <c r="V344" s="1"/>
       <c r="W344" s="1"/>
     </row>
-    <row r="345" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23" ht="13.5" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -11225,7 +11323,7 @@
       <c r="V345" s="1"/>
       <c r="W345" s="1"/>
     </row>
-    <row r="346" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" ht="13.5" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11250,7 +11348,7 @@
       <c r="V346" s="1"/>
       <c r="W346" s="1"/>
     </row>
-    <row r="347" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" ht="13.5" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11275,7 +11373,7 @@
       <c r="V347" s="1"/>
       <c r="W347" s="1"/>
     </row>
-    <row r="348" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" ht="13.5" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11300,7 +11398,7 @@
       <c r="V348" s="1"/>
       <c r="W348" s="1"/>
     </row>
-    <row r="349" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" ht="13.5" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11325,7 +11423,7 @@
       <c r="V349" s="1"/>
       <c r="W349" s="1"/>
     </row>
-    <row r="350" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23" ht="13.5" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11350,7 +11448,7 @@
       <c r="V350" s="1"/>
       <c r="W350" s="1"/>
     </row>
-    <row r="351" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" ht="13.5" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11375,7 +11473,7 @@
       <c r="V351" s="1"/>
       <c r="W351" s="1"/>
     </row>
-    <row r="352" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23" ht="13.5" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11400,7 +11498,7 @@
       <c r="V352" s="1"/>
       <c r="W352" s="1"/>
     </row>
-    <row r="353" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" ht="13.5" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11425,7 +11523,7 @@
       <c r="V353" s="1"/>
       <c r="W353" s="1"/>
     </row>
-    <row r="354" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" ht="13.5" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11450,7 +11548,7 @@
       <c r="V354" s="1"/>
       <c r="W354" s="1"/>
     </row>
-    <row r="355" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" ht="13.5" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11475,7 +11573,7 @@
       <c r="V355" s="1"/>
       <c r="W355" s="1"/>
     </row>
-    <row r="356" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23" ht="13.5" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11500,1192 +11598,1243 @@
       <c r="V356" s="1"/>
       <c r="W356" s="1"/>
     </row>
-    <row r="357" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+      <c r="P357" s="1"/>
+      <c r="Q357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
+      <c r="U357" s="1"/>
+      <c r="V357" s="1"/>
+      <c r="W357" s="1"/>
+    </row>
+    <row r="358" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1"/>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+      <c r="P358" s="1"/>
+      <c r="Q358" s="1"/>
+      <c r="R358" s="1"/>
+      <c r="S358" s="1"/>
+      <c r="T358" s="1"/>
+      <c r="U358" s="1"/>
+      <c r="V358" s="1"/>
+      <c r="W358" s="1"/>
+    </row>
+    <row r="359" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="360" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="361" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="362" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="363" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="364" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="365" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="366" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="367" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="368" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B75" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C75" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B156" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C156" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B162" r:id="rId11" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B169" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C169" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B40" r:id="rId3"/>
+    <hyperlink ref="B77" r:id="rId4"/>
+    <hyperlink ref="B158" r:id="rId5"/>
+    <hyperlink ref="B164" r:id="rId6" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
+    <hyperlink ref="B171" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="C40" r:id="rId10"/>
+    <hyperlink ref="C77" r:id="rId11"/>
+    <hyperlink ref="C158" r:id="rId12"/>
+    <hyperlink ref="C164" r:id="rId13" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
+    <hyperlink ref="C171" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182EF84-9AAF-4A9D-91E6-D50D70555D4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="15"/>
+    <col min="1" max="1" width="54.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="23">
+        <v>784512369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="23">
+        <v>784512369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="B35" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="18" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="B38" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="B41" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" s="23">
         <v>784512369</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" s="20" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51" s="26" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B34" s="24">
-        <v>784512369</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="B44" s="25" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="27" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="26" t="s">
+      <c r="B59" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45">
+      <c r="A60" s="27" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="26" t="s">
+      <c r="B60" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B61" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B50" s="24">
-        <v>784512369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="26" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="27" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="28" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B64" s="33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B65" s="33" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="B60" s="31" t="s">
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="33" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="33" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="B64" s="34" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="45">
+      <c r="A70" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B70" s="33" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="33" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B71" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="B65" s="34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="33" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="45">
+      <c r="A72" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B72" s="33" t="s">
         <v>371</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{F2EAAA5B-5C00-48F7-B385-AC499BC71E4C}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MMH_Framework\MMH_Git_Updated[11-07]\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INLOGIC\My Exe\clone\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B4FA5-ACE0-445C-8817-8978B42C408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="382">
   <si>
     <t>KEY</t>
   </si>
@@ -38,9 +37,6 @@
     <t>https://dev.mmh-demo.com/m/Main/login</t>
   </si>
   <si>
-    <t>https://beta.mmh-demo.com/home</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -65,9 +61,6 @@
     <t>Visit;VM03Location;Dr Sam Entwistle</t>
   </si>
   <si>
-    <t>Visit;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>VISIT_APPOINTMENT_SUMMARY</t>
   </si>
   <si>
@@ -92,9 +85,6 @@
     <t>Video;VM03Location;Dr Sam Entwistle</t>
   </si>
   <si>
-    <t>Video;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>VIDEO_APPOINTMENT_SUMMARY</t>
   </si>
   <si>
@@ -122,9 +112,6 @@
     <t>Phone;VM03Location;Dr Sam Entwistle</t>
   </si>
   <si>
-    <t>Phone;VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
-  </si>
-  <si>
     <t>PHONE_APPOINTMENT_SUMMARY</t>
   </si>
   <si>
@@ -152,18 +139,12 @@
     <t>Approved;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
   </si>
   <si>
-    <t>Approved;Dr Sam Entwistle;</t>
-  </si>
-  <si>
     <t>APPOINTMENT_DETAILS_AFTER_CANCELLED</t>
   </si>
   <si>
     <t>Cancelled;Dr Sam Entwistle;AFTER_THREE_DAYS</t>
   </si>
   <si>
-    <t>Cancelled;Dr Sam Entwistle;</t>
-  </si>
-  <si>
     <t>VIDEO_ICONS</t>
   </si>
   <si>
@@ -719,30 +700,15 @@
     <t>EMAIL FOR DOCTOR</t>
   </si>
   <si>
-    <t>tim@mmh-demo.com</t>
-  </si>
-  <si>
     <t>PASSWORD FOR DOCTOR</t>
   </si>
   <si>
-    <t>MESSAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Lab results enquiry;successfuly;MMHtest.jpg </t>
-  </si>
-  <si>
     <t>SEND_DATA</t>
   </si>
   <si>
     <t>HARRY HARRY;Dr Tim;Lab results enquiry;Lab results enquiry</t>
   </si>
   <si>
-    <t>DRAFT_DATA</t>
-  </si>
-  <si>
-    <t>VM03Location;Lab results enquiry;Clinical Staff;Dr Tim</t>
-  </si>
-  <si>
     <t>DEV_URL</t>
   </si>
   <si>
@@ -806,9 +772,6 @@
     <t>AUTOMATIC_MESSAGE_DETAILS</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Automatic Reply Message Testing;Body : Automatic reply testing</t>
-  </si>
-  <si>
     <t>VERIFY_DATA_FOR_ARM</t>
   </si>
   <si>
@@ -971,12 +934,6 @@
     <t>Cervical Smear;MMH Email;VM03Location;Auto Recall;17 Dec 2021 12:00:00 AM;Dr Tim</t>
   </si>
   <si>
-    <t>SENT_MESSAGE_DETAILS</t>
-  </si>
-  <si>
-    <t>VM03Location;VM03Location;Internal Communication;Patient;Harry Harry;Received Message Testing;Body : Received Message Testing;MMHtest.jpg</t>
-  </si>
-  <si>
     <t>REPLY MESSAGE</t>
   </si>
   <si>
@@ -986,9 +943,6 @@
     <t>VM03Location;Any Provider;No Preference;All Patients (Registered and Activated) to Patient Portal;Group MessageTesting_RANDOM;Group Message Test_RANDOM</t>
   </si>
   <si>
-    <t>Reply Message;Body:Reply Message</t>
-  </si>
-  <si>
     <t>Signature Testing_RANDOM</t>
   </si>
   <si>
@@ -1173,13 +1127,52 @@
   </si>
   <si>
     <t>RECALLS_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Compose Message_RANDOM;Compose Message Testing_RANDOM;MMHtest.jpg</t>
+  </si>
+  <si>
+    <t>COMPOSE_MESSAGE</t>
+  </si>
+  <si>
+    <t>DRAFT_MESSAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Draft Message_RANDOM;Draft Message Testing_RANDOM;MMHtest.jpg </t>
+  </si>
+  <si>
+    <t>https://v2web.mmh-demo.com/home</t>
+  </si>
+  <si>
+    <t>https://v2webuat.mmh-demo.com/home</t>
+  </si>
+  <si>
+    <t>CARD_APPOINTMENT_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;APPROVED</t>
+  </si>
+  <si>
+    <t>testprovider1.beta@mmh-demo.com</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Internal Communication;Patient;Harry Harry;Received Msg Testing_RANDOM;Body : Received Message Testing_RANDOM;MMHtest.jpg</t>
+  </si>
+  <si>
+    <t>RECEIVED_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>Reply Message_RANDOM;Body:Reply Message_RANDOM;2;3;4;Received Msg Testing_RANDOM</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Automatic Reply Message Testing_RANDOM;Body : Automatic reply testing_RANDOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1291,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF297BDE"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1322,10 +1342,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1339,9 +1360,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1385,8 +1403,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1599,23 +1624,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.54296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="157.08984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="148.7265625" style="10" customWidth="1"/>
-    <col min="4" max="23" width="8.81640625" style="10" customWidth="1"/>
-    <col min="24" max="16384" width="14.453125" style="10"/>
+    <col min="1" max="1" width="69.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="161.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="148.7109375" style="9" customWidth="1"/>
+    <col min="4" max="23" width="8.85546875" style="9" customWidth="1"/>
+    <col min="24" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,15 +1671,15 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>373</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1677,15 +1702,15 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1708,15 +1733,15 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1739,15 +1764,15 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1770,15 +1795,15 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1801,15 +1826,15 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1832,14 +1857,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1861,7 +1888,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1886,15 +1913,15 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1917,15 +1944,15 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1948,15 +1975,15 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1979,14 +2006,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2008,7 +2037,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2033,15 +2062,15 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2064,15 +2093,15 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2095,15 +2124,15 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2126,14 +2155,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2155,7 +2186,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2180,15 +2211,15 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2211,15 +2242,15 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2242,15 +2273,15 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2273,14 +2304,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2302,7 +2335,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2327,15 +2360,15 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2358,15 +2391,15 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2389,15 +2422,15 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2420,15 +2453,15 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2451,14 +2484,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2480,10 +2515,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2505,16 +2546,10 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2536,16 +2571,10 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
+    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2567,10 +2596,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2592,15 +2627,15 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2623,7 +2658,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2648,14 +2683,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2677,7 +2714,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2702,15 +2739,15 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>51</v>
+    <row r="38" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2733,16 +2770,10 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="39" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2764,10 +2795,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    <row r="40" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2789,15 +2826,15 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>53</v>
+    <row r="41" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2820,16 +2857,10 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>56</v>
-      </c>
+    <row r="42" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2851,15 +2882,15 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2882,10 +2913,16 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+    <row r="44" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2907,10 +2944,16 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    <row r="45" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2932,16 +2975,10 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
+    <row r="46" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2963,16 +3000,10 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>62</v>
-      </c>
+    <row r="47" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2994,12 +3025,16 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3021,10 +3056,16 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3046,8 +3087,10 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+    <row r="50" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
@@ -3071,16 +3114,10 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
-      </c>
+    <row r="51" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3102,16 +3139,10 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>67</v>
-      </c>
+    <row r="52" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3133,12 +3164,16 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3160,10 +3195,16 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+    <row r="54" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3185,8 +3226,10 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+    <row r="55" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="1"/>
@@ -3210,16 +3253,10 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="56" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3241,16 +3278,10 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="57" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3272,12 +3303,16 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3299,10 +3334,16 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+    <row r="59" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3324,8 +3365,10 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+    <row r="60" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="1"/>
@@ -3349,16 +3392,10 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="61" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3380,16 +3417,10 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="62" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3411,10 +3442,16 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+    <row r="63" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3436,10 +3473,16 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+    <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3461,16 +3504,10 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="65" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3492,16 +3529,10 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="66" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3523,10 +3554,16 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="6"/>
+    <row r="67" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3548,10 +3585,16 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+    <row r="68" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3573,16 +3616,10 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>79</v>
-      </c>
+    <row r="69" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3604,16 +3641,10 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>81</v>
-      </c>
+    <row r="70" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3635,15 +3666,15 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3666,15 +3697,15 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>84</v>
+    <row r="72" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3697,10 +3728,16 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+    <row r="73" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3722,10 +3759,16 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+    <row r="74" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3747,16 +3790,10 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>51</v>
-      </c>
+    <row r="75" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3778,16 +3815,10 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="76" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3809,10 +3840,16 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
+    <row r="77" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3834,15 +3871,15 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>89</v>
+    <row r="78" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3865,16 +3902,10 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>91</v>
-      </c>
+    <row r="79" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3896,15 +3927,15 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>93</v>
+    <row r="80" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3927,15 +3958,15 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>95</v>
+    <row r="81" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3958,15 +3989,15 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>97</v>
+    <row r="82" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3989,15 +4020,15 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>99</v>
+    <row r="83" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4020,15 +4051,15 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>101</v>
+    <row r="84" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4051,15 +4082,15 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>103</v>
+    <row r="85" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4082,15 +4113,15 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>105</v>
+    <row r="86" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4113,15 +4144,15 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>107</v>
+    <row r="87" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4144,15 +4175,15 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>109</v>
+    <row r="88" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4175,15 +4206,15 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>111</v>
+    <row r="89" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4206,15 +4237,15 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>113</v>
+    <row r="90" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4237,15 +4268,15 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>115</v>
+    <row r="91" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4268,15 +4299,15 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>117</v>
+    <row r="92" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4299,15 +4330,15 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>119</v>
+    <row r="93" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4330,15 +4361,15 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>121</v>
+    <row r="94" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4361,15 +4392,15 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>123</v>
+    <row r="95" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4392,15 +4423,15 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>125</v>
+    <row r="96" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4423,15 +4454,15 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>127</v>
+    <row r="97" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4454,15 +4485,15 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>129</v>
+    <row r="98" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4485,15 +4516,15 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
-        <v>130</v>
+    <row r="99" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4516,15 +4547,15 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>133</v>
+    <row r="100" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4547,15 +4578,15 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>135</v>
+    <row r="101" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4578,15 +4609,15 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>137</v>
+    <row r="102" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4609,15 +4640,15 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>139</v>
+    <row r="103" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4640,15 +4671,15 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>141</v>
+    <row r="104" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4671,15 +4702,15 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>143</v>
+    <row r="105" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4702,15 +4733,15 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>145</v>
+    <row r="106" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4733,15 +4764,15 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>147</v>
+    <row r="107" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4764,15 +4795,15 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>149</v>
+    <row r="108" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4795,15 +4826,15 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>151</v>
+    <row r="109" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4826,15 +4857,15 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>153</v>
+    <row r="110" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4857,15 +4888,15 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>155</v>
+    <row r="111" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4888,15 +4919,15 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>157</v>
+    <row r="112" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4919,15 +4950,15 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>158</v>
+    <row r="113" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4950,15 +4981,15 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>161</v>
+    <row r="114" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4981,15 +5012,15 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>163</v>
+    <row r="115" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5012,15 +5043,15 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>165</v>
+    <row r="116" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5043,15 +5074,15 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>167</v>
+    <row r="117" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5074,15 +5105,15 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>169</v>
+    <row r="118" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5105,15 +5136,15 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>171</v>
+    <row r="119" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5136,15 +5167,15 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>173</v>
+    <row r="120" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5167,15 +5198,15 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>175</v>
+    <row r="121" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5198,10 +5229,16 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
+    <row r="122" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5223,15 +5260,15 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>177</v>
+    <row r="123" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5254,10 +5291,10 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
+    <row r="124" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5279,15 +5316,15 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>179</v>
+    <row r="125" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5310,16 +5347,10 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>181</v>
-      </c>
+    <row r="126" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5341,15 +5372,15 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>183</v>
+    <row r="127" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5372,15 +5403,15 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>185</v>
+    <row r="128" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5403,15 +5434,15 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>187</v>
+    <row r="129" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5434,15 +5465,15 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>189</v>
+    <row r="130" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5465,15 +5496,15 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>191</v>
+    <row r="131" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5496,15 +5527,15 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>193</v>
+    <row r="132" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5527,15 +5558,15 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>195</v>
+    <row r="133" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5558,15 +5589,15 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>197</v>
+    <row r="134" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5589,15 +5620,15 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>199</v>
+    <row r="135" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5620,15 +5651,15 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>201</v>
+    <row r="136" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5651,15 +5682,15 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>203</v>
+    <row r="137" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5682,10 +5713,16 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
+    <row r="138" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5707,15 +5744,15 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>205</v>
+    <row r="139" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5738,16 +5775,10 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>207</v>
-      </c>
+    <row r="140" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -5769,15 +5800,15 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>209</v>
+    <row r="141" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5800,15 +5831,15 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>211</v>
+    <row r="142" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5831,15 +5862,15 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>213</v>
+    <row r="143" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5862,15 +5893,15 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>214</v>
+    <row r="144" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5893,15 +5924,15 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>215</v>
+    <row r="145" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5924,15 +5955,15 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>213</v>
+    <row r="146" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5955,15 +5986,15 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>217</v>
+    <row r="147" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5986,15 +6017,15 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>219</v>
+    <row r="148" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6017,15 +6048,15 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>221</v>
+    <row r="149" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6048,15 +6079,15 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>223</v>
+    <row r="150" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6079,15 +6110,15 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>225</v>
+    <row r="151" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6110,15 +6141,15 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>227</v>
+    <row r="152" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6141,15 +6172,15 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="11" t="s">
-        <v>228</v>
+    <row r="153" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6172,8 +6203,16 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="1"/>
+    <row r="154" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -6195,8 +6234,16 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="1"/>
+    <row r="155" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -6218,174 +6265,162 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B156" s="9" t="s">
+    <row r="156" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C158" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
-      <c r="O156" s="8"/>
-      <c r="P156" s="8"/>
-      <c r="Q156" s="8"/>
-      <c r="R156" s="8"/>
-      <c r="S156" s="8"/>
-      <c r="T156" s="8"/>
-      <c r="U156" s="8"/>
-      <c r="V156" s="8"/>
-      <c r="W156" s="8"/>
-      <c r="X156" s="6"/>
-      <c r="Y156" s="6"/>
-      <c r="Z156" s="6"/>
-    </row>
-    <row r="157" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="8"/>
-      <c r="N157" s="8"/>
-      <c r="O157" s="8"/>
-      <c r="P157" s="8"/>
-      <c r="Q157" s="8"/>
-      <c r="R157" s="8"/>
-      <c r="S157" s="8"/>
-      <c r="T157" s="8"/>
-      <c r="U157" s="8"/>
-      <c r="V157" s="8"/>
-      <c r="W157" s="8"/>
-      <c r="X157" s="6"/>
-      <c r="Y157" s="6"/>
-      <c r="Z157" s="6"/>
-    </row>
-    <row r="158" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
-      <c r="O158" s="8"/>
-      <c r="P158" s="8"/>
-      <c r="Q158" s="8"/>
-      <c r="R158" s="8"/>
-      <c r="S158" s="8"/>
-      <c r="T158" s="8"/>
-      <c r="U158" s="8"/>
-      <c r="V158" s="8"/>
-      <c r="W158" s="8"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+      <c r="U158" s="7"/>
+      <c r="V158" s="7"/>
+      <c r="W158" s="7"/>
       <c r="X158" s="6"/>
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
     </row>
     <row r="159" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-    </row>
-    <row r="160" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-    </row>
-    <row r="161" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C161" s="8"/>
+      <c r="A159" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="6"/>
+      <c r="Y159" s="6"/>
+      <c r="Z159" s="6"/>
+    </row>
+    <row r="160" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7"/>
+      <c r="T160" s="7"/>
+      <c r="U160" s="7"/>
+      <c r="V160" s="7"/>
+      <c r="W160" s="7"/>
+      <c r="X160" s="6"/>
+      <c r="Y160" s="6"/>
+      <c r="Z160" s="6"/>
+    </row>
+    <row r="161" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6407,14 +6442,16 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C162" s="8"/>
+    <row r="162" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6436,14 +6473,16 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C163" s="8"/>
+    <row r="163" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6465,14 +6504,16 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="8"/>
+    <row r="164" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6494,14 +6535,16 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="s">
-        <v>245</v>
+    <row r="165" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C165" s="8"/>
+        <v>232</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -6523,10 +6566,16 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
+    <row r="166" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -6548,10 +6597,16 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
+    <row r="167" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -6573,10 +6628,10 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+    <row r="168" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -6598,16 +6653,10 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="169" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -6629,16 +6678,10 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="170" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -6660,15 +6703,15 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6691,15 +6734,15 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>252</v>
+    <row r="172" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6722,15 +6765,15 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>322</v>
+    <row r="173" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6753,12 +6796,16 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
+    <row r="174" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -6780,12 +6827,16 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
+    <row r="175" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -6807,16 +6858,12 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>323</v>
-      </c>
+    <row r="176" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -6838,16 +6885,12 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>324</v>
-      </c>
+    <row r="177" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -6869,10 +6912,16 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
+    <row r="178" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -6894,15 +6943,15 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>325</v>
+    <row r="179" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6925,14 +6974,10 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="14"/>
-      <c r="B180" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>259</v>
-      </c>
+    <row r="180" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -6954,15 +6999,15 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>317</v>
+    <row r="181" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6985,15 +7030,13 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>320</v>
+    <row r="182" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="13"/>
+      <c r="B182" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7016,15 +7059,15 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>261</v>
+    <row r="183" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B183" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>378</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7047,15 +7090,15 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>321</v>
+    <row r="184" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7078,15 +7121,15 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>263</v>
+    <row r="185" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7109,14 +7152,16 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C186" s="8"/>
+    <row r="186" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>380</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -7138,10 +7183,16 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
+    <row r="187" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -7163,14 +7214,16 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C188" s="1"/>
+    <row r="188" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -7192,14 +7245,10 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C189" s="1"/>
+    <row r="189" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -7221,14 +7270,16 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C190" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -7250,14 +7301,16 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C191" s="1"/>
+    <row r="191" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -7279,14 +7332,16 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C192" s="1"/>
+    <row r="192" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -7308,14 +7363,16 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C193" s="1"/>
+    <row r="193" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -7337,14 +7394,16 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C194" s="1"/>
+    <row r="194" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -7366,14 +7425,16 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C195" s="1"/>
+    <row r="195" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -7395,14 +7456,16 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C196" s="1"/>
+    <row r="196" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -7424,14 +7487,16 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C197" s="1"/>
+    <row r="197" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -7453,14 +7518,16 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C198" s="1"/>
+    <row r="198" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -7482,14 +7549,16 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C199" s="1"/>
+    <row r="199" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -7511,14 +7580,16 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C200" s="1"/>
+    <row r="200" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -7540,14 +7611,16 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C201" s="1"/>
+    <row r="201" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -7569,14 +7642,16 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C202" s="1"/>
+    <row r="202" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -7598,14 +7673,16 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C203" s="1"/>
+    <row r="203" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -7627,14 +7704,16 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C204" s="1"/>
+    <row r="204" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -7656,14 +7735,16 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C205" s="1"/>
+    <row r="205" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>283</v>
+      </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -7685,14 +7766,16 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C206" s="1"/>
+    <row r="206" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -7714,14 +7797,16 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C207" s="1"/>
+    <row r="207" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>287</v>
+      </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -7743,14 +7828,16 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C208" s="1"/>
+    <row r="208" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>287</v>
+      </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -7772,14 +7859,16 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C209" s="1"/>
+    <row r="209" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -7801,14 +7890,16 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C210" s="1"/>
+    <row r="210" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -7830,14 +7921,16 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C211" s="1"/>
+    <row r="211" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -7859,14 +7952,16 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C212" s="1"/>
+    <row r="212" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -7888,14 +7983,16 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C213" s="1"/>
+    <row r="213" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -7917,14 +8014,16 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C214" s="1"/>
+    <row r="214" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -7946,14 +8045,16 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C215" s="1"/>
+    <row r="215" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -7975,10 +8076,16 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+    <row r="216" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -8000,10 +8107,16 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+    <row r="217" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -8025,7 +8138,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8050,7 +8163,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8075,7 +8188,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8100,7 +8213,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8125,7 +8238,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8150,7 +8263,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8175,7 +8288,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8200,7 +8313,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8225,7 +8338,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8250,7 +8363,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8275,7 +8388,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8300,7 +8413,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8325,7 +8438,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8350,7 +8463,7 @@
       <c r="V230" s="1"/>
       <c r="W230" s="1"/>
     </row>
-    <row r="231" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8375,7 +8488,7 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
     </row>
-    <row r="232" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8400,7 +8513,7 @@
       <c r="V232" s="1"/>
       <c r="W232" s="1"/>
     </row>
-    <row r="233" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8425,7 +8538,7 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
     </row>
-    <row r="234" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8450,7 +8563,7 @@
       <c r="V234" s="1"/>
       <c r="W234" s="1"/>
     </row>
-    <row r="235" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8475,7 +8588,7 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
     </row>
-    <row r="236" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8500,7 +8613,7 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
     </row>
-    <row r="237" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8525,7 +8638,7 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
     </row>
-    <row r="238" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8550,7 +8663,7 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
     </row>
-    <row r="239" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8575,7 +8688,7 @@
       <c r="V239" s="1"/>
       <c r="W239" s="1"/>
     </row>
-    <row r="240" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8600,7 +8713,7 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
     </row>
-    <row r="241" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8625,7 +8738,7 @@
       <c r="V241" s="1"/>
       <c r="W241" s="1"/>
     </row>
-    <row r="242" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8650,7 +8763,7 @@
       <c r="V242" s="1"/>
       <c r="W242" s="1"/>
     </row>
-    <row r="243" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8675,7 +8788,7 @@
       <c r="V243" s="1"/>
       <c r="W243" s="1"/>
     </row>
-    <row r="244" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8700,7 +8813,7 @@
       <c r="V244" s="1"/>
       <c r="W244" s="1"/>
     </row>
-    <row r="245" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8725,7 +8838,7 @@
       <c r="V245" s="1"/>
       <c r="W245" s="1"/>
     </row>
-    <row r="246" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8750,7 +8863,7 @@
       <c r="V246" s="1"/>
       <c r="W246" s="1"/>
     </row>
-    <row r="247" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8775,7 +8888,7 @@
       <c r="V247" s="1"/>
       <c r="W247" s="1"/>
     </row>
-    <row r="248" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8800,7 +8913,7 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
     </row>
-    <row r="249" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8825,7 +8938,7 @@
       <c r="V249" s="1"/>
       <c r="W249" s="1"/>
     </row>
-    <row r="250" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8850,7 +8963,7 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
     </row>
-    <row r="251" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8875,7 +8988,7 @@
       <c r="V251" s="1"/>
       <c r="W251" s="1"/>
     </row>
-    <row r="252" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8900,7 +9013,7 @@
       <c r="V252" s="1"/>
       <c r="W252" s="1"/>
     </row>
-    <row r="253" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8925,7 +9038,7 @@
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
     </row>
-    <row r="254" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8950,7 +9063,7 @@
       <c r="V254" s="1"/>
       <c r="W254" s="1"/>
     </row>
-    <row r="255" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8975,7 +9088,7 @@
       <c r="V255" s="1"/>
       <c r="W255" s="1"/>
     </row>
-    <row r="256" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9000,7 +9113,7 @@
       <c r="V256" s="1"/>
       <c r="W256" s="1"/>
     </row>
-    <row r="257" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9025,7 +9138,7 @@
       <c r="V257" s="1"/>
       <c r="W257" s="1"/>
     </row>
-    <row r="258" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9050,7 +9163,7 @@
       <c r="V258" s="1"/>
       <c r="W258" s="1"/>
     </row>
-    <row r="259" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9075,7 +9188,7 @@
       <c r="V259" s="1"/>
       <c r="W259" s="1"/>
     </row>
-    <row r="260" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -9100,7 +9213,7 @@
       <c r="V260" s="1"/>
       <c r="W260" s="1"/>
     </row>
-    <row r="261" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -9125,7 +9238,7 @@
       <c r="V261" s="1"/>
       <c r="W261" s="1"/>
     </row>
-    <row r="262" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -9150,7 +9263,7 @@
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
     </row>
-    <row r="263" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -9175,7 +9288,7 @@
       <c r="V263" s="1"/>
       <c r="W263" s="1"/>
     </row>
-    <row r="264" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9200,7 +9313,7 @@
       <c r="V264" s="1"/>
       <c r="W264" s="1"/>
     </row>
-    <row r="265" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9225,7 +9338,7 @@
       <c r="V265" s="1"/>
       <c r="W265" s="1"/>
     </row>
-    <row r="266" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -9250,7 +9363,7 @@
       <c r="V266" s="1"/>
       <c r="W266" s="1"/>
     </row>
-    <row r="267" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9275,7 +9388,7 @@
       <c r="V267" s="1"/>
       <c r="W267" s="1"/>
     </row>
-    <row r="268" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9300,7 +9413,7 @@
       <c r="V268" s="1"/>
       <c r="W268" s="1"/>
     </row>
-    <row r="269" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9325,7 +9438,7 @@
       <c r="V269" s="1"/>
       <c r="W269" s="1"/>
     </row>
-    <row r="270" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9350,7 +9463,7 @@
       <c r="V270" s="1"/>
       <c r="W270" s="1"/>
     </row>
-    <row r="271" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9375,7 +9488,7 @@
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
     </row>
-    <row r="272" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9400,7 +9513,7 @@
       <c r="V272" s="1"/>
       <c r="W272" s="1"/>
     </row>
-    <row r="273" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9425,7 +9538,7 @@
       <c r="V273" s="1"/>
       <c r="W273" s="1"/>
     </row>
-    <row r="274" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9450,7 +9563,7 @@
       <c r="V274" s="1"/>
       <c r="W274" s="1"/>
     </row>
-    <row r="275" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9475,7 +9588,7 @@
       <c r="V275" s="1"/>
       <c r="W275" s="1"/>
     </row>
-    <row r="276" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9500,7 +9613,7 @@
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
     </row>
-    <row r="277" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9525,7 +9638,7 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
     </row>
-    <row r="278" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9550,7 +9663,7 @@
       <c r="V278" s="1"/>
       <c r="W278" s="1"/>
     </row>
-    <row r="279" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9575,7 +9688,7 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
     </row>
-    <row r="280" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9600,7 +9713,7 @@
       <c r="V280" s="1"/>
       <c r="W280" s="1"/>
     </row>
-    <row r="281" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9625,7 +9738,7 @@
       <c r="V281" s="1"/>
       <c r="W281" s="1"/>
     </row>
-    <row r="282" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9650,7 +9763,7 @@
       <c r="V282" s="1"/>
       <c r="W282" s="1"/>
     </row>
-    <row r="283" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9675,7 +9788,7 @@
       <c r="V283" s="1"/>
       <c r="W283" s="1"/>
     </row>
-    <row r="284" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9700,7 +9813,7 @@
       <c r="V284" s="1"/>
       <c r="W284" s="1"/>
     </row>
-    <row r="285" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9725,7 +9838,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
     </row>
-    <row r="286" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9750,7 +9863,7 @@
       <c r="V286" s="1"/>
       <c r="W286" s="1"/>
     </row>
-    <row r="287" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9775,7 +9888,7 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
     </row>
-    <row r="288" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9800,7 +9913,7 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
     </row>
-    <row r="289" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9825,7 +9938,7 @@
       <c r="V289" s="1"/>
       <c r="W289" s="1"/>
     </row>
-    <row r="290" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9850,7 +9963,7 @@
       <c r="V290" s="1"/>
       <c r="W290" s="1"/>
     </row>
-    <row r="291" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9875,7 +9988,7 @@
       <c r="V291" s="1"/>
       <c r="W291" s="1"/>
     </row>
-    <row r="292" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9900,7 +10013,7 @@
       <c r="V292" s="1"/>
       <c r="W292" s="1"/>
     </row>
-    <row r="293" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9925,7 +10038,7 @@
       <c r="V293" s="1"/>
       <c r="W293" s="1"/>
     </row>
-    <row r="294" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9950,7 +10063,7 @@
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
     </row>
-    <row r="295" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9975,7 +10088,7 @@
       <c r="V295" s="1"/>
       <c r="W295" s="1"/>
     </row>
-    <row r="296" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -10000,7 +10113,7 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
     </row>
-    <row r="297" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10025,7 +10138,7 @@
       <c r="V297" s="1"/>
       <c r="W297" s="1"/>
     </row>
-    <row r="298" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10050,7 +10163,7 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
     </row>
-    <row r="299" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -10075,7 +10188,7 @@
       <c r="V299" s="1"/>
       <c r="W299" s="1"/>
     </row>
-    <row r="300" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -10100,7 +10213,7 @@
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
     </row>
-    <row r="301" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -10125,7 +10238,7 @@
       <c r="V301" s="1"/>
       <c r="W301" s="1"/>
     </row>
-    <row r="302" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -10150,7 +10263,7 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
     </row>
-    <row r="303" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -10175,7 +10288,7 @@
       <c r="V303" s="1"/>
       <c r="W303" s="1"/>
     </row>
-    <row r="304" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -10200,7 +10313,7 @@
       <c r="V304" s="1"/>
       <c r="W304" s="1"/>
     </row>
-    <row r="305" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -10225,7 +10338,7 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
     </row>
-    <row r="306" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10250,7 +10363,7 @@
       <c r="V306" s="1"/>
       <c r="W306" s="1"/>
     </row>
-    <row r="307" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10275,7 +10388,7 @@
       <c r="V307" s="1"/>
       <c r="W307" s="1"/>
     </row>
-    <row r="308" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10300,7 +10413,7 @@
       <c r="V308" s="1"/>
       <c r="W308" s="1"/>
     </row>
-    <row r="309" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10325,7 +10438,7 @@
       <c r="V309" s="1"/>
       <c r="W309" s="1"/>
     </row>
-    <row r="310" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10350,7 +10463,7 @@
       <c r="V310" s="1"/>
       <c r="W310" s="1"/>
     </row>
-    <row r="311" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10375,7 +10488,7 @@
       <c r="V311" s="1"/>
       <c r="W311" s="1"/>
     </row>
-    <row r="312" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10400,7 +10513,7 @@
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
     </row>
-    <row r="313" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10425,7 +10538,7 @@
       <c r="V313" s="1"/>
       <c r="W313" s="1"/>
     </row>
-    <row r="314" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10450,7 +10563,7 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
     </row>
-    <row r="315" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10475,7 +10588,7 @@
       <c r="V315" s="1"/>
       <c r="W315" s="1"/>
     </row>
-    <row r="316" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10500,7 +10613,7 @@
       <c r="V316" s="1"/>
       <c r="W316" s="1"/>
     </row>
-    <row r="317" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10525,7 +10638,7 @@
       <c r="V317" s="1"/>
       <c r="W317" s="1"/>
     </row>
-    <row r="318" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10550,7 +10663,7 @@
       <c r="V318" s="1"/>
       <c r="W318" s="1"/>
     </row>
-    <row r="319" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10575,7 +10688,7 @@
       <c r="V319" s="1"/>
       <c r="W319" s="1"/>
     </row>
-    <row r="320" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10600,7 +10713,7 @@
       <c r="V320" s="1"/>
       <c r="W320" s="1"/>
     </row>
-    <row r="321" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10625,7 +10738,7 @@
       <c r="V321" s="1"/>
       <c r="W321" s="1"/>
     </row>
-    <row r="322" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10650,7 +10763,7 @@
       <c r="V322" s="1"/>
       <c r="W322" s="1"/>
     </row>
-    <row r="323" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10675,7 +10788,7 @@
       <c r="V323" s="1"/>
       <c r="W323" s="1"/>
     </row>
-    <row r="324" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10700,7 +10813,7 @@
       <c r="V324" s="1"/>
       <c r="W324" s="1"/>
     </row>
-    <row r="325" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10725,7 +10838,7 @@
       <c r="V325" s="1"/>
       <c r="W325" s="1"/>
     </row>
-    <row r="326" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10750,7 +10863,7 @@
       <c r="V326" s="1"/>
       <c r="W326" s="1"/>
     </row>
-    <row r="327" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10775,7 +10888,7 @@
       <c r="V327" s="1"/>
       <c r="W327" s="1"/>
     </row>
-    <row r="328" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10800,7 +10913,7 @@
       <c r="V328" s="1"/>
       <c r="W328" s="1"/>
     </row>
-    <row r="329" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10825,7 +10938,7 @@
       <c r="V329" s="1"/>
       <c r="W329" s="1"/>
     </row>
-    <row r="330" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10850,7 +10963,7 @@
       <c r="V330" s="1"/>
       <c r="W330" s="1"/>
     </row>
-    <row r="331" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10875,7 +10988,7 @@
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
     </row>
-    <row r="332" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10900,7 +11013,7 @@
       <c r="V332" s="1"/>
       <c r="W332" s="1"/>
     </row>
-    <row r="333" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10925,7 +11038,7 @@
       <c r="V333" s="1"/>
       <c r="W333" s="1"/>
     </row>
-    <row r="334" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10950,7 +11063,7 @@
       <c r="V334" s="1"/>
       <c r="W334" s="1"/>
     </row>
-    <row r="335" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10975,7 +11088,7 @@
       <c r="V335" s="1"/>
       <c r="W335" s="1"/>
     </row>
-    <row r="336" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -11000,7 +11113,7 @@
       <c r="V336" s="1"/>
       <c r="W336" s="1"/>
     </row>
-    <row r="337" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -11025,7 +11138,7 @@
       <c r="V337" s="1"/>
       <c r="W337" s="1"/>
     </row>
-    <row r="338" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -11050,7 +11163,7 @@
       <c r="V338" s="1"/>
       <c r="W338" s="1"/>
     </row>
-    <row r="339" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -11075,7 +11188,7 @@
       <c r="V339" s="1"/>
       <c r="W339" s="1"/>
     </row>
-    <row r="340" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -11100,7 +11213,7 @@
       <c r="V340" s="1"/>
       <c r="W340" s="1"/>
     </row>
-    <row r="341" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -11125,7 +11238,7 @@
       <c r="V341" s="1"/>
       <c r="W341" s="1"/>
     </row>
-    <row r="342" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -11150,7 +11263,7 @@
       <c r="V342" s="1"/>
       <c r="W342" s="1"/>
     </row>
-    <row r="343" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -11175,7 +11288,7 @@
       <c r="V343" s="1"/>
       <c r="W343" s="1"/>
     </row>
-    <row r="344" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -11200,7 +11313,7 @@
       <c r="V344" s="1"/>
       <c r="W344" s="1"/>
     </row>
-    <row r="345" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -11225,7 +11338,7 @@
       <c r="V345" s="1"/>
       <c r="W345" s="1"/>
     </row>
-    <row r="346" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11250,7 +11363,7 @@
       <c r="V346" s="1"/>
       <c r="W346" s="1"/>
     </row>
-    <row r="347" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11275,7 +11388,7 @@
       <c r="V347" s="1"/>
       <c r="W347" s="1"/>
     </row>
-    <row r="348" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11300,7 +11413,7 @@
       <c r="V348" s="1"/>
       <c r="W348" s="1"/>
     </row>
-    <row r="349" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11325,7 +11438,7 @@
       <c r="V349" s="1"/>
       <c r="W349" s="1"/>
     </row>
-    <row r="350" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11350,7 +11463,7 @@
       <c r="V350" s="1"/>
       <c r="W350" s="1"/>
     </row>
-    <row r="351" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11375,7 +11488,7 @@
       <c r="V351" s="1"/>
       <c r="W351" s="1"/>
     </row>
-    <row r="352" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11400,7 +11513,7 @@
       <c r="V352" s="1"/>
       <c r="W352" s="1"/>
     </row>
-    <row r="353" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11425,7 +11538,7 @@
       <c r="V353" s="1"/>
       <c r="W353" s="1"/>
     </row>
-    <row r="354" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11450,7 +11563,7 @@
       <c r="V354" s="1"/>
       <c r="W354" s="1"/>
     </row>
-    <row r="355" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11475,7 +11588,7 @@
       <c r="V355" s="1"/>
       <c r="W355" s="1"/>
     </row>
-    <row r="356" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11500,1192 +11613,1243 @@
       <c r="V356" s="1"/>
       <c r="W356" s="1"/>
     </row>
-    <row r="357" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+      <c r="P357" s="1"/>
+      <c r="Q357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
+      <c r="U357" s="1"/>
+      <c r="V357" s="1"/>
+      <c r="W357" s="1"/>
+    </row>
+    <row r="358" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1"/>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+      <c r="P358" s="1"/>
+      <c r="Q358" s="1"/>
+      <c r="R358" s="1"/>
+      <c r="S358" s="1"/>
+      <c r="T358" s="1"/>
+      <c r="U358" s="1"/>
+      <c r="V358" s="1"/>
+      <c r="W358" s="1"/>
+    </row>
+    <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B75" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C75" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B156" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C156" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B162" r:id="rId11" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B169" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C169" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B40" r:id="rId3"/>
+    <hyperlink ref="B77" r:id="rId4"/>
+    <hyperlink ref="B158" r:id="rId5"/>
+    <hyperlink ref="B164" r:id="rId6" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
+    <hyperlink ref="B171" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="C40" r:id="rId10"/>
+    <hyperlink ref="C77" r:id="rId11"/>
+    <hyperlink ref="C158" r:id="rId12"/>
+    <hyperlink ref="C164" r:id="rId13" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
+    <hyperlink ref="C171" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182EF84-9AAF-4A9D-91E6-D50D70555D4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="15"/>
+    <col min="1" max="1" width="54.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="23">
+        <v>784512369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" s="23">
+        <v>784512369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="B43" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="B45" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="24">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B50" s="23">
         <v>784512369</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="15" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" s="20" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B34" s="24">
-        <v>784512369</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
+      <c r="B59" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B60" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="26" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B50" s="24">
-        <v>784512369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="B51" s="27" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="27" t="s">
+      <c r="B64" s="33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="27" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="B66" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="B59" s="30" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B68" s="33" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="B60" s="31" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="32" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="32" t="s">
+      <c r="B69" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="B61" s="29" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="32" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B70" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="B62" s="29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="33" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="B63" s="34" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="33" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" s="33" t="s">
         <v>366</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{F2EAAA5B-5C00-48F7-B385-AC499BC71E4C}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INLOGIC\My Exe\clone\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\Mobile_App_Code\URL UPDATE\clone_new\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="383">
   <si>
     <t>KEY</t>
   </si>
@@ -1129,18 +1129,12 @@
     <t>RECALLS_DETAILS</t>
   </si>
   <si>
-    <t>VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Compose Message_RANDOM;Compose Message Testing_RANDOM;MMHtest.jpg</t>
-  </si>
-  <si>
     <t>COMPOSE_MESSAGE</t>
   </si>
   <si>
     <t>DRAFT_MESSAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Dr Tim;Draft Message_RANDOM;Draft Message Testing_RANDOM;MMHtest.jpg </t>
-  </si>
-  <si>
     <t>https://v2web.mmh-demo.com/home</t>
   </si>
   <si>
@@ -1166,12 +1160,21 @@
   </si>
   <si>
     <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Automatic Reply Message Testing_RANDOM;Body : Automatic reply testing_RANDOM</t>
+  </si>
+  <si>
+    <t>VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Testprovider1;Compose Message_RANDOM;Compose Message Testing_RANDOM;MMHtest.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM03Location;VM03Location;Lab results enquiry;Clinical Staff;Testprovider1;Draft Message_RANDOM;Draft Message Testing_RANDOM;MMHtest.jpg </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1627,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1676,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2517,13 +2520,13 @@
     </row>
     <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6348,10 +6351,10 @@
         <v>225</v>
       </c>
       <c r="B159" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -6413,13 +6416,13 @@
     </row>
     <row r="161" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6475,13 +6478,13 @@
     </row>
     <row r="163" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -7061,13 +7064,13 @@
     </row>
     <row r="183" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7126,10 +7129,10 @@
         <v>249</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7157,10 +7160,10 @@
         <v>304</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7219,10 +7222,10 @@
         <v>225</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\Mobile_App_Code\URL UPDATE\clone_new\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\Happy_Path_Framework\Mobile_Response16-08-2022\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://v2webuat.mmh-demo.com/home</t>
   </si>
   <si>
     <t>https://v2web.mmh-demo.com/home</t>
@@ -1224,12 +1221,15 @@
   <si>
     <t>Dr Sam Entwistle;VM03Location;Doctor's Note;Note: note1;Due Date: 14 Jun 2022 08:37 PM;Contact information;Is Contacted? Yes;Contacted Date: 07 Jun 2022;Comment: MMH Email</t>
   </si>
+  <si>
+    <t>https://v2webfeature.mmh-demo.com/home</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,6 +1297,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1328,10 +1335,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1378,8 +1386,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1595,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1645,11 +1655,11 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1677,13 +1687,13 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1711,13 +1721,13 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1745,13 +1755,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1779,13 +1789,13 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1813,13 +1823,13 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1847,13 +1857,13 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1909,13 +1919,13 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1943,13 +1953,13 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1977,13 +1987,13 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2011,13 +2021,13 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2073,13 +2083,13 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2107,13 +2117,13 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2141,13 +2151,13 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2175,13 +2185,13 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2237,13 +2247,13 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2271,13 +2281,13 @@
     </row>
     <row r="21" spans="1:26" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2305,13 +2315,13 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2339,13 +2349,13 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2401,13 +2411,13 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2435,13 +2445,13 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2469,13 +2479,13 @@
     </row>
     <row r="27" spans="1:26" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2503,13 +2513,13 @@
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2537,13 +2547,13 @@
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2571,13 +2581,13 @@
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2661,13 +2671,13 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2695,13 +2705,13 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2757,13 +2767,13 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2819,13 +2829,13 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2881,13 +2891,13 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2915,13 +2925,13 @@
     </row>
     <row r="41" spans="1:26" ht="13.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2977,13 +2987,13 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" customHeight="1">
       <c r="A43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3011,13 +3021,13 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1">
       <c r="A44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="C44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3045,13 +3055,13 @@
     </row>
     <row r="45" spans="1:26" ht="13.5" customHeight="1">
       <c r="A45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3135,13 +3145,13 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1">
       <c r="A48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3169,13 +3179,13 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" customHeight="1">
       <c r="A49" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3203,7 +3213,7 @@
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3289,13 +3299,13 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" customHeight="1">
       <c r="A53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3323,13 +3333,13 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1">
       <c r="A54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3357,7 +3367,7 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3443,13 +3453,13 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1">
       <c r="A58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="C58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3477,13 +3487,13 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" customHeight="1">
       <c r="A59" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3511,7 +3521,7 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3597,13 +3607,13 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3631,13 +3641,13 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3721,13 +3731,13 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3755,13 +3765,13 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3845,13 +3855,13 @@
     </row>
     <row r="71" spans="1:26" ht="13.5" customHeight="1">
       <c r="A71" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="C71" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3879,13 +3889,13 @@
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1">
       <c r="A72" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="C72" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3913,13 +3923,13 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" customHeight="1">
       <c r="A73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C73" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3947,13 +3957,13 @@
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1">
       <c r="A74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="C74" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4037,13 +4047,13 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4071,13 +4081,13 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4133,13 +4143,13 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1">
       <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C80" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4167,13 +4177,13 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="C81" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4201,13 +4211,13 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="C82" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4235,13 +4245,13 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" customHeight="1">
       <c r="A83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="C83" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4269,13 +4279,13 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C84" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4303,13 +4313,13 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="C85" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4337,13 +4347,13 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4371,13 +4381,13 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4405,13 +4415,13 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4439,13 +4449,13 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4473,13 +4483,13 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4507,13 +4517,13 @@
     </row>
     <row r="91" spans="1:26" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="C91" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4541,13 +4551,13 @@
     </row>
     <row r="92" spans="1:26" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="C92" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4575,13 +4585,13 @@
     </row>
     <row r="93" spans="1:26" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="C93" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4609,13 +4619,13 @@
     </row>
     <row r="94" spans="1:26" ht="13.5" customHeight="1">
       <c r="A94" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="C94" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4643,13 +4653,13 @@
     </row>
     <row r="95" spans="1:26" ht="13.5" customHeight="1">
       <c r="A95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="C95" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4677,13 +4687,13 @@
     </row>
     <row r="96" spans="1:26" ht="13.5" customHeight="1">
       <c r="A96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4711,13 +4721,13 @@
     </row>
     <row r="97" spans="1:26" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4745,13 +4755,13 @@
     </row>
     <row r="98" spans="1:26" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4779,13 +4789,13 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" customHeight="1">
       <c r="A99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4813,13 +4823,13 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" customHeight="1">
       <c r="A100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4847,13 +4857,13 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4881,13 +4891,13 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" customHeight="1">
       <c r="A102" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="C102" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4915,13 +4925,13 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" customHeight="1">
       <c r="A103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4949,13 +4959,13 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" customHeight="1">
       <c r="A104" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="C104" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4983,13 +4993,13 @@
     </row>
     <row r="105" spans="1:26" ht="13.5" customHeight="1">
       <c r="A105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="C105" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5017,13 +5027,13 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" customHeight="1">
       <c r="A106" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="C106" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5051,13 +5061,13 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" customHeight="1">
       <c r="A107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5085,13 +5095,13 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" customHeight="1">
       <c r="A108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="C108" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5119,13 +5129,13 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5153,13 +5163,13 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" customHeight="1">
       <c r="A110" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="C110" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5187,13 +5197,13 @@
     </row>
     <row r="111" spans="1:26" ht="13.5" customHeight="1">
       <c r="A111" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -5221,13 +5231,13 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -5255,13 +5265,13 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="C113" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -5289,13 +5299,13 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="C114" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -5323,13 +5333,13 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5357,13 +5367,13 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="C116" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5391,13 +5401,13 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" customHeight="1">
       <c r="A117" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5425,13 +5435,13 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" customHeight="1">
       <c r="A118" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="C118" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5459,13 +5469,13 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" customHeight="1">
       <c r="A119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C119" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5493,13 +5503,13 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="C120" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5527,13 +5537,13 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5561,13 +5571,13 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" customHeight="1">
       <c r="A122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5595,13 +5605,13 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" customHeight="1">
       <c r="A123" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5657,13 +5667,13 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" customHeight="1">
       <c r="A125" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5719,13 +5729,13 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" customHeight="1">
       <c r="A127" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5753,13 +5763,13 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" customHeight="1">
       <c r="A128" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="C128" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5787,13 +5797,13 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" customHeight="1">
       <c r="A129" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="C129" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5821,13 +5831,13 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" customHeight="1">
       <c r="A130" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="C130" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5855,13 +5865,13 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" customHeight="1">
       <c r="A131" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="C131" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5889,13 +5899,13 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" customHeight="1">
       <c r="A132" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="C132" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5923,13 +5933,13 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" customHeight="1">
       <c r="A133" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5957,13 +5967,13 @@
     </row>
     <row r="134" spans="1:26" ht="13.5" customHeight="1">
       <c r="A134" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5991,13 +6001,13 @@
     </row>
     <row r="135" spans="1:26" ht="13.5" customHeight="1">
       <c r="A135" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -6025,13 +6035,13 @@
     </row>
     <row r="136" spans="1:26" ht="13.5" customHeight="1">
       <c r="A136" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -6059,13 +6069,13 @@
     </row>
     <row r="137" spans="1:26" ht="13.5" customHeight="1">
       <c r="A137" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6093,13 +6103,13 @@
     </row>
     <row r="138" spans="1:26" ht="13.5" customHeight="1">
       <c r="A138" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6127,13 +6137,13 @@
     </row>
     <row r="139" spans="1:26" ht="13.5" customHeight="1">
       <c r="A139" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6189,13 +6199,13 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" customHeight="1">
       <c r="A141" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6223,13 +6233,13 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" customHeight="1">
       <c r="A142" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6257,13 +6267,13 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" customHeight="1">
       <c r="A143" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6291,13 +6301,13 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" customHeight="1">
       <c r="A144" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6325,13 +6335,13 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" customHeight="1">
       <c r="A145" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6359,13 +6369,13 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -6393,13 +6403,13 @@
     </row>
     <row r="147" spans="1:26" ht="13.5" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -6427,13 +6437,13 @@
     </row>
     <row r="148" spans="1:26" ht="13.5" customHeight="1">
       <c r="A148" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6461,13 +6471,13 @@
     </row>
     <row r="149" spans="1:26" ht="13.5" customHeight="1">
       <c r="A149" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6495,13 +6505,13 @@
     </row>
     <row r="150" spans="1:26" ht="13.5" customHeight="1">
       <c r="A150" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6529,13 +6539,13 @@
     </row>
     <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="C151" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6563,13 +6573,13 @@
     </row>
     <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6597,13 +6607,13 @@
     </row>
     <row r="153" spans="1:26" ht="13.5" customHeight="1">
       <c r="A153" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6631,13 +6641,13 @@
     </row>
     <row r="154" spans="1:26" ht="13.5" customHeight="1">
       <c r="A154" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -6665,13 +6675,13 @@
     </row>
     <row r="155" spans="1:26" ht="13.5" customHeight="1">
       <c r="A155" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -6755,13 +6765,13 @@
     </row>
     <row r="158" spans="1:26" ht="13.5" customHeight="1">
       <c r="A158" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>228</v>
-      </c>
       <c r="C158" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -6789,13 +6799,13 @@
     </row>
     <row r="159" spans="1:26" ht="13.5" customHeight="1">
       <c r="A159" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B159" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B159" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="C159" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -6823,13 +6833,13 @@
     </row>
     <row r="160" spans="1:26" ht="13.5" customHeight="1">
       <c r="A160" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
@@ -6857,13 +6867,13 @@
     </row>
     <row r="161" spans="1:26" ht="13.5" customHeight="1">
       <c r="A161" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="C161" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6891,13 +6901,13 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" customHeight="1">
       <c r="A162" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -6925,13 +6935,13 @@
     </row>
     <row r="163" spans="1:26" ht="13.5" customHeight="1">
       <c r="A163" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="C163" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -6959,13 +6969,13 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="C164" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -6993,13 +7003,13 @@
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
       <c r="A165" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -7027,13 +7037,13 @@
     </row>
     <row r="166" spans="1:26" ht="13.5" customHeight="1">
       <c r="A166" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -7061,13 +7071,13 @@
     </row>
     <row r="167" spans="1:26" ht="13.5" customHeight="1">
       <c r="A167" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -7179,13 +7189,13 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -7213,13 +7223,13 @@
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -7247,13 +7257,13 @@
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="C173" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7281,13 +7291,13 @@
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="C174" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7315,13 +7325,13 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="C175" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7349,7 +7359,7 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -7379,7 +7389,7 @@
     </row>
     <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -7409,13 +7419,13 @@
     </row>
     <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B178" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="C178" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7443,13 +7453,13 @@
     </row>
     <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="C179" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -7505,13 +7515,13 @@
     </row>
     <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="C181" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -7540,10 +7550,10 @@
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="14"/>
       <c r="B182" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7571,13 +7581,13 @@
     </row>
     <row r="183" spans="1:26" ht="13.5" customHeight="1">
       <c r="A183" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B183" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B183" s="17" t="s">
-        <v>263</v>
-      </c>
       <c r="C183" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7605,13 +7615,13 @@
     </row>
     <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="C184" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7639,13 +7649,13 @@
     </row>
     <row r="185" spans="1:26" ht="13.5" customHeight="1">
       <c r="A185" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>267</v>
-      </c>
       <c r="C185" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7673,13 +7683,13 @@
     </row>
     <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C186" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7707,13 +7717,13 @@
     </row>
     <row r="187" spans="1:26" ht="13.5" customHeight="1">
       <c r="A187" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B187" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B187" s="8" t="s">
-        <v>271</v>
-      </c>
       <c r="C187" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7741,13 +7751,13 @@
     </row>
     <row r="188" spans="1:26" ht="13.5" customHeight="1">
       <c r="A188" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B188" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B188" s="8" t="s">
-        <v>230</v>
-      </c>
       <c r="C188" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -7803,13 +7813,13 @@
     </row>
     <row r="190" spans="1:26" ht="13.5" customHeight="1">
       <c r="A190" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B190" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="C190" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -7837,13 +7847,13 @@
     </row>
     <row r="191" spans="1:26" ht="13.5" customHeight="1">
       <c r="A191" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B191" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="C191" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7871,13 +7881,13 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B192" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>277</v>
-      </c>
       <c r="C192" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -7905,13 +7915,13 @@
     </row>
     <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B193" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="C193" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -7939,13 +7949,13 @@
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="C194" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -7973,13 +7983,13 @@
     </row>
     <row r="195" spans="1:26" ht="13.5" customHeight="1">
       <c r="A195" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="C195" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -8007,13 +8017,13 @@
     </row>
     <row r="196" spans="1:26" ht="13.5" customHeight="1">
       <c r="A196" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="C196" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -8041,13 +8051,13 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -8075,13 +8085,13 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -8109,13 +8119,13 @@
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -8143,13 +8153,13 @@
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
       <c r="A200" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="C200" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -8177,13 +8187,13 @@
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
       <c r="A201" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C201" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -8211,13 +8221,13 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C202" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -8245,13 +8255,13 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C203" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -8279,13 +8289,13 @@
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
       <c r="A204" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C204" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -8313,13 +8323,13 @@
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
       <c r="A205" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B205" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B205" s="10" t="s">
-        <v>303</v>
-      </c>
       <c r="C205" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -8347,13 +8357,13 @@
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C206" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -8381,13 +8391,13 @@
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C207" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -8415,13 +8425,13 @@
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -8449,13 +8459,13 @@
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -8483,13 +8493,13 @@
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -8517,13 +8527,13 @@
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="C211" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -8551,13 +8561,13 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="C212" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -8585,13 +8595,13 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="C213" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -8619,13 +8629,13 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -8653,13 +8663,13 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="C215" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -8687,13 +8697,13 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B216" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>321</v>
-      </c>
       <c r="C216" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8721,13 +8731,13 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B217" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>323</v>
-      </c>
       <c r="C217" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -8755,13 +8765,13 @@
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="C218" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8789,13 +8799,13 @@
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B219" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B219" s="12" t="s">
-        <v>327</v>
-      </c>
       <c r="C219" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -8823,13 +8833,13 @@
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B220" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B220" s="11" t="s">
-        <v>329</v>
-      </c>
       <c r="C220" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -8857,13 +8867,13 @@
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B221" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B221" s="18" t="s">
-        <v>331</v>
-      </c>
       <c r="C221" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -8891,13 +8901,13 @@
     </row>
     <row r="222" spans="1:26" ht="13.5" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -8925,13 +8935,13 @@
     </row>
     <row r="223" spans="1:26" ht="13.5" customHeight="1">
       <c r="A223" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B223" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B223" s="11" t="s">
-        <v>334</v>
-      </c>
       <c r="C223" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -8959,13 +8969,13 @@
     </row>
     <row r="224" spans="1:26" ht="13.5" customHeight="1">
       <c r="A224" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="C224" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -8993,13 +9003,13 @@
     </row>
     <row r="225" spans="1:26" ht="13.5" customHeight="1">
       <c r="A225" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B225" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B225" s="12" t="s">
-        <v>338</v>
-      </c>
       <c r="C225" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -9027,13 +9037,13 @@
     </row>
     <row r="226" spans="1:26" ht="13.5" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -9061,13 +9071,13 @@
     </row>
     <row r="227" spans="1:26" ht="13.5" customHeight="1">
       <c r="A227" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B227" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B227" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="C227" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -9095,13 +9105,13 @@
     </row>
     <row r="228" spans="1:26" ht="13.5" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -9129,13 +9139,13 @@
     </row>
     <row r="229" spans="1:26" ht="13.5" customHeight="1">
       <c r="A229" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B229" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B229" s="12" t="s">
-        <v>342</v>
-      </c>
       <c r="C229" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -30821,7 +30831,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -30850,10 +30860,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -30882,10 +30892,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -30914,10 +30924,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -30946,10 +30956,10 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -30978,10 +30988,10 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -31010,10 +31020,10 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -31070,10 +31080,10 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -31102,10 +31112,10 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -31134,7 +31144,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B12" s="22">
         <v>784512369</v>
@@ -31166,10 +31176,10 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -31198,10 +31208,10 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -31258,10 +31268,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -31290,10 +31300,10 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -31322,10 +31332,10 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -31354,10 +31364,10 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -31414,10 +31424,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -31446,10 +31456,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -31478,10 +31488,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -31510,10 +31520,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -31570,10 +31580,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -31602,10 +31612,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -31634,10 +31644,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>350</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -31666,10 +31676,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -31698,10 +31708,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>17</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -31758,10 +31768,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -31790,10 +31800,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -31822,7 +31832,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B34" s="22">
         <v>784512369</v>
@@ -31854,10 +31864,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>355</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -31886,10 +31896,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -31946,10 +31956,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -31978,10 +31988,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -32010,10 +32020,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -32042,10 +32052,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -32102,10 +32112,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>360</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -32134,10 +32144,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -32166,10 +32176,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -32198,10 +32208,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>364</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -32258,10 +32268,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -32290,10 +32300,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -32322,7 +32332,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" s="22">
         <v>784512369</v>
@@ -32354,10 +32364,10 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>368</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -32386,10 +32396,10 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
@@ -32446,10 +32456,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -32478,10 +32488,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -32510,10 +32520,10 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>372</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -32542,10 +32552,10 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -32602,10 +32612,10 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -32634,10 +32644,10 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>375</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>376</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -32666,10 +32676,10 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>377</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>378</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -32698,10 +32708,10 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>379</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>380</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -32730,10 +32740,10 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B63" s="23" t="s">
         <v>381</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>382</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -32762,10 +32772,10 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>383</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>384</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -32794,10 +32804,10 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>385</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>386</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -32826,10 +32836,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>387</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>388</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -32858,10 +32868,10 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>389</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>390</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -32890,10 +32900,10 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>391</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>392</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
@@ -32922,10 +32932,10 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>393</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>394</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -32954,10 +32964,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>395</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>396</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -32986,10 +32996,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>397</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>398</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -33018,10 +33028,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B72" s="23" t="s">
         <v>399</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>400</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>URGENCY PRICE</t>
-  </si>
-  <si>
-    <t>Urgent/Same day - Fee: NZ$11.00 (Incl. GST);Next Day - Fee: NZ$12.00 (Incl. GST);48 Hours - Fee: NZ$13.00 (Incl. GST);72 Hours - Fee: NZ$14.00 (Incl. GST)</t>
   </si>
   <si>
     <t>EMAIL_FOR_HEALTH</t>
@@ -1224,6 +1221,9 @@
   <si>
     <t>https://v2webfeature.mmh-demo.com/home</t>
   </si>
+  <si>
+    <t>Urgent/Same day - Fee: NZ$40.01 (Incl. GST);Next Day - Fee: NZ$40.04 (Incl. GST);48 Hours - Fee: NZ$40.07 (Incl. GST);72 Hours - Fee: NZ$50.10 (Incl. GST)</t>
+  </si>
 </sst>
 </file>
 
@@ -1605,15 +1605,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="69.5703125" customWidth="1"/>
     <col min="2" max="2" width="161.42578125" customWidth="1"/>
-    <col min="3" max="3" width="148.7109375" customWidth="1"/>
+    <col min="3" max="3" width="161.140625" customWidth="1"/>
     <col min="4" max="23" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -3960,10 +3960,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>47</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>8</v>
@@ -4143,13 +4143,13 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1">
       <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="C80" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4177,13 +4177,13 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="C81" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4211,13 +4211,13 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="C82" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4245,13 +4245,13 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" customHeight="1">
       <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="C83" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4279,13 +4279,13 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C84" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4313,13 +4313,13 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="C85" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4347,13 +4347,13 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4381,13 +4381,13 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4415,13 +4415,13 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4449,13 +4449,13 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4483,13 +4483,13 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4517,13 +4517,13 @@
     </row>
     <row r="91" spans="1:26" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="C91" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4551,13 +4551,13 @@
     </row>
     <row r="92" spans="1:26" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="C92" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="93" spans="1:26" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="C93" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4619,13 +4619,13 @@
     </row>
     <row r="94" spans="1:26" ht="13.5" customHeight="1">
       <c r="A94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="C94" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4653,13 +4653,13 @@
     </row>
     <row r="95" spans="1:26" ht="13.5" customHeight="1">
       <c r="A95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="C95" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="96" spans="1:26" ht="13.5" customHeight="1">
       <c r="A96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4721,13 +4721,13 @@
     </row>
     <row r="97" spans="1:26" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4755,13 +4755,13 @@
     </row>
     <row r="98" spans="1:26" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4789,13 +4789,13 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" customHeight="1">
       <c r="A99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4823,13 +4823,13 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" customHeight="1">
       <c r="A100" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4857,13 +4857,13 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4891,13 +4891,13 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" customHeight="1">
       <c r="A102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="C102" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4925,13 +4925,13 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" customHeight="1">
       <c r="A103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4959,13 +4959,13 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" customHeight="1">
       <c r="A104" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="C104" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4993,13 +4993,13 @@
     </row>
     <row r="105" spans="1:26" ht="13.5" customHeight="1">
       <c r="A105" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="C105" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5027,13 +5027,13 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" customHeight="1">
       <c r="A106" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="C106" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5061,13 +5061,13 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" customHeight="1">
       <c r="A107" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5095,13 +5095,13 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" customHeight="1">
       <c r="A108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="C108" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5129,13 +5129,13 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5163,13 +5163,13 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" customHeight="1">
       <c r="A110" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="C110" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5197,13 +5197,13 @@
     </row>
     <row r="111" spans="1:26" ht="13.5" customHeight="1">
       <c r="A111" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -5231,13 +5231,13 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -5265,13 +5265,13 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="C113" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -5299,13 +5299,13 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="C114" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -5333,13 +5333,13 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5367,13 +5367,13 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="C116" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5401,13 +5401,13 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" customHeight="1">
       <c r="A117" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5435,13 +5435,13 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" customHeight="1">
       <c r="A118" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="C118" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5469,13 +5469,13 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" customHeight="1">
       <c r="A119" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C119" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5503,13 +5503,13 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="C120" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5537,13 +5537,13 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5571,13 +5571,13 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" customHeight="1">
       <c r="A122" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5605,13 +5605,13 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" customHeight="1">
       <c r="A123" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5667,13 +5667,13 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" customHeight="1">
       <c r="A125" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5729,13 +5729,13 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" customHeight="1">
       <c r="A127" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5763,13 +5763,13 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" customHeight="1">
       <c r="A128" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="C128" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5797,13 +5797,13 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" customHeight="1">
       <c r="A129" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="C129" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5831,13 +5831,13 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" customHeight="1">
       <c r="A130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="C130" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5865,13 +5865,13 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" customHeight="1">
       <c r="A131" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="C131" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" customHeight="1">
       <c r="A132" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="C132" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5933,13 +5933,13 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" customHeight="1">
       <c r="A133" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5967,13 +5967,13 @@
     </row>
     <row r="134" spans="1:26" ht="13.5" customHeight="1">
       <c r="A134" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -6001,13 +6001,13 @@
     </row>
     <row r="135" spans="1:26" ht="13.5" customHeight="1">
       <c r="A135" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -6035,13 +6035,13 @@
     </row>
     <row r="136" spans="1:26" ht="13.5" customHeight="1">
       <c r="A136" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -6069,13 +6069,13 @@
     </row>
     <row r="137" spans="1:26" ht="13.5" customHeight="1">
       <c r="A137" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6103,13 +6103,13 @@
     </row>
     <row r="138" spans="1:26" ht="13.5" customHeight="1">
       <c r="A138" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6137,13 +6137,13 @@
     </row>
     <row r="139" spans="1:26" ht="13.5" customHeight="1">
       <c r="A139" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6199,13 +6199,13 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" customHeight="1">
       <c r="A141" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6233,13 +6233,13 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" customHeight="1">
       <c r="A142" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6267,13 +6267,13 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" customHeight="1">
       <c r="A143" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6301,13 +6301,13 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" customHeight="1">
       <c r="A144" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6335,13 +6335,13 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" customHeight="1">
       <c r="A145" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6369,13 +6369,13 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -6403,13 +6403,13 @@
     </row>
     <row r="147" spans="1:26" ht="13.5" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -6437,13 +6437,13 @@
     </row>
     <row r="148" spans="1:26" ht="13.5" customHeight="1">
       <c r="A148" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6471,13 +6471,13 @@
     </row>
     <row r="149" spans="1:26" ht="13.5" customHeight="1">
       <c r="A149" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6505,13 +6505,13 @@
     </row>
     <row r="150" spans="1:26" ht="13.5" customHeight="1">
       <c r="A150" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6539,13 +6539,13 @@
     </row>
     <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="C151" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6573,13 +6573,13 @@
     </row>
     <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6607,13 +6607,13 @@
     </row>
     <row r="153" spans="1:26" ht="13.5" customHeight="1">
       <c r="A153" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6641,13 +6641,13 @@
     </row>
     <row r="154" spans="1:26" ht="13.5" customHeight="1">
       <c r="A154" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -6675,13 +6675,13 @@
     </row>
     <row r="155" spans="1:26" ht="13.5" customHeight="1">
       <c r="A155" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -6765,13 +6765,13 @@
     </row>
     <row r="158" spans="1:26" ht="13.5" customHeight="1">
       <c r="A158" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="C158" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -6799,13 +6799,13 @@
     </row>
     <row r="159" spans="1:26" ht="13.5" customHeight="1">
       <c r="A159" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B159" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B159" s="15" t="s">
-        <v>229</v>
-      </c>
       <c r="C159" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="160" spans="1:26" ht="13.5" customHeight="1">
       <c r="A160" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>8</v>
@@ -6867,13 +6867,13 @@
     </row>
     <row r="161" spans="1:26" ht="13.5" customHeight="1">
       <c r="A161" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="C161" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6901,13 +6901,13 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" customHeight="1">
       <c r="A162" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -6935,13 +6935,13 @@
     </row>
     <row r="163" spans="1:26" ht="13.5" customHeight="1">
       <c r="A163" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="C163" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -6969,13 +6969,13 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="C164" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -7003,13 +7003,13 @@
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
       <c r="A165" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -7037,13 +7037,13 @@
     </row>
     <row r="166" spans="1:26" ht="13.5" customHeight="1">
       <c r="A166" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -7071,13 +7071,13 @@
     </row>
     <row r="167" spans="1:26" ht="13.5" customHeight="1">
       <c r="A167" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>6</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>8</v>
@@ -7257,13 +7257,13 @@
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="C173" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7291,13 +7291,13 @@
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="C174" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7325,13 +7325,13 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>251</v>
-      </c>
       <c r="C175" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -7419,13 +7419,13 @@
     </row>
     <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B178" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="C178" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7453,13 +7453,13 @@
     </row>
     <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="C179" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -7515,13 +7515,13 @@
     </row>
     <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="C181" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -7550,10 +7550,10 @@
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="14"/>
       <c r="B182" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7581,13 +7581,13 @@
     </row>
     <row r="183" spans="1:26" ht="13.5" customHeight="1">
       <c r="A183" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B183" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B183" s="17" t="s">
-        <v>262</v>
-      </c>
       <c r="C183" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7615,13 +7615,13 @@
     </row>
     <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>264</v>
-      </c>
       <c r="C184" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7649,13 +7649,13 @@
     </row>
     <row r="185" spans="1:26" ht="13.5" customHeight="1">
       <c r="A185" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="C185" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7683,13 +7683,13 @@
     </row>
     <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="C186" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7717,13 +7717,13 @@
     </row>
     <row r="187" spans="1:26" ht="13.5" customHeight="1">
       <c r="A187" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B187" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B187" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="C187" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7751,13 +7751,13 @@
     </row>
     <row r="188" spans="1:26" ht="13.5" customHeight="1">
       <c r="A188" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B188" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B188" s="8" t="s">
-        <v>229</v>
-      </c>
       <c r="C188" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -7813,13 +7813,13 @@
     </row>
     <row r="190" spans="1:26" ht="13.5" customHeight="1">
       <c r="A190" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B190" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="C190" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -7847,13 +7847,13 @@
     </row>
     <row r="191" spans="1:26" ht="13.5" customHeight="1">
       <c r="A191" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B191" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="C191" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7881,13 +7881,13 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B192" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="C192" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -7915,13 +7915,13 @@
     </row>
     <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B193" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="C193" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -7949,13 +7949,13 @@
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="C194" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -7983,13 +7983,13 @@
     </row>
     <row r="195" spans="1:26" ht="13.5" customHeight="1">
       <c r="A195" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="C195" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -8017,13 +8017,13 @@
     </row>
     <row r="196" spans="1:26" ht="13.5" customHeight="1">
       <c r="A196" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="C196" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -8051,13 +8051,13 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -8085,13 +8085,13 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -8153,13 +8153,13 @@
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
       <c r="A200" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="C200" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -8187,13 +8187,13 @@
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
       <c r="A201" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="C201" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -8221,13 +8221,13 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="C202" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -8255,13 +8255,13 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="C203" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -8289,13 +8289,13 @@
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
       <c r="A204" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="C204" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -8323,13 +8323,13 @@
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
       <c r="A205" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B205" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B205" s="10" t="s">
-        <v>302</v>
-      </c>
       <c r="C205" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -8357,13 +8357,13 @@
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="C206" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -8391,13 +8391,13 @@
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C207" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -8425,13 +8425,13 @@
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -8459,13 +8459,13 @@
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -8493,13 +8493,13 @@
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -8527,13 +8527,13 @@
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C211" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -8561,13 +8561,13 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="C212" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -8595,13 +8595,13 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="C213" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -8629,13 +8629,13 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -8663,13 +8663,13 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="C215" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -8697,13 +8697,13 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B216" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="C216" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8731,13 +8731,13 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B217" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>322</v>
-      </c>
       <c r="C217" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -8765,13 +8765,13 @@
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="C218" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8799,13 +8799,13 @@
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B219" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B219" s="12" t="s">
-        <v>326</v>
-      </c>
       <c r="C219" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -8833,13 +8833,13 @@
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B220" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B220" s="11" t="s">
-        <v>328</v>
-      </c>
       <c r="C220" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -8867,13 +8867,13 @@
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B221" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="B221" s="18" t="s">
-        <v>330</v>
-      </c>
       <c r="C221" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -8901,13 +8901,13 @@
     </row>
     <row r="222" spans="1:26" ht="13.5" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -8935,13 +8935,13 @@
     </row>
     <row r="223" spans="1:26" ht="13.5" customHeight="1">
       <c r="A223" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B223" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B223" s="11" t="s">
-        <v>333</v>
-      </c>
       <c r="C223" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -8969,13 +8969,13 @@
     </row>
     <row r="224" spans="1:26" ht="13.5" customHeight="1">
       <c r="A224" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C224" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -9003,13 +9003,13 @@
     </row>
     <row r="225" spans="1:26" ht="13.5" customHeight="1">
       <c r="A225" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B225" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B225" s="12" t="s">
-        <v>337</v>
-      </c>
       <c r="C225" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -9037,13 +9037,13 @@
     </row>
     <row r="226" spans="1:26" ht="13.5" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -9071,13 +9071,13 @@
     </row>
     <row r="227" spans="1:26" ht="13.5" customHeight="1">
       <c r="A227" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B227" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B227" s="12" t="s">
-        <v>339</v>
-      </c>
       <c r="C227" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -9105,13 +9105,13 @@
     </row>
     <row r="228" spans="1:26" ht="13.5" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -9139,13 +9139,13 @@
     </row>
     <row r="229" spans="1:26" ht="13.5" customHeight="1">
       <c r="A229" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B229" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B229" s="12" t="s">
-        <v>341</v>
-      </c>
       <c r="C229" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -30831,7 +30831,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -30927,7 +30927,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -30959,7 +30959,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -31023,7 +31023,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -31083,7 +31083,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -31115,7 +31115,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -31144,7 +31144,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="22">
         <v>784512369</v>
@@ -31179,7 +31179,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -31271,7 +31271,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -31303,7 +31303,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -31335,7 +31335,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -31427,7 +31427,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -31459,7 +31459,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -31491,7 +31491,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -31583,7 +31583,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -31615,7 +31615,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -31644,10 +31644,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>348</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>349</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -31679,7 +31679,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -31768,10 +31768,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -31800,10 +31800,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -31832,7 +31832,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B34" s="22">
         <v>784512369</v>
@@ -31864,10 +31864,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -31956,10 +31956,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -31988,10 +31988,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -32020,10 +32020,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -32112,10 +32112,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>358</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>359</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -32144,10 +32144,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>360</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>361</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -32208,10 +32208,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>362</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>363</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -32268,10 +32268,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -32300,10 +32300,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -32332,7 +32332,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="22">
         <v>784512369</v>
@@ -32364,10 +32364,10 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>366</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>367</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -32456,10 +32456,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -32488,10 +32488,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -32520,10 +32520,10 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>370</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>371</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -32612,10 +32612,10 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>372</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>373</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -32644,10 +32644,10 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>374</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>375</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -32676,10 +32676,10 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>376</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>377</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -32708,10 +32708,10 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>378</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>379</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -32740,10 +32740,10 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B63" s="23" t="s">
         <v>380</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>381</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -32772,10 +32772,10 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>382</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>383</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -32804,10 +32804,10 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>384</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>385</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -32836,10 +32836,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>386</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>387</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -32868,10 +32868,10 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>388</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>389</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -32900,10 +32900,10 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>390</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>391</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
@@ -32932,10 +32932,10 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>392</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>393</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -32964,10 +32964,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>394</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>395</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -32996,10 +32996,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>396</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>397</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -33028,10 +33028,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B72" s="23" t="s">
         <v>398</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>399</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\Happy_Path_Framework\Mobile_Response16-08-2022\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INLOGIC\Review\MobileAPP_SgnOff\MobileApp_SignOff\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="511">
   <si>
     <t>KEY</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://v2web.mmh-demo.com/home</t>
   </si>
   <si>
     <t>EMAIL</t>
@@ -820,12 +817,6 @@
     <t>VM03Location;VM03Location;Patient Communication-S;Patient;Harry Harry;Automatic Reply Message Testing_RANDOM;Body : Automatic reply testing_RANDOM</t>
   </si>
   <si>
-    <t>REPLY MESSAGE</t>
-  </si>
-  <si>
-    <t>Reply Message_RANDOM;Body:Reply Message_RANDOM;2;3;4;Received Msg Testing_RANDOM</t>
-  </si>
-  <si>
     <t>VERIFY_DATA_FOR_ARM</t>
   </si>
   <si>
@@ -1045,9 +1036,6 @@
     <t>Chennai;Show this entry to my doctor;Test02-Additional Information</t>
   </si>
   <si>
-    <t>VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS;Follow-up</t>
-  </si>
-  <si>
     <t>Dr Sam Entwistle;Follow-up</t>
   </si>
   <si>
@@ -1064,9 +1052,6 @@
   </si>
   <si>
     <t>VISIT_APPOINTMENT_SUMMARY_USING_CARD_PAYMENT</t>
-  </si>
-  <si>
-    <t>Approved;Dr Sam Entwistle;VM03Location;Follow-up</t>
   </si>
   <si>
     <t>4111111111111111;test;02;24;121</t>
@@ -1150,9 +1135,6 @@
     <t>PRESCRIPTIONS_RECORDS</t>
   </si>
   <si>
-    <t>Amylmetacresol 0.6mg;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry);07 Jun 2022</t>
-  </si>
-  <si>
     <t>PRESCRIPTIONS_DETAILS</t>
   </si>
   <si>
@@ -1219,16 +1201,364 @@
     <t>Dr Sam Entwistle;VM03Location;Doctor's Note;Note: note1;Due Date: 14 Jun 2022 08:37 PM;Contact information;Is Contacted? Yes;Contacted Date: 07 Jun 2022;Comment: MMH Email</t>
   </si>
   <si>
+    <t>VM03Location;Dr Sam Entwistle;TOMORROW;Follow-up</t>
+  </si>
+  <si>
+    <t>TOMORROW</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;DAYAFTERTOMORROW;Follow-up</t>
+  </si>
+  <si>
+    <t>DAYAFTERTOMORROW</t>
+  </si>
+  <si>
+    <t>784512369</t>
+  </si>
+  <si>
+    <t>Approved;Video Appointment;Dr Sam Entwistle;VM03Location;Follow-up</t>
+  </si>
+  <si>
+    <t>FUTURE_DATE_0_AMOUNT</t>
+  </si>
+  <si>
+    <t>PATIENT_TO_COLLECT_SCRIPT_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Patient to Collect Script;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>RPR_MESSAGE</t>
+  </si>
+  <si>
+    <t>Repeat Prescription Testing Purpose</t>
+  </si>
+  <si>
+    <t>RP_PATIENT_TO_COLLECT_SCRIPT_STATUS</t>
+  </si>
+  <si>
+    <t>Patient to Collect Script;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg</t>
+  </si>
+  <si>
+    <t>RP_PATIENT_TO_COLLECT_SCRIPT_STATUS_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>Patient to Collect Script;Dr.Neel;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg</t>
+  </si>
+  <si>
+    <t>SEND_SCRIPT_BY_POST_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Send Script by Post;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>RP_SEND_SCRIPT_BY_POST_STATUS</t>
+  </si>
+  <si>
+    <t>Send Script by Post;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg</t>
+  </si>
+  <si>
+    <t>RP_SEND_SCRIPT_BY_POST_STATUS_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>Send Script by Post;Dr.Neel;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg</t>
+  </si>
+  <si>
+    <t>SEND_SCRIPT_TO_PHARMACY_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Send Script to Pharmacy;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>RP_SEND_SCRIPT_TO_PHARMACY_STATUS</t>
+  </si>
+  <si>
+    <t>Send Script to Pharmacy;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg</t>
+  </si>
+  <si>
+    <t>RP_SEND_SCRIPT_TO_PHARMACY_STATUS_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>Send Script to Pharmacy;Dr.Neel;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg</t>
+  </si>
+  <si>
+    <t>SEND_SCRIPT_TO_PHARMACY_ADDRESS_DETAILS</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>DELIVERY_MED_BY_PHARMACY_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Deliver Meds by Pharmacy;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>DELIVER_VIA_ZOOM_PHARMACY_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Deliver via Zoom Pharmacy;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>DELIVER_VIA_ZOOM_PHARMACY_DETAILS_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>VM03Location2;Dr.Neel;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Deliver via Zoom Pharmacy;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>RP_DELIVERY_MED_BY_PHARMACY_STATUS</t>
+  </si>
+  <si>
+    <t>Deliver Meds by Pharmacy;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Delivery Address:;123;TestStreet;TestCity;ZOOM Pharmacy home delivery</t>
+  </si>
+  <si>
+    <t>RP_DELIVERY_MED_BY_PHARMACY_STATUS_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>Deliver Meds by Pharmacy;Dr.Neel;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Delivery Address:;123;TestStreet;TestCity;ZOOM Pharmacy home delivery</t>
+  </si>
+  <si>
+    <t>RP_DELIVER_VIA_ZOOM_PHARMACY_STATUS</t>
+  </si>
+  <si>
+    <t>Deliver via Zoom Pharmacy;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Delivery Address:;123;TestStreet;TestCity</t>
+  </si>
+  <si>
+    <t>RP_DELIVER_VIA_ZOOM_PHARMACY_STATUS_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>Deliver via Zoom Pharmacy;Dr.Neel;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Delivery Address:;123;TestStreet;TestCity</t>
+  </si>
+  <si>
+    <t>DELIVERY_MED_BY_PHARMACY_ADDRESS_DETAILS</t>
+  </si>
+  <si>
+    <t>ZOOM Pharmacy home delivery;123;TestStreet;TestCity</t>
+  </si>
+  <si>
+    <t>DELIVER_VIA_ZOOM_PHARMACY_ADDRESS_DETAILS</t>
+  </si>
+  <si>
+    <t>123;TestStreet;TestCity</t>
+  </si>
+  <si>
+    <t>DELIVER_VIA_ZOOM_PHARMACY_ADDRESS_DETAILS_PAYMENT</t>
+  </si>
+  <si>
+    <t>DELIVERY_MED_BY_PHARMACY_DETAILS_PAYMENT</t>
+  </si>
+  <si>
+    <t>DELIVERY_MED_BY_PHARMACY_DETAILS_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>VM03Location2;Dr.Neel;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Deliver Meds by Pharmacy;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>DELIVERY_VIA_ZOOM_PHARMACY_DETAILS_PAYMENT</t>
+  </si>
+  <si>
+    <t>RP_DELIVERY_VIA_ZOOM_PHARMACY_STATUS_PAYMENT</t>
+  </si>
+  <si>
+    <t>Deliver via Zoom Pharmacy;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Delivery Address:;123;TestStreet;TestCity;Payment Method: Online</t>
+  </si>
+  <si>
+    <t>RP_DELIVERY_MED_BY_PHARMACY_STATUS_PAYMENT</t>
+  </si>
+  <si>
+    <t>Deliver Meds by Pharmacy;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Delivery Address:;123;TestStreet;TestCity;ZOOM Pharmacy home delivery;Payment Method: Online</t>
+  </si>
+  <si>
+    <t>DELIVERY_MED_BY_PHARMACY_ADDRESS_DETAILS_PAYMENT</t>
+  </si>
+  <si>
+    <t>SEND_SCRIPT_TO_PHARMACY_DETAILS_PAYMENT</t>
+  </si>
+  <si>
+    <t>SEND_SCRIPT_TO_PHARMACY_DETAILS_PAYMENT_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>VM03Location2;Dr.Neel;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Send Script to Pharmacy;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>RP_SEND_SCRIPT_TO_PHARMACY_STATUS_PAYMENT</t>
+  </si>
+  <si>
+    <t>Send Script to Pharmacy;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Payment Method: Online</t>
+  </si>
+  <si>
+    <t>SEND_SCRIPT_TO_PHARMACY_ADDRESS_DETAILS_PAYMENT</t>
+  </si>
+  <si>
+    <t>PATIENT_TO_COLLECT_SCRIPT_DETAILS_PAYMENT</t>
+  </si>
+  <si>
+    <t>PATIENT_TO_COLLECT_SCRIPT_DETAILS_PAYMENT_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>VM03Location2;Dr.Neel;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Patient to Collect Script;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>RP_PATIENT_TO_COLLECT_SCRIPT_STATUS_PAYMENT</t>
+  </si>
+  <si>
+    <t>Patient to Collect Script;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Payment Method: Online</t>
+  </si>
+  <si>
+    <t>SEND_SCRIPT_BY_POST_DETAILS_PAYMENT</t>
+  </si>
+  <si>
+    <t>SEND_SCRIPT_BY_POST_DETAILS_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>VM03Location2;Dr.Neel;Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry) 5, As Required;Send Script by Post;Urgent/Same day</t>
+  </si>
+  <si>
+    <t>RP_SEND_SCRIPT_BY_POST_STATUS_PAYMENT</t>
+  </si>
+  <si>
+    <t>Send Script by Post;Dr Sam Entwistle;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Payment Method: Online</t>
+  </si>
+  <si>
+    <t>RP_SEND_SCRIPT_BY_POST_STATUS_PAYMENT_$0_PAYMENT</t>
+  </si>
+  <si>
+    <t>Send Script by Post;Dr.Neel;VM03Location;Repeat Prescription Testing Purpose;Pending;amylmetacresol 0.6mg;dichlorobenzyl alcohol 1.2mg;Payment Method: Online</t>
+  </si>
+  <si>
+    <t>SEND_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>SEND_MESSAGE</t>
+  </si>
+  <si>
+    <t>Test-Message_RANDOM;MMHtest.jpg</t>
+  </si>
+  <si>
+    <t>SENT_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>DOCTOR_EMAIL</t>
+  </si>
+  <si>
+    <t>DOCTOR_PASSWORD</t>
+  </si>
+  <si>
+    <t>DOCTOR_SEND_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>VM03Location;Internal Communication;Patient;Harry Harry</t>
+  </si>
+  <si>
+    <t>DOCTOR_SEND_MESSAGE</t>
+  </si>
+  <si>
+    <t>DOCTOR_SENT_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>Harry Harry;Internal Communication;Test-Message_RANDOM</t>
+  </si>
+  <si>
+    <t>RECEIVE_MESSAGE</t>
+  </si>
+  <si>
+    <t>Internal Communication;Test-Message_RANDOM</t>
+  </si>
+  <si>
+    <t>PRE_REPLY_MESSAGE</t>
+  </si>
+  <si>
+    <t>Internal Communication;Pre-Reply-Test-Message_RANDOM</t>
+  </si>
+  <si>
+    <t>REPLY_MESSAGE</t>
+  </si>
+  <si>
+    <t>Internal Communication;Reply-Test-Message_RANDOM</t>
+  </si>
+  <si>
+    <t>REPLY_SEND_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>REPLY_SEND_MESSAGE</t>
+  </si>
+  <si>
+    <t>Pre-Reply-Test-Message_RANDOM;MMHtest.jpg</t>
+  </si>
+  <si>
+    <t>REPLY_SENT_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>Harry Harry;Internal Communication;Pre-Reply-Test-Message_RANDOM</t>
+  </si>
+  <si>
+    <t>GROUP_MESSAGE</t>
+  </si>
+  <si>
+    <t>VM03Location;Group MessageTesting_RANDOM</t>
+  </si>
+  <si>
+    <t>NET_BANKING_DETAILS</t>
+  </si>
+  <si>
+    <t>ANZ;WindcaveA2ATest;Windcave1234;Payment Success</t>
+  </si>
+  <si>
+    <t>Urgent/Same day - Fee: NZ$11.00 (Incl. GST);Next Day - Fee: NZ$12.00 (Incl. GST);48 Hours - Fee: NZ$13.00 (Incl. GST);72 Hours - Fee: NZ$14.00 (Incl. GST)</t>
+  </si>
+  <si>
+    <t>MOBILE_RESPONSE_RECEIVED_MESSAGE</t>
+  </si>
+  <si>
+    <t>VM03Location;Internal Communication;Patient;Harry Harry;Manual Test for Message;Body : Manual Test for Message;MMHtest.jpg</t>
+  </si>
+  <si>
+    <t>MOBILE_RESPONSE_GROUP_MESSAGE_DETAILS</t>
+  </si>
+  <si>
+    <t>Manual Group Message Testing;Manual Group Message Testing</t>
+  </si>
+  <si>
+    <t>MOBILE_RESPONSE_REPLY_MESSAGE</t>
+  </si>
+  <si>
+    <t>Manual Reply Message;Body:Manual Reply Message;2;3;4;Manual Test for Message</t>
+  </si>
+  <si>
     <t>https://v2webfeature.mmh-demo.com/home</t>
   </si>
   <si>
-    <t>Urgent/Same day - Fee: NZ$40.01 (Incl. GST);Next Day - Fee: NZ$40.04 (Incl. GST);48 Hours - Fee: NZ$40.07 (Incl. GST);72 Hours - Fee: NZ$50.10 (Incl. GST)</t>
+    <t>https://v2web.mmh-demo.com/</t>
+  </si>
+  <si>
+    <t>Dichlorobenzyl Alcohol 1.2mg Lozenges (strawberry);07 Jun 2022</t>
+  </si>
+  <si>
+    <t>VM03Location;Pre-consultation - P;Dr Sam Entwistle</t>
+  </si>
+  <si>
+    <t>Dr Sam Entwistle;Pre-consultation - P;Test-Message_RANDOM</t>
+  </si>
+  <si>
+    <t>VM03Location;Dr Sam Entwistle;AFTER_THREE_DAYS;Follow-up</t>
+  </si>
+  <si>
+    <t>FUTURE_DATE_PAYMENT_FOR_VISIT</t>
+  </si>
+  <si>
+    <t>FUTURE_DATE_PAYMENT_FOR_PHONE</t>
+  </si>
+  <si>
+    <t>FUTURE_DATE_PAYMENT_FOR_VIDEO</t>
+  </si>
+  <si>
+    <t>Approved;Dr Sam Entwistle;VM03Location;Follow-up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1240,30 +1570,35 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1285,23 +1620,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1339,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1387,6 +1726,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1605,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1656,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1687,13 +2028,13 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1721,13 +2062,13 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1755,13 +2096,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1789,13 +2130,13 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1823,13 +2164,13 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1857,13 +2198,13 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1919,13 +2260,13 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1953,13 +2294,13 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1987,13 +2328,13 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2021,13 +2362,13 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2083,13 +2424,13 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2117,13 +2458,13 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2151,13 +2492,13 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2185,13 +2526,13 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2247,13 +2588,13 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2281,13 +2622,13 @@
     </row>
     <row r="21" spans="1:26" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2315,13 +2656,13 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2349,13 +2690,13 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2411,13 +2752,13 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2445,13 +2786,13 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2479,13 +2820,13 @@
     </row>
     <row r="27" spans="1:26" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2513,13 +2854,13 @@
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2547,13 +2888,13 @@
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2581,13 +2922,13 @@
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2671,13 +3012,13 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2705,13 +3046,13 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2767,13 +3108,13 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2829,13 +3170,13 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2891,13 +3232,13 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2925,13 +3266,13 @@
     </row>
     <row r="41" spans="1:26" ht="13.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2987,13 +3328,13 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" customHeight="1">
       <c r="A43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3021,13 +3362,13 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1">
       <c r="A44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="C44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3055,13 +3396,13 @@
     </row>
     <row r="45" spans="1:26" ht="13.5" customHeight="1">
       <c r="A45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3145,13 +3486,13 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1">
       <c r="A48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3179,13 +3520,13 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" customHeight="1">
       <c r="A49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3213,7 +3554,7 @@
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3299,13 +3640,13 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" customHeight="1">
       <c r="A53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C53" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3333,13 +3674,13 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1">
       <c r="A54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3367,7 +3708,7 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3453,13 +3794,13 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1">
       <c r="A58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="C58" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3487,13 +3828,13 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" customHeight="1">
       <c r="A59" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3521,7 +3862,7 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3607,13 +3948,13 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3641,13 +3982,13 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3731,13 +4072,13 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3765,13 +4106,13 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3855,13 +4196,13 @@
     </row>
     <row r="71" spans="1:26" ht="13.5" customHeight="1">
       <c r="A71" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="C71" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3889,13 +4230,13 @@
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1">
       <c r="A72" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="C72" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3923,13 +4264,13 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" customHeight="1">
       <c r="A73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="C73" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3957,13 +4298,13 @@
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4047,13 +4388,13 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4081,13 +4422,13 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4143,13 +4484,13 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1">
       <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="C80" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4177,13 +4518,13 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C81" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4211,13 +4552,13 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="C82" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4245,13 +4586,13 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" customHeight="1">
       <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="C83" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4279,13 +4620,13 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="C84" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4313,13 +4654,13 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="C85" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4347,13 +4688,13 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4381,13 +4722,13 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4415,13 +4756,13 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4449,13 +4790,13 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4483,13 +4824,13 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4517,13 +4858,13 @@
     </row>
     <row r="91" spans="1:26" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C91" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4551,13 +4892,13 @@
     </row>
     <row r="92" spans="1:26" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="C92" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4585,13 +4926,13 @@
     </row>
     <row r="93" spans="1:26" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="C93" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4619,13 +4960,13 @@
     </row>
     <row r="94" spans="1:26" ht="13.5" customHeight="1">
       <c r="A94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="C94" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4653,13 +4994,13 @@
     </row>
     <row r="95" spans="1:26" ht="13.5" customHeight="1">
       <c r="A95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="C95" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4687,13 +5028,13 @@
     </row>
     <row r="96" spans="1:26" ht="13.5" customHeight="1">
       <c r="A96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4721,13 +5062,13 @@
     </row>
     <row r="97" spans="1:26" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4755,13 +5096,13 @@
     </row>
     <row r="98" spans="1:26" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4789,13 +5130,13 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" customHeight="1">
       <c r="A99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4823,13 +5164,13 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" customHeight="1">
       <c r="A100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4857,13 +5198,13 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4891,13 +5232,13 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" customHeight="1">
       <c r="A102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="C102" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4925,13 +5266,13 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" customHeight="1">
       <c r="A103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4959,13 +5300,13 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" customHeight="1">
       <c r="A104" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="C104" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4993,13 +5334,13 @@
     </row>
     <row r="105" spans="1:26" ht="13.5" customHeight="1">
       <c r="A105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="C105" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5027,13 +5368,13 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" customHeight="1">
       <c r="A106" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="C106" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5061,13 +5402,13 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" customHeight="1">
       <c r="A107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5095,13 +5436,13 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" customHeight="1">
       <c r="A108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="C108" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5129,13 +5470,13 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5163,13 +5504,13 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" customHeight="1">
       <c r="A110" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C110" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5197,13 +5538,13 @@
     </row>
     <row r="111" spans="1:26" ht="13.5" customHeight="1">
       <c r="A111" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -5231,13 +5572,13 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -5265,13 +5606,13 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="C113" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -5299,13 +5640,13 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="C114" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -5333,13 +5674,13 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5367,13 +5708,13 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="C116" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5401,13 +5742,13 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" customHeight="1">
       <c r="A117" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5435,13 +5776,13 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" customHeight="1">
       <c r="A118" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="C118" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5469,13 +5810,13 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" customHeight="1">
       <c r="A119" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C119" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5503,13 +5844,13 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="C120" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5537,13 +5878,13 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5571,13 +5912,13 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" customHeight="1">
       <c r="A122" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5605,13 +5946,13 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" customHeight="1">
       <c r="A123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5667,13 +6008,13 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" customHeight="1">
       <c r="A125" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5729,13 +6070,13 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" customHeight="1">
       <c r="A127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5763,13 +6104,13 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" customHeight="1">
       <c r="A128" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="C128" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5797,13 +6138,13 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" customHeight="1">
       <c r="A129" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="C129" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5831,13 +6172,13 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" customHeight="1">
       <c r="A130" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="C130" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5865,13 +6206,13 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" customHeight="1">
       <c r="A131" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="C131" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5899,13 +6240,13 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" customHeight="1">
       <c r="A132" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>184</v>
-      </c>
       <c r="C132" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5933,13 +6274,13 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" customHeight="1">
       <c r="A133" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5967,13 +6308,13 @@
     </row>
     <row r="134" spans="1:26" ht="13.5" customHeight="1">
       <c r="A134" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -6001,13 +6342,13 @@
     </row>
     <row r="135" spans="1:26" ht="13.5" customHeight="1">
       <c r="A135" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -6035,13 +6376,13 @@
     </row>
     <row r="136" spans="1:26" ht="13.5" customHeight="1">
       <c r="A136" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -6069,13 +6410,13 @@
     </row>
     <row r="137" spans="1:26" ht="13.5" customHeight="1">
       <c r="A137" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -6103,13 +6444,13 @@
     </row>
     <row r="138" spans="1:26" ht="13.5" customHeight="1">
       <c r="A138" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -6137,13 +6478,13 @@
     </row>
     <row r="139" spans="1:26" ht="13.5" customHeight="1">
       <c r="A139" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -6199,13 +6540,13 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" customHeight="1">
       <c r="A141" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6233,13 +6574,13 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" customHeight="1">
       <c r="A142" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6267,13 +6608,13 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" customHeight="1">
       <c r="A143" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6301,13 +6642,13 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" customHeight="1">
       <c r="A144" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6335,13 +6676,13 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" customHeight="1">
       <c r="A145" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6369,13 +6710,13 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -6403,13 +6744,13 @@
     </row>
     <row r="147" spans="1:26" ht="13.5" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -6437,13 +6778,13 @@
     </row>
     <row r="148" spans="1:26" ht="13.5" customHeight="1">
       <c r="A148" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6471,13 +6812,13 @@
     </row>
     <row r="149" spans="1:26" ht="13.5" customHeight="1">
       <c r="A149" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6505,13 +6846,13 @@
     </row>
     <row r="150" spans="1:26" ht="13.5" customHeight="1">
       <c r="A150" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6539,13 +6880,13 @@
     </row>
     <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>216</v>
-      </c>
       <c r="C151" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6573,13 +6914,13 @@
     </row>
     <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6607,13 +6948,13 @@
     </row>
     <row r="153" spans="1:26" ht="13.5" customHeight="1">
       <c r="A153" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6641,13 +6982,13 @@
     </row>
     <row r="154" spans="1:26" ht="13.5" customHeight="1">
       <c r="A154" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -6675,13 +7016,13 @@
     </row>
     <row r="155" spans="1:26" ht="13.5" customHeight="1">
       <c r="A155" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -6765,13 +7106,13 @@
     </row>
     <row r="158" spans="1:26" ht="13.5" customHeight="1">
       <c r="A158" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="C158" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -6799,13 +7140,13 @@
     </row>
     <row r="159" spans="1:26" ht="13.5" customHeight="1">
       <c r="A159" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B159" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="C159" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -6833,13 +7174,13 @@
     </row>
     <row r="160" spans="1:26" ht="13.5" customHeight="1">
       <c r="A160" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
@@ -6867,13 +7208,13 @@
     </row>
     <row r="161" spans="1:26" ht="13.5" customHeight="1">
       <c r="A161" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="C161" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6901,13 +7242,13 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" customHeight="1">
       <c r="A162" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -6935,13 +7276,13 @@
     </row>
     <row r="163" spans="1:26" ht="13.5" customHeight="1">
       <c r="A163" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="C163" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -6969,13 +7310,13 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="C164" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -7003,13 +7344,13 @@
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
       <c r="A165" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -7037,13 +7378,13 @@
     </row>
     <row r="166" spans="1:26" ht="13.5" customHeight="1">
       <c r="A166" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -7071,13 +7412,13 @@
     </row>
     <row r="167" spans="1:26" ht="13.5" customHeight="1">
       <c r="A167" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -7189,13 +7530,13 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -7223,13 +7564,13 @@
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -7257,13 +7598,13 @@
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="C173" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7291,13 +7632,13 @@
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>248</v>
-      </c>
       <c r="C174" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7325,13 +7666,13 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="C175" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7359,7 +7700,7 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -7389,7 +7730,7 @@
     </row>
     <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -7419,13 +7760,13 @@
     </row>
     <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B178" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="C178" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7453,13 +7794,13 @@
     </row>
     <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="C179" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -7515,13 +7856,13 @@
     </row>
     <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="C181" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -7550,10 +7891,10 @@
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="14"/>
       <c r="B182" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7581,13 +7922,13 @@
     </row>
     <row r="183" spans="1:26" ht="13.5" customHeight="1">
       <c r="A183" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B183" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B183" s="17" t="s">
-        <v>261</v>
-      </c>
       <c r="C183" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -7615,13 +7956,13 @@
     </row>
     <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="14" t="s">
-        <v>262</v>
+        <v>495</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>263</v>
+        <v>496</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>263</v>
+        <v>496</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -7649,13 +7990,13 @@
     </row>
     <row r="185" spans="1:26" ht="13.5" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -7683,13 +8024,13 @@
     </row>
     <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>266</v>
+        <v>497</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>267</v>
+        <v>498</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>267</v>
+        <v>498</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -7717,13 +8058,13 @@
     </row>
     <row r="187" spans="1:26" ht="13.5" customHeight="1">
       <c r="A187" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7750,15 +8091,9 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A188" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="A188" s="14"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -7784,9 +8119,15 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
+      <c r="A189" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>500</v>
+      </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -7813,13 +8154,13 @@
     </row>
     <row r="190" spans="1:26" ht="13.5" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -7847,13 +8188,13 @@
     </row>
     <row r="191" spans="1:26" ht="13.5" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -7880,15 +8221,9 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A192" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>275</v>
-      </c>
+      <c r="A192" s="1"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -7915,13 +8250,13 @@
     </row>
     <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -7949,13 +8284,13 @@
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -7983,13 +8318,13 @@
     </row>
     <row r="195" spans="1:26" ht="13.5" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -8017,13 +8352,13 @@
     </row>
     <row r="196" spans="1:26" ht="13.5" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -8051,13 +8386,13 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -8085,13 +8420,13 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -8119,13 +8454,13 @@
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -8153,13 +8488,13 @@
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -8187,13 +8522,13 @@
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -8221,13 +8556,13 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -8255,13 +8590,13 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -8289,13 +8624,13 @@
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -8323,13 +8658,13 @@
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -8357,13 +8692,13 @@
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -8391,13 +8726,13 @@
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -8425,13 +8760,13 @@
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -8459,13 +8794,13 @@
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -8493,13 +8828,13 @@
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -8527,13 +8862,13 @@
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -8561,13 +8896,13 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -8595,13 +8930,13 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -8629,13 +8964,13 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -8663,13 +8998,13 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -8697,13 +9032,13 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8731,13 +9066,13 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -8765,13 +9100,13 @@
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8799,13 +9134,13 @@
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -8833,13 +9168,13 @@
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -8867,13 +9202,13 @@
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -8901,13 +9236,13 @@
     </row>
     <row r="222" spans="1:26" ht="13.5" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>190</v>
+        <v>322</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>190</v>
+        <v>322</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -8935,13 +9270,13 @@
     </row>
     <row r="223" spans="1:26" ht="13.5" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -8969,13 +9304,13 @@
     </row>
     <row r="224" spans="1:26" ht="13.5" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -9003,13 +9338,13 @@
     </row>
     <row r="225" spans="1:26" ht="13.5" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>336</v>
+        <v>189</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>336</v>
+        <v>189</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -9037,13 +9372,13 @@
     </row>
     <row r="226" spans="1:26" ht="13.5" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -9071,13 +9406,13 @@
     </row>
     <row r="227" spans="1:26" ht="13.5" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -9105,13 +9440,13 @@
     </row>
     <row r="228" spans="1:26" ht="13.5" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -9139,13 +9474,13 @@
     </row>
     <row r="229" spans="1:26" ht="13.5" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -9172,9 +9507,15 @@
       <c r="Z229" s="2"/>
     </row>
     <row r="230" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -9200,9 +9541,15 @@
       <c r="Z230" s="2"/>
     </row>
     <row r="231" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
+      <c r="A231" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -9228,9 +9575,15 @@
       <c r="Z231" s="2"/>
     </row>
     <row r="232" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="A232" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -30760,22 +31113,6 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B40" r:id="rId5"/>
-    <hyperlink ref="C40" r:id="rId6"/>
-    <hyperlink ref="B77" r:id="rId7"/>
-    <hyperlink ref="C77" r:id="rId8"/>
-    <hyperlink ref="B158" r:id="rId9"/>
-    <hyperlink ref="C158" r:id="rId10"/>
-    <hyperlink ref="B164" r:id="rId11" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
-    <hyperlink ref="C164" r:id="rId12" location="info;tim@mmh-demo.com;Manage@123;MMHtest.jpg"/>
-    <hyperlink ref="B171" r:id="rId13"/>
-    <hyperlink ref="C171" r:id="rId14"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -30785,7 +31122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -30831,7 +31170,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -30860,10 +31199,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -30892,10 +31231,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -30924,10 +31263,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -30956,10 +31295,10 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -30988,10 +31327,10 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -31020,10 +31359,10 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -31080,10 +31419,10 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -31112,10 +31451,10 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -31144,7 +31483,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B12" s="22">
         <v>784512369</v>
@@ -31176,10 +31515,10 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -31208,10 +31547,10 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -31268,10 +31607,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -31300,10 +31639,10 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -31332,10 +31671,10 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>346</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>342</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -31364,10 +31703,10 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -31424,10 +31763,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -31456,10 +31795,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -31488,10 +31827,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>510</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -31520,10 +31859,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -31551,8 +31890,12 @@
       <c r="Z24" s="19"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>396</v>
+      </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -31579,12 +31922,8 @@
       <c r="Z25" s="19"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>341</v>
-      </c>
+      <c r="A26" s="20"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -31612,10 +31951,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -31644,10 +31983,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -31676,10 +32015,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>35</v>
+        <v>340</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -31708,10 +32047,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>16</v>
+        <v>347</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>348</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -31739,8 +32078,12 @@
       <c r="Z30" s="19"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>396</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -31767,12 +32110,8 @@
       <c r="Z31" s="19"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>341</v>
-      </c>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -31800,10 +32139,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>342</v>
+        <v>349</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>506</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -31832,10 +32171,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B34" s="22">
-        <v>784512369</v>
+        <v>350</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -31864,10 +32203,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -31895,11 +32234,11 @@
       <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -31956,10 +32295,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -31988,10 +32327,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>355</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -32020,10 +32359,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -32052,10 +32391,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>15</v>
+        <v>356</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>16</v>
+        <v>357</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -32112,10 +32451,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -32147,7 +32486,7 @@
         <v>359</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -32176,10 +32515,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>16</v>
+        <v>340</v>
+      </c>
+      <c r="B45" s="19">
+        <v>784512369</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -32208,10 +32547,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -32239,8 +32578,12 @@
       <c r="Z46" s="19"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -32267,12 +32610,8 @@
       <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>358</v>
-      </c>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -32300,10 +32639,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -32332,10 +32671,10 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B50" s="22">
-        <v>784512369</v>
+        <v>363</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -32364,10 +32703,10 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -32396,10 +32735,10 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
@@ -32456,10 +32795,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -32491,7 +32830,7 @@
         <v>368</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -32520,10 +32859,10 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -32552,10 +32891,10 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -32583,8 +32922,12 @@
       <c r="Z57" s="19"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>374</v>
+      </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
@@ -32612,10 +32955,10 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -32644,10 +32987,10 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="19" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -32676,10 +33019,10 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -32708,10 +33051,10 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -32740,10 +33083,10 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -32772,10 +33115,10 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -32804,10 +33147,10 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -32836,10 +33179,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -32868,10 +33211,10 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -32899,12 +33242,8 @@
       <c r="Z67" s="19"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>390</v>
-      </c>
+      <c r="A68" s="19"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -32932,10 +33271,10 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -32964,10 +33303,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -32996,10 +33335,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="19" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -33028,10 +33367,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="19" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
@@ -33087,8 +33426,12 @@
       <c r="Z73" s="19"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>409</v>
+      </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
@@ -33115,8 +33458,12 @@
       <c r="Z74" s="19"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
+      <c r="A75" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
@@ -33143,8 +33490,12 @@
       <c r="Z75" s="19"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
@@ -33171,8 +33522,12 @@
       <c r="Z76" s="19"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
+      <c r="A77" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>413</v>
+      </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -33227,8 +33582,12 @@
       <c r="Z78" s="19"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
+      <c r="A79" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>415</v>
+      </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -33255,8 +33614,12 @@
       <c r="Z79" s="19"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
+      <c r="A80" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -33283,8 +33646,12 @@
       <c r="Z80" s="19"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>417</v>
+      </c>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
@@ -33311,8 +33678,12 @@
       <c r="Z81" s="19"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
+      <c r="A82" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>419</v>
+      </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
@@ -33339,8 +33710,12 @@
       <c r="Z82" s="19"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
+      <c r="A83" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>421</v>
+      </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
@@ -33395,8 +33770,12 @@
       <c r="Z84" s="19"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
+      <c r="A85" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>423</v>
+      </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
@@ -33423,8 +33802,12 @@
       <c r="Z85" s="19"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
+      <c r="A86" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -33451,8 +33834,12 @@
       <c r="Z86" s="19"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>427</v>
+      </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -33479,8 +33866,12 @@
       <c r="Z87" s="19"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
+      <c r="A88" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
@@ -33507,8 +33898,12 @@
       <c r="Z88" s="19"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
+      <c r="A89" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>429</v>
+      </c>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -33535,8 +33930,12 @@
       <c r="Z89" s="19"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>431</v>
+      </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -33563,8 +33962,12 @@
       <c r="Z90" s="19"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>433</v>
+      </c>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
@@ -33591,8 +33994,12 @@
       <c r="Z91" s="19"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>435</v>
+      </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
@@ -33619,8 +34026,12 @@
       <c r="Z92" s="19"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
+      <c r="A93" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>437</v>
+      </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
@@ -33675,8 +34086,12 @@
       <c r="Z94" s="19"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A95" s="19"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>439</v>
+      </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -33703,8 +34118,12 @@
       <c r="Z95" s="19"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
+      <c r="A96" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>439</v>
+      </c>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
@@ -33731,8 +34150,12 @@
       <c r="Z96" s="19"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19"/>
+      <c r="A97" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>423</v>
+      </c>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
@@ -33759,8 +34182,12 @@
       <c r="Z97" s="19"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>443</v>
+      </c>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
@@ -33787,8 +34214,12 @@
       <c r="Z98" s="19"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
@@ -33815,8 +34246,12 @@
       <c r="Z99" s="19"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
+      <c r="A100" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
@@ -33843,8 +34278,12 @@
       <c r="Z100" s="19"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
+      <c r="A101" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>446</v>
+      </c>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
@@ -33871,8 +34310,12 @@
       <c r="Z101" s="19"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
+      <c r="A102" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>448</v>
+      </c>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
@@ -33927,8 +34370,12 @@
       <c r="Z103" s="19"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
+      <c r="A104" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>437</v>
+      </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
@@ -33983,8 +34430,12 @@
       <c r="Z105" s="19"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
+      <c r="A106" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>415</v>
+      </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
@@ -34011,8 +34462,12 @@
       <c r="Z106" s="19"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
+      <c r="A107" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>452</v>
+      </c>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
@@ -34039,8 +34494,12 @@
       <c r="Z107" s="19"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A108" s="19"/>
-      <c r="B108" s="19"/>
+      <c r="A108" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
@@ -34067,8 +34526,12 @@
       <c r="Z108" s="19"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19"/>
+      <c r="A109" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>454</v>
+      </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
@@ -34095,8 +34558,12 @@
       <c r="Z109" s="19"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>421</v>
+      </c>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
@@ -34179,8 +34646,12 @@
       <c r="Z112" s="19"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
+      <c r="A113" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>401</v>
+      </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
@@ -34207,8 +34678,12 @@
       <c r="Z113" s="19"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
+      <c r="A114" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>458</v>
+      </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
@@ -34235,8 +34710,12 @@
       <c r="Z114" s="19"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A115" s="19"/>
-      <c r="B115" s="19"/>
+      <c r="A115" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
@@ -34263,8 +34742,12 @@
       <c r="Z115" s="19"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A116" s="19"/>
-      <c r="B116" s="19"/>
+      <c r="A116" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>460</v>
+      </c>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
@@ -34319,8 +34802,12 @@
       <c r="Z117" s="19"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
+      <c r="A118" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>409</v>
+      </c>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
@@ -34347,8 +34834,12 @@
       <c r="Z118" s="19"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19"/>
+      <c r="A119" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>463</v>
+      </c>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
@@ -34375,8 +34866,12 @@
       <c r="Z119" s="19"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A120" s="19"/>
-      <c r="B120" s="19"/>
+      <c r="A120" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
@@ -34403,8 +34898,12 @@
       <c r="Z120" s="19"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
+      <c r="A121" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>465</v>
+      </c>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
@@ -34431,8 +34930,12 @@
       <c r="Z121" s="19"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
+      <c r="A122" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>467</v>
+      </c>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
@@ -34487,8 +34990,12 @@
       <c r="Z123" s="19"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
+      <c r="A124" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>504</v>
+      </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
@@ -34515,8 +35022,12 @@
       <c r="Z124" s="19"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A125" s="19"/>
-      <c r="B125" s="19"/>
+      <c r="A125" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>470</v>
+      </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
@@ -34543,8 +35054,12 @@
       <c r="Z125" s="19"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A126" s="19"/>
-      <c r="B126" s="19"/>
+      <c r="A126" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>505</v>
+      </c>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -34599,8 +35114,12 @@
       <c r="Z127" s="19"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
+      <c r="A128" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>227</v>
+      </c>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
@@ -34627,8 +35146,12 @@
       <c r="Z128" s="19"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A129" s="19"/>
-      <c r="B129" s="19"/>
+      <c r="A129" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
@@ -34655,8 +35178,12 @@
       <c r="Z129" s="19"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A130" s="19"/>
-      <c r="B130" s="19"/>
+      <c r="A130" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>475</v>
+      </c>
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
@@ -34683,8 +35210,12 @@
       <c r="Z130" s="19"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
+      <c r="A131" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>470</v>
+      </c>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
@@ -34711,8 +35242,12 @@
       <c r="Z131" s="19"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
+      <c r="A132" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>478</v>
+      </c>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
@@ -34767,8 +35302,12 @@
       <c r="Z133" s="19"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
+      <c r="A134" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>480</v>
+      </c>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
@@ -34795,8 +35334,12 @@
       <c r="Z134" s="19"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
+      <c r="A135" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>482</v>
+      </c>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
@@ -34823,8 +35366,12 @@
       <c r="Z135" s="19"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A136" s="19"/>
-      <c r="B136" s="19"/>
+      <c r="A136" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>484</v>
+      </c>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
@@ -34851,8 +35398,12 @@
       <c r="Z136" s="19"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
+      <c r="A137" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>475</v>
+      </c>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
@@ -34879,8 +35430,12 @@
       <c r="Z137" s="19"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
+      <c r="A138" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>487</v>
+      </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
@@ -34907,8 +35462,12 @@
       <c r="Z138" s="19"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A139" s="19"/>
-      <c r="B139" s="19"/>
+      <c r="A139" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>489</v>
+      </c>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
@@ -34963,8 +35522,12 @@
       <c r="Z140" s="19"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
+      <c r="A141" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>262</v>
+      </c>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
@@ -34991,8 +35554,12 @@
       <c r="Z141" s="19"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
+      <c r="A142" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
@@ -35019,8 +35586,12 @@
       <c r="Z142" s="19"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
+      <c r="A143" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>491</v>
+      </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
@@ -35075,8 +35646,12 @@
       <c r="Z144" s="19"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
+      <c r="A145" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>493</v>
+      </c>
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
@@ -59044,9 +59619,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B128" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INLOGIC\Review\MobileAPP_SgnOff\MobileApp_SignOff\config\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick-Codoid\Mobile_App_Code\MobileApp_SignOff\config\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="MMH" sheetId="1" r:id="rId1"/>
@@ -1504,9 +1504,6 @@
     <t>ANZ;WindcaveA2ATest;Windcave1234;Payment Success</t>
   </si>
   <si>
-    <t>Urgent/Same day - Fee: NZ$11.00 (Incl. GST);Next Day - Fee: NZ$12.00 (Incl. GST);48 Hours - Fee: NZ$13.00 (Incl. GST);72 Hours - Fee: NZ$14.00 (Incl. GST)</t>
-  </si>
-  <si>
     <t>MOBILE_RESPONSE_RECEIVED_MESSAGE</t>
   </si>
   <si>
@@ -1554,11 +1551,14 @@
   <si>
     <t>Approved;Dr Sam Entwistle;VM03Location;Follow-up</t>
   </si>
+  <si>
+    <t>Urgent/Same day - Fee: NZ$40.01 (Incl. GST);Next Day - Fee: NZ$40.04 (Incl. GST);48 Hours - Fee: NZ$40.07 (Incl. GST);72 Hours - Fee: NZ$50.10 (Incl. GST)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1997,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4301,10 +4301,10 @@
         <v>79</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -7956,13 +7956,13 @@
     </row>
     <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>496</v>
-      </c>
       <c r="C184" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -8024,13 +8024,13 @@
     </row>
     <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="C186" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -8120,13 +8120,13 @@
     </row>
     <row r="189" spans="1:26" ht="13.5" customHeight="1">
       <c r="A189" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B189" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B189" s="8" t="s">
-        <v>500</v>
-      </c>
       <c r="C189" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -31122,8 +31122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -31830,7 +31830,7 @@
         <v>343</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -31891,7 +31891,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>396</v>
@@ -32079,7 +32079,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>396</v>
@@ -32142,7 +32142,7 @@
         <v>349</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -32235,7 +32235,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>15</v>
@@ -32862,7 +32862,7 @@
         <v>370</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -34994,7 +34994,7 @@
         <v>468</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
@@ -35058,7 +35058,7 @@
         <v>471</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -1552,7 +1552,7 @@
     <t>Approved;Dr Sam Entwistle;VM03Location;Follow-up</t>
   </si>
   <si>
-    <t>Urgent/Same day - Fee: NZ$40.01 (Incl. GST);Next Day - Fee: NZ$40.04 (Incl. GST);48 Hours - Fee: NZ$40.07 (Incl. GST);72 Hours - Fee: NZ$50.10 (Incl. GST)</t>
+    <t>Urgent/Same day - Fee: NZ$10.00 (Incl. GST);Next Day - Fee: NZ$20.00 (Incl. GST);48 Hours - Fee: NZ$30.00 (Incl. GST);72 Hours - Fee: NZ$40.00 (Incl. GST)</t>
   </si>
 </sst>
 </file>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/config/testdata/testdata.xlsx
+++ b/config/testdata/testdata.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjTNPQIgH1fu8Aox66rsWlR1raURA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgyDUSv1981ZLFbux8uP7gz+xB2wg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="883">
   <si>
     <t>KEY</t>
   </si>
@@ -2285,7 +2285,7 @@
     <t>HEIGHT_CARD_SURVEY_MY_ENTRIES_DATA</t>
   </si>
   <si>
-    <t>6;TestBMI</t>
+    <t>5;TestBMI</t>
   </si>
   <si>
     <t>HDL_MY_ENTRIES_DATA</t>
@@ -2324,7 +2324,7 @@
     <t>WEIGHT_CARD_SURVEY_MY_ENTRIES_DATA</t>
   </si>
   <si>
-    <t>50;TestWeight</t>
+    <t>50;TestBMI</t>
   </si>
   <si>
     <t>EDIT_WEIGHT_CARD_MY_ENTRIES_DATA</t>
@@ -2658,6 +2658,15 @@
   </si>
   <si>
     <t>Weight;50;TestBMI</t>
+  </si>
+  <si>
+    <t>EMAIL FOR BEATING_THE_BLUES</t>
+  </si>
+  <si>
+    <t>tk1@mmh-demo.com</t>
+  </si>
+  <si>
+    <t>PASSWORD FOR BEATING_THE_BLUES</t>
   </si>
 </sst>
 </file>
@@ -2744,12 +2753,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF297BDE"/>
-      <name val="&quot;JetBrains Mono&quot;"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
@@ -2770,6 +2773,11 @@
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2812,7 +2820,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2872,16 +2880,16 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2896,14 +2904,20 @@
     <xf borderId="2" fillId="2" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25537,75 +25551,57 @@
       <c r="C39" s="22"/>
     </row>
     <row r="40">
-      <c r="A40" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41">
-      <c r="A41" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42">
-      <c r="A42" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43">
-      <c r="A43" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
-        <v>40</v>
+        <v>531</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>43</v>
+        <v>532</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
+      <c r="A46" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="22"/>
@@ -25614,89 +25610,89 @@
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>19</v>
+        <v>537</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>19</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="22" t="s">
-        <v>20</v>
+        <v>538</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>21</v>
+        <v>539</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>21</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51">
       <c r="A51" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>41</v>
+        <v>540</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>226</v>
-      </c>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55">
       <c r="A55" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>533</v>
+        <v>546</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57">
@@ -25706,180 +25702,186 @@
     </row>
     <row r="58">
       <c r="A58" s="22" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>539</v>
-      </c>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
-      <c r="C60" s="24"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61">
       <c r="A61" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>541</v>
+        <v>552</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="22" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>543</v>
+        <v>9</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>543</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>545</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>545</v>
-      </c>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>547</v>
-      </c>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="66">
       <c r="A66" s="22" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>549</v>
+        <v>48</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>549</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
+      <c r="A67" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>551</v>
-      </c>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
+      <c r="A69" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="22" t="s">
-        <v>552</v>
+      <c r="A71" s="27" t="s">
+        <v>560</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>48</v>
+        <v>561</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>48</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="22" t="s">
-        <v>553</v>
+      <c r="A72" s="27" t="s">
+        <v>562</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>9</v>
+        <v>563</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>9</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
+      <c r="A73" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>555</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>555</v>
-      </c>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="22" t="s">
-        <v>556</v>
+      <c r="A76" s="27" t="s">
+        <v>568</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>48</v>
+        <v>569</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>48</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="22" t="s">
-        <v>557</v>
+      <c r="A77" s="27" t="s">
+        <v>570</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>9</v>
+        <v>571</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>9</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78">
@@ -25888,184 +25890,172 @@
       <c r="C78" s="22"/>
     </row>
     <row r="79">
-      <c r="A79" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>9</v>
-      </c>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
     </row>
     <row r="80">
-      <c r="A80" s="22" t="s">
-        <v>559</v>
+      <c r="A80" s="27" t="s">
+        <v>572</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>48</v>
+        <v>573</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>48</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="27" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="27" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="27" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
+      <c r="A84" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="27" t="s">
-        <v>566</v>
+      <c r="A85" s="22" t="s">
+        <v>582</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="27" t="s">
-        <v>568</v>
+      <c r="A86" s="22" t="s">
+        <v>584</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>571</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>571</v>
-      </c>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="88">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
+      <c r="A88" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
+      <c r="A89" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="27" t="s">
-        <v>572</v>
+      <c r="A90" s="22" t="s">
+        <v>590</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>575</v>
-      </c>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
     </row>
     <row r="92">
-      <c r="A92" s="27" t="s">
-        <v>576</v>
+      <c r="A92" s="22" t="s">
+        <v>592</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="27" t="s">
-        <v>578</v>
+      <c r="A93" s="22" t="s">
+        <v>594</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="22" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>583</v>
-      </c>
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
     </row>
     <row r="96">
-      <c r="A96" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>585</v>
-      </c>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97">
       <c r="A97" s="22"/>
@@ -26073,159 +26063,151 @@
       <c r="C97" s="22"/>
     </row>
     <row r="98">
-      <c r="A98" s="22" t="s">
-        <v>586</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>587</v>
-      </c>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99">
-      <c r="A99" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>589</v>
-      </c>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="100">
-      <c r="A100" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>591</v>
-      </c>
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
     </row>
     <row r="101">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
+      <c r="A101" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>593</v>
-      </c>
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
     </row>
     <row r="103">
-      <c r="A103" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>595</v>
-      </c>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
     </row>
     <row r="104">
-      <c r="A104" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>597</v>
+      <c r="A104" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
+      <c r="A105" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
+      <c r="A106" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
     </row>
     <row r="108">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
     </row>
     <row r="109">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="A109" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
+      <c r="A110" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>599</v>
-      </c>
+      <c r="A111" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
     </row>
     <row r="112">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
     </row>
     <row r="113">
-      <c r="A113" s="22"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
     </row>
     <row r="114">
       <c r="A114" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>55</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
     </row>
     <row r="117">
       <c r="A117" s="23"/>
@@ -26239,110 +26221,82 @@
     </row>
     <row r="119">
       <c r="A119" s="23" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="23" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
     </row>
     <row r="122">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
     </row>
     <row r="123">
-      <c r="A123" s="23"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
+      <c r="A123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
     </row>
     <row r="124">
-      <c r="A124" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
     </row>
     <row r="125">
-      <c r="A125" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>64</v>
-      </c>
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
     </row>
     <row r="126">
-      <c r="A126" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
     </row>
     <row r="127">
-      <c r="A127" s="23"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
     </row>
     <row r="128">
-      <c r="A128" s="23"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
     </row>
     <row r="129">
-      <c r="A129" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
     </row>
     <row r="130">
-      <c r="A130" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
     </row>
     <row r="131">
-      <c r="A131" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="132">
       <c r="A132" s="22"/>
@@ -26370,229 +26324,283 @@
       <c r="C136" s="22"/>
     </row>
     <row r="137">
-      <c r="A137" s="22"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
+      <c r="A137" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="22"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
+      <c r="A138" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="22"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="A139" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="22"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
+      <c r="A140" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
+      <c r="A141" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
+      <c r="A142" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="22"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="22"/>
+      <c r="A143" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="22"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
+      <c r="A144" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="22"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
+      <c r="A145" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="22"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
+      <c r="A146" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" s="29" t="s">
-        <v>600</v>
-      </c>
-      <c r="C147" s="29" t="s">
-        <v>600</v>
+        <v>209</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B148" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C148" s="30" t="s">
-        <v>48</v>
+        <v>195</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="28" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B150" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="C150" s="28" t="s">
-        <v>601</v>
+        <v>163</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>86</v>
+        <v>165</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>92</v>
+        <v>282</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="B153" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>277</v>
-      </c>
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B155" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>211</v>
+        <v>602</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B156" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>208</v>
+        <v>332</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B157" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>210</v>
+        <v>605</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="28" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>285</v>
+        <v>133</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B160" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C160" s="22" t="s">
-        <v>164</v>
+        <v>286</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B161" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C161" s="31" t="s">
-        <v>166</v>
+        <v>201</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>283</v>
+        <v>203</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="163">
@@ -26602,787 +26610,793 @@
     </row>
     <row r="164">
       <c r="A164" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B164" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>329</v>
+        <v>606</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="B165" s="31" t="s">
-        <v>603</v>
-      </c>
-      <c r="C165" s="31" t="s">
-        <v>603</v>
+        <v>608</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="B166" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="C166" s="22" t="s">
-        <v>604</v>
+        <v>139</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>335</v>
+        <v>143</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="28" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B169" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C169" s="31" t="s">
-        <v>134</v>
+        <v>610</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="28" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="28" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="28" t="s">
-        <v>203</v>
+        <v>612</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>204</v>
+        <v>613</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>204</v>
+        <v>613</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="22"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
+      <c r="A173" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="28" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="B175" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="C175" s="22" t="s">
-        <v>609</v>
+        <v>219</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="28" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B177" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C177" s="31" t="s">
-        <v>144</v>
-      </c>
+      <c r="A177" s="22"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
     </row>
     <row r="178">
       <c r="A178" s="28" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="28" t="s">
-        <v>610</v>
+        <v>213</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>611</v>
+        <v>214</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>611</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="B180" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C180" s="28" t="s">
-        <v>192</v>
+        <v>616</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="28" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="28" t="s">
-        <v>612</v>
+        <v>175</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>613</v>
+        <v>192</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>613</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="B183" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="C183" s="28" t="s">
-        <v>340</v>
+        <v>618</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="28" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B185" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C185" s="28" t="s">
-        <v>220</v>
+        <v>115</v>
+      </c>
+      <c r="B185" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185" s="32" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B186" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C186" s="28" t="s">
-        <v>222</v>
+      <c r="A186" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B186" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="22"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
+      <c r="A187" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B187" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B188" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C188" s="28" t="s">
-        <v>224</v>
+      <c r="A188" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B188" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C188" s="34" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="28" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="B190" s="31" t="s">
-        <v>617</v>
-      </c>
-      <c r="C190" s="31" t="s">
-        <v>617</v>
+        <v>97</v>
+      </c>
+      <c r="B190" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B191" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C191" s="28" t="s">
-        <v>200</v>
+        <v>107</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B192" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C192" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="28" t="s">
-        <v>618</v>
+        <v>159</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>619</v>
+        <v>192</v>
       </c>
       <c r="C193" s="31" t="s">
-        <v>619</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="28" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C194" s="31" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B195" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C195" s="32" t="s">
-        <v>116</v>
+        <v>197</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B196" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C196" s="33" t="s">
-        <v>122</v>
+      <c r="A196" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C196" s="31" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B197" s="32" t="s">
-        <v>622</v>
-      </c>
-      <c r="C197" s="32" t="s">
-        <v>622</v>
+      <c r="A197" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B197" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B198" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C198" s="34" t="s">
-        <v>154</v>
+      <c r="A198" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C198" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B199" s="28" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="28" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="B200" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C200" s="28" t="s">
-        <v>98</v>
+        <v>182</v>
+      </c>
+      <c r="C200" s="33" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B201" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C201" s="31" t="s">
-        <v>108</v>
+        <v>225</v>
+      </c>
+      <c r="B201" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C201" s="33" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B202" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C202" s="31" t="s">
-        <v>194</v>
+      <c r="A202" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B202" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B203" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C203" s="31" t="s">
-        <v>192</v>
+      <c r="A203" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="B203" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="C203" s="33" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="B204" s="31" t="s">
-        <v>624</v>
-      </c>
-      <c r="C204" s="31" t="s">
-        <v>624</v>
+        <v>36</v>
+      </c>
+      <c r="B204" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B205" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C205" s="31" t="s">
-        <v>198</v>
+        <v>630</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="28" t="s">
-        <v>625</v>
-      </c>
-      <c r="B206" s="31" t="s">
-        <v>626</v>
-      </c>
-      <c r="C206" s="31" t="s">
-        <v>626</v>
+        <v>632</v>
+      </c>
+      <c r="B206" s="35" t="s">
+        <v>633</v>
+      </c>
+      <c r="C206" s="35" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="28" t="s">
-        <v>183</v>
+        <v>634</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>184</v>
+        <v>635</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>184</v>
+        <v>635</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B208" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C208" s="31" t="s">
-        <v>186</v>
+        <v>636</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B209" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C209" s="28" t="s">
-        <v>180</v>
+        <v>638</v>
+      </c>
+      <c r="B209" s="36">
+        <v>120.0</v>
+      </c>
+      <c r="C209" s="36">
+        <v>120.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B210" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C210" s="33" t="s">
-        <v>182</v>
+        <v>639</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B211" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="C211" s="33" t="s">
-        <v>226</v>
+        <v>641</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B212" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C212" s="33" t="s">
-        <v>9</v>
+      <c r="A212" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="B212" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="B213" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="C213" s="33" t="s">
-        <v>628</v>
+      <c r="A213" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="B213" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B214" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="C214" s="28" t="s">
-        <v>629</v>
+        <v>647</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="28" t="s">
-        <v>630</v>
+      <c r="A215" s="22" t="s">
+        <v>648</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="B216" s="35" t="s">
-        <v>633</v>
-      </c>
-      <c r="C216" s="35" t="s">
-        <v>633</v>
+      <c r="A216" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="B216" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="C216" s="36">
+        <v>6.0</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="B217" s="28" t="s">
-        <v>635</v>
-      </c>
-      <c r="C217" s="28" t="s">
-        <v>635</v>
+      <c r="A217" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="B217" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="28" t="s">
-        <v>636</v>
+      <c r="A218" s="22" t="s">
+        <v>653</v>
       </c>
       <c r="B218" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="B219" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="B220" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="C218" s="22" t="s">
+      <c r="C220" s="22" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="28" t="s">
-        <v>638</v>
-      </c>
-      <c r="B219" s="36">
-        <v>120.0</v>
-      </c>
-      <c r="C219" s="36">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="28" t="s">
-        <v>639</v>
-      </c>
-      <c r="B220" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="C220" s="22" t="s">
-        <v>640</v>
-      </c>
-    </row>
     <row r="221">
-      <c r="A221" s="28" t="s">
-        <v>641</v>
+      <c r="A221" s="22" t="s">
+        <v>658</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="28" t="s">
-        <v>643</v>
-      </c>
-      <c r="B222" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>644</v>
+      <c r="A222" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="B222" s="37">
+        <v>13.0</v>
+      </c>
+      <c r="C222" s="37">
+        <v>13.0</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="28" t="s">
-        <v>645</v>
+      <c r="A223" s="22" t="s">
+        <v>661</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="28" t="s">
-        <v>647</v>
+      <c r="A224" s="22" t="s">
+        <v>663</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="22" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="B226" s="36">
-        <v>6.0</v>
-      </c>
-      <c r="C226" s="36">
-        <v>6.0</v>
+        <v>667</v>
+      </c>
+      <c r="B226" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="22" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="B228" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>654</v>
+        <v>670</v>
+      </c>
+      <c r="B228" s="36">
+        <v>12.0</v>
+      </c>
+      <c r="C228" s="36">
+        <v>12.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="22" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="22" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="B230" s="22" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="22" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="B232" s="37">
-        <v>13.0</v>
-      </c>
-      <c r="C232" s="37">
-        <v>13.0</v>
+        <v>676</v>
+      </c>
+      <c r="B232" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="C232" s="22" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="B233" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="C233" s="22" t="s">
-        <v>662</v>
+        <v>678</v>
+      </c>
+      <c r="B233" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="C233" s="36">
+        <v>2.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="22" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="B234" s="22" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="22" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="B235" s="22" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="22" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="B236" s="22" t="s">
         <v>637</v>
@@ -27393,51 +27407,51 @@
     </row>
     <row r="237">
       <c r="A237" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="B237" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="C237" s="22" t="s">
-        <v>669</v>
+        <v>684</v>
+      </c>
+      <c r="B237" s="36">
+        <v>7.0</v>
+      </c>
+      <c r="C237" s="36">
+        <v>7.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="22" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="B238" s="36">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C238" s="36">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="22" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="B239" s="22" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="22" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="22" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="B241" s="22" t="s">
         <v>637</v>
@@ -27448,51 +27462,51 @@
     </row>
     <row r="242">
       <c r="A242" s="22" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="C242" s="22" t="s">
-        <v>677</v>
+        <v>692</v>
+      </c>
+      <c r="C242" s="35" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="22" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="B243" s="36">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C243" s="36">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="22" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="B244" s="22" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="22" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="B245" s="22" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="22" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="B246" s="22" t="s">
         <v>637</v>
@@ -27503,51 +27517,51 @@
     </row>
     <row r="247">
       <c r="A247" s="22" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="B247" s="36">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C247" s="36">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="22" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="B248" s="36">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C248" s="36">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="22" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="22" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="22" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="B251" s="22" t="s">
         <v>637</v>
@@ -27558,51 +27572,51 @@
     </row>
     <row r="252">
       <c r="A252" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="B252" s="22" t="s">
-        <v>692</v>
-      </c>
-      <c r="C252" s="35" t="s">
-        <v>692</v>
+        <v>705</v>
+      </c>
+      <c r="B252" s="36">
+        <v>12.0</v>
+      </c>
+      <c r="C252" s="36">
+        <v>12.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="22" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="B253" s="36">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="C253" s="36">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="22" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="22" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="22" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="B256" s="22" t="s">
         <v>637</v>
@@ -27613,51 +27627,51 @@
     </row>
     <row r="257">
       <c r="A257" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="B257" s="36">
-        <v>9.0</v>
-      </c>
-      <c r="C257" s="36">
-        <v>9.0</v>
+        <v>712</v>
+      </c>
+      <c r="B257" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="22" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="B258" s="36">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C258" s="36">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="22" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="22" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="22" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="B261" s="22" t="s">
         <v>637</v>
@@ -27668,51 +27682,51 @@
     </row>
     <row r="262">
       <c r="A262" s="22" t="s">
-        <v>705</v>
-      </c>
-      <c r="B262" s="36">
-        <v>12.0</v>
-      </c>
-      <c r="C262" s="36">
-        <v>12.0</v>
+        <v>719</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="22" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="B263" s="36">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="C263" s="36">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="22" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="C264" s="22" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="22" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="22" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="B266" s="22" t="s">
         <v>637</v>
@@ -27723,51 +27737,5